--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/Candidatos Constituyentes 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\Candidatos Constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A3E10E-F140-F249-99C2-68325967A3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F20E96-260C-419B-93EA-1723D6C271C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{012AD275-5E2A-AA4B-9045-CCB903FF6FFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{012AD275-5E2A-AA4B-9045-CCB903FF6FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,363 @@
   </si>
   <si>
     <t>Ignacia Gómez</t>
+  </si>
+  <si>
+    <t>Cristóbal Bellolio</t>
+  </si>
+  <si>
+    <t>Rodrigo Rettig</t>
+  </si>
+  <si>
+    <t>Agustín Squella</t>
+  </si>
+  <si>
+    <t>Jaime Bassa</t>
+  </si>
+  <si>
+    <t>Mariana Aylwin</t>
+  </si>
+  <si>
+    <t>Frente Amplio</t>
+  </si>
+  <si>
+    <t>Rosa Vilches</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NoNeutrales/status/1311763217346113540</t>
+  </si>
+  <si>
+    <t>Alejandra Sepúlveda</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>CIU</t>
+  </si>
+  <si>
+    <t>Cristián Cuevas</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TitoAed0/status/1313486749457408006</t>
+  </si>
+  <si>
+    <t>Patricio Fernández</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>https://twitter.com/VonKlugermann/status/1313495991044255747</t>
+  </si>
+  <si>
+    <t>Almendra Silva</t>
+  </si>
+  <si>
+    <t>UDI</t>
+  </si>
+  <si>
+    <t>https://www.chvnoticias.cl/nacional/plebiscito-2020-nombres-candidatos-convencion-constituyente_20200907/</t>
+  </si>
+  <si>
+    <t>Camilo Escalona</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Soledad Alvear</t>
+  </si>
+  <si>
+    <t>Nicolás Eyzaguirre</t>
+  </si>
+  <si>
+    <t>Paola Tapia</t>
+  </si>
+  <si>
+    <t>Sofía Prats</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/politica/eyzaguirre-constituyente-cartas-prepara-oposicion-batalla-constitucional</t>
+  </si>
+  <si>
+    <t>Laura Albornoz</t>
+  </si>
+  <si>
+    <t>Johnny Carrasco</t>
+  </si>
+  <si>
+    <t>Mario Waissbluth</t>
+  </si>
+  <si>
+    <t>https://twitter.com/EduardodeAguirr/status/1313537087682097152</t>
+  </si>
+  <si>
+    <t>Pablo Longueira</t>
+  </si>
+  <si>
+    <t>Marta Lagos</t>
+  </si>
+  <si>
+    <t>Marta Maurás</t>
+  </si>
+  <si>
+    <t>Jorge Insunza</t>
+  </si>
+  <si>
+    <t>Natalia Piergentili</t>
+  </si>
+  <si>
+    <t>Lorena Saldías</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Emilio Oñate</t>
+  </si>
+  <si>
+    <t>Alberto Robles</t>
+  </si>
+  <si>
+    <t>Aurora Williams</t>
+  </si>
+  <si>
+    <t>Isidro Solis</t>
+  </si>
+  <si>
+    <t>Jaime Campos</t>
+  </si>
+  <si>
+    <t>Juan Andrés Lagos</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Aníbal Pérez</t>
+  </si>
+  <si>
+    <t>FREVS</t>
+  </si>
+  <si>
+    <t>Lorena Pizarro</t>
+  </si>
+  <si>
+    <t>Lautaro Carmona</t>
+  </si>
+  <si>
+    <t>Nicolás Núñez</t>
+  </si>
+  <si>
+    <t>Camilo Lagos</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>Antonia Orrellana</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Fernando Atria</t>
+  </si>
+  <si>
+    <t>Giovanna Roa</t>
+  </si>
+  <si>
+    <t>Manuel Antonio Garretón</t>
+  </si>
+  <si>
+    <t>Carlos Ruiz</t>
+  </si>
+  <si>
+    <t>Clemira Pacheco</t>
+  </si>
+  <si>
+    <t>Paula Nerváez</t>
+  </si>
+  <si>
+    <t>Sergio Aguiló</t>
+  </si>
+  <si>
+    <t>Carmen Andrade</t>
+  </si>
+  <si>
+    <t>Denise Pascal</t>
+  </si>
+  <si>
+    <t>Ignacio Walker</t>
+  </si>
+  <si>
+    <t>Ricardo Hormazábal</t>
+  </si>
+  <si>
+    <t>Luciano Fouillioux</t>
+  </si>
+  <si>
+    <t>René Cortázar</t>
+  </si>
+  <si>
+    <t>Zarko Luksic</t>
+  </si>
+  <si>
+    <t>Andrés Jouannet</t>
+  </si>
+  <si>
+    <t>Gutemberg Martínez</t>
+  </si>
+  <si>
+    <t>Felipe Sandoval</t>
+  </si>
+  <si>
+    <t>Valentina Maltés</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Luis Mesina</t>
+  </si>
+  <si>
+    <t>Ana María Gazmuri</t>
+  </si>
+  <si>
+    <t>Claudia Dides</t>
+  </si>
+  <si>
+    <t>Javier Álvarez</t>
+  </si>
+  <si>
+    <t>La Segunda 29 de septiembre</t>
+  </si>
+  <si>
+    <t>José Francisco García</t>
+  </si>
+  <si>
+    <t>Ítalo Zunino</t>
+  </si>
+  <si>
+    <t>Pauline Kantor</t>
+  </si>
+  <si>
+    <t>Klaus Schmidt-Hebbel</t>
+  </si>
+  <si>
+    <t>Gloria Hutt</t>
+  </si>
+  <si>
+    <t>Gonzalo Blumel</t>
+  </si>
+  <si>
+    <t>Arturo Fermandois</t>
+  </si>
+  <si>
+    <t>Virginia Reginato</t>
+  </si>
+  <si>
+    <t>Arturo Squella</t>
+  </si>
+  <si>
+    <t>Felipe Ward</t>
+  </si>
+  <si>
+    <t>Felipe de Mussy</t>
+  </si>
+  <si>
+    <t>Jaime Bellolio</t>
+  </si>
+  <si>
+    <t>Claudia Nogueira</t>
+  </si>
+  <si>
+    <t>Constanza Hube</t>
+  </si>
+  <si>
+    <t>Graciela Ortúzar</t>
+  </si>
+  <si>
+    <t>Katherine Martorell</t>
+  </si>
+  <si>
+    <t>Baldo Prokurica</t>
+  </si>
+  <si>
+    <t>Gastón Gómez</t>
+  </si>
+  <si>
+    <t>Rodrigo Galilea</t>
+  </si>
+  <si>
+    <t>Juan José Ossa</t>
+  </si>
+  <si>
+    <t>Verónica Campinos</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Javier Molina</t>
+  </si>
+  <si>
+    <t>Luis Mayol</t>
+  </si>
+  <si>
+    <t>Karla Rubilar</t>
+  </si>
+  <si>
+    <t>Beatriz Hevia</t>
+  </si>
+  <si>
+    <t>José Carlos Meza</t>
+  </si>
+  <si>
+    <t>Jorge Barrera</t>
+  </si>
+  <si>
+    <t>Víctor Melinao</t>
+  </si>
+  <si>
+    <t>PREP</t>
+  </si>
+  <si>
+    <t>Juan José Santana Cruz</t>
+  </si>
+  <si>
+    <t>Jorge Errázuriz</t>
+  </si>
+  <si>
+    <t>Daniel Moya</t>
+  </si>
+  <si>
+    <t>Rodrigo Durán</t>
+  </si>
+  <si>
+    <t>Eugenio Evans</t>
+  </si>
+  <si>
+    <t>José Ferrada</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Mariela Silva</t>
+  </si>
+  <si>
+    <t>Juan José Arcos</t>
+  </si>
+  <si>
+    <t>Juan Ignacio Correa</t>
+  </si>
+  <si>
+    <t>Nelsón Bravo</t>
+  </si>
+  <si>
+    <t>La Segunda 4 de septiembre</t>
   </si>
 </sst>
 </file>
@@ -465,20 +822,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84912B-CED2-D743-82FF-7E1FB244FB43}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D34" sqref="D34:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +855,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>10</v>
       </c>
@@ -515,7 +875,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>10</v>
       </c>
@@ -532,7 +895,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>10</v>
       </c>
@@ -549,7 +915,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>10</v>
       </c>
@@ -566,7 +935,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>10</v>
       </c>
@@ -583,7 +955,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>11</v>
       </c>
@@ -594,41 +969,1513 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>121</v>
+      </c>
+      <c r="F89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+      <c r="F99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+      <c r="F100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>134</v>
+      </c>
+      <c r="F101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{731092AC-E133-FC46-8FE4-531F90AF1ED1}"/>
+  <autoFilter ref="A1:F1" xr:uid="{731092AC-E133-FC46-8FE4-531F90AF1ED1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F106">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\Candidatos Constituyentes 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/constituyentes 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F20E96-260C-419B-93EA-1723D6C271C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738CEBF1-5426-8547-8266-10E63D75F4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{012AD275-5E2A-AA4B-9045-CCB903FF6FFA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{012AD275-5E2A-AA4B-9045-CCB903FF6FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -462,6 +462,21 @@
   </si>
   <si>
     <t>La Segunda 4 de septiembre</t>
+  </si>
+  <si>
+    <t>https://twitter.com/mmlagoscc/status/1313553356816896001</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Mariana Loyola</t>
+  </si>
+  <si>
+    <t>Daniel Stingo</t>
+  </si>
+  <si>
+    <t>IND</t>
   </si>
 </sst>
 </file>
@@ -822,20 +837,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84912B-CED2-D743-82FF-7E1FB244FB43}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,75 +870,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -932,400 +944,457 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
       <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
       <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
       <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1333,13 +1402,19 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1347,1125 +1422,1213 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
       <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
       <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
       <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
       <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39">
+        <v>21</v>
+      </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40">
+        <v>27</v>
+      </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="F54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F57" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>121</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
-      </c>
-      <c r="D88" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D91" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
-      </c>
-      <c r="D93" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
-      </c>
-      <c r="D95" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
-      </c>
-      <c r="D96" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="F99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="F100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
-      </c>
-      <c r="E102" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="E104" t="s">
+        <v>136</v>
       </c>
       <c r="F104" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F105" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="C106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
         <v>140</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F108" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2475,6 +2638,10 @@
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F108">
+    <sortCondition ref="B2:B108"/>
+    <sortCondition ref="D2:D108"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815870F2-D645-4CA0-A817-3A6813C51B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3482F2-BEAB-4DE4-A33D-18312BFF2D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,9 +739,6 @@
     <t>Almendra Silva</t>
   </si>
   <si>
-    <t>Magallenes</t>
-  </si>
-  <si>
     <t>Luis Navarro Almonacid</t>
   </si>
   <si>
@@ -965,6 +962,9 @@
   </si>
   <si>
     <t>Nelsón Bravo</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
   </si>
 </sst>
 </file>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E262" sqref="E262"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201:B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6983,7 +6983,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="C201">
         <v>12</v>
@@ -6992,7 +6992,7 @@
         <v>28</v>
       </c>
       <c r="E201" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -7009,7 +7009,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="C202">
         <v>12</v>
@@ -7018,7 +7018,7 @@
         <v>28</v>
       </c>
       <c r="E202" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -7035,7 +7035,7 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F203" t="s">
         <v>17</v>
@@ -7052,7 +7052,7 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F204" t="s">
         <v>17</v>
@@ -7069,7 +7069,7 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F205" t="s">
         <v>17</v>
@@ -7086,7 +7086,7 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F206" t="s">
         <v>17</v>
@@ -7103,7 +7103,7 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F207" t="s">
         <v>17</v>
@@ -7120,7 +7120,7 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
@@ -7137,7 +7137,7 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -7154,13 +7154,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F210" t="s">
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H210" t="s">
         <v>19</v>
@@ -7171,13 +7171,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H211" t="s">
         <v>19</v>
@@ -7188,13 +7188,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F212" t="s">
         <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H212" t="s">
         <v>19</v>
@@ -7205,13 +7205,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H213" t="s">
         <v>19</v>
@@ -7222,13 +7222,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F214" t="s">
         <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H214" t="s">
         <v>19</v>
@@ -7239,7 +7239,7 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
@@ -7256,7 +7256,7 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
@@ -7273,7 +7273,7 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F217" t="s">
         <v>17</v>
@@ -7290,7 +7290,7 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F218" t="s">
         <v>17</v>
@@ -7307,7 +7307,7 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F219" t="s">
         <v>17</v>
@@ -7324,7 +7324,7 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F220" t="s">
         <v>17</v>
@@ -7341,7 +7341,7 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F221" t="s">
         <v>17</v>
@@ -7358,7 +7358,7 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F222" t="s">
         <v>17</v>
@@ -7375,7 +7375,7 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
@@ -7392,7 +7392,7 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F224" t="s">
         <v>17</v>
@@ -7409,7 +7409,7 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F225" t="s">
         <v>17</v>
@@ -7426,7 +7426,7 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F226" t="s">
         <v>17</v>
@@ -7443,7 +7443,7 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
@@ -7460,7 +7460,7 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
@@ -7477,7 +7477,7 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F229" t="s">
         <v>17</v>
@@ -7494,7 +7494,7 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F230" t="s">
         <v>21</v>
@@ -7511,7 +7511,7 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F231" t="s">
         <v>21</v>
@@ -7528,7 +7528,7 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F232" t="s">
         <v>21</v>
@@ -7545,7 +7545,7 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -7562,7 +7562,7 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -7579,7 +7579,7 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -7596,7 +7596,7 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -7613,7 +7613,7 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -7630,7 +7630,7 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
@@ -7647,7 +7647,7 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
@@ -7664,7 +7664,7 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
@@ -7681,7 +7681,7 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
@@ -7698,7 +7698,7 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
@@ -7715,7 +7715,7 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
@@ -7732,7 +7732,7 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -7749,7 +7749,7 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -7766,7 +7766,7 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -7783,7 +7783,7 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -7800,7 +7800,7 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -7817,7 +7817,7 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -7834,7 +7834,7 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -7851,7 +7851,7 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -7868,13 +7868,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F252" t="s">
         <v>90</v>
       </c>
       <c r="G252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H252" t="s">
         <v>32</v>
@@ -7885,13 +7885,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F253" t="s">
         <v>90</v>
       </c>
       <c r="G253" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H253" t="s">
         <v>32</v>
@@ -7902,7 +7902,7 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F254" t="s">
         <v>90</v>
@@ -7919,7 +7919,7 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F255" t="s">
         <v>90</v>
@@ -7936,13 +7936,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G256" t="s">
         <v>62</v>
       </c>
       <c r="H256" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -7950,13 +7950,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G257" t="s">
         <v>62</v>
       </c>
       <c r="H257" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -7964,10 +7964,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>300</v>
+      </c>
+      <c r="G258" t="s">
         <v>301</v>
-      </c>
-      <c r="G258" t="s">
-        <v>302</v>
       </c>
       <c r="H258" t="s">
         <v>32</v>
@@ -7978,7 +7978,7 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G259" t="s">
         <v>62</v>
@@ -7992,7 +7992,7 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H260" t="s">
         <v>32</v>
@@ -8003,7 +8003,7 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H261" t="s">
         <v>32</v>
@@ -8014,7 +8014,7 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H262" t="s">
         <v>32</v>
@@ -8025,7 +8025,7 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
@@ -8036,7 +8036,7 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H264" t="s">
         <v>19</v>
@@ -8047,7 +8047,7 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H265" t="s">
         <v>19</v>
@@ -8058,7 +8058,7 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
@@ -8069,7 +8069,7 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H267" t="s">
         <v>19</v>
@@ -8080,7 +8080,7 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
@@ -8091,7 +8091,7 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H269" t="s">
         <v>19</v>
@@ -8102,7 +8102,7 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H270" t="s">
         <v>19</v>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/constituyentes 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3482F2-BEAB-4DE4-A33D-18312BFF2D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF78DFB-F587-5342-91F9-52672136A78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidatos_constituyentes2021" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="316">
   <si>
     <t>id</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Paula Gutierrez Huenchileo</t>
   </si>
   <si>
-    <t>RM</t>
-  </si>
-  <si>
     <t>Ignacio Miranda Osorio</t>
   </si>
   <si>
@@ -965,6 +962,12 @@
   </si>
   <si>
     <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Metropolitana</t>
+  </si>
+  <si>
+    <t>s/i</t>
   </si>
 </sst>
 </file>
@@ -1808,13 +1811,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201:B202"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203:D270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2750,12 +2753,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C37">
         <v>5.5</v>
@@ -2764,7 +2767,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
@@ -2776,12 +2779,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -2790,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
@@ -2802,12 +2805,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C39">
         <v>5.5</v>
@@ -2816,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
@@ -2828,12 +2831,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C40">
         <v>5.5</v>
@@ -2842,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
@@ -2854,12 +2857,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C41">
         <v>5.5</v>
@@ -2868,7 +2871,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
         <v>21</v>
@@ -2880,12 +2883,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C42">
         <v>5.5</v>
@@ -2894,24 +2897,24 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
         <v>70</v>
       </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>71</v>
-      </c>
       <c r="H42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C43">
         <v>5.5</v>
@@ -2920,24 +2923,24 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
         <v>72</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>73</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C44">
         <v>5.5</v>
@@ -2946,24 +2949,24 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
         <v>74</v>
       </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C45">
         <v>5.5</v>
@@ -2972,7 +2975,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2984,12 +2987,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C46">
         <v>5.5</v>
@@ -2998,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3010,12 +3013,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -3024,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3036,12 +3039,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C48">
         <v>5.5</v>
@@ -3050,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3062,12 +3065,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C49">
         <v>5.5</v>
@@ -3076,24 +3079,24 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C50">
         <v>5.5</v>
@@ -3102,7 +3105,7 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -3114,12 +3117,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C51">
         <v>5.5</v>
@@ -3128,7 +3131,7 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
@@ -3140,12 +3143,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -3154,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
         <v>21</v>
@@ -3166,12 +3169,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C53">
         <v>5.5</v>
@@ -3180,7 +3183,7 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3192,12 +3195,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -3206,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -3218,12 +3221,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -3244,12 +3247,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -3258,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3270,12 +3273,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C57">
         <v>5.5</v>
@@ -3284,7 +3287,7 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -3296,12 +3299,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C58">
         <v>5.5</v>
@@ -3310,24 +3313,24 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s">
         <v>89</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>90</v>
-      </c>
-      <c r="G58" t="s">
-        <v>91</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C59">
         <v>5.5</v>
@@ -3336,24 +3339,24 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s">
         <v>93</v>
       </c>
-      <c r="H59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C60">
         <v>5.5</v>
@@ -3362,24 +3365,24 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" t="s">
         <v>93</v>
       </c>
-      <c r="H60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C61">
         <v>5.5</v>
@@ -3388,7 +3391,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F61" t="s">
         <v>21</v>
@@ -3400,12 +3403,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C62">
         <v>5.5</v>
@@ -3414,7 +3417,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
         <v>21</v>
@@ -3426,12 +3429,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C63">
         <v>5.5</v>
@@ -3440,7 +3443,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" t="s">
         <v>21</v>
@@ -3449,15 +3452,15 @@
         <v>58</v>
       </c>
       <c r="H63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C64">
         <v>5.5</v>
@@ -3466,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F64" t="s">
         <v>21</v>
@@ -3478,12 +3481,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C65">
         <v>5.5</v>
@@ -3492,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F65" t="s">
         <v>21</v>
@@ -3504,12 +3507,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3518,7 +3521,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F66" t="s">
         <v>21</v>
@@ -3530,12 +3533,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C67">
         <v>5.5</v>
@@ -3544,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
         <v>21</v>
@@ -3556,12 +3559,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3570,7 +3573,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
@@ -3582,12 +3585,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C69">
         <v>5.5</v>
@@ -3596,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F69" t="s">
         <v>21</v>
@@ -3608,12 +3611,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C70">
         <v>5.5</v>
@@ -3622,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
@@ -3634,12 +3637,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C71">
         <v>5.5</v>
@@ -3648,7 +3651,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
         <v>21</v>
@@ -3660,12 +3663,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3674,7 +3677,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
@@ -3686,12 +3689,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C73">
         <v>5.5</v>
@@ -3700,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F73" t="s">
         <v>21</v>
@@ -3712,12 +3715,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C74">
         <v>5.5</v>
@@ -3726,24 +3729,24 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C75">
         <v>5.5</v>
@@ -3752,24 +3755,24 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C76">
         <v>5.5</v>
@@ -3778,7 +3781,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -3790,12 +3793,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C77">
         <v>5.5</v>
@@ -3804,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -3816,12 +3819,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C78">
         <v>5.5</v>
@@ -3830,7 +3833,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -3839,15 +3842,15 @@
         <v>50</v>
       </c>
       <c r="H78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -3856,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -3868,12 +3871,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C80">
         <v>5.5</v>
@@ -3882,24 +3885,24 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
         <v>116</v>
       </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>117</v>
       </c>
-      <c r="H80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -3908,7 +3911,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -3920,12 +3923,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C82">
         <v>5.5</v>
@@ -3934,7 +3937,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -3946,12 +3949,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C83">
         <v>5.5</v>
@@ -3960,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -3972,12 +3975,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C84">
         <v>5.5</v>
@@ -3986,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -3998,12 +4001,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C85">
         <v>5.5</v>
@@ -4012,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4024,12 +4027,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4038,7 +4041,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4050,12 +4053,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C87">
         <v>5.5</v>
@@ -4064,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4076,12 +4079,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C88">
         <v>5.5</v>
@@ -4090,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4102,12 +4105,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C89">
         <v>5.5</v>
@@ -4116,7 +4119,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4128,12 +4131,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C90">
         <v>5.5</v>
@@ -4142,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -4154,12 +4157,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C91">
         <v>5.5</v>
@@ -4168,7 +4171,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4180,12 +4183,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C92">
         <v>5.5</v>
@@ -4194,7 +4197,7 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -4206,12 +4209,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C93">
         <v>5.5</v>
@@ -4220,7 +4223,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4232,12 +4235,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C94">
         <v>5.5</v>
@@ -4246,7 +4249,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4258,12 +4261,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C95">
         <v>5.5</v>
@@ -4272,7 +4275,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4284,12 +4287,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C96">
         <v>5.5</v>
@@ -4310,12 +4313,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C97">
         <v>5.5</v>
@@ -4324,7 +4327,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -4336,12 +4339,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C98">
         <v>5.5</v>
@@ -4350,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4362,12 +4365,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4376,7 +4379,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4388,12 +4391,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C100">
         <v>5.5</v>
@@ -4402,18 +4405,18 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C101">
         <v>5.5</v>
@@ -4422,24 +4425,24 @@
         <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C102">
         <v>5.5</v>
@@ -4448,7 +4451,7 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
@@ -4460,12 +4463,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4474,7 +4477,7 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F103" t="s">
         <v>21</v>
@@ -4486,12 +4489,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C104">
         <v>5.5</v>
@@ -4512,12 +4515,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -4526,7 +4529,7 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -4538,12 +4541,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -4552,7 +4555,7 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -4564,12 +4567,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -4578,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -4587,15 +4590,15 @@
         <v>50</v>
       </c>
       <c r="H107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -4604,7 +4607,7 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -4616,12 +4619,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -4630,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4642,12 +4645,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -4656,7 +4659,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4668,12 +4671,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C111">
         <v>5.5</v>
@@ -4682,7 +4685,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4694,12 +4697,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C112">
         <v>5.5</v>
@@ -4708,7 +4711,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4720,12 +4723,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C113">
         <v>5.5</v>
@@ -4746,12 +4749,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -4760,7 +4763,7 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -4772,12 +4775,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C115">
         <v>5.5</v>
@@ -4786,7 +4789,7 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -4798,12 +4801,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C116">
         <v>5.5</v>
@@ -4812,7 +4815,7 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4824,12 +4827,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C117">
         <v>5.5</v>
@@ -4838,18 +4841,18 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C118">
         <v>5.5</v>
@@ -4858,18 +4861,18 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C119">
         <v>5.5</v>
@@ -4878,18 +4881,18 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
+        <v>152</v>
+      </c>
+      <c r="H119" t="s">
         <v>153</v>
       </c>
-      <c r="H119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C120">
         <v>5.5</v>
@@ -4898,18 +4901,18 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
+        <v>154</v>
+      </c>
+      <c r="H120" t="s">
         <v>155</v>
       </c>
-      <c r="H120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C121">
         <v>5.5</v>
@@ -4918,7 +4921,7 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F121" t="s">
         <v>21</v>
@@ -4930,12 +4933,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C122">
         <v>5.5</v>
@@ -4944,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -4956,12 +4959,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C123">
         <v>5.5</v>
@@ -4970,7 +4973,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -4982,12 +4985,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C124">
         <v>5.5</v>
@@ -4996,7 +4999,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5008,12 +5011,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C125">
         <v>5.5</v>
@@ -5022,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5034,12 +5037,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C126">
         <v>5.5</v>
@@ -5048,7 +5051,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5060,12 +5063,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C127">
         <v>5.5</v>
@@ -5074,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5086,12 +5089,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C128">
         <v>5.5</v>
@@ -5100,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5112,12 +5115,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C129">
         <v>5.5</v>
@@ -5126,7 +5129,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5138,12 +5141,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C130">
         <v>5.5</v>
@@ -5152,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5164,12 +5167,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C131">
         <v>5.5</v>
@@ -5178,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5190,12 +5193,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C132">
         <v>5.5</v>
@@ -5204,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5216,12 +5219,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C133">
         <v>5.5</v>
@@ -5230,7 +5233,7 @@
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F133" t="s">
         <v>21</v>
@@ -5242,12 +5245,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C134">
         <v>5.5</v>
@@ -5256,7 +5259,7 @@
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -5268,12 +5271,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C135">
         <v>5.5</v>
@@ -5282,7 +5285,7 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5294,12 +5297,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C136">
         <v>5.5</v>
@@ -5308,7 +5311,7 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5320,12 +5323,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C137">
         <v>5.5</v>
@@ -5334,7 +5337,7 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5346,12 +5349,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C138">
         <v>5.5</v>
@@ -5360,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5372,12 +5375,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C139">
         <v>5.5</v>
@@ -5386,7 +5389,7 @@
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -5395,15 +5398,15 @@
         <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C140">
         <v>5.5</v>
@@ -5412,7 +5415,7 @@
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -5424,12 +5427,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C141">
         <v>5.5</v>
@@ -5438,7 +5441,7 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -5450,12 +5453,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C142">
         <v>5.5</v>
@@ -5464,7 +5467,7 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -5476,12 +5479,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C143">
         <v>5.5</v>
@@ -5490,7 +5493,7 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -5502,12 +5505,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C144">
         <v>5.5</v>
@@ -5516,7 +5519,7 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -5528,12 +5531,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C145">
         <v>5.5</v>
@@ -5542,7 +5545,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5554,12 +5557,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C146">
         <v>5.5</v>
@@ -5568,7 +5571,7 @@
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5580,12 +5583,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C147">
         <v>5.5</v>
@@ -5594,7 +5597,7 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -5606,12 +5609,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C148">
         <v>5.5</v>
@@ -5620,7 +5623,7 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -5632,12 +5635,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="C149">
         <v>5.5</v>
@@ -5646,7 +5649,7 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -5658,12 +5661,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C150">
         <v>6</v>
@@ -5672,7 +5675,7 @@
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F150" t="s">
         <v>21</v>
@@ -5684,12 +5687,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C151">
         <v>6</v>
@@ -5698,7 +5701,7 @@
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F151" t="s">
         <v>21</v>
@@ -5710,12 +5713,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C152">
         <v>6</v>
@@ -5724,7 +5727,7 @@
         <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
@@ -5736,12 +5739,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C153">
         <v>6</v>
@@ -5750,7 +5753,7 @@
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F153" t="s">
         <v>21</v>
@@ -5762,12 +5765,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C154">
         <v>6</v>
@@ -5776,7 +5779,7 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F154" t="s">
         <v>21</v>
@@ -5788,12 +5791,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C155">
         <v>6</v>
@@ -5802,7 +5805,7 @@
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F155" t="s">
         <v>21</v>
@@ -5814,12 +5817,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C156">
         <v>6</v>
@@ -5828,7 +5831,7 @@
         <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F156" t="s">
         <v>21</v>
@@ -5840,12 +5843,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C157">
         <v>6</v>
@@ -5854,7 +5857,7 @@
         <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -5866,12 +5869,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C158">
         <v>6</v>
@@ -5880,7 +5883,7 @@
         <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -5892,12 +5895,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C159">
         <v>6</v>
@@ -5906,18 +5909,18 @@
         <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H159" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C160">
         <v>7</v>
@@ -5926,7 +5929,7 @@
         <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F160" t="s">
         <v>21</v>
@@ -5938,12 +5941,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C161">
         <v>7</v>
@@ -5952,7 +5955,7 @@
         <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F161" t="s">
         <v>21</v>
@@ -5964,12 +5967,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C162">
         <v>7</v>
@@ -5978,7 +5981,7 @@
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -5990,12 +5993,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C163">
         <v>7</v>
@@ -6004,7 +6007,7 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -6016,12 +6019,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C164">
         <v>7</v>
@@ -6030,7 +6033,7 @@
         <v>18</v>
       </c>
       <c r="E164" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -6042,12 +6045,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -6056,7 +6059,7 @@
         <v>18</v>
       </c>
       <c r="E165" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6068,12 +6071,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C166">
         <v>7.5</v>
@@ -6082,7 +6085,7 @@
         <v>19</v>
       </c>
       <c r="E166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6094,12 +6097,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C167">
         <v>7.5</v>
@@ -6108,7 +6111,7 @@
         <v>19</v>
       </c>
       <c r="E167" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6120,12 +6123,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C168">
         <v>7.5</v>
@@ -6134,7 +6137,7 @@
         <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6146,12 +6149,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C169">
         <v>7.5</v>
@@ -6160,7 +6163,7 @@
         <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6172,12 +6175,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C170">
         <v>8</v>
@@ -6186,7 +6189,7 @@
         <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F170" t="s">
         <v>21</v>
@@ -6198,12 +6201,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C171">
         <v>8</v>
@@ -6212,7 +6215,7 @@
         <v>20</v>
       </c>
       <c r="E171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F171" t="s">
         <v>21</v>
@@ -6224,12 +6227,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C172">
         <v>8</v>
@@ -6238,7 +6241,7 @@
         <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F172" t="s">
         <v>21</v>
@@ -6250,12 +6253,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C173">
         <v>8</v>
@@ -6264,7 +6267,7 @@
         <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
@@ -6276,12 +6279,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C174">
         <v>8</v>
@@ -6290,7 +6293,7 @@
         <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F174" t="s">
         <v>21</v>
@@ -6302,12 +6305,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C175">
         <v>8</v>
@@ -6316,7 +6319,7 @@
         <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -6328,12 +6331,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C176">
         <v>8</v>
@@ -6342,7 +6345,7 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6354,12 +6357,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -6368,7 +6371,7 @@
         <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6380,12 +6383,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C178">
         <v>8</v>
@@ -6394,7 +6397,7 @@
         <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6406,12 +6409,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C179">
         <v>8</v>
@@ -6420,7 +6423,7 @@
         <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6432,12 +6435,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -6446,7 +6449,7 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -6458,12 +6461,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -6472,7 +6475,7 @@
         <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6484,12 +6487,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C182">
         <v>8</v>
@@ -6498,7 +6501,7 @@
         <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6510,12 +6513,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C183">
         <v>8</v>
@@ -6524,7 +6527,7 @@
         <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6536,12 +6539,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C184">
         <v>8</v>
@@ -6550,7 +6553,7 @@
         <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6559,15 +6562,15 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C185">
         <v>8</v>
@@ -6576,7 +6579,7 @@
         <v>21</v>
       </c>
       <c r="E185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6588,12 +6591,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C186">
         <v>9</v>
@@ -6602,7 +6605,7 @@
         <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6614,12 +6617,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C187">
         <v>9</v>
@@ -6628,7 +6631,7 @@
         <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6640,12 +6643,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C188">
         <v>9</v>
@@ -6654,7 +6657,7 @@
         <v>23</v>
       </c>
       <c r="E188" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6666,12 +6669,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C189">
         <v>9.5</v>
@@ -6680,7 +6683,7 @@
         <v>24</v>
       </c>
       <c r="E189" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F189" t="s">
         <v>21</v>
@@ -6692,12 +6695,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C190">
         <v>10</v>
@@ -6706,7 +6709,7 @@
         <v>25</v>
       </c>
       <c r="E190" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -6718,12 +6721,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C191">
         <v>10</v>
@@ -6732,7 +6735,7 @@
         <v>25</v>
       </c>
       <c r="E191" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6744,12 +6747,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C192">
         <v>10</v>
@@ -6758,7 +6761,7 @@
         <v>25</v>
       </c>
       <c r="E192" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6770,12 +6773,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C193">
         <v>10</v>
@@ -6784,7 +6787,7 @@
         <v>26</v>
       </c>
       <c r="E193" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6796,12 +6799,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C194">
         <v>10</v>
@@ -6810,7 +6813,7 @@
         <v>26</v>
       </c>
       <c r="E194" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6822,12 +6825,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C195">
         <v>10</v>
@@ -6836,7 +6839,7 @@
         <v>26</v>
       </c>
       <c r="E195" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -6848,12 +6851,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C196">
         <v>10</v>
@@ -6862,7 +6865,7 @@
         <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -6874,12 +6877,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C197">
         <v>10</v>
@@ -6888,7 +6891,7 @@
         <v>26</v>
       </c>
       <c r="E197" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -6900,12 +6903,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -6914,7 +6917,7 @@
         <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -6926,12 +6929,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C199">
         <v>10</v>
@@ -6940,7 +6943,7 @@
         <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6952,12 +6955,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C200">
         <v>11</v>
@@ -6966,7 +6969,7 @@
         <v>27</v>
       </c>
       <c r="E200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -6978,12 +6981,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C201">
         <v>12</v>
@@ -6992,7 +6995,7 @@
         <v>28</v>
       </c>
       <c r="E201" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -7004,12 +7007,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C202">
         <v>12</v>
@@ -7018,7 +7021,7 @@
         <v>28</v>
       </c>
       <c r="E202" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -7030,369 +7033,567 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
+      <c r="B203" t="s">
+        <v>315</v>
+      </c>
+      <c r="C203" t="s">
+        <v>315</v>
+      </c>
+      <c r="D203" t="s">
+        <v>315</v>
+      </c>
       <c r="E203" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F203" t="s">
         <v>17</v>
       </c>
       <c r="G203" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H203" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
+      <c r="B204" t="s">
+        <v>315</v>
+      </c>
+      <c r="C204" t="s">
+        <v>315</v>
+      </c>
+      <c r="D204" t="s">
+        <v>315</v>
+      </c>
       <c r="E204" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F204" t="s">
         <v>17</v>
       </c>
       <c r="G204" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H204" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
+      <c r="B205" t="s">
+        <v>315</v>
+      </c>
+      <c r="C205" t="s">
+        <v>315</v>
+      </c>
+      <c r="D205" t="s">
+        <v>315</v>
+      </c>
       <c r="E205" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F205" t="s">
         <v>17</v>
       </c>
       <c r="G205" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H205" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
+      <c r="B206" t="s">
+        <v>315</v>
+      </c>
+      <c r="C206" t="s">
+        <v>315</v>
+      </c>
+      <c r="D206" t="s">
+        <v>315</v>
+      </c>
       <c r="E206" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F206" t="s">
         <v>17</v>
       </c>
       <c r="G206" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H206" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
+      <c r="B207" t="s">
+        <v>315</v>
+      </c>
+      <c r="C207" t="s">
+        <v>315</v>
+      </c>
+      <c r="D207" t="s">
+        <v>315</v>
+      </c>
       <c r="E207" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F207" t="s">
         <v>17</v>
       </c>
       <c r="G207" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H207" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
+      <c r="B208" t="s">
+        <v>315</v>
+      </c>
+      <c r="C208" t="s">
+        <v>315</v>
+      </c>
+      <c r="D208" t="s">
+        <v>315</v>
+      </c>
       <c r="E208" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H208" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
+      <c r="B209" t="s">
+        <v>315</v>
+      </c>
+      <c r="C209" t="s">
+        <v>315</v>
+      </c>
+      <c r="D209" t="s">
+        <v>315</v>
+      </c>
       <c r="E209" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
       </c>
       <c r="G209" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H209" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
+      <c r="B210" t="s">
+        <v>315</v>
+      </c>
+      <c r="C210" t="s">
+        <v>315</v>
+      </c>
+      <c r="D210" t="s">
+        <v>315</v>
+      </c>
       <c r="E210" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F210" t="s">
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H210" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
+      <c r="B211" t="s">
+        <v>315</v>
+      </c>
+      <c r="C211" t="s">
+        <v>315</v>
+      </c>
+      <c r="D211" t="s">
+        <v>315</v>
+      </c>
       <c r="E211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H211" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
+      <c r="B212" t="s">
+        <v>315</v>
+      </c>
+      <c r="C212" t="s">
+        <v>315</v>
+      </c>
+      <c r="D212" t="s">
+        <v>315</v>
+      </c>
       <c r="E212" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F212" t="s">
         <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H212" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
+      <c r="B213" t="s">
+        <v>315</v>
+      </c>
+      <c r="C213" t="s">
+        <v>315</v>
+      </c>
+      <c r="D213" t="s">
+        <v>315</v>
+      </c>
       <c r="E213" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H213" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
+      <c r="B214" t="s">
+        <v>315</v>
+      </c>
+      <c r="C214" t="s">
+        <v>315</v>
+      </c>
+      <c r="D214" t="s">
+        <v>315</v>
+      </c>
       <c r="E214" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F214" t="s">
         <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H214" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
+      <c r="B215" t="s">
+        <v>315</v>
+      </c>
+      <c r="C215" t="s">
+        <v>315</v>
+      </c>
+      <c r="D215" t="s">
+        <v>315</v>
+      </c>
       <c r="E215" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H215" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
+      <c r="B216" t="s">
+        <v>315</v>
+      </c>
+      <c r="C216" t="s">
+        <v>315</v>
+      </c>
+      <c r="D216" t="s">
+        <v>315</v>
+      </c>
       <c r="E216" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
       </c>
       <c r="G216" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H216" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
+      <c r="B217" t="s">
+        <v>315</v>
+      </c>
+      <c r="C217" t="s">
+        <v>315</v>
+      </c>
+      <c r="D217" t="s">
+        <v>315</v>
+      </c>
       <c r="E217" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F217" t="s">
         <v>17</v>
       </c>
       <c r="G217" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H217" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
+      <c r="B218" t="s">
+        <v>315</v>
+      </c>
+      <c r="C218" t="s">
+        <v>315</v>
+      </c>
+      <c r="D218" t="s">
+        <v>315</v>
+      </c>
       <c r="E218" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F218" t="s">
         <v>17</v>
       </c>
       <c r="G218" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H218" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
+      <c r="B219" t="s">
+        <v>315</v>
+      </c>
+      <c r="C219" t="s">
+        <v>315</v>
+      </c>
+      <c r="D219" t="s">
+        <v>315</v>
+      </c>
       <c r="E219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F219" t="s">
         <v>17</v>
       </c>
       <c r="G219" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H219" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
+      <c r="B220" t="s">
+        <v>315</v>
+      </c>
+      <c r="C220" t="s">
+        <v>315</v>
+      </c>
+      <c r="D220" t="s">
+        <v>315</v>
+      </c>
       <c r="E220" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F220" t="s">
         <v>17</v>
       </c>
       <c r="G220" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H220" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
+      <c r="B221" t="s">
+        <v>315</v>
+      </c>
+      <c r="C221" t="s">
+        <v>315</v>
+      </c>
+      <c r="D221" t="s">
+        <v>315</v>
+      </c>
       <c r="E221" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F221" t="s">
         <v>17</v>
       </c>
       <c r="G221" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H221" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
+      <c r="B222" t="s">
+        <v>315</v>
+      </c>
+      <c r="C222" t="s">
+        <v>315</v>
+      </c>
+      <c r="D222" t="s">
+        <v>315</v>
+      </c>
       <c r="E222" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F222" t="s">
         <v>17</v>
       </c>
       <c r="G222" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H222" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
+      <c r="B223" t="s">
+        <v>315</v>
+      </c>
+      <c r="C223" t="s">
+        <v>315</v>
+      </c>
+      <c r="D223" t="s">
+        <v>315</v>
+      </c>
       <c r="E223" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
       </c>
       <c r="G223" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
+      <c r="B224" t="s">
+        <v>315</v>
+      </c>
+      <c r="C224" t="s">
+        <v>315</v>
+      </c>
+      <c r="D224" t="s">
+        <v>315</v>
+      </c>
       <c r="E224" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F224" t="s">
         <v>17</v>
@@ -7404,12 +7605,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
+      <c r="B225" t="s">
+        <v>315</v>
+      </c>
+      <c r="C225" t="s">
+        <v>315</v>
+      </c>
+      <c r="D225" t="s">
+        <v>315</v>
+      </c>
       <c r="E225" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F225" t="s">
         <v>17</v>
@@ -7421,12 +7631,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
+      <c r="B226" t="s">
+        <v>315</v>
+      </c>
+      <c r="C226" t="s">
+        <v>315</v>
+      </c>
+      <c r="D226" t="s">
+        <v>315</v>
+      </c>
       <c r="E226" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F226" t="s">
         <v>17</v>
@@ -7438,12 +7657,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
+      <c r="B227" t="s">
+        <v>315</v>
+      </c>
+      <c r="C227" t="s">
+        <v>315</v>
+      </c>
+      <c r="D227" t="s">
+        <v>315</v>
+      </c>
       <c r="E227" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
@@ -7455,12 +7683,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
+      <c r="B228" t="s">
+        <v>315</v>
+      </c>
+      <c r="C228" t="s">
+        <v>315</v>
+      </c>
+      <c r="D228" t="s">
+        <v>315</v>
+      </c>
       <c r="E228" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
@@ -7472,12 +7709,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
+      <c r="B229" t="s">
+        <v>315</v>
+      </c>
+      <c r="C229" t="s">
+        <v>315</v>
+      </c>
+      <c r="D229" t="s">
+        <v>315</v>
+      </c>
       <c r="E229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F229" t="s">
         <v>17</v>
@@ -7489,12 +7735,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
+      <c r="B230" t="s">
+        <v>315</v>
+      </c>
+      <c r="C230" t="s">
+        <v>315</v>
+      </c>
+      <c r="D230" t="s">
+        <v>315</v>
+      </c>
       <c r="E230" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F230" t="s">
         <v>21</v>
@@ -7506,12 +7761,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
+      <c r="B231" t="s">
+        <v>315</v>
+      </c>
+      <c r="C231" t="s">
+        <v>315</v>
+      </c>
+      <c r="D231" t="s">
+        <v>315</v>
+      </c>
       <c r="E231" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F231" t="s">
         <v>21</v>
@@ -7523,12 +7787,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
+      <c r="B232" t="s">
+        <v>315</v>
+      </c>
+      <c r="C232" t="s">
+        <v>315</v>
+      </c>
+      <c r="D232" t="s">
+        <v>315</v>
+      </c>
       <c r="E232" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F232" t="s">
         <v>21</v>
@@ -7540,29 +7813,47 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
+      <c r="B233" t="s">
+        <v>315</v>
+      </c>
+      <c r="C233" t="s">
+        <v>315</v>
+      </c>
+      <c r="D233" t="s">
+        <v>315</v>
+      </c>
       <c r="E233" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H233" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
+      <c r="B234" t="s">
+        <v>315</v>
+      </c>
+      <c r="C234" t="s">
+        <v>315</v>
+      </c>
+      <c r="D234" t="s">
+        <v>315</v>
+      </c>
       <c r="E234" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -7574,12 +7865,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
+      <c r="B235" t="s">
+        <v>315</v>
+      </c>
+      <c r="C235" t="s">
+        <v>315</v>
+      </c>
+      <c r="D235" t="s">
+        <v>315</v>
+      </c>
       <c r="E235" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -7591,12 +7891,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
+      <c r="B236" t="s">
+        <v>315</v>
+      </c>
+      <c r="C236" t="s">
+        <v>315</v>
+      </c>
+      <c r="D236" t="s">
+        <v>315</v>
+      </c>
       <c r="E236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -7608,12 +7917,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
+      <c r="B237" t="s">
+        <v>315</v>
+      </c>
+      <c r="C237" t="s">
+        <v>315</v>
+      </c>
+      <c r="D237" t="s">
+        <v>315</v>
+      </c>
       <c r="E237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -7625,114 +7943,177 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
+      <c r="B238" t="s">
+        <v>315</v>
+      </c>
+      <c r="C238" t="s">
+        <v>315</v>
+      </c>
+      <c r="D238" t="s">
+        <v>315</v>
+      </c>
       <c r="E238" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H238" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
+      <c r="B239" t="s">
+        <v>315</v>
+      </c>
+      <c r="C239" t="s">
+        <v>315</v>
+      </c>
+      <c r="D239" t="s">
+        <v>315</v>
+      </c>
       <c r="E239" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H239" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
+      <c r="B240" t="s">
+        <v>315</v>
+      </c>
+      <c r="C240" t="s">
+        <v>315</v>
+      </c>
+      <c r="D240" t="s">
+        <v>315</v>
+      </c>
       <c r="E240" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H240" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
+      <c r="B241" t="s">
+        <v>315</v>
+      </c>
+      <c r="C241" t="s">
+        <v>315</v>
+      </c>
+      <c r="D241" t="s">
+        <v>315</v>
+      </c>
       <c r="E241" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H241" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
+      <c r="B242" t="s">
+        <v>315</v>
+      </c>
+      <c r="C242" t="s">
+        <v>315</v>
+      </c>
+      <c r="D242" t="s">
+        <v>315</v>
+      </c>
       <c r="E242" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H242" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
+      <c r="B243" t="s">
+        <v>315</v>
+      </c>
+      <c r="C243" t="s">
+        <v>315</v>
+      </c>
+      <c r="D243" t="s">
+        <v>315</v>
+      </c>
       <c r="E243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H243" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
+      <c r="B244" t="s">
+        <v>315</v>
+      </c>
+      <c r="C244" t="s">
+        <v>315</v>
+      </c>
+      <c r="D244" t="s">
+        <v>315</v>
+      </c>
       <c r="E244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -7744,12 +8125,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
+      <c r="B245" t="s">
+        <v>315</v>
+      </c>
+      <c r="C245" t="s">
+        <v>315</v>
+      </c>
+      <c r="D245" t="s">
+        <v>315</v>
+      </c>
       <c r="E245" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -7761,12 +8151,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
+      <c r="B246" t="s">
+        <v>315</v>
+      </c>
+      <c r="C246" t="s">
+        <v>315</v>
+      </c>
+      <c r="D246" t="s">
+        <v>315</v>
+      </c>
       <c r="E246" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -7778,12 +8177,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
+      <c r="B247" t="s">
+        <v>315</v>
+      </c>
+      <c r="C247" t="s">
+        <v>315</v>
+      </c>
+      <c r="D247" t="s">
+        <v>315</v>
+      </c>
       <c r="E247" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -7795,12 +8203,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
+      <c r="B248" t="s">
+        <v>315</v>
+      </c>
+      <c r="C248" t="s">
+        <v>315</v>
+      </c>
+      <c r="D248" t="s">
+        <v>315</v>
+      </c>
       <c r="E248" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -7812,12 +8229,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
+      <c r="B249" t="s">
+        <v>315</v>
+      </c>
+      <c r="C249" t="s">
+        <v>315</v>
+      </c>
+      <c r="D249" t="s">
+        <v>315</v>
+      </c>
       <c r="E249" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -7829,12 +8255,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
+      <c r="B250" t="s">
+        <v>315</v>
+      </c>
+      <c r="C250" t="s">
+        <v>315</v>
+      </c>
+      <c r="D250" t="s">
+        <v>315</v>
+      </c>
       <c r="E250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -7846,12 +8281,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
+      <c r="B251" t="s">
+        <v>315</v>
+      </c>
+      <c r="C251" t="s">
+        <v>315</v>
+      </c>
+      <c r="D251" t="s">
+        <v>315</v>
+      </c>
       <c r="E251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -7863,122 +8307,194 @@
         <v>32</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
+      <c r="B252" t="s">
+        <v>315</v>
+      </c>
+      <c r="C252" t="s">
+        <v>315</v>
+      </c>
+      <c r="D252" t="s">
+        <v>315</v>
+      </c>
       <c r="E252" t="s">
+        <v>291</v>
+      </c>
+      <c r="F252" t="s">
+        <v>89</v>
+      </c>
+      <c r="G252" t="s">
         <v>292</v>
-      </c>
-      <c r="F252" t="s">
-        <v>90</v>
-      </c>
-      <c r="G252" t="s">
-        <v>293</v>
       </c>
       <c r="H252" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
+      <c r="B253" t="s">
+        <v>315</v>
+      </c>
+      <c r="C253" t="s">
+        <v>315</v>
+      </c>
+      <c r="D253" t="s">
+        <v>315</v>
+      </c>
       <c r="E253" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F253" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G253" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H253" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
+      <c r="B254" t="s">
+        <v>315</v>
+      </c>
+      <c r="C254" t="s">
+        <v>315</v>
+      </c>
+      <c r="D254" t="s">
+        <v>315</v>
+      </c>
       <c r="E254" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F254" t="s">
+        <v>89</v>
+      </c>
+      <c r="G254" t="s">
         <v>90</v>
-      </c>
-      <c r="G254" t="s">
-        <v>91</v>
       </c>
       <c r="H254" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
+      <c r="B255" t="s">
+        <v>315</v>
+      </c>
+      <c r="C255" t="s">
+        <v>315</v>
+      </c>
+      <c r="D255" t="s">
+        <v>315</v>
+      </c>
       <c r="E255" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F255" t="s">
+        <v>89</v>
+      </c>
+      <c r="G255" t="s">
         <v>90</v>
-      </c>
-      <c r="G255" t="s">
-        <v>91</v>
       </c>
       <c r="H255" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
+      <c r="B256" t="s">
+        <v>315</v>
+      </c>
+      <c r="C256" t="s">
+        <v>315</v>
+      </c>
+      <c r="D256" t="s">
+        <v>315</v>
+      </c>
       <c r="E256" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G256" t="s">
         <v>62</v>
       </c>
       <c r="H256" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
+      <c r="B257" t="s">
+        <v>315</v>
+      </c>
+      <c r="C257" t="s">
+        <v>315</v>
+      </c>
+      <c r="D257" t="s">
+        <v>315</v>
+      </c>
       <c r="E257" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G257" t="s">
         <v>62</v>
       </c>
       <c r="H257" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
+      <c r="B258" t="s">
+        <v>315</v>
+      </c>
+      <c r="C258" t="s">
+        <v>315</v>
+      </c>
+      <c r="D258" t="s">
+        <v>315</v>
+      </c>
       <c r="E258" t="s">
+        <v>299</v>
+      </c>
+      <c r="G258" t="s">
         <v>300</v>
-      </c>
-      <c r="G258" t="s">
-        <v>301</v>
       </c>
       <c r="H258" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
+      <c r="B259" t="s">
+        <v>315</v>
+      </c>
+      <c r="C259" t="s">
+        <v>315</v>
+      </c>
+      <c r="D259" t="s">
+        <v>315</v>
+      </c>
       <c r="E259" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G259" t="s">
         <v>62</v>
@@ -7987,122 +8503,221 @@
         <v>32</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
+      <c r="B260" t="s">
+        <v>315</v>
+      </c>
+      <c r="C260" t="s">
+        <v>315</v>
+      </c>
+      <c r="D260" t="s">
+        <v>315</v>
+      </c>
       <c r="E260" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H260" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
+      <c r="B261" t="s">
+        <v>315</v>
+      </c>
+      <c r="C261" t="s">
+        <v>315</v>
+      </c>
+      <c r="D261" t="s">
+        <v>315</v>
+      </c>
       <c r="E261" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H261" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
+      <c r="B262" t="s">
+        <v>315</v>
+      </c>
+      <c r="C262" t="s">
+        <v>315</v>
+      </c>
+      <c r="D262" t="s">
+        <v>315</v>
+      </c>
       <c r="E262" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H262" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
+      <c r="B263" t="s">
+        <v>315</v>
+      </c>
+      <c r="C263" t="s">
+        <v>315</v>
+      </c>
+      <c r="D263" t="s">
+        <v>315</v>
+      </c>
       <c r="E263" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
+      <c r="B264" t="s">
+        <v>315</v>
+      </c>
+      <c r="C264" t="s">
+        <v>315</v>
+      </c>
+      <c r="D264" t="s">
+        <v>315</v>
+      </c>
       <c r="E264" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H264" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
+      <c r="B265" t="s">
+        <v>315</v>
+      </c>
+      <c r="C265" t="s">
+        <v>315</v>
+      </c>
+      <c r="D265" t="s">
+        <v>315</v>
+      </c>
       <c r="E265" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H265" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
+      <c r="B266" t="s">
+        <v>315</v>
+      </c>
+      <c r="C266" t="s">
+        <v>315</v>
+      </c>
+      <c r="D266" t="s">
+        <v>315</v>
+      </c>
       <c r="E266" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
+      <c r="B267" t="s">
+        <v>315</v>
+      </c>
+      <c r="C267" t="s">
+        <v>315</v>
+      </c>
+      <c r="D267" t="s">
+        <v>315</v>
+      </c>
       <c r="E267" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H267" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
+      <c r="B268" t="s">
+        <v>315</v>
+      </c>
+      <c r="C268" t="s">
+        <v>315</v>
+      </c>
+      <c r="D268" t="s">
+        <v>315</v>
+      </c>
       <c r="E268" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
+      <c r="B269" t="s">
+        <v>315</v>
+      </c>
+      <c r="C269" t="s">
+        <v>315</v>
+      </c>
+      <c r="D269" t="s">
+        <v>315</v>
+      </c>
       <c r="E269" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H269" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
+      <c r="B270" t="s">
+        <v>315</v>
+      </c>
+      <c r="C270" t="s">
+        <v>315</v>
+      </c>
+      <c r="D270" t="s">
+        <v>315</v>
+      </c>
       <c r="E270" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H270" t="s">
         <v>19</v>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/constituyentes 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF78DFB-F587-5342-91F9-52672136A78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBD72D6-33B4-8E47-89BD-BB772C779D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidatos_constituyentes2021" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">candidatos_constituyentes2021!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -766,9 +769,6 @@
     <t>Beatriz Hevia</t>
   </si>
   <si>
-    <t>PREP</t>
-  </si>
-  <si>
     <t>José Carlos Meza</t>
   </si>
   <si>
@@ -968,6 +968,9 @@
   </si>
   <si>
     <t>s/i</t>
+  </si>
+  <si>
+    <t>Republicano</t>
   </si>
 </sst>
 </file>
@@ -1811,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203:D270"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2637,13 +2640,13 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2663,13 +2666,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
         <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2689,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -2715,13 +2718,13 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2758,7 +2761,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C37">
         <v>5.5</v>
@@ -2784,7 +2787,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -2810,7 +2813,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C39">
         <v>5.5</v>
@@ -2836,7 +2839,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C40">
         <v>5.5</v>
@@ -2862,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C41">
         <v>5.5</v>
@@ -2888,7 +2891,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C42">
         <v>5.5</v>
@@ -2914,7 +2917,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43">
         <v>5.5</v>
@@ -2940,7 +2943,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44">
         <v>5.5</v>
@@ -2966,7 +2969,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45">
         <v>5.5</v>
@@ -2992,7 +2995,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46">
         <v>5.5</v>
@@ -3018,7 +3021,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -3044,7 +3047,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48">
         <v>5.5</v>
@@ -3070,7 +3073,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C49">
         <v>5.5</v>
@@ -3096,7 +3099,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C50">
         <v>5.5</v>
@@ -3122,7 +3125,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51">
         <v>5.5</v>
@@ -3148,7 +3151,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -3174,7 +3177,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C53">
         <v>5.5</v>
@@ -3200,7 +3203,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -3226,7 +3229,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -3252,7 +3255,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -3278,7 +3281,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C57">
         <v>5.5</v>
@@ -3304,7 +3307,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58">
         <v>5.5</v>
@@ -3330,7 +3333,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C59">
         <v>5.5</v>
@@ -3356,7 +3359,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C60">
         <v>5.5</v>
@@ -3382,7 +3385,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61">
         <v>5.5</v>
@@ -3408,7 +3411,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C62">
         <v>5.5</v>
@@ -3434,7 +3437,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C63">
         <v>5.5</v>
@@ -3460,7 +3463,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64">
         <v>5.5</v>
@@ -3486,7 +3489,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C65">
         <v>5.5</v>
@@ -3512,7 +3515,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3538,7 +3541,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C67">
         <v>5.5</v>
@@ -3564,7 +3567,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3590,7 +3593,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C69">
         <v>5.5</v>
@@ -3616,7 +3619,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C70">
         <v>5.5</v>
@@ -3642,7 +3645,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C71">
         <v>5.5</v>
@@ -3668,7 +3671,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3694,7 +3697,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C73">
         <v>5.5</v>
@@ -3720,7 +3723,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74">
         <v>5.5</v>
@@ -3746,7 +3749,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C75">
         <v>5.5</v>
@@ -3772,7 +3775,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C76">
         <v>5.5</v>
@@ -3798,7 +3801,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C77">
         <v>5.5</v>
@@ -3824,7 +3827,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C78">
         <v>5.5</v>
@@ -3850,7 +3853,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -3876,7 +3879,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C80">
         <v>5.5</v>
@@ -3902,7 +3905,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -3928,7 +3931,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C82">
         <v>5.5</v>
@@ -3954,7 +3957,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C83">
         <v>5.5</v>
@@ -3980,7 +3983,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C84">
         <v>5.5</v>
@@ -4006,7 +4009,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C85">
         <v>5.5</v>
@@ -4032,7 +4035,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4058,7 +4061,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C87">
         <v>5.5</v>
@@ -4084,7 +4087,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88">
         <v>5.5</v>
@@ -4110,7 +4113,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C89">
         <v>5.5</v>
@@ -4136,7 +4139,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C90">
         <v>5.5</v>
@@ -4162,7 +4165,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C91">
         <v>5.5</v>
@@ -4188,7 +4191,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C92">
         <v>5.5</v>
@@ -4214,7 +4217,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C93">
         <v>5.5</v>
@@ -4240,7 +4243,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C94">
         <v>5.5</v>
@@ -4266,7 +4269,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C95">
         <v>5.5</v>
@@ -4292,7 +4295,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C96">
         <v>5.5</v>
@@ -4318,7 +4321,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C97">
         <v>5.5</v>
@@ -4344,7 +4347,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C98">
         <v>5.5</v>
@@ -4370,7 +4373,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4396,7 +4399,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C100">
         <v>5.5</v>
@@ -4416,7 +4419,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C101">
         <v>5.5</v>
@@ -4442,7 +4445,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C102">
         <v>5.5</v>
@@ -4451,16 +4454,16 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -4468,7 +4471,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4477,7 +4480,7 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F103" t="s">
         <v>21</v>
@@ -4494,7 +4497,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C104">
         <v>5.5</v>
@@ -4503,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -4520,7 +4523,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -4529,16 +4532,16 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -4546,7 +4549,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -4572,7 +4575,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -4598,7 +4601,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -4624,7 +4627,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -4650,7 +4653,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -4676,7 +4679,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C111">
         <v>5.5</v>
@@ -4702,7 +4705,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C112">
         <v>5.5</v>
@@ -4728,7 +4731,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C113">
         <v>5.5</v>
@@ -4754,7 +4757,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -4780,7 +4783,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115">
         <v>5.5</v>
@@ -4806,7 +4809,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C116">
         <v>5.5</v>
@@ -4832,7 +4835,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C117">
         <v>5.5</v>
@@ -4852,7 +4855,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C118">
         <v>5.5</v>
@@ -4872,7 +4875,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C119">
         <v>5.5</v>
@@ -4892,7 +4895,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C120">
         <v>5.5</v>
@@ -4912,7 +4915,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C121">
         <v>5.5</v>
@@ -4938,7 +4941,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C122">
         <v>5.5</v>
@@ -4964,7 +4967,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C123">
         <v>5.5</v>
@@ -4990,7 +4993,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C124">
         <v>5.5</v>
@@ -5016,7 +5019,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C125">
         <v>5.5</v>
@@ -5042,7 +5045,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C126">
         <v>5.5</v>
@@ -5068,7 +5071,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C127">
         <v>5.5</v>
@@ -5094,7 +5097,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C128">
         <v>5.5</v>
@@ -5120,7 +5123,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C129">
         <v>5.5</v>
@@ -5146,7 +5149,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C130">
         <v>5.5</v>
@@ -5172,7 +5175,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C131">
         <v>5.5</v>
@@ -5198,7 +5201,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C132">
         <v>5.5</v>
@@ -5224,7 +5227,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C133">
         <v>5.5</v>
@@ -5250,7 +5253,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C134">
         <v>5.5</v>
@@ -5276,7 +5279,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C135">
         <v>5.5</v>
@@ -5302,7 +5305,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C136">
         <v>5.5</v>
@@ -5328,7 +5331,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C137">
         <v>5.5</v>
@@ -5354,7 +5357,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C138">
         <v>5.5</v>
@@ -5380,7 +5383,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C139">
         <v>5.5</v>
@@ -5406,7 +5409,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C140">
         <v>5.5</v>
@@ -5432,7 +5435,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C141">
         <v>5.5</v>
@@ -5458,7 +5461,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C142">
         <v>5.5</v>
@@ -5484,7 +5487,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C143">
         <v>5.5</v>
@@ -5510,7 +5513,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C144">
         <v>5.5</v>
@@ -5536,7 +5539,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C145">
         <v>5.5</v>
@@ -5562,7 +5565,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C146">
         <v>5.5</v>
@@ -5588,7 +5591,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C147">
         <v>5.5</v>
@@ -5614,7 +5617,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C148">
         <v>5.5</v>
@@ -5640,7 +5643,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C149">
         <v>5.5</v>
@@ -6986,7 +6989,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C201">
         <v>12</v>
@@ -7012,7 +7015,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C202">
         <v>12</v>
@@ -7038,13 +7041,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C203" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D203" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E203" t="s">
         <v>240</v>
@@ -7064,13 +7067,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E204" t="s">
         <v>241</v>
@@ -7090,13 +7093,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C205" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D205" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E205" t="s">
         <v>242</v>
@@ -7116,13 +7119,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C206" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D206" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E206" t="s">
         <v>243</v>
@@ -7142,13 +7145,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C207" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D207" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E207" t="s">
         <v>244</v>
@@ -7168,13 +7171,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C208" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D208" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E208" t="s">
         <v>245</v>
@@ -7194,13 +7197,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C209" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D209" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E209" t="s">
         <v>246</v>
@@ -7220,22 +7223,22 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C210" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D210" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E210" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F210" t="s">
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H210" t="s">
         <v>19</v>
@@ -7246,22 +7249,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C211" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D211" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E211" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="H211" t="s">
         <v>19</v>
@@ -7272,22 +7275,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C212" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D212" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E212" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F212" t="s">
         <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="H212" t="s">
         <v>19</v>
@@ -7298,22 +7301,22 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C213" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D213" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E213" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="H213" t="s">
         <v>19</v>
@@ -7324,22 +7327,22 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C214" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D214" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E214" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F214" t="s">
         <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="H214" t="s">
         <v>19</v>
@@ -7350,16 +7353,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E215" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
@@ -7376,16 +7379,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C216" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D216" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E216" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
@@ -7402,16 +7405,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C217" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D217" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E217" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F217" t="s">
         <v>17</v>
@@ -7428,16 +7431,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E218" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F218" t="s">
         <v>17</v>
@@ -7454,16 +7457,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C219" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D219" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F219" t="s">
         <v>17</v>
@@ -7480,16 +7483,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C220" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D220" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E220" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F220" t="s">
         <v>17</v>
@@ -7506,16 +7509,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C221" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D221" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E221" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F221" t="s">
         <v>17</v>
@@ -7532,16 +7535,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C222" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D222" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E222" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F222" t="s">
         <v>17</v>
@@ -7558,16 +7561,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C223" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D223" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
@@ -7584,16 +7587,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C224" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D224" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E224" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F224" t="s">
         <v>17</v>
@@ -7610,16 +7613,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E225" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F225" t="s">
         <v>17</v>
@@ -7636,16 +7639,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C226" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D226" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E226" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F226" t="s">
         <v>17</v>
@@ -7662,16 +7665,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C227" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D227" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E227" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
@@ -7688,16 +7691,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C228" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D228" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E228" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
@@ -7714,16 +7717,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C229" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D229" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F229" t="s">
         <v>17</v>
@@ -7740,16 +7743,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C230" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D230" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E230" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F230" t="s">
         <v>21</v>
@@ -7766,16 +7769,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C231" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D231" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E231" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F231" t="s">
         <v>21</v>
@@ -7792,16 +7795,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C232" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D232" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E232" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F232" t="s">
         <v>21</v>
@@ -7818,16 +7821,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C233" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D233" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E233" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -7844,16 +7847,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C234" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D234" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E234" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -7870,16 +7873,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C235" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D235" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E235" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -7896,16 +7899,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C236" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D236" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E236" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -7922,16 +7925,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C237" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D237" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -7948,16 +7951,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C238" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D238" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E238" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
@@ -7974,16 +7977,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C239" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D239" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E239" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
@@ -8000,16 +8003,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C240" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D240" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E240" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
@@ -8026,16 +8029,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C241" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D241" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E241" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
@@ -8052,16 +8055,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C242" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D242" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E242" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
@@ -8078,16 +8081,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C243" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D243" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E243" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
@@ -8104,16 +8107,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C244" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D244" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E244" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -8130,16 +8133,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C245" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D245" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E245" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -8156,16 +8159,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C246" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D246" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E246" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -8182,16 +8185,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C247" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D247" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E247" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -8208,16 +8211,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C248" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D248" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E248" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -8234,16 +8237,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C249" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D249" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E249" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -8260,16 +8263,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C250" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D250" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E250" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -8286,16 +8289,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C251" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D251" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E251" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -8312,22 +8315,22 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C252" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D252" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E252" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F252" t="s">
         <v>89</v>
       </c>
       <c r="G252" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H252" t="s">
         <v>32</v>
@@ -8338,22 +8341,22 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C253" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D253" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E253" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F253" t="s">
         <v>89</v>
       </c>
       <c r="G253" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H253" t="s">
         <v>32</v>
@@ -8364,16 +8367,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E254" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F254" t="s">
         <v>89</v>
@@ -8390,16 +8393,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C255" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D255" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F255" t="s">
         <v>89</v>
@@ -8416,22 +8419,22 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E256" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G256" t="s">
         <v>62</v>
       </c>
       <c r="H256" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -8439,22 +8442,22 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E257" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G257" t="s">
         <v>62</v>
       </c>
       <c r="H257" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -8462,19 +8465,19 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E258" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G258" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="H258" t="s">
         <v>32</v>
@@ -8485,19 +8488,19 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C259" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D259" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E259" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G259" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="H259" t="s">
         <v>32</v>
@@ -8508,16 +8511,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C260" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D260" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E260" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H260" t="s">
         <v>32</v>
@@ -8528,16 +8531,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C261" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D261" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E261" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H261" t="s">
         <v>32</v>
@@ -8548,16 +8551,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C262" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D262" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E262" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H262" t="s">
         <v>32</v>
@@ -8568,16 +8571,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C263" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D263" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E263" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
@@ -8588,16 +8591,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C264" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D264" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E264" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H264" t="s">
         <v>19</v>
@@ -8608,16 +8611,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C265" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D265" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E265" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H265" t="s">
         <v>19</v>
@@ -8628,16 +8631,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C266" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D266" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E266" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
@@ -8648,16 +8651,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C267" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D267" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E267" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H267" t="s">
         <v>19</v>
@@ -8668,16 +8671,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C268" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D268" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E268" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
@@ -8688,16 +8691,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C269" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D269" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E269" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H269" t="s">
         <v>19</v>
@@ -8708,22 +8711,32 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C270" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D270" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E270" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H270" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H270">
+      <sortCondition ref="G1:G270"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H270">
+    <sortCondition ref="C2:C270"/>
+    <sortCondition ref="D2:D270"/>
+    <sortCondition ref="F2:F270"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/constituyentes 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBD72D6-33B4-8E47-89BD-BB772C779D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{546E2F7B-33D0-0A45-9AC0-D7BDD568E088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="317">
   <si>
     <t>id</t>
   </si>
@@ -127,18 +127,12 @@
     <t>Cristobal Orellana Jara</t>
   </si>
   <si>
-    <t>Jacqueline Santander Miranda</t>
-  </si>
-  <si>
     <t>Atacama</t>
   </si>
   <si>
     <t>Patricio Pinto Castro</t>
   </si>
   <si>
-    <t>Eduardo Herrera Caballero</t>
-  </si>
-  <si>
     <t>Coquimbo</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>Carmen Obreque Sanchez</t>
   </si>
   <si>
-    <t>Roberto Santa Cruz González</t>
-  </si>
-  <si>
     <t>Alfaro Diaz Sandoval</t>
   </si>
   <si>
@@ -271,21 +262,12 @@
     <t>Camila Gonzalez Mora</t>
   </si>
   <si>
-    <t>Jorge Maldonado Acevedo</t>
-  </si>
-  <si>
     <t>Marcela Sandoval Osorio</t>
   </si>
   <si>
-    <t>Gaston Fuentealba Valenzuela</t>
-  </si>
-  <si>
     <t>Nicolas Godoy Fuentes</t>
   </si>
   <si>
-    <t>Rodrigo Valladares Marchant</t>
-  </si>
-  <si>
     <t>Ricardo Azocar Reyes</t>
   </si>
   <si>
@@ -388,9 +370,6 @@
     <t>Catalina Lagos Tschorne</t>
   </si>
   <si>
-    <t>Servando Omerovich Concha</t>
-  </si>
-  <si>
     <t>Danae Mlynarz Puig</t>
   </si>
   <si>
@@ -466,9 +445,6 @@
     <t>Luis Acevedo Espindola</t>
   </si>
   <si>
-    <t>Juan Cantuarias Cantuarias</t>
-  </si>
-  <si>
     <t>Roberto Amaro Castillo</t>
   </si>
   <si>
@@ -493,45 +469,21 @@
     <t>https://twitter.com/mmlagoscc/status/1313553356816896001</t>
   </si>
   <si>
-    <t>Margarita Portuguez Gonzalez</t>
-  </si>
-  <si>
-    <t>Romanina Morales Baltra</t>
-  </si>
-  <si>
     <t>Camilo Riquelme Garcia</t>
   </si>
   <si>
     <t>Luis Bustamante Pardo</t>
   </si>
   <si>
-    <t>Pascal Merino Ampuero</t>
-  </si>
-  <si>
-    <t>Salvador Millaleo Hernandez</t>
-  </si>
-  <si>
     <t>Victor Diaz Escobar</t>
   </si>
   <si>
-    <t>Camila Bustamante Alvarez</t>
-  </si>
-  <si>
-    <t>Francisca Figueroa Andrade</t>
-  </si>
-  <si>
     <t>Julio Pizarro Saavedra</t>
   </si>
   <si>
-    <t>Patricio Espinoza Almonacid</t>
-  </si>
-  <si>
     <t>Daniel Andrade Schwarze</t>
   </si>
   <si>
-    <t>Eduardo Muñoz Benvenuto</t>
-  </si>
-  <si>
     <t>Fabian Leiva Leiva</t>
   </si>
   <si>
@@ -544,9 +496,6 @@
     <t>Pablo Longueira</t>
   </si>
   <si>
-    <t>Marcelino Romero Cardenas</t>
-  </si>
-  <si>
     <t>Paz Gajardo Daneri</t>
   </si>
   <si>
@@ -580,9 +529,6 @@
     <t>Matias Vergara</t>
   </si>
   <si>
-    <t>Daniela Oberreuter Villanueva</t>
-  </si>
-  <si>
     <t>Diego Rivera Espinoza</t>
   </si>
   <si>
@@ -607,9 +553,6 @@
     <t>Maule</t>
   </si>
   <si>
-    <t>Rodrigo Hernandez Fernandez</t>
-  </si>
-  <si>
     <t>Sergio Aguiló</t>
   </si>
   <si>
@@ -622,15 +565,9 @@
     <t>Ñuble</t>
   </si>
   <si>
-    <t>Oliver Cisterna Rondanelli</t>
-  </si>
-  <si>
     <t>Felipe Aylwin Lagos</t>
   </si>
   <si>
-    <t>Gonzalo Guajardo Gavilan</t>
-  </si>
-  <si>
     <t>Cesar Rodriguez Alaracon</t>
   </si>
   <si>
@@ -655,9 +592,6 @@
     <t>Narciso Cortes Pasten</t>
   </si>
   <si>
-    <t>Enrique Inostroza Sanhueza</t>
-  </si>
-  <si>
     <t>Ivan Perez Muñoz</t>
   </si>
   <si>
@@ -688,24 +622,15 @@
     <t>Hugo Araya Padilla</t>
   </si>
   <si>
-    <t>Minerva Castañeda Meliñan</t>
-  </si>
-  <si>
     <t>Alex Manosalva</t>
   </si>
   <si>
     <t>Los Ríos</t>
   </si>
   <si>
-    <t>Sandra Cheuquepan Quezada</t>
-  </si>
-  <si>
     <t>Los Lagos</t>
   </si>
   <si>
-    <t>Andres Valenzuela Gonzalez</t>
-  </si>
-  <si>
     <t>Daniela Carvacho Diaz</t>
   </si>
   <si>
@@ -730,9 +655,6 @@
     <t>Ian Cataldo Muñoz</t>
   </si>
   <si>
-    <t>Jorge Millaquen Mercado</t>
-  </si>
-  <si>
     <t>Aysén</t>
   </si>
   <si>
@@ -838,9 +760,6 @@
     <t>Carlos Ruiz</t>
   </si>
   <si>
-    <t>Juan José Santana Cruz</t>
-  </si>
-  <si>
     <t>Ricardo Hormazábal</t>
   </si>
   <si>
@@ -971,13 +890,97 @@
   </si>
   <si>
     <t>Republicano</t>
+  </si>
+  <si>
+    <t>Jacqueline Santander</t>
+  </si>
+  <si>
+    <t>Roberto Santa Cruz</t>
+  </si>
+  <si>
+    <t>Gaston Fuentealba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Valladares </t>
+  </si>
+  <si>
+    <t>Margarita Portuguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelino Romero </t>
+  </si>
+  <si>
+    <t>Juan José Santa Cruz</t>
+  </si>
+  <si>
+    <t>Jorge Millaquen</t>
+  </si>
+  <si>
+    <t>Andres Valenzuela</t>
+  </si>
+  <si>
+    <t>Sandra Cheuquepan</t>
+  </si>
+  <si>
+    <t>Minerva Castañeda</t>
+  </si>
+  <si>
+    <t>Rodrigo Hernandez</t>
+  </si>
+  <si>
+    <t>Daniela Oberreuter</t>
+  </si>
+  <si>
+    <t>Camila Bustamante</t>
+  </si>
+  <si>
+    <t>Francisca Figueroa</t>
+  </si>
+  <si>
+    <t>Oliver Cisterna</t>
+  </si>
+  <si>
+    <t>Patricio Espinoza</t>
+  </si>
+  <si>
+    <t>Salvador Millaleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanina Morales </t>
+  </si>
+  <si>
+    <t>Matias Salazar</t>
+  </si>
+  <si>
+    <t>Pascal Merino</t>
+  </si>
+  <si>
+    <t>Servando Omerovich</t>
+  </si>
+  <si>
+    <t>Eduardo Muñoz</t>
+  </si>
+  <si>
+    <t>Eduardo Herrera</t>
+  </si>
+  <si>
+    <t>Enrique Inostroza</t>
+  </si>
+  <si>
+    <t>Gonzalo Guajardo</t>
+  </si>
+  <si>
+    <t>Jorge Maldonado</t>
+  </si>
+  <si>
+    <t>Juan Cantuarias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1108,6 +1111,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1814,11 +1823,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A270"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="57.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1848,25 +1860,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1874,103 +1886,100 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1978,25 +1987,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2004,25 +2013,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2030,25 +2039,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2056,25 +2065,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2082,51 +2091,51 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -2134,45 +2143,39 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
+        <v>287</v>
+      </c>
+      <c r="C13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" t="s">
+        <v>287</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -2186,25 +2189,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -2212,19 +2215,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -2238,19 +2241,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -2264,45 +2267,45 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" t="s">
+        <v>287</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2316,25 +2319,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>297</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -2342,45 +2345,45 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
+        <v>287</v>
+      </c>
+      <c r="C21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" t="s">
+        <v>287</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -2394,25 +2397,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -2420,149 +2423,149 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="C24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" t="s">
+        <v>287</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" t="s">
+        <v>287</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" t="s">
+        <v>287</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2576,25 +2579,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -2602,77 +2605,77 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2680,19 +2683,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -2706,45 +2709,45 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
+        <v>287</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" t="s">
+        <v>287</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>7</v>
+        <v>287</v>
+      </c>
+      <c r="C36" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" t="s">
+        <v>287</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2753,30 +2756,30 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="C37">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -2784,25 +2787,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C38">
         <v>5.5</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -2810,19 +2813,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C39">
         <v>5.5</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
@@ -2836,19 +2839,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
@@ -2862,25 +2865,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C41">
         <v>5.5</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -2888,25 +2891,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2914,45 +2917,45 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="C43">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="C44">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2961,24 +2964,24 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C45">
         <v>5.5</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2992,19 +2995,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C46">
         <v>5.5</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3018,10 +3021,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -3030,7 +3033,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3044,51 +3047,45 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
-      </c>
-      <c r="C48">
-        <v>5.5</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
+        <v>287</v>
+      </c>
+      <c r="C48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" t="s">
+        <v>287</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C49">
-        <v>5.5</v>
-      </c>
-      <c r="D49">
-        <v>9</v>
+        <v>287</v>
+      </c>
+      <c r="C49" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" t="s">
+        <v>287</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
@@ -3096,25 +3093,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C50">
         <v>5.5</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
@@ -3122,19 +3119,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C51">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
@@ -3148,103 +3145,103 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="B52" t="s">
-        <v>313</v>
-      </c>
-      <c r="C52">
-        <v>5.5</v>
-      </c>
-      <c r="D52">
-        <v>9</v>
+        <v>287</v>
+      </c>
+      <c r="C52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" t="s">
+        <v>287</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53">
-        <v>5.5</v>
-      </c>
-      <c r="D53">
-        <v>9</v>
+        <v>287</v>
+      </c>
+      <c r="C53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" t="s">
+        <v>287</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C55">
         <v>5.5</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
@@ -3252,19 +3249,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3278,25 +3275,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C57">
         <v>5.5</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
@@ -3304,106 +3301,100 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C58">
         <v>5.5</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C59">
         <v>5.5</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C60">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
-      </c>
-      <c r="C61">
-        <v>5.5</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
+        <v>287</v>
+      </c>
+      <c r="C61" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" t="s">
+        <v>287</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3411,7 +3402,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C62">
         <v>5.5</v>
@@ -3420,13 +3411,13 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
         <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -3434,45 +3425,45 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="C63">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
         <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="C64">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="F64" t="s">
         <v>21</v>
@@ -3481,24 +3472,24 @@
         <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
         <v>21</v>
@@ -3512,10 +3503,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3524,13 +3515,13 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -3538,36 +3529,36 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C67">
         <v>5.5</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3576,7 +3567,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
@@ -3590,19 +3581,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C69">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F69" t="s">
         <v>21</v>
@@ -3616,19 +3607,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="C70">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
@@ -3642,25 +3633,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C71">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3668,10 +3659,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3680,13 +3671,13 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -3694,25 +3685,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
@@ -3720,25 +3711,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C74">
         <v>5.5</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3746,25 +3737,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C75">
         <v>5.5</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3772,25 +3763,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="B76" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C76">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3798,62 +3789,62 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="B77" t="s">
-        <v>313</v>
-      </c>
-      <c r="C77">
-        <v>5.5</v>
-      </c>
-      <c r="D77">
-        <v>10</v>
+        <v>287</v>
+      </c>
+      <c r="C77" t="s">
+        <v>287</v>
+      </c>
+      <c r="D77" t="s">
+        <v>287</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
         <v>313</v>
       </c>
-      <c r="C78">
-        <v>5.5</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
-        <v>113</v>
-      </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -3862,13 +3853,13 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
@@ -3876,36 +3867,36 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="C80">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -3914,13 +3905,13 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
@@ -3928,51 +3919,45 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="B82" t="s">
-        <v>313</v>
-      </c>
-      <c r="C82">
-        <v>5.5</v>
-      </c>
-      <c r="D82">
-        <v>10</v>
+        <v>287</v>
+      </c>
+      <c r="C82" t="s">
+        <v>287</v>
+      </c>
+      <c r="D82" t="s">
+        <v>287</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
-      </c>
-      <c r="F82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="C83">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
@@ -3980,25 +3965,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C84">
         <v>5.5</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
@@ -4006,25 +3991,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>313</v>
+        <v>175</v>
       </c>
       <c r="C85">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
@@ -4032,19 +4017,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C86">
         <v>5.5</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4058,19 +4043,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C87">
         <v>5.5</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4084,19 +4069,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C88">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4110,19 +4095,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="C89">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4136,123 +4121,117 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="B90" t="s">
-        <v>313</v>
-      </c>
-      <c r="C90">
-        <v>5.5</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
+        <v>287</v>
+      </c>
+      <c r="C90" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" t="s">
+        <v>287</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="B91" t="s">
-        <v>313</v>
-      </c>
-      <c r="C91">
-        <v>5.5</v>
-      </c>
-      <c r="D91">
-        <v>10</v>
+        <v>287</v>
+      </c>
+      <c r="C91" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" t="s">
+        <v>287</v>
       </c>
       <c r="E91" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C93">
         <v>5.5</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C94">
         <v>5.5</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4266,19 +4245,19 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="C95">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4292,25 +4271,25 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="C96">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
@@ -4318,19 +4297,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C97">
         <v>5.5</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -4344,36 +4323,36 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>313</v>
-      </c>
-      <c r="C98">
-        <v>5.5</v>
-      </c>
-      <c r="D98">
-        <v>10</v>
+        <v>287</v>
+      </c>
+      <c r="C98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" t="s">
+        <v>287</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4382,7 +4361,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4396,10 +4375,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B100" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C100">
         <v>5.5</v>
@@ -4408,7 +4387,13 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>93</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
@@ -4416,62 +4401,62 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>313</v>
-      </c>
-      <c r="C101">
-        <v>5.5</v>
-      </c>
-      <c r="D101">
-        <v>11</v>
+        <v>287</v>
+      </c>
+      <c r="C101" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" t="s">
+        <v>287</v>
       </c>
       <c r="E101" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="C102">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4480,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="F103" t="s">
         <v>21</v>
@@ -4494,51 +4479,51 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
-      </c>
-      <c r="C104">
-        <v>5.5</v>
-      </c>
-      <c r="D104">
-        <v>11</v>
+        <v>287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D104" t="s">
+        <v>287</v>
       </c>
       <c r="E104" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="C105">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
@@ -4546,25 +4531,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="C106">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>140</v>
+        <v>314</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
@@ -4572,71 +4557,65 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
-      </c>
-      <c r="C107">
-        <v>5.5</v>
-      </c>
-      <c r="D107">
-        <v>11</v>
+        <v>287</v>
+      </c>
+      <c r="C107" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" t="s">
+        <v>287</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C108">
         <v>5.5</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>143</v>
-      </c>
-      <c r="F108" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C109">
         <v>5.5</v>
       </c>
       <c r="D109">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4650,45 +4629,45 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C110">
         <v>5.5</v>
       </c>
       <c r="D110">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="C111">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E111" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4702,19 +4681,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="C112">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4728,25 +4707,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B113" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C113">
         <v>5.5</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
@@ -4754,10 +4733,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B114" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -4766,13 +4745,13 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
@@ -4780,25 +4759,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="B115" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C115">
         <v>5.5</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
         <v>12</v>
@@ -4806,131 +4785,155 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="C116">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>116</v>
+        <v>246</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
-      </c>
-      <c r="C117">
-        <v>5.5</v>
-      </c>
-      <c r="D117">
-        <v>11</v>
+        <v>287</v>
+      </c>
+      <c r="C117" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" t="s">
+        <v>287</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>258</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
-      </c>
-      <c r="C118">
-        <v>5.5</v>
-      </c>
-      <c r="D118">
-        <v>11</v>
+        <v>287</v>
+      </c>
+      <c r="C118" t="s">
+        <v>287</v>
+      </c>
+      <c r="D118" t="s">
+        <v>287</v>
       </c>
       <c r="E118" t="s">
-        <v>151</v>
+        <v>216</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>86</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C119">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="C120">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>154</v>
+        <v>289</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="C121">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="F121" t="s">
         <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H121" t="s">
         <v>12</v>
@@ -4938,71 +4941,71 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>313</v>
-      </c>
-      <c r="C122">
-        <v>5.5</v>
-      </c>
-      <c r="D122">
-        <v>12</v>
+        <v>287</v>
+      </c>
+      <c r="C122" t="s">
+        <v>287</v>
+      </c>
+      <c r="D122" t="s">
+        <v>287</v>
       </c>
       <c r="E122" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
-      </c>
-      <c r="C123">
-        <v>5.5</v>
-      </c>
-      <c r="D123">
-        <v>12</v>
+        <v>287</v>
+      </c>
+      <c r="C123" t="s">
+        <v>287</v>
+      </c>
+      <c r="D123" t="s">
+        <v>287</v>
       </c>
       <c r="E123" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="C124">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5016,19 +5019,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B125" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="C125">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5042,71 +5045,71 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="B126" t="s">
-        <v>313</v>
-      </c>
-      <c r="C126">
-        <v>5.5</v>
-      </c>
-      <c r="D126">
-        <v>12</v>
+        <v>287</v>
+      </c>
+      <c r="C126" t="s">
+        <v>287</v>
+      </c>
+      <c r="D126" t="s">
+        <v>287</v>
       </c>
       <c r="E126" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H126" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="B127" t="s">
-        <v>313</v>
-      </c>
-      <c r="C127">
-        <v>5.5</v>
-      </c>
-      <c r="D127">
-        <v>12</v>
+        <v>287</v>
+      </c>
+      <c r="C127" t="s">
+        <v>287</v>
+      </c>
+      <c r="D127" t="s">
+        <v>287</v>
       </c>
       <c r="E127" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C128">
         <v>5.5</v>
       </c>
       <c r="D128">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E128" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5115,56 +5118,56 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>313</v>
-      </c>
-      <c r="C129">
-        <v>5.5</v>
-      </c>
-      <c r="D129">
-        <v>12</v>
+        <v>287</v>
+      </c>
+      <c r="C129" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" t="s">
+        <v>287</v>
       </c>
       <c r="E129" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="F129" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C130">
         <v>5.5</v>
       </c>
       <c r="D130">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
@@ -5172,25 +5175,25 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C131">
         <v>5.5</v>
       </c>
       <c r="D131">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
@@ -5198,71 +5201,65 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="C132">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D132">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>166</v>
-      </c>
-      <c r="F132" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="H132" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
-      </c>
-      <c r="C133">
-        <v>5.5</v>
-      </c>
-      <c r="D133">
-        <v>13</v>
+        <v>287</v>
+      </c>
+      <c r="C133" t="s">
+        <v>287</v>
+      </c>
+      <c r="D133" t="s">
+        <v>287</v>
       </c>
       <c r="E133" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C134">
         <v>5.5</v>
       </c>
       <c r="D134">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -5276,19 +5273,19 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="C135">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E135" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5302,19 +5299,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="C136">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5328,129 +5325,129 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>313</v>
-      </c>
-      <c r="C137">
-        <v>5.5</v>
-      </c>
-      <c r="D137">
-        <v>13</v>
+        <v>287</v>
+      </c>
+      <c r="C137" t="s">
+        <v>287</v>
+      </c>
+      <c r="D137" t="s">
+        <v>287</v>
       </c>
       <c r="E137" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="F137" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="B138" t="s">
-        <v>313</v>
-      </c>
-      <c r="C138">
-        <v>5.5</v>
-      </c>
-      <c r="D138">
-        <v>13</v>
+        <v>287</v>
+      </c>
+      <c r="C138" t="s">
+        <v>287</v>
+      </c>
+      <c r="D138" t="s">
+        <v>287</v>
       </c>
       <c r="E138" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C139">
         <v>5.5</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="B140" t="s">
-        <v>313</v>
-      </c>
-      <c r="C140">
-        <v>5.5</v>
-      </c>
-      <c r="D140">
-        <v>14</v>
+        <v>287</v>
+      </c>
+      <c r="C140" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" t="s">
+        <v>287</v>
       </c>
       <c r="E140" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G140" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C141">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E141" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H141" t="s">
         <v>12</v>
@@ -5458,10 +5455,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C142">
         <v>5.5</v>
@@ -5470,13 +5467,13 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
@@ -5484,25 +5481,25 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C143">
         <v>5.5</v>
       </c>
       <c r="D143">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="H143" t="s">
         <v>32</v>
@@ -5510,25 +5507,25 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="C144">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G144" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
@@ -5536,19 +5533,19 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C145">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D145">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5562,19 +5559,19 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B146" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C146">
         <v>5.5</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5588,25 +5585,19 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B147" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C147">
         <v>5.5</v>
       </c>
       <c r="D147">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>180</v>
-      </c>
-      <c r="F147" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="H147" t="s">
         <v>12</v>
@@ -5614,129 +5605,117 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="B148" t="s">
-        <v>313</v>
-      </c>
-      <c r="C148">
-        <v>5.5</v>
-      </c>
-      <c r="D148">
-        <v>14</v>
+        <v>287</v>
+      </c>
+      <c r="C148" t="s">
+        <v>287</v>
+      </c>
+      <c r="D148" t="s">
+        <v>287</v>
       </c>
       <c r="E148" t="s">
-        <v>181</v>
-      </c>
-      <c r="F148" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>313</v>
-      </c>
-      <c r="C149">
-        <v>5.5</v>
-      </c>
-      <c r="D149">
-        <v>14</v>
+        <v>287</v>
+      </c>
+      <c r="C149" t="s">
+        <v>287</v>
+      </c>
+      <c r="D149" t="s">
+        <v>287</v>
       </c>
       <c r="E149" t="s">
-        <v>182</v>
-      </c>
-      <c r="F149" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="B150" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150">
-        <v>6</v>
-      </c>
-      <c r="D150">
-        <v>15</v>
+        <v>287</v>
+      </c>
+      <c r="C150" t="s">
+        <v>287</v>
+      </c>
+      <c r="D150" t="s">
+        <v>287</v>
       </c>
       <c r="E150" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H150" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="B151" t="s">
-        <v>183</v>
-      </c>
-      <c r="C151">
-        <v>6</v>
-      </c>
-      <c r="D151">
-        <v>15</v>
+        <v>287</v>
+      </c>
+      <c r="C151" t="s">
+        <v>287</v>
+      </c>
+      <c r="D151" t="s">
+        <v>287</v>
       </c>
       <c r="E151" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D152">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E152" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H152" t="s">
         <v>12</v>
@@ -5744,25 +5723,25 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D153">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -5770,25 +5749,25 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -5796,169 +5775,175 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B155" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D155">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G155" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="B156" t="s">
-        <v>183</v>
-      </c>
-      <c r="C156">
-        <v>6</v>
-      </c>
-      <c r="D156">
-        <v>16</v>
+        <v>287</v>
+      </c>
+      <c r="C156" t="s">
+        <v>287</v>
+      </c>
+      <c r="D156" t="s">
+        <v>287</v>
       </c>
       <c r="E156" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H156" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
-      </c>
-      <c r="C157">
-        <v>6</v>
-      </c>
-      <c r="D157">
-        <v>16</v>
+        <v>287</v>
+      </c>
+      <c r="C157" t="s">
+        <v>287</v>
+      </c>
+      <c r="D157" t="s">
+        <v>287</v>
       </c>
       <c r="E157" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G157" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H157" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="B158" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D158">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="B159" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D159">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>192</v>
+        <v>141</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
-        <v>193</v>
-      </c>
-      <c r="C160">
-        <v>7</v>
-      </c>
-      <c r="D160">
-        <v>17</v>
+        <v>287</v>
+      </c>
+      <c r="C160" t="s">
+        <v>287</v>
+      </c>
+      <c r="D160" t="s">
+        <v>287</v>
       </c>
       <c r="E160" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="G160" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H160" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F161" t="s">
         <v>21</v>
@@ -5972,149 +5957,149 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="C162">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H162" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="B163" t="s">
-        <v>193</v>
-      </c>
-      <c r="C163">
-        <v>7</v>
-      </c>
-      <c r="D163">
-        <v>17</v>
+        <v>287</v>
+      </c>
+      <c r="C163" t="s">
+        <v>287</v>
+      </c>
+      <c r="D163" t="s">
+        <v>287</v>
       </c>
       <c r="E163" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="F163" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="H163" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="B164" t="s">
-        <v>193</v>
-      </c>
-      <c r="C164">
-        <v>7</v>
-      </c>
-      <c r="D164">
-        <v>18</v>
+        <v>287</v>
+      </c>
+      <c r="C164" t="s">
+        <v>287</v>
+      </c>
+      <c r="D164" t="s">
+        <v>287</v>
       </c>
       <c r="E164" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D165">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
-      </c>
-      <c r="C166">
-        <v>7.5</v>
-      </c>
-      <c r="D166">
-        <v>19</v>
+        <v>287</v>
+      </c>
+      <c r="C166" t="s">
+        <v>287</v>
+      </c>
+      <c r="D166" t="s">
+        <v>287</v>
       </c>
       <c r="E166" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="C167">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D167">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6128,19 +6113,19 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="B168" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="C168">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D168">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E168" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6154,19 +6139,19 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="B169" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="C169">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D169">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6180,77 +6165,71 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="B170" t="s">
-        <v>203</v>
-      </c>
-      <c r="C170">
-        <v>8</v>
-      </c>
-      <c r="D170">
-        <v>20</v>
+        <v>287</v>
+      </c>
+      <c r="C170" t="s">
+        <v>287</v>
+      </c>
+      <c r="D170" t="s">
+        <v>287</v>
       </c>
       <c r="E170" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G170" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H170" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
-        <v>203</v>
-      </c>
-      <c r="C171">
-        <v>8</v>
-      </c>
-      <c r="D171">
-        <v>20</v>
+        <v>287</v>
+      </c>
+      <c r="C171" t="s">
+        <v>287</v>
+      </c>
+      <c r="D171" t="s">
+        <v>287</v>
       </c>
       <c r="E171" t="s">
-        <v>205</v>
-      </c>
-      <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="H171" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="C172">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E172" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G172" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
@@ -6258,19 +6237,19 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C173">
+        <v>5.5</v>
+      </c>
+      <c r="D173">
         <v>8</v>
       </c>
-      <c r="D173">
-        <v>20</v>
-      </c>
       <c r="E173" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
@@ -6284,25 +6263,25 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B174" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C174">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D174">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -6310,45 +6289,45 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
-      </c>
-      <c r="C175">
-        <v>8</v>
-      </c>
-      <c r="D175">
-        <v>20</v>
+        <v>287</v>
+      </c>
+      <c r="C175" t="s">
+        <v>287</v>
+      </c>
+      <c r="D175" t="s">
+        <v>287</v>
       </c>
       <c r="E175" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H175" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C176">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6362,19 +6341,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B177" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C177">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6388,25 +6367,25 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="B178" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C178">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G178" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H178" t="s">
         <v>12</v>
@@ -6414,25 +6393,25 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="B179" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C179">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E179" t="s">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
@@ -6440,25 +6419,25 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="B180" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C180">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G180" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H180" t="s">
         <v>12</v>
@@ -6466,19 +6445,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="B181" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C181">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6492,25 +6471,25 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="B182" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="C182">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G182" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H182" t="s">
         <v>12</v>
@@ -6518,25 +6497,25 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B183" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="C183">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E183" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H183" t="s">
         <v>12</v>
@@ -6544,19 +6523,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C184">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D184">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6565,24 +6544,24 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C185">
         <v>8</v>
       </c>
       <c r="D185">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6596,25 +6575,19 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="C186">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="D186">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>220</v>
-      </c>
-      <c r="F186" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H186" t="s">
         <v>12</v>
@@ -6622,25 +6595,25 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="C187">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="D187">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H187" t="s">
         <v>12</v>
@@ -6648,51 +6621,45 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="B188" t="s">
-        <v>219</v>
-      </c>
-      <c r="C188">
-        <v>9</v>
-      </c>
-      <c r="D188">
-        <v>23</v>
+        <v>287</v>
+      </c>
+      <c r="C188" t="s">
+        <v>287</v>
+      </c>
+      <c r="D188" t="s">
+        <v>287</v>
       </c>
       <c r="E188" t="s">
-        <v>222</v>
-      </c>
-      <c r="F188" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="H188" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B189" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="C189">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="D189">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E189" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H189" t="s">
         <v>12</v>
@@ -6700,45 +6667,39 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="B190" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D190">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>226</v>
-      </c>
-      <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="H190" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6752,71 +6713,65 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="B192" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D192">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>228</v>
-      </c>
-      <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="H192" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B193" t="s">
-        <v>225</v>
-      </c>
-      <c r="C193">
-        <v>10</v>
-      </c>
-      <c r="D193">
-        <v>26</v>
+        <v>287</v>
+      </c>
+      <c r="C193" t="s">
+        <v>287</v>
+      </c>
+      <c r="D193" t="s">
+        <v>287</v>
       </c>
       <c r="E193" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="H193" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="B194" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="C194">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D194">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E194" t="s">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6830,25 +6785,25 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="C195">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D195">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G195" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H195" t="s">
         <v>12</v>
@@ -6856,19 +6811,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="B196" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="C196">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D196">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E196" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -6882,19 +6837,19 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="B197" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="C197">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D197">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -6908,25 +6863,25 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="B198" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D198">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
@@ -6934,25 +6889,25 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="B199" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="C199">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D199">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E199" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H199" t="s">
         <v>12</v>
@@ -6960,25 +6915,25 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B200" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D200">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E200" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
@@ -6986,19 +6941,19 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B201" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="C201">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D201">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E201" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -7012,51 +6967,45 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B202" t="s">
-        <v>312</v>
-      </c>
-      <c r="C202">
-        <v>12</v>
-      </c>
-      <c r="D202">
-        <v>28</v>
+        <v>287</v>
+      </c>
+      <c r="C202" t="s">
+        <v>287</v>
+      </c>
+      <c r="D202" t="s">
+        <v>287</v>
       </c>
       <c r="E202" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="H202" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="B203" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C203" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D203" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E203" t="s">
-        <v>240</v>
-      </c>
-      <c r="F203" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="H203" t="s">
         <v>19</v>
@@ -7064,519 +7013,519 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="B204" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C204" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D204" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E204" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G204" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="H204" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="B205" t="s">
-        <v>314</v>
-      </c>
-      <c r="C205" t="s">
-        <v>314</v>
-      </c>
-      <c r="D205" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C205">
+        <v>5.5</v>
+      </c>
+      <c r="D205">
+        <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G205" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="B206" t="s">
-        <v>314</v>
-      </c>
-      <c r="C206" t="s">
-        <v>314</v>
-      </c>
-      <c r="D206" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C206">
+        <v>5.5</v>
+      </c>
+      <c r="D206">
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="B207" t="s">
-        <v>314</v>
-      </c>
-      <c r="C207" t="s">
-        <v>314</v>
-      </c>
-      <c r="D207" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C207">
+        <v>5.5</v>
+      </c>
+      <c r="D207">
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G207" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C208" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D208" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E208" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G208" t="s">
-        <v>92</v>
+        <v>264</v>
       </c>
       <c r="H208" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B209" t="s">
-        <v>314</v>
-      </c>
-      <c r="C209" t="s">
-        <v>314</v>
-      </c>
-      <c r="D209" t="s">
-        <v>314</v>
+        <v>179</v>
+      </c>
+      <c r="C209">
+        <v>7.5</v>
+      </c>
+      <c r="D209">
+        <v>19</v>
       </c>
       <c r="E209" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="B210" t="s">
-        <v>314</v>
-      </c>
-      <c r="C210" t="s">
-        <v>314</v>
-      </c>
-      <c r="D210" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C210">
+        <v>5.5</v>
+      </c>
+      <c r="D210">
+        <v>8</v>
       </c>
       <c r="E210" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="F210" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="B211" t="s">
-        <v>314</v>
-      </c>
-      <c r="C211" t="s">
-        <v>314</v>
-      </c>
-      <c r="D211" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C211">
+        <v>5.5</v>
+      </c>
+      <c r="D211">
+        <v>14</v>
       </c>
       <c r="E211" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="H211" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C212" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D212" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E212" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F212" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>315</v>
+        <v>110</v>
       </c>
       <c r="H212" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="B213" t="s">
-        <v>314</v>
-      </c>
-      <c r="C213" t="s">
-        <v>314</v>
-      </c>
-      <c r="D213" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C213">
+        <v>5.5</v>
+      </c>
+      <c r="D213">
+        <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="F213" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="B214" t="s">
-        <v>314</v>
-      </c>
-      <c r="C214" t="s">
-        <v>314</v>
-      </c>
-      <c r="D214" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C214">
+        <v>5.5</v>
+      </c>
+      <c r="D214">
+        <v>12</v>
       </c>
       <c r="E214" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="F214" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="B215" t="s">
-        <v>314</v>
-      </c>
-      <c r="C215" t="s">
-        <v>314</v>
-      </c>
-      <c r="D215" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C215">
+        <v>5.5</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G215" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H215" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>314</v>
-      </c>
-      <c r="C216" t="s">
-        <v>314</v>
-      </c>
-      <c r="D216" t="s">
-        <v>314</v>
+        <v>34</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G216" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H216" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="B217" t="s">
-        <v>314</v>
-      </c>
-      <c r="C217" t="s">
-        <v>314</v>
-      </c>
-      <c r="D217" t="s">
-        <v>314</v>
+        <v>36</v>
+      </c>
+      <c r="C217">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
       </c>
       <c r="E217" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="B218" t="s">
-        <v>314</v>
-      </c>
-      <c r="C218" t="s">
-        <v>314</v>
-      </c>
-      <c r="D218" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C218">
+        <v>5.5</v>
+      </c>
+      <c r="D218">
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="F218" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H218" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="B219" t="s">
-        <v>314</v>
-      </c>
-      <c r="C219" t="s">
-        <v>314</v>
-      </c>
-      <c r="D219" t="s">
-        <v>314</v>
+        <v>45</v>
+      </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
+      <c r="D219">
+        <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="B220" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C220" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D220" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E220" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F220" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="B221" t="s">
-        <v>314</v>
-      </c>
-      <c r="C221" t="s">
-        <v>314</v>
-      </c>
-      <c r="D221" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C221">
+        <v>5.5</v>
+      </c>
+      <c r="D221">
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G221" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H221" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="B222" t="s">
-        <v>314</v>
-      </c>
-      <c r="C222" t="s">
-        <v>314</v>
-      </c>
-      <c r="D222" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C222">
+        <v>5.5</v>
+      </c>
+      <c r="D222">
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="F222" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B223" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C223" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D223" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E223" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
       </c>
       <c r="G223" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
@@ -7584,181 +7533,181 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="B224" t="s">
-        <v>314</v>
-      </c>
-      <c r="C224" t="s">
-        <v>314</v>
-      </c>
-      <c r="D224" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C224">
+        <v>5.5</v>
+      </c>
+      <c r="D224">
+        <v>14</v>
       </c>
       <c r="E224" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="F224" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G224" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H224" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="B225" t="s">
-        <v>314</v>
-      </c>
-      <c r="C225" t="s">
-        <v>314</v>
-      </c>
-      <c r="D225" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C225">
+        <v>5.5</v>
+      </c>
+      <c r="D225">
+        <v>8</v>
       </c>
       <c r="E225" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="F225" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B226" t="s">
-        <v>314</v>
-      </c>
-      <c r="C226" t="s">
-        <v>314</v>
-      </c>
-      <c r="D226" t="s">
-        <v>314</v>
+        <v>201</v>
+      </c>
+      <c r="C226">
+        <v>10</v>
+      </c>
+      <c r="D226">
+        <v>25</v>
       </c>
       <c r="E226" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="F226" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G226" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H226" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="B227" t="s">
-        <v>314</v>
-      </c>
-      <c r="C227" t="s">
-        <v>314</v>
-      </c>
-      <c r="D227" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C227">
+        <v>5.5</v>
+      </c>
+      <c r="D227">
+        <v>11</v>
       </c>
       <c r="E227" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
       </c>
       <c r="G227" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="H227" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="B228" t="s">
-        <v>314</v>
-      </c>
-      <c r="C228" t="s">
-        <v>314</v>
-      </c>
-      <c r="D228" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C228">
+        <v>5.5</v>
+      </c>
+      <c r="D228">
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
       </c>
       <c r="G228" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="H228" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="B229" t="s">
-        <v>314</v>
-      </c>
-      <c r="C229" t="s">
-        <v>314</v>
-      </c>
-      <c r="D229" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C229">
+        <v>5.5</v>
+      </c>
+      <c r="D229">
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="F229" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G229" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="B230" t="s">
-        <v>314</v>
-      </c>
-      <c r="C230" t="s">
-        <v>314</v>
-      </c>
-      <c r="D230" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C230">
+        <v>5.5</v>
+      </c>
+      <c r="D230">
+        <v>14</v>
       </c>
       <c r="E230" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="F230" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H230" t="s">
         <v>12</v>
@@ -7766,25 +7715,25 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C231" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D231" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E231" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="F231" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G231" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H231" t="s">
         <v>32</v>
@@ -7792,461 +7741,455 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="B232" t="s">
-        <v>314</v>
-      </c>
-      <c r="C232" t="s">
-        <v>314</v>
-      </c>
-      <c r="D232" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C232">
+        <v>5.5</v>
+      </c>
+      <c r="D232">
+        <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="F232" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H232" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C233" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D233" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E233" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H233" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>314</v>
-      </c>
-      <c r="C234" t="s">
-        <v>314</v>
-      </c>
-      <c r="D234" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C234">
+        <v>5.5</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="B235" t="s">
-        <v>314</v>
-      </c>
-      <c r="C235" t="s">
-        <v>314</v>
-      </c>
-      <c r="D235" t="s">
-        <v>314</v>
+        <v>175</v>
+      </c>
+      <c r="C235">
+        <v>7</v>
+      </c>
+      <c r="D235">
+        <v>18</v>
       </c>
       <c r="E235" t="s">
-        <v>273</v>
+        <v>124</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="B236" t="s">
-        <v>314</v>
-      </c>
-      <c r="C236" t="s">
-        <v>314</v>
-      </c>
-      <c r="D236" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C236">
+        <v>5.5</v>
+      </c>
+      <c r="D236">
+        <v>11</v>
       </c>
       <c r="E236" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H236" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="B237" t="s">
-        <v>314</v>
-      </c>
-      <c r="C237" t="s">
-        <v>314</v>
-      </c>
-      <c r="D237" t="s">
-        <v>314</v>
+        <v>45</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+      <c r="D237">
+        <v>6</v>
       </c>
       <c r="E237" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="B238" t="s">
-        <v>314</v>
-      </c>
-      <c r="C238" t="s">
-        <v>314</v>
-      </c>
-      <c r="D238" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C238">
+        <v>5.5</v>
+      </c>
+      <c r="D238">
+        <v>9</v>
       </c>
       <c r="E238" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="B239" t="s">
-        <v>314</v>
-      </c>
-      <c r="C239" t="s">
-        <v>314</v>
-      </c>
-      <c r="D239" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C239">
+        <v>5.5</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="H239" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="B240" t="s">
-        <v>314</v>
-      </c>
-      <c r="C240" t="s">
-        <v>314</v>
-      </c>
-      <c r="D240" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C240">
+        <v>5.5</v>
+      </c>
+      <c r="D240">
+        <v>11</v>
       </c>
       <c r="E240" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="H240" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="B241" t="s">
-        <v>314</v>
-      </c>
-      <c r="C241" t="s">
-        <v>314</v>
-      </c>
-      <c r="D241" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C241">
+        <v>5.5</v>
+      </c>
+      <c r="D241">
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="F241" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G241" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H241" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="B242" t="s">
-        <v>314</v>
-      </c>
-      <c r="C242" t="s">
-        <v>314</v>
-      </c>
-      <c r="D242" t="s">
-        <v>314</v>
+        <v>201</v>
+      </c>
+      <c r="C242">
+        <v>10</v>
+      </c>
+      <c r="D242">
+        <v>26</v>
       </c>
       <c r="E242" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="F242" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G242" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H242" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="B243" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C243" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D243" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E243" t="s">
-        <v>281</v>
-      </c>
-      <c r="F243" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="H243" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B244" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C244" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D244" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E244" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="F244" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G244" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H244" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="B245" t="s">
-        <v>314</v>
-      </c>
-      <c r="C245" t="s">
-        <v>314</v>
-      </c>
-      <c r="D245" t="s">
-        <v>314</v>
+        <v>175</v>
+      </c>
+      <c r="C245">
+        <v>7</v>
+      </c>
+      <c r="D245">
+        <v>17</v>
       </c>
       <c r="E245" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F245" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G245" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H245" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="B246" t="s">
-        <v>314</v>
-      </c>
-      <c r="C246" t="s">
-        <v>314</v>
-      </c>
-      <c r="D246" t="s">
-        <v>314</v>
+        <v>175</v>
+      </c>
+      <c r="C246">
+        <v>7</v>
+      </c>
+      <c r="D246">
+        <v>18</v>
       </c>
       <c r="E246" t="s">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H246" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="B247" t="s">
-        <v>314</v>
-      </c>
-      <c r="C247" t="s">
-        <v>314</v>
-      </c>
-      <c r="D247" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C247">
+        <v>5.5</v>
+      </c>
+      <c r="D247">
+        <v>8</v>
       </c>
       <c r="E247" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H247" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="B248" t="s">
-        <v>314</v>
-      </c>
-      <c r="C248" t="s">
-        <v>314</v>
-      </c>
-      <c r="D248" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C248">
+        <v>5.5</v>
+      </c>
+      <c r="D248">
+        <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H248" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="B249" t="s">
-        <v>314</v>
-      </c>
-      <c r="C249" t="s">
-        <v>314</v>
-      </c>
-      <c r="D249" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C249">
+        <v>5.5</v>
+      </c>
+      <c r="D249">
+        <v>12</v>
       </c>
       <c r="E249" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -8255,50 +8198,50 @@
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>314</v>
-      </c>
-      <c r="C250" t="s">
-        <v>314</v>
-      </c>
-      <c r="D250" t="s">
-        <v>314</v>
+        <v>15</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="F250" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G250" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H250" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>314</v>
-      </c>
-      <c r="C251" t="s">
-        <v>314</v>
-      </c>
-      <c r="D251" t="s">
-        <v>314</v>
+        <v>8</v>
+      </c>
+      <c r="C251">
+        <v>0.5</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -8307,280 +8250,310 @@
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C252" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D252" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E252" t="s">
-        <v>290</v>
-      </c>
-      <c r="F252" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="G252" t="s">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c r="H252" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B253" t="s">
-        <v>314</v>
-      </c>
-      <c r="C253" t="s">
-        <v>314</v>
-      </c>
-      <c r="D253" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C253">
+        <v>5.5</v>
+      </c>
+      <c r="D253">
+        <v>12</v>
       </c>
       <c r="E253" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F253" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G253" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="H253" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="B254" t="s">
-        <v>314</v>
-      </c>
-      <c r="C254" t="s">
-        <v>314</v>
-      </c>
-      <c r="D254" t="s">
-        <v>314</v>
+        <v>200</v>
+      </c>
+      <c r="C254">
+        <v>9.5</v>
+      </c>
+      <c r="D254">
+        <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F254" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G254" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="H254" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="B255" t="s">
-        <v>314</v>
-      </c>
-      <c r="C255" t="s">
-        <v>314</v>
-      </c>
-      <c r="D255" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C255">
+        <v>5.5</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
       </c>
       <c r="E255" t="s">
-        <v>294</v>
+        <v>127</v>
       </c>
       <c r="F255" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G255" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="H255" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="B256" t="s">
-        <v>314</v>
-      </c>
-      <c r="C256" t="s">
-        <v>314</v>
-      </c>
-      <c r="D256" t="s">
-        <v>314</v>
+        <v>175</v>
+      </c>
+      <c r="C256">
+        <v>7</v>
+      </c>
+      <c r="D256">
+        <v>17</v>
       </c>
       <c r="E256" t="s">
-        <v>295</v>
+        <v>177</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
       </c>
       <c r="G256" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="B257" t="s">
-        <v>314</v>
-      </c>
-      <c r="C257" t="s">
-        <v>314</v>
-      </c>
-      <c r="D257" t="s">
-        <v>314</v>
+        <v>175</v>
+      </c>
+      <c r="C257">
+        <v>7</v>
+      </c>
+      <c r="D257">
+        <v>17</v>
       </c>
       <c r="E257" t="s">
-        <v>297</v>
+        <v>176</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
       </c>
       <c r="G257" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>257</v>
+        <v>29</v>
       </c>
       <c r="B258" t="s">
-        <v>314</v>
-      </c>
-      <c r="C258" t="s">
-        <v>314</v>
-      </c>
-      <c r="D258" t="s">
-        <v>314</v>
+        <v>45</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>6</v>
       </c>
       <c r="E258" t="s">
-        <v>300</v>
+        <v>52</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
       </c>
       <c r="G258" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="B259" t="s">
-        <v>314</v>
-      </c>
-      <c r="C259" t="s">
-        <v>314</v>
-      </c>
-      <c r="D259" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C259">
+        <v>5.5</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
       </c>
       <c r="E259" t="s">
-        <v>298</v>
+        <v>310</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
       </c>
       <c r="G259" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="H259" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B260" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C260" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D260" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E260" t="s">
-        <v>301</v>
+        <v>251</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" t="s">
+        <v>110</v>
       </c>
       <c r="H260" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="B261" t="s">
-        <v>314</v>
-      </c>
-      <c r="C261" t="s">
-        <v>314</v>
-      </c>
-      <c r="D261" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C261">
+        <v>5.5</v>
+      </c>
+      <c r="D261">
+        <v>11</v>
       </c>
       <c r="E261" t="s">
-        <v>302</v>
+        <v>134</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" t="s">
+        <v>48</v>
       </c>
       <c r="H261" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="B262" t="s">
-        <v>314</v>
-      </c>
-      <c r="C262" t="s">
-        <v>314</v>
-      </c>
-      <c r="D262" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C262">
+        <v>5.5</v>
+      </c>
+      <c r="D262">
+        <v>8</v>
       </c>
       <c r="E262" t="s">
-        <v>303</v>
+        <v>64</v>
+      </c>
+      <c r="F262" t="s">
+        <v>21</v>
+      </c>
+      <c r="G262" t="s">
+        <v>25</v>
       </c>
       <c r="H262" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B263" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C263" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D263" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E263" t="s">
-        <v>304</v>
+        <v>271</v>
+      </c>
+      <c r="G263" t="s">
+        <v>272</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
@@ -8588,19 +8561,25 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="B264" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C264" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D264" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E264" t="s">
-        <v>305</v>
+        <v>233</v>
+      </c>
+      <c r="F264" t="s">
+        <v>17</v>
+      </c>
+      <c r="G264" t="s">
+        <v>77</v>
       </c>
       <c r="H264" t="s">
         <v>19</v>
@@ -8608,39 +8587,51 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="B265" t="s">
-        <v>314</v>
-      </c>
-      <c r="C265" t="s">
-        <v>314</v>
-      </c>
-      <c r="D265" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C265">
+        <v>5.5</v>
+      </c>
+      <c r="D265">
+        <v>12</v>
       </c>
       <c r="E265" t="s">
-        <v>306</v>
+        <v>150</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" t="s">
+        <v>11</v>
       </c>
       <c r="H265" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="B266" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C266" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D266" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E266" t="s">
-        <v>307</v>
+        <v>223</v>
+      </c>
+      <c r="F266" t="s">
+        <v>17</v>
+      </c>
+      <c r="G266" t="s">
+        <v>288</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
@@ -8648,39 +8639,51 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="B267" t="s">
-        <v>314</v>
-      </c>
-      <c r="C267" t="s">
-        <v>314</v>
-      </c>
-      <c r="D267" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C267">
+        <v>5.5</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
       </c>
       <c r="E267" t="s">
-        <v>308</v>
+        <v>72</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
       </c>
       <c r="H267" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="B268" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C268" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D268" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E268" t="s">
-        <v>309</v>
+        <v>237</v>
+      </c>
+      <c r="F268" t="s">
+        <v>17</v>
+      </c>
+      <c r="G268" t="s">
+        <v>18</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
@@ -8688,48 +8691,57 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="B269" t="s">
-        <v>314</v>
-      </c>
-      <c r="C269" t="s">
-        <v>314</v>
-      </c>
-      <c r="D269" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="C269">
+        <v>5.5</v>
+      </c>
+      <c r="D269">
+        <v>14</v>
       </c>
       <c r="E269" t="s">
-        <v>310</v>
+        <v>165</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B270" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C270" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D270" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E270" t="s">
-        <v>311</v>
+        <v>273</v>
+      </c>
+      <c r="G270" t="s">
+        <v>59</v>
       </c>
       <c r="H270" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H270">
-      <sortCondition ref="G1:G270"/>
+      <sortCondition ref="E1:E270"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H270">
@@ -8737,6 +8749,7 @@
     <sortCondition ref="D2:D270"/>
     <sortCondition ref="F2:F270"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/constituyentes 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{546E2F7B-33D0-0A45-9AC0-D7BDD568E088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B05690D8-9F38-9C41-B783-A4ED3CCEDB52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="317">
   <si>
     <t>id</t>
   </si>
@@ -439,9 +439,6 @@
     <t>Antonia Matus Ramirez</t>
   </si>
   <si>
-    <t>Maite Desconvieres Vargas</t>
-  </si>
-  <si>
     <t>Luis Acevedo Espindola</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>Amaya Alvez Marin</t>
   </si>
   <si>
-    <t>Daniel Dresdner Vicencio</t>
-  </si>
-  <si>
     <t>Claudio Carter Erazo</t>
   </si>
   <si>
@@ -598,24 +592,15 @@
     <t>Jose Silva Inostroza</t>
   </si>
   <si>
-    <t>Domingo Ramos Avello</t>
-  </si>
-  <si>
     <t>Andres Smith Bustos</t>
   </si>
   <si>
-    <t>Alejandro Ugarte Romero</t>
-  </si>
-  <si>
     <t>Maria Viveros Ovando</t>
   </si>
   <si>
     <t>Camilo Escalona</t>
   </si>
   <si>
-    <t>Juan Canales Sanhueza</t>
-  </si>
-  <si>
     <t>Araucanía</t>
   </si>
   <si>
@@ -631,18 +616,9 @@
     <t>Los Lagos</t>
   </si>
   <si>
-    <t>Daniela Carvacho Diaz</t>
-  </si>
-  <si>
     <t>Pedro Glatz Brahm</t>
   </si>
   <si>
-    <t>Esteban Vielma Salazar</t>
-  </si>
-  <si>
-    <t>Freddy Calderon Calderon</t>
-  </si>
-  <si>
     <t>Rodrigo Diaz Choque</t>
   </si>
   <si>
@@ -974,6 +950,30 @@
   </si>
   <si>
     <t>Juan Cantuarias</t>
+  </si>
+  <si>
+    <t>Alejandro Ugarte</t>
+  </si>
+  <si>
+    <t>Domingo Ramos</t>
+  </si>
+  <si>
+    <t>Juan Canales</t>
+  </si>
+  <si>
+    <t>Daniela Carvacho</t>
+  </si>
+  <si>
+    <t>Esteban Vielma</t>
+  </si>
+  <si>
+    <t>Freddy Calderon</t>
+  </si>
+  <si>
+    <t>Daniel Dresdner</t>
+  </si>
+  <si>
+    <t>Maite Desconvieres</t>
   </si>
 </sst>
 </file>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1860,25 +1860,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1886,100 +1886,103 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" t="s">
-        <v>287</v>
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1987,25 +1990,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2013,25 +2016,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2039,25 +2042,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2065,25 +2068,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2091,51 +2094,51 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -2143,39 +2146,45 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" t="s">
-        <v>287</v>
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>281</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -2189,25 +2198,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -2215,19 +2224,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -2241,19 +2250,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -2267,45 +2276,45 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" t="s">
-        <v>287</v>
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2319,25 +2328,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -2345,45 +2354,45 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" t="s">
-        <v>287</v>
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -2397,25 +2406,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" t="s">
-        <v>287</v>
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -2423,33 +2432,33 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" t="s">
-        <v>287</v>
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
@@ -2458,114 +2467,114 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
-      </c>
-      <c r="C27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D27" t="s">
-        <v>287</v>
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" t="s">
-        <v>287</v>
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>302</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2579,25 +2588,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -2605,77 +2614,77 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2683,19 +2692,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -2709,45 +2718,45 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D35" t="s">
-        <v>287</v>
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
-      </c>
-      <c r="C36" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" t="s">
-        <v>287</v>
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2756,30 +2765,30 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37">
+        <v>5.5</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
         <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -2787,25 +2796,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C38">
         <v>5.5</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -2813,19 +2822,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C39">
         <v>5.5</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
@@ -2839,19 +2848,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
@@ -2865,25 +2874,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C41">
         <v>5.5</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -2891,25 +2900,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2917,45 +2926,45 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="C43">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2964,24 +2973,24 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C45">
         <v>5.5</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2995,19 +3004,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C46">
         <v>5.5</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3021,10 +3030,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -3033,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3047,45 +3056,51 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>262</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
-      </c>
-      <c r="C48" t="s">
-        <v>287</v>
-      </c>
-      <c r="D48" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C48">
+        <v>5.5</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>277</v>
+        <v>75</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
-      </c>
-      <c r="C49" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C49">
+        <v>5.5</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
@@ -3093,25 +3108,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C50">
         <v>5.5</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
@@ -3119,19 +3134,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
@@ -3145,103 +3160,103 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
-      </c>
-      <c r="C52" t="s">
-        <v>287</v>
-      </c>
-      <c r="D52" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C52">
+        <v>5.5</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
-      </c>
-      <c r="C53" t="s">
-        <v>287</v>
-      </c>
-      <c r="D53" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C53">
+        <v>5.5</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C55">
         <v>5.5</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
@@ -3249,19 +3264,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3275,25 +3290,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C57">
         <v>5.5</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
@@ -3301,100 +3316,106 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58">
+        <v>5.5</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s">
         <v>84</v>
       </c>
-      <c r="B58" t="s">
-        <v>286</v>
-      </c>
-      <c r="C58">
-        <v>5.5</v>
-      </c>
-      <c r="D58">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C59">
         <v>5.5</v>
       </c>
       <c r="D59">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
-      </c>
-      <c r="C61" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C61">
+        <v>5.5</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
+        <v>89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3402,7 +3423,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C62">
         <v>5.5</v>
@@ -3425,45 +3446,45 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
         <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
         <v>21</v>
@@ -3472,24 +3493,24 @@
         <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F65" t="s">
         <v>21</v>
@@ -3503,10 +3524,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3515,13 +3536,13 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -3529,36 +3550,36 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C67">
         <v>5.5</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3567,7 +3588,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
@@ -3581,19 +3602,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F69" t="s">
         <v>21</v>
@@ -3607,19 +3628,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
@@ -3633,25 +3654,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3659,10 +3680,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3671,13 +3692,13 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -3685,25 +3706,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
@@ -3711,25 +3732,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C74">
         <v>5.5</v>
       </c>
       <c r="D74">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3737,25 +3758,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C75">
         <v>5.5</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3763,25 +3784,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3789,62 +3810,62 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
-      </c>
-      <c r="C77" t="s">
-        <v>287</v>
-      </c>
-      <c r="D77" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C77">
+        <v>5.5</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -3853,13 +3874,13 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
@@ -3867,36 +3888,36 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D80">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -3905,13 +3926,13 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
@@ -3919,45 +3940,51 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
-      </c>
-      <c r="C82" t="s">
-        <v>287</v>
-      </c>
-      <c r="D82" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C82">
+        <v>5.5</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>280</v>
+        <v>113</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D83">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
@@ -3965,25 +3992,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C84">
         <v>5.5</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
@@ -3991,25 +4018,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
@@ -4017,19 +4044,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C86">
         <v>5.5</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4043,19 +4070,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C87">
         <v>5.5</v>
       </c>
       <c r="D87">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4069,19 +4096,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4095,19 +4122,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="C89">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4121,117 +4148,123 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
-      </c>
-      <c r="C90" t="s">
-        <v>287</v>
-      </c>
-      <c r="D90" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C90">
+        <v>5.5</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C91">
+        <v>5.5</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>274</v>
+        <v>121</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C93">
         <v>5.5</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C94">
         <v>5.5</v>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4245,19 +4278,19 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4271,25 +4304,25 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
@@ -4297,19 +4330,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C97">
         <v>5.5</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -4323,36 +4356,36 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
-      </c>
-      <c r="C98" t="s">
-        <v>287</v>
-      </c>
-      <c r="D98" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C98">
+        <v>5.5</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4361,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4375,10 +4408,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C100">
         <v>5.5</v>
@@ -4387,13 +4420,7 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>93</v>
-      </c>
-      <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
@@ -4401,19 +4428,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
-      </c>
-      <c r="C101" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C101">
+        <v>5.5</v>
+      </c>
+      <c r="D101">
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
@@ -4422,41 +4449,41 @@
         <v>86</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4465,7 +4492,7 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="F103" t="s">
         <v>21</v>
@@ -4479,51 +4506,51 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" t="s">
-        <v>287</v>
-      </c>
-      <c r="D104" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C104">
+        <v>5.5</v>
+      </c>
+      <c r="D104">
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
@@ -4531,25 +4558,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="C106">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D106">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
@@ -4557,65 +4584,71 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
-      </c>
-      <c r="C107" t="s">
-        <v>287</v>
-      </c>
-      <c r="D107" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C107">
+        <v>5.5</v>
+      </c>
+      <c r="D107">
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C108">
         <v>5.5</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C109">
         <v>5.5</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4629,45 +4662,45 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C110">
         <v>5.5</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>85</v>
+        <v>316</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="C111">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="D111">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4681,19 +4714,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D112">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4707,25 +4740,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C113">
         <v>5.5</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
@@ -4733,10 +4766,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -4745,13 +4778,13 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
@@ -4759,25 +4792,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C115">
         <v>5.5</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H115" t="s">
         <v>12</v>
@@ -4785,155 +4818,131 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
-      </c>
-      <c r="C117" t="s">
-        <v>287</v>
-      </c>
-      <c r="D117" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C117">
+        <v>5.5</v>
+      </c>
+      <c r="D117">
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>258</v>
-      </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="H117" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
-      </c>
-      <c r="C118" t="s">
-        <v>287</v>
-      </c>
-      <c r="D118" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C118">
+        <v>5.5</v>
+      </c>
+      <c r="D118">
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>216</v>
-      </c>
-      <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="H118" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>189</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>289</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D121">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="F121" t="s">
         <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H121" t="s">
         <v>12</v>
@@ -4941,71 +4950,71 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
-      </c>
-      <c r="C122" t="s">
-        <v>287</v>
-      </c>
-      <c r="D122" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C122">
+        <v>5.5</v>
+      </c>
+      <c r="D122">
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
-      </c>
-      <c r="C123" t="s">
-        <v>287</v>
-      </c>
-      <c r="D123" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C123">
+        <v>5.5</v>
+      </c>
+      <c r="D123">
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5019,19 +5028,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5045,71 +5054,71 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
-      </c>
-      <c r="C126" t="s">
-        <v>287</v>
-      </c>
-      <c r="D126" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C126">
+        <v>5.5</v>
+      </c>
+      <c r="D126">
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
-      </c>
-      <c r="C127" t="s">
-        <v>287</v>
-      </c>
-      <c r="D127" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C127">
+        <v>5.5</v>
+      </c>
+      <c r="D127">
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C128">
         <v>5.5</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5118,56 +5127,56 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
-      </c>
-      <c r="C129" t="s">
-        <v>287</v>
-      </c>
-      <c r="D129" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C129">
+        <v>5.5</v>
+      </c>
+      <c r="D129">
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C130">
         <v>5.5</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
@@ -5175,25 +5184,25 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C131">
         <v>5.5</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
@@ -5201,65 +5210,71 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>174</v>
+        <v>297</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>287</v>
-      </c>
-      <c r="C133" t="s">
-        <v>287</v>
-      </c>
-      <c r="D133" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C133">
+        <v>5.5</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C134">
         <v>5.5</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -5273,19 +5288,19 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D135">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5299,19 +5314,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5325,129 +5340,129 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
-      </c>
-      <c r="C137" t="s">
-        <v>287</v>
-      </c>
-      <c r="D137" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C137">
+        <v>5.5</v>
+      </c>
+      <c r="D137">
+        <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>287</v>
-      </c>
-      <c r="C138" t="s">
-        <v>287</v>
-      </c>
-      <c r="D138" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C138">
+        <v>5.5</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C139">
         <v>5.5</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G139" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
-      </c>
-      <c r="C140" t="s">
-        <v>287</v>
-      </c>
-      <c r="D140" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C140">
+        <v>5.5</v>
+      </c>
+      <c r="D140">
+        <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G140" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G141" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H141" t="s">
         <v>12</v>
@@ -5455,10 +5470,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C142">
         <v>5.5</v>
@@ -5467,13 +5482,13 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
@@ -5481,25 +5496,25 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C143">
         <v>5.5</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="F143" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H143" t="s">
         <v>32</v>
@@ -5507,25 +5522,25 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D144">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G144" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
@@ -5533,19 +5548,19 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D145">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5559,19 +5574,19 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C146">
         <v>5.5</v>
       </c>
       <c r="D146">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5585,19 +5600,25 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C147">
         <v>5.5</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>142</v>
+        <v>162</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
       </c>
       <c r="H147" t="s">
         <v>12</v>
@@ -5605,117 +5626,129 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>287</v>
-      </c>
-      <c r="C148" t="s">
-        <v>287</v>
-      </c>
-      <c r="D148" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C148">
+        <v>5.5</v>
+      </c>
+      <c r="D148">
+        <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>163</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
-      </c>
-      <c r="C149" t="s">
-        <v>287</v>
-      </c>
-      <c r="D149" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="C149">
+        <v>5.5</v>
+      </c>
+      <c r="D149">
+        <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>282</v>
+        <v>164</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>287</v>
-      </c>
-      <c r="C150" t="s">
-        <v>287</v>
-      </c>
-      <c r="D150" t="s">
-        <v>287</v>
+        <v>165</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G150" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H150" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>287</v>
-      </c>
-      <c r="C151" t="s">
-        <v>287</v>
-      </c>
-      <c r="D151" t="s">
-        <v>287</v>
+        <v>165</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G151" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H151" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C152">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D152">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="F152" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G152" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H152" t="s">
         <v>12</v>
@@ -5723,25 +5756,25 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C153">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D153">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F153" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G153" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -5749,25 +5782,25 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="F154" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G154" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -5775,175 +5808,169 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C155">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D155">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G155" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>287</v>
-      </c>
-      <c r="C156" t="s">
-        <v>287</v>
-      </c>
-      <c r="D156" t="s">
-        <v>287</v>
+        <v>165</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G156" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>287</v>
-      </c>
-      <c r="C157" t="s">
-        <v>287</v>
-      </c>
-      <c r="D157" t="s">
-        <v>287</v>
+        <v>165</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C158">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C159">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D159">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>141</v>
-      </c>
-      <c r="F159" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="H159" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
-      </c>
-      <c r="C160" t="s">
-        <v>287</v>
-      </c>
-      <c r="D160" t="s">
-        <v>287</v>
+        <v>174</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+      <c r="D160">
+        <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="F160" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="G160" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H160" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>174</v>
+      </c>
+      <c r="C161">
         <v>7</v>
       </c>
-      <c r="B161" t="s">
-        <v>15</v>
-      </c>
-      <c r="C161">
-        <v>2</v>
-      </c>
       <c r="D161">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F161" t="s">
         <v>21</v>
@@ -5957,149 +5984,149 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G162" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>287</v>
-      </c>
-      <c r="C163" t="s">
-        <v>287</v>
-      </c>
-      <c r="D163" t="s">
-        <v>287</v>
+        <v>174</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="F163" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>287</v>
-      </c>
-      <c r="C164" t="s">
-        <v>287</v>
-      </c>
-      <c r="D164" t="s">
-        <v>287</v>
+        <v>174</v>
+      </c>
+      <c r="C164">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>18</v>
       </c>
       <c r="E164" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="C165">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E165" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>287</v>
-      </c>
-      <c r="C166" t="s">
-        <v>287</v>
-      </c>
-      <c r="D166" t="s">
-        <v>287</v>
+        <v>178</v>
+      </c>
+      <c r="C166">
+        <v>7.5</v>
+      </c>
+      <c r="D166">
+        <v>19</v>
       </c>
       <c r="E166" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="C167">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D167">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E167" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6113,19 +6140,19 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="C168">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D168">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6139,19 +6166,19 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="C169">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6165,71 +6192,77 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>287</v>
-      </c>
-      <c r="C170" t="s">
-        <v>287</v>
-      </c>
-      <c r="D170" t="s">
-        <v>287</v>
+        <v>181</v>
+      </c>
+      <c r="C170">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G170" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H170" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>287</v>
-      </c>
-      <c r="C171" t="s">
-        <v>287</v>
-      </c>
-      <c r="D171" t="s">
-        <v>287</v>
+        <v>181</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>20</v>
       </c>
       <c r="E171" t="s">
-        <v>275</v>
+        <v>315</v>
+      </c>
+      <c r="F171" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>25</v>
       </c>
       <c r="H171" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="C172">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G172" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
@@ -6237,19 +6270,19 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C173">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D173">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
@@ -6263,25 +6296,25 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C174">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D174">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G174" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -6289,45 +6322,45 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>287</v>
-      </c>
-      <c r="C175" t="s">
-        <v>287</v>
-      </c>
-      <c r="D175" t="s">
-        <v>287</v>
+        <v>181</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C176">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D176">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6341,19 +6374,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C177">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D177">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6367,25 +6400,25 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C178">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H178" t="s">
         <v>12</v>
@@ -6393,25 +6426,25 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C179">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D179">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G179" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
@@ -6419,25 +6452,25 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C180">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D180">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F180" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H180" t="s">
         <v>12</v>
@@ -6445,19 +6478,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C181">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6471,25 +6504,25 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="C182">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>57</v>
+        <v>309</v>
       </c>
       <c r="F182" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H182" t="s">
         <v>12</v>
@@ -6497,25 +6530,25 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C183">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D183">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H183" t="s">
         <v>12</v>
@@ -6523,19 +6556,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="C184">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6544,24 +6577,24 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185">
         <v>8</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E185" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6575,19 +6608,25 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="C186">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="D186">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>143</v>
+        <v>193</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
       </c>
       <c r="H186" t="s">
         <v>12</v>
@@ -6595,25 +6634,25 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="C187">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H187" t="s">
         <v>12</v>
@@ -6621,45 +6660,51 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>287</v>
-      </c>
-      <c r="C188" t="s">
-        <v>287</v>
-      </c>
-      <c r="D188" t="s">
-        <v>287</v>
+        <v>192</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+      <c r="D188">
+        <v>23</v>
       </c>
       <c r="E188" t="s">
-        <v>281</v>
+        <v>194</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="C189">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="D189">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E189" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G189" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H189" t="s">
         <v>12</v>
@@ -6667,39 +6712,45 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="C190">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D190">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E190" t="s">
-        <v>144</v>
+        <v>289</v>
+      </c>
+      <c r="F190" t="s">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>25</v>
       </c>
       <c r="H190" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E191" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6713,65 +6764,71 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="C192">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D192">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E192" t="s">
-        <v>146</v>
+        <v>197</v>
+      </c>
+      <c r="F192" t="s">
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>25</v>
       </c>
       <c r="H192" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>287</v>
-      </c>
-      <c r="C193" t="s">
-        <v>287</v>
-      </c>
-      <c r="D193" t="s">
-        <v>287</v>
+        <v>196</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193">
+        <v>26</v>
       </c>
       <c r="E193" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="F193" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G193" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="H193" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="C194">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E194" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6785,25 +6842,25 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="F195" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G195" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H195" t="s">
         <v>12</v>
@@ -6811,19 +6868,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="C196">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D196">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -6837,19 +6894,19 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="C197">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E197" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -6863,25 +6920,25 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="C198">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G198" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
@@ -6889,25 +6946,25 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C199">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D199">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="F199" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G199" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H199" t="s">
         <v>12</v>
@@ -6915,25 +6972,25 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C200">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D200">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E200" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
@@ -6941,19 +6998,19 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="C201">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D201">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E201" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -6967,45 +7024,51 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>287</v>
-      </c>
-      <c r="C202" t="s">
-        <v>287</v>
-      </c>
-      <c r="D202" t="s">
-        <v>287</v>
+        <v>277</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>28</v>
       </c>
       <c r="E202" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C203" t="s">
-        <v>287</v>
-      </c>
-      <c r="D203" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D203">
+        <v>999</v>
       </c>
       <c r="E203" t="s">
-        <v>284</v>
+        <v>206</v>
+      </c>
+      <c r="F203" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" t="s">
+        <v>86</v>
       </c>
       <c r="H203" t="s">
         <v>19</v>
@@ -7013,519 +7076,519 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C204" t="s">
-        <v>287</v>
-      </c>
-      <c r="D204" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D204">
+        <v>999</v>
       </c>
       <c r="E204" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G204" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H204" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>286</v>
-      </c>
-      <c r="C205">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C205" t="s">
+        <v>279</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="F205" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>286</v>
-      </c>
-      <c r="C206">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C206" t="s">
+        <v>279</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="F206" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G206" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H206" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>286</v>
-      </c>
-      <c r="C207">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C207" t="s">
+        <v>279</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="F207" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G207" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H207" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C208" t="s">
-        <v>287</v>
-      </c>
-      <c r="D208" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D208">
+        <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="F208" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="H208" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>179</v>
-      </c>
-      <c r="C209">
-        <v>7.5</v>
+        <v>279</v>
+      </c>
+      <c r="C209" t="s">
+        <v>279</v>
       </c>
       <c r="D209">
+        <v>999</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+      <c r="F209" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" t="s">
+        <v>86</v>
+      </c>
+      <c r="H209" t="s">
         <v>19</v>
-      </c>
-      <c r="E209" t="s">
-        <v>304</v>
-      </c>
-      <c r="F209" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" t="s">
-        <v>11</v>
-      </c>
-      <c r="H209" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>286</v>
-      </c>
-      <c r="C210">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C210" t="s">
+        <v>279</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="F210" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H210" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>286</v>
-      </c>
-      <c r="C211">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C211" t="s">
+        <v>279</v>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="H211" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C212" t="s">
-        <v>287</v>
-      </c>
-      <c r="D212" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D212">
+        <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="F212" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="H212" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>286</v>
-      </c>
-      <c r="C213">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C213" t="s">
+        <v>279</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>286</v>
-      </c>
-      <c r="C214">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C214" t="s">
+        <v>279</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="F214" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="H214" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>286</v>
-      </c>
-      <c r="C215">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C215" t="s">
+        <v>279</v>
       </c>
       <c r="D215">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="F215" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H215" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>34</v>
-      </c>
-      <c r="C216">
-        <v>3</v>
+        <v>279</v>
+      </c>
+      <c r="C216" t="s">
+        <v>279</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="F216" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G216" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H216" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>36</v>
-      </c>
-      <c r="C217">
-        <v>4</v>
+        <v>279</v>
+      </c>
+      <c r="C217" t="s">
+        <v>279</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="F217" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G217" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H217" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>286</v>
-      </c>
-      <c r="C218">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C218" t="s">
+        <v>279</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="F218" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H218" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>45</v>
-      </c>
-      <c r="C219">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="C219" t="s">
+        <v>279</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="F219" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G219" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H219" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C220" t="s">
-        <v>287</v>
-      </c>
-      <c r="D220" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D220">
+        <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="F220" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G220" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H220" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>286</v>
-      </c>
-      <c r="C221">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C221" t="s">
+        <v>279</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="F221" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G221" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H221" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>286</v>
-      </c>
-      <c r="C222">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C222" t="s">
+        <v>279</v>
       </c>
       <c r="D222">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="F222" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H222" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C223" t="s">
-        <v>287</v>
-      </c>
-      <c r="D223" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D223">
+        <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
       </c>
       <c r="G223" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
@@ -7533,181 +7596,181 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>286</v>
-      </c>
-      <c r="C224">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C224" t="s">
+        <v>279</v>
       </c>
       <c r="D224">
-        <v>14</v>
+        <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="F224" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G224" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H224" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>286</v>
-      </c>
-      <c r="C225">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C225" t="s">
+        <v>279</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="F225" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G225" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H225" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>201</v>
-      </c>
-      <c r="C226">
-        <v>10</v>
+        <v>279</v>
+      </c>
+      <c r="C226" t="s">
+        <v>279</v>
       </c>
       <c r="D226">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="F226" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G226" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H226" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>286</v>
-      </c>
-      <c r="C227">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C227" t="s">
+        <v>279</v>
       </c>
       <c r="D227">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
       </c>
       <c r="G227" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H227" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>286</v>
-      </c>
-      <c r="C228">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C228" t="s">
+        <v>279</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
       </c>
       <c r="G228" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H228" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>286</v>
-      </c>
-      <c r="C229">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C229" t="s">
+        <v>279</v>
       </c>
       <c r="D229">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="F229" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G229" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H229" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>286</v>
-      </c>
-      <c r="C230">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C230" t="s">
+        <v>279</v>
       </c>
       <c r="D230">
-        <v>14</v>
+        <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="F230" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G230" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H230" t="s">
         <v>12</v>
@@ -7715,25 +7778,25 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>279</v>
+      </c>
+      <c r="C231" t="s">
+        <v>279</v>
+      </c>
+      <c r="D231">
+        <v>999</v>
+      </c>
+      <c r="E231" t="s">
         <v>235</v>
       </c>
-      <c r="B231" t="s">
-        <v>287</v>
-      </c>
-      <c r="C231" t="s">
-        <v>287</v>
-      </c>
-      <c r="D231" t="s">
-        <v>287</v>
-      </c>
-      <c r="E231" t="s">
-        <v>247</v>
-      </c>
       <c r="F231" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G231" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H231" t="s">
         <v>32</v>
@@ -7741,455 +7804,461 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>286</v>
-      </c>
-      <c r="C232">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C232" t="s">
+        <v>279</v>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="F232" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G232" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H232" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>279</v>
+      </c>
+      <c r="C233" t="s">
+        <v>279</v>
+      </c>
+      <c r="D233">
+        <v>999</v>
+      </c>
+      <c r="E233" t="s">
         <v>287</v>
       </c>
-      <c r="C233" t="s">
-        <v>287</v>
-      </c>
-      <c r="D233" t="s">
-        <v>287</v>
-      </c>
-      <c r="E233" t="s">
-        <v>245</v>
-      </c>
       <c r="F233" t="s">
         <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H233" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>286</v>
-      </c>
-      <c r="C234">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C234" t="s">
+        <v>279</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H234" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>175</v>
-      </c>
-      <c r="C235">
-        <v>7</v>
+        <v>279</v>
+      </c>
+      <c r="C235" t="s">
+        <v>279</v>
       </c>
       <c r="D235">
-        <v>18</v>
+        <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H235" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>286</v>
-      </c>
-      <c r="C236">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C236" t="s">
+        <v>279</v>
       </c>
       <c r="D236">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H236" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>45</v>
-      </c>
-      <c r="C237">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="C237" t="s">
+        <v>279</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H237" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>286</v>
-      </c>
-      <c r="C238">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C238" t="s">
+        <v>279</v>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="H238" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>286</v>
-      </c>
-      <c r="C239">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C239" t="s">
+        <v>279</v>
       </c>
       <c r="D239">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="H239" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>286</v>
-      </c>
-      <c r="C240">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C240" t="s">
+        <v>279</v>
       </c>
       <c r="D240">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="H240" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>286</v>
-      </c>
-      <c r="C241">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C241" t="s">
+        <v>279</v>
       </c>
       <c r="D241">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="F241" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="H241" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>201</v>
-      </c>
-      <c r="C242">
-        <v>10</v>
+        <v>279</v>
+      </c>
+      <c r="C242" t="s">
+        <v>279</v>
       </c>
       <c r="D242">
-        <v>26</v>
+        <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="F242" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="H242" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C243" t="s">
-        <v>287</v>
-      </c>
-      <c r="D243" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D243">
+        <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>279</v>
+        <v>246</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
+        <v>110</v>
       </c>
       <c r="H243" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C244" t="s">
-        <v>287</v>
-      </c>
-      <c r="D244" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D244">
+        <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F244" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="H244" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>175</v>
-      </c>
-      <c r="C245">
-        <v>7</v>
+        <v>279</v>
+      </c>
+      <c r="C245" t="s">
+        <v>279</v>
       </c>
       <c r="D245">
-        <v>17</v>
+        <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="F245" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H245" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>175</v>
-      </c>
-      <c r="C246">
-        <v>7</v>
+        <v>279</v>
+      </c>
+      <c r="C246" t="s">
+        <v>279</v>
       </c>
       <c r="D246">
-        <v>18</v>
+        <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H246" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>286</v>
-      </c>
-      <c r="C247">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C247" t="s">
+        <v>279</v>
       </c>
       <c r="D247">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H247" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>286</v>
-      </c>
-      <c r="C248">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C248" t="s">
+        <v>279</v>
       </c>
       <c r="D248">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H248" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>286</v>
-      </c>
-      <c r="C249">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C249" t="s">
+        <v>279</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -8198,50 +8267,50 @@
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
-      </c>
-      <c r="C250">
-        <v>2</v>
+        <v>279</v>
+      </c>
+      <c r="C250" t="s">
+        <v>279</v>
       </c>
       <c r="D250">
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="F250" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G250" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251">
-        <v>0.5</v>
+        <v>279</v>
+      </c>
+      <c r="C251" t="s">
+        <v>279</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -8250,310 +8319,280 @@
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>279</v>
+      </c>
+      <c r="C252" t="s">
+        <v>279</v>
+      </c>
+      <c r="D252">
+        <v>999</v>
+      </c>
+      <c r="E252" t="s">
         <v>255</v>
       </c>
-      <c r="B252" t="s">
-        <v>287</v>
-      </c>
-      <c r="C252" t="s">
-        <v>287</v>
-      </c>
-      <c r="D252" t="s">
-        <v>287</v>
-      </c>
-      <c r="E252" t="s">
-        <v>268</v>
+      <c r="F252" t="s">
+        <v>83</v>
       </c>
       <c r="G252" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="H252" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>286</v>
-      </c>
-      <c r="C253">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C253" t="s">
+        <v>279</v>
       </c>
       <c r="D253">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="F253" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G253" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="H253" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>200</v>
-      </c>
-      <c r="C254">
-        <v>9.5</v>
+        <v>279</v>
+      </c>
+      <c r="C254" t="s">
+        <v>279</v>
       </c>
       <c r="D254">
-        <v>24</v>
+        <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F254" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="G254" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H254" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>286</v>
-      </c>
-      <c r="C255">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C255" t="s">
+        <v>279</v>
       </c>
       <c r="D255">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>127</v>
+        <v>259</v>
       </c>
       <c r="F255" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G255" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="H255" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>175</v>
-      </c>
-      <c r="C256">
-        <v>7</v>
+        <v>279</v>
+      </c>
+      <c r="C256" t="s">
+        <v>279</v>
       </c>
       <c r="D256">
-        <v>17</v>
+        <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>177</v>
-      </c>
-      <c r="F256" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="G256" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H256" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>175</v>
-      </c>
-      <c r="C257">
-        <v>7</v>
+        <v>279</v>
+      </c>
+      <c r="C257" t="s">
+        <v>279</v>
       </c>
       <c r="D257">
-        <v>17</v>
+        <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>176</v>
-      </c>
-      <c r="F257" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="G257" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H257" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>45</v>
-      </c>
-      <c r="C258">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="C258" t="s">
+        <v>279</v>
       </c>
       <c r="D258">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>52</v>
-      </c>
-      <c r="F258" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="G258" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H258" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>286</v>
-      </c>
-      <c r="C259">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C259" t="s">
+        <v>279</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>310</v>
-      </c>
-      <c r="F259" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="G259" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="H259" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C260" t="s">
-        <v>287</v>
-      </c>
-      <c r="D260" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D260">
+        <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>251</v>
-      </c>
-      <c r="F260" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="H260" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>286</v>
-      </c>
-      <c r="C261">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C261" t="s">
+        <v>279</v>
       </c>
       <c r="D261">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E261" t="s">
-        <v>134</v>
-      </c>
-      <c r="F261" t="s">
-        <v>10</v>
-      </c>
-      <c r="G261" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="H261" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>286</v>
-      </c>
-      <c r="C262">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C262" t="s">
+        <v>279</v>
       </c>
       <c r="D262">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="E262" t="s">
-        <v>64</v>
-      </c>
-      <c r="F262" t="s">
-        <v>21</v>
-      </c>
-      <c r="G262" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="H262" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C263" t="s">
-        <v>287</v>
-      </c>
-      <c r="D263" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D263">
+        <v>999</v>
       </c>
       <c r="E263" t="s">
-        <v>271</v>
-      </c>
-      <c r="G263" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
@@ -8561,25 +8600,19 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C264" t="s">
-        <v>287</v>
-      </c>
-      <c r="D264" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D264">
+        <v>999</v>
       </c>
       <c r="E264" t="s">
-        <v>233</v>
-      </c>
-      <c r="F264" t="s">
-        <v>17</v>
-      </c>
-      <c r="G264" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="H264" t="s">
         <v>19</v>
@@ -8587,51 +8620,39 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>286</v>
-      </c>
-      <c r="C265">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C265" t="s">
+        <v>279</v>
       </c>
       <c r="D265">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="E265" t="s">
-        <v>150</v>
-      </c>
-      <c r="F265" t="s">
-        <v>10</v>
-      </c>
-      <c r="G265" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="H265" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C266" t="s">
-        <v>287</v>
-      </c>
-      <c r="D266" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D266">
+        <v>999</v>
       </c>
       <c r="E266" t="s">
-        <v>223</v>
-      </c>
-      <c r="F266" t="s">
-        <v>17</v>
-      </c>
-      <c r="G266" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
@@ -8639,51 +8660,39 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>286</v>
-      </c>
-      <c r="C267">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C267" t="s">
+        <v>279</v>
       </c>
       <c r="D267">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="E267" t="s">
-        <v>72</v>
-      </c>
-      <c r="F267" t="s">
-        <v>10</v>
-      </c>
-      <c r="G267" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="H267" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C268" t="s">
-        <v>287</v>
-      </c>
-      <c r="D268" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D268">
+        <v>999</v>
       </c>
       <c r="E268" t="s">
-        <v>237</v>
-      </c>
-      <c r="F268" t="s">
-        <v>17</v>
-      </c>
-      <c r="G268" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
@@ -8691,57 +8700,48 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>286</v>
-      </c>
-      <c r="C269">
-        <v>5.5</v>
+        <v>279</v>
+      </c>
+      <c r="C269" t="s">
+        <v>279</v>
       </c>
       <c r="D269">
-        <v>14</v>
+        <v>999</v>
       </c>
       <c r="E269" t="s">
-        <v>165</v>
-      </c>
-      <c r="F269" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="H269" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C270" t="s">
-        <v>287</v>
-      </c>
-      <c r="D270" t="s">
-        <v>287</v>
+        <v>279</v>
+      </c>
+      <c r="D270">
+        <v>999</v>
       </c>
       <c r="E270" t="s">
-        <v>273</v>
-      </c>
-      <c r="G270" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="H270" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H270">
-      <sortCondition ref="E1:E270"/>
+      <sortCondition ref="A1:A270"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H270">

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/constituyentes 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B05690D8-9F38-9C41-B783-A4ED3CCEDB52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6183BFD-A0BD-1048-8A79-C0FDA6490BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="319">
   <si>
     <t>id</t>
   </si>
@@ -163,18 +163,12 @@
     <t>Valparaíso</t>
   </si>
   <si>
-    <t>Alejandra Toledo Figueroa</t>
-  </si>
-  <si>
     <t>Ignacio Walker</t>
   </si>
   <si>
     <t>DC</t>
   </si>
   <si>
-    <t>Carmen Obreque Sanchez</t>
-  </si>
-  <si>
     <t>Alfaro Diaz Sandoval</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>Ind</t>
   </si>
   <si>
-    <t>Paula Gutierrez Huenchileo</t>
-  </si>
-  <si>
     <t>Ignacio Miranda Osorio</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>Victor Saavedra Cortes</t>
   </si>
   <si>
-    <t>Oscar Sandoval Navarrete</t>
-  </si>
-  <si>
     <t>Pedro Blaset Castro</t>
   </si>
   <si>
@@ -262,9 +250,6 @@
     <t>Camila Gonzalez Mora</t>
   </si>
   <si>
-    <t>Marcela Sandoval Osorio</t>
-  </si>
-  <si>
     <t>Nicolas Godoy Fuentes</t>
   </si>
   <si>
@@ -307,15 +292,9 @@
     <t>Giovanna Roa</t>
   </si>
   <si>
-    <t>Carlos Benítez Gajardo</t>
-  </si>
-  <si>
     <t>Cynthia Barria Leon</t>
   </si>
   <si>
-    <t>Estefania Andagur Soto</t>
-  </si>
-  <si>
     <t>Jose Ferrero Mariano</t>
   </si>
   <si>
@@ -361,9 +340,6 @@
     <t>https://twitter.com/lucialopezchile/status/1301990633406713857</t>
   </si>
   <si>
-    <t>Claudio Burgos Bobadilla</t>
-  </si>
-  <si>
     <t>Georgina Cortes Araya</t>
   </si>
   <si>
@@ -391,9 +367,6 @@
     <t>Carolina Garrido Silva</t>
   </si>
   <si>
-    <t>Esteban Vergara Edwards</t>
-  </si>
-  <si>
     <t>Maria Veglia Quintana</t>
   </si>
   <si>
@@ -403,12 +376,6 @@
     <t>David Rojas Lizama</t>
   </si>
   <si>
-    <t>Hector Aranguiz Salazar</t>
-  </si>
-  <si>
-    <t>Santiago Mansilla Perez</t>
-  </si>
-  <si>
     <t>Gutenberg Martínez</t>
   </si>
   <si>
@@ -974,6 +941,45 @@
   </si>
   <si>
     <t>Maite Desconvieres</t>
+  </si>
+  <si>
+    <t>Santiago Mansilla</t>
+  </si>
+  <si>
+    <t>Hector Aranguiz</t>
+  </si>
+  <si>
+    <t>Ricardo Montero</t>
+  </si>
+  <si>
+    <t>Nicolas Godoy</t>
+  </si>
+  <si>
+    <t>Esteban Vergara</t>
+  </si>
+  <si>
+    <t>Claudio Burgos</t>
+  </si>
+  <si>
+    <t>Estefania Andagur</t>
+  </si>
+  <si>
+    <t>Carlos Benítez</t>
+  </si>
+  <si>
+    <t>Marcela Sandoval</t>
+  </si>
+  <si>
+    <t>Oscar Sandoval</t>
+  </si>
+  <si>
+    <t>Paula Gutierrez</t>
+  </si>
+  <si>
+    <t>Carmen Obreque</t>
+  </si>
+  <si>
+    <t>Alejandra Toledo</t>
   </si>
 </sst>
 </file>
@@ -1823,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2158,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -2210,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -2444,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
@@ -2470,13 +2476,13 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
@@ -2496,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2522,7 +2528,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -2548,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -2574,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2600,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -2626,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2652,13 +2658,13 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2678,13 +2684,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
         <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2704,7 +2710,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -2730,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
@@ -2756,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2773,7 +2779,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C37">
         <v>5.5</v>
@@ -2782,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
@@ -2799,7 +2805,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -2808,7 +2814,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
@@ -2825,7 +2831,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C39">
         <v>5.5</v>
@@ -2834,7 +2840,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
@@ -2851,7 +2857,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C40">
         <v>5.5</v>
@@ -2860,7 +2866,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
@@ -2877,7 +2883,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C41">
         <v>5.5</v>
@@ -2886,7 +2892,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
         <v>21</v>
@@ -2903,7 +2909,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C42">
         <v>5.5</v>
@@ -2912,13 +2918,13 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2929,7 +2935,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C43">
         <v>5.5</v>
@@ -2938,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -2955,7 +2961,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C44">
         <v>5.5</v>
@@ -2964,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2973,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2981,7 +2987,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C45">
         <v>5.5</v>
@@ -2990,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -3007,7 +3013,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C46">
         <v>5.5</v>
@@ -3016,7 +3022,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3033,7 +3039,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -3042,7 +3048,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3059,7 +3065,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C48">
         <v>5.5</v>
@@ -3068,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3085,7 +3091,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C49">
         <v>5.5</v>
@@ -3094,13 +3100,13 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
@@ -3111,7 +3117,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C50">
         <v>5.5</v>
@@ -3120,7 +3126,7 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -3137,7 +3143,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C51">
         <v>5.5</v>
@@ -3146,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
@@ -3163,7 +3169,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -3172,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="F52" t="s">
         <v>21</v>
@@ -3189,7 +3195,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C53">
         <v>5.5</v>
@@ -3198,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3215,7 +3221,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -3224,7 +3230,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -3241,7 +3247,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -3250,7 +3256,7 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3267,7 +3273,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -3276,7 +3282,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3293,7 +3299,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C57">
         <v>5.5</v>
@@ -3302,7 +3308,7 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -3319,7 +3325,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C58">
         <v>5.5</v>
@@ -3328,13 +3334,13 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
@@ -3345,7 +3351,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C59">
         <v>5.5</v>
@@ -3354,16 +3360,16 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3371,7 +3377,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C60">
         <v>5.5</v>
@@ -3380,16 +3386,16 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3397,7 +3403,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C61">
         <v>5.5</v>
@@ -3406,13 +3412,13 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s">
         <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
@@ -3423,7 +3429,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C62">
         <v>5.5</v>
@@ -3432,13 +3438,13 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F62" t="s">
         <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -3449,7 +3455,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C63">
         <v>5.5</v>
@@ -3458,16 +3464,16 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s">
         <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3475,7 +3481,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C64">
         <v>5.5</v>
@@ -3484,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
         <v>21</v>
@@ -3501,7 +3507,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C65">
         <v>5.5</v>
@@ -3510,7 +3516,7 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>313</v>
       </c>
       <c r="F65" t="s">
         <v>21</v>
@@ -3527,7 +3533,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3536,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F66" t="s">
         <v>21</v>
@@ -3553,7 +3559,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C67">
         <v>5.5</v>
@@ -3562,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="F67" t="s">
         <v>21</v>
@@ -3579,7 +3585,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3588,7 +3594,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
@@ -3605,7 +3611,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C69">
         <v>5.5</v>
@@ -3614,7 +3620,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F69" t="s">
         <v>21</v>
@@ -3631,7 +3637,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C70">
         <v>5.5</v>
@@ -3640,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
@@ -3657,7 +3663,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C71">
         <v>5.5</v>
@@ -3666,7 +3672,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
         <v>21</v>
@@ -3683,7 +3689,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3692,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
@@ -3709,7 +3715,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C73">
         <v>5.5</v>
@@ -3718,7 +3724,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F73" t="s">
         <v>21</v>
@@ -3735,7 +3741,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C74">
         <v>5.5</v>
@@ -3744,13 +3750,13 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3761,7 +3767,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C75">
         <v>5.5</v>
@@ -3770,13 +3776,13 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3787,7 +3793,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C76">
         <v>5.5</v>
@@ -3796,13 +3802,13 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3813,7 +3819,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C77">
         <v>5.5</v>
@@ -3822,13 +3828,13 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -3839,7 +3845,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C78">
         <v>5.5</v>
@@ -3848,16 +3854,16 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3865,7 +3871,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -3874,13 +3880,13 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
@@ -3891,7 +3897,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C80">
         <v>5.5</v>
@@ -3900,16 +3906,16 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3917,7 +3923,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -3926,7 +3932,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -3943,7 +3949,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C82">
         <v>5.5</v>
@@ -3952,7 +3958,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -3969,7 +3975,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C83">
         <v>5.5</v>
@@ -3978,7 +3984,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -3995,7 +4001,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C84">
         <v>5.5</v>
@@ -4004,7 +4010,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4021,7 +4027,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C85">
         <v>5.5</v>
@@ -4030,7 +4036,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4047,7 +4053,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4056,7 +4062,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4073,7 +4079,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C87">
         <v>5.5</v>
@@ -4082,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4099,7 +4105,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C88">
         <v>5.5</v>
@@ -4108,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4125,7 +4131,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C89">
         <v>5.5</v>
@@ -4134,7 +4140,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4151,7 +4157,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C90">
         <v>5.5</v>
@@ -4160,7 +4166,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -4177,7 +4183,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C91">
         <v>5.5</v>
@@ -4186,7 +4192,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4203,7 +4209,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C92">
         <v>5.5</v>
@@ -4212,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -4229,7 +4235,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C93">
         <v>5.5</v>
@@ -4238,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4255,7 +4261,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C94">
         <v>5.5</v>
@@ -4264,7 +4270,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4281,7 +4287,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C95">
         <v>5.5</v>
@@ -4290,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4307,7 +4313,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C96">
         <v>5.5</v>
@@ -4316,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -4333,7 +4339,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C97">
         <v>5.5</v>
@@ -4342,7 +4348,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -4359,7 +4365,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C98">
         <v>5.5</v>
@@ -4368,7 +4374,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4385,7 +4391,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4394,7 +4400,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4411,7 +4417,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C100">
         <v>5.5</v>
@@ -4420,7 +4426,7 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
@@ -4431,7 +4437,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C101">
         <v>5.5</v>
@@ -4440,13 +4446,13 @@
         <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s">
         <v>12</v>
@@ -4457,7 +4463,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C102">
         <v>5.5</v>
@@ -4466,13 +4472,13 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
@@ -4483,7 +4489,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4492,7 +4498,7 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F103" t="s">
         <v>21</v>
@@ -4509,7 +4515,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C104">
         <v>5.5</v>
@@ -4518,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -4535,7 +4541,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -4544,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -4561,7 +4567,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -4570,13 +4576,13 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
@@ -4587,7 +4593,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -4596,16 +4602,16 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -4613,7 +4619,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -4622,7 +4628,7 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -4639,7 +4645,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -4648,7 +4654,7 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4665,7 +4671,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -4674,7 +4680,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4691,7 +4697,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C111">
         <v>5.5</v>
@@ -4700,7 +4706,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4717,7 +4723,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C112">
         <v>5.5</v>
@@ -4726,7 +4732,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4743,7 +4749,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C113">
         <v>5.5</v>
@@ -4752,7 +4758,7 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -4769,7 +4775,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -4778,7 +4784,7 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -4795,7 +4801,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C115">
         <v>5.5</v>
@@ -4804,7 +4810,7 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -4821,7 +4827,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C116">
         <v>5.5</v>
@@ -4830,7 +4836,7 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4847,7 +4853,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C117">
         <v>5.5</v>
@@ -4856,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
@@ -4867,7 +4873,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C118">
         <v>5.5</v>
@@ -4876,7 +4882,7 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H118" t="s">
         <v>12</v>
@@ -4887,7 +4893,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C119">
         <v>5.5</v>
@@ -4896,10 +4902,10 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4907,7 +4913,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C120">
         <v>5.5</v>
@@ -4916,10 +4922,10 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -4927,7 +4933,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C121">
         <v>5.5</v>
@@ -4936,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F121" t="s">
         <v>21</v>
@@ -4953,7 +4959,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C122">
         <v>5.5</v>
@@ -4962,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -4979,7 +4985,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C123">
         <v>5.5</v>
@@ -4988,7 +4994,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -5005,7 +5011,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C124">
         <v>5.5</v>
@@ -5014,7 +5020,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5031,7 +5037,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C125">
         <v>5.5</v>
@@ -5040,7 +5046,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5057,7 +5063,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C126">
         <v>5.5</v>
@@ -5066,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5083,7 +5089,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C127">
         <v>5.5</v>
@@ -5092,7 +5098,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5109,7 +5115,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C128">
         <v>5.5</v>
@@ -5118,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5135,7 +5141,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C129">
         <v>5.5</v>
@@ -5144,7 +5150,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5161,7 +5167,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C130">
         <v>5.5</v>
@@ -5170,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5187,7 +5193,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C131">
         <v>5.5</v>
@@ -5196,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5213,7 +5219,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C132">
         <v>5.5</v>
@@ -5222,7 +5228,7 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5239,7 +5245,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C133">
         <v>5.5</v>
@@ -5248,7 +5254,7 @@
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F133" t="s">
         <v>21</v>
@@ -5265,7 +5271,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C134">
         <v>5.5</v>
@@ -5274,7 +5280,7 @@
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -5291,7 +5297,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C135">
         <v>5.5</v>
@@ -5300,7 +5306,7 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5317,7 +5323,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C136">
         <v>5.5</v>
@@ -5326,7 +5332,7 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5343,7 +5349,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C137">
         <v>5.5</v>
@@ -5352,7 +5358,7 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5369,7 +5375,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C138">
         <v>5.5</v>
@@ -5378,7 +5384,7 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5395,7 +5401,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C139">
         <v>5.5</v>
@@ -5404,7 +5410,7 @@
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -5413,7 +5419,7 @@
         <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -5421,7 +5427,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C140">
         <v>5.5</v>
@@ -5430,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -5447,7 +5453,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C141">
         <v>5.5</v>
@@ -5456,7 +5462,7 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -5473,7 +5479,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C142">
         <v>5.5</v>
@@ -5482,7 +5488,7 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -5499,7 +5505,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C143">
         <v>5.5</v>
@@ -5508,7 +5514,7 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -5525,7 +5531,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C144">
         <v>5.5</v>
@@ -5534,7 +5540,7 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -5551,7 +5557,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C145">
         <v>5.5</v>
@@ -5560,7 +5566,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5577,7 +5583,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C146">
         <v>5.5</v>
@@ -5586,7 +5592,7 @@
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5603,7 +5609,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C147">
         <v>5.5</v>
@@ -5612,7 +5618,7 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -5629,7 +5635,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C148">
         <v>5.5</v>
@@ -5638,7 +5644,7 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -5655,7 +5661,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C149">
         <v>5.5</v>
@@ -5664,7 +5670,7 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -5681,7 +5687,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C150">
         <v>6</v>
@@ -5690,7 +5696,7 @@
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F150" t="s">
         <v>21</v>
@@ -5707,7 +5713,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C151">
         <v>6</v>
@@ -5716,7 +5722,7 @@
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
         <v>21</v>
@@ -5733,7 +5739,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C152">
         <v>6</v>
@@ -5742,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
@@ -5759,7 +5765,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C153">
         <v>6</v>
@@ -5768,7 +5774,7 @@
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F153" t="s">
         <v>21</v>
@@ -5785,7 +5791,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C154">
         <v>6</v>
@@ -5794,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F154" t="s">
         <v>21</v>
@@ -5811,7 +5817,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C155">
         <v>6</v>
@@ -5820,7 +5826,7 @@
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F155" t="s">
         <v>21</v>
@@ -5837,7 +5843,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C156">
         <v>6</v>
@@ -5846,7 +5852,7 @@
         <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F156" t="s">
         <v>21</v>
@@ -5863,7 +5869,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C157">
         <v>6</v>
@@ -5872,7 +5878,7 @@
         <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -5889,7 +5895,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C158">
         <v>6</v>
@@ -5898,7 +5904,7 @@
         <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -5915,7 +5921,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C159">
         <v>6</v>
@@ -5924,7 +5930,7 @@
         <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H159" t="s">
         <v>19</v>
@@ -5935,7 +5941,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C160">
         <v>7</v>
@@ -5944,7 +5950,7 @@
         <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F160" t="s">
         <v>21</v>
@@ -5961,7 +5967,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C161">
         <v>7</v>
@@ -5970,7 +5976,7 @@
         <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F161" t="s">
         <v>21</v>
@@ -5987,7 +5993,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C162">
         <v>7</v>
@@ -5996,7 +6002,7 @@
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -6013,7 +6019,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C163">
         <v>7</v>
@@ -6022,7 +6028,7 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -6039,7 +6045,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C164">
         <v>7</v>
@@ -6048,7 +6054,7 @@
         <v>18</v>
       </c>
       <c r="E164" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -6065,7 +6071,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -6074,7 +6080,7 @@
         <v>18</v>
       </c>
       <c r="E165" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6091,7 +6097,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C166">
         <v>7.5</v>
@@ -6100,7 +6106,7 @@
         <v>19</v>
       </c>
       <c r="E166" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6117,7 +6123,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C167">
         <v>7.5</v>
@@ -6126,7 +6132,7 @@
         <v>19</v>
       </c>
       <c r="E167" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6143,7 +6149,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C168">
         <v>7.5</v>
@@ -6152,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6169,7 +6175,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C169">
         <v>7.5</v>
@@ -6178,7 +6184,7 @@
         <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6195,7 +6201,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C170">
         <v>8</v>
@@ -6204,7 +6210,7 @@
         <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F170" t="s">
         <v>21</v>
@@ -6221,7 +6227,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C171">
         <v>8</v>
@@ -6230,7 +6236,7 @@
         <v>20</v>
       </c>
       <c r="E171" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
         <v>21</v>
@@ -6247,7 +6253,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C172">
         <v>8</v>
@@ -6256,7 +6262,7 @@
         <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F172" t="s">
         <v>21</v>
@@ -6273,7 +6279,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C173">
         <v>8</v>
@@ -6282,7 +6288,7 @@
         <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
@@ -6299,7 +6305,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C174">
         <v>8</v>
@@ -6308,7 +6314,7 @@
         <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F174" t="s">
         <v>21</v>
@@ -6325,7 +6331,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C175">
         <v>8</v>
@@ -6334,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -6351,7 +6357,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C176">
         <v>8</v>
@@ -6360,7 +6366,7 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6377,7 +6383,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -6386,7 +6392,7 @@
         <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6403,7 +6409,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C178">
         <v>8</v>
@@ -6412,7 +6418,7 @@
         <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6429,7 +6435,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C179">
         <v>8</v>
@@ -6438,7 +6444,7 @@
         <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6455,7 +6461,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -6464,7 +6470,7 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -6481,7 +6487,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -6490,7 +6496,7 @@
         <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6507,7 +6513,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C182">
         <v>8</v>
@@ -6516,7 +6522,7 @@
         <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6533,7 +6539,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C183">
         <v>8</v>
@@ -6542,7 +6548,7 @@
         <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6559,7 +6565,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C184">
         <v>8</v>
@@ -6568,7 +6574,7 @@
         <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6577,7 +6583,7 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -6585,7 +6591,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C185">
         <v>8</v>
@@ -6594,7 +6600,7 @@
         <v>21</v>
       </c>
       <c r="E185" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6611,7 +6617,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C186">
         <v>9</v>
@@ -6620,7 +6626,7 @@
         <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6637,7 +6643,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C187">
         <v>9</v>
@@ -6646,7 +6652,7 @@
         <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6663,7 +6669,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C188">
         <v>9</v>
@@ -6672,7 +6678,7 @@
         <v>23</v>
       </c>
       <c r="E188" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6689,7 +6695,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C189">
         <v>9.5</v>
@@ -6698,7 +6704,7 @@
         <v>24</v>
       </c>
       <c r="E189" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F189" t="s">
         <v>21</v>
@@ -6715,7 +6721,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C190">
         <v>10</v>
@@ -6724,7 +6730,7 @@
         <v>25</v>
       </c>
       <c r="E190" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -6741,7 +6747,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C191">
         <v>10</v>
@@ -6750,7 +6756,7 @@
         <v>25</v>
       </c>
       <c r="E191" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6767,7 +6773,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C192">
         <v>10</v>
@@ -6776,7 +6782,7 @@
         <v>25</v>
       </c>
       <c r="E192" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6793,7 +6799,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C193">
         <v>10</v>
@@ -6802,7 +6808,7 @@
         <v>26</v>
       </c>
       <c r="E193" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6819,7 +6825,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C194">
         <v>10</v>
@@ -6828,7 +6834,7 @@
         <v>26</v>
       </c>
       <c r="E194" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6845,7 +6851,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C195">
         <v>10</v>
@@ -6854,7 +6860,7 @@
         <v>26</v>
       </c>
       <c r="E195" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -6871,7 +6877,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C196">
         <v>10</v>
@@ -6880,7 +6886,7 @@
         <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -6897,7 +6903,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C197">
         <v>10</v>
@@ -6906,7 +6912,7 @@
         <v>26</v>
       </c>
       <c r="E197" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -6923,7 +6929,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -6932,7 +6938,7 @@
         <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -6949,7 +6955,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C199">
         <v>10</v>
@@ -6958,7 +6964,7 @@
         <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6975,7 +6981,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C200">
         <v>11</v>
@@ -6984,13 +6990,13 @@
         <v>27</v>
       </c>
       <c r="E200" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
@@ -7001,7 +7007,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C201">
         <v>12</v>
@@ -7010,7 +7016,7 @@
         <v>28</v>
       </c>
       <c r="E201" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -7027,7 +7033,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C202">
         <v>12</v>
@@ -7036,7 +7042,7 @@
         <v>28</v>
       </c>
       <c r="E202" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -7053,22 +7059,22 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C203" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D203">
         <v>999</v>
       </c>
       <c r="E203" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F203" t="s">
         <v>17</v>
       </c>
       <c r="G203" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H203" t="s">
         <v>19</v>
@@ -7079,22 +7085,22 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C204" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D204">
         <v>999</v>
       </c>
       <c r="E204" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F204" t="s">
         <v>17</v>
       </c>
       <c r="G204" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H204" t="s">
         <v>19</v>
@@ -7105,22 +7111,22 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C205" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D205">
         <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F205" t="s">
         <v>17</v>
       </c>
       <c r="G205" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H205" t="s">
         <v>19</v>
@@ -7131,22 +7137,22 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C206" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D206">
         <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F206" t="s">
         <v>17</v>
       </c>
       <c r="G206" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H206" t="s">
         <v>19</v>
@@ -7157,22 +7163,22 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C207" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D207">
         <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F207" t="s">
         <v>17</v>
       </c>
       <c r="G207" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H207" t="s">
         <v>19</v>
@@ -7183,22 +7189,22 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C208" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D208">
         <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H208" t="s">
         <v>19</v>
@@ -7209,22 +7215,22 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C209" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D209">
         <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
       </c>
       <c r="G209" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H209" t="s">
         <v>19</v>
@@ -7235,22 +7241,22 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C210" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D210">
         <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F210" t="s">
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H210" t="s">
         <v>19</v>
@@ -7261,22 +7267,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C211" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D211">
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H211" t="s">
         <v>19</v>
@@ -7287,22 +7293,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C212" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D212">
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F212" t="s">
         <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H212" t="s">
         <v>19</v>
@@ -7313,22 +7319,22 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D213">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H213" t="s">
         <v>19</v>
@@ -7339,22 +7345,22 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C214" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D214">
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F214" t="s">
         <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H214" t="s">
         <v>19</v>
@@ -7365,22 +7371,22 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C215" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D215">
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H215" t="s">
         <v>19</v>
@@ -7391,22 +7397,22 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C216" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D216">
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
       </c>
       <c r="G216" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H216" t="s">
         <v>19</v>
@@ -7417,22 +7423,22 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C217" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D217">
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F217" t="s">
         <v>17</v>
       </c>
       <c r="G217" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H217" t="s">
         <v>19</v>
@@ -7443,22 +7449,22 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C218" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D218">
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F218" t="s">
         <v>17</v>
       </c>
       <c r="G218" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H218" t="s">
         <v>19</v>
@@ -7469,22 +7475,22 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C219" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D219">
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F219" t="s">
         <v>17</v>
       </c>
       <c r="G219" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H219" t="s">
         <v>19</v>
@@ -7495,22 +7501,22 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C220" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D220">
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F220" t="s">
         <v>17</v>
       </c>
       <c r="G220" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H220" t="s">
         <v>19</v>
@@ -7521,22 +7527,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C221" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D221">
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F221" t="s">
         <v>17</v>
       </c>
       <c r="G221" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H221" t="s">
         <v>19</v>
@@ -7547,22 +7553,22 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C222" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D222">
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F222" t="s">
         <v>17</v>
       </c>
       <c r="G222" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H222" t="s">
         <v>19</v>
@@ -7573,22 +7579,22 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C223" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D223">
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
       </c>
       <c r="G223" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
@@ -7599,16 +7605,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C224" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D224">
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F224" t="s">
         <v>17</v>
@@ -7625,16 +7631,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C225" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D225">
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F225" t="s">
         <v>17</v>
@@ -7651,16 +7657,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C226" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D226">
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F226" t="s">
         <v>17</v>
@@ -7677,16 +7683,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C227" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D227">
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
@@ -7703,16 +7709,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C228" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D228">
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
@@ -7729,16 +7735,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C229" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D229">
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F229" t="s">
         <v>17</v>
@@ -7755,16 +7761,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C230" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D230">
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F230" t="s">
         <v>21</v>
@@ -7781,22 +7787,22 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C231" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D231">
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F231" t="s">
         <v>21</v>
       </c>
       <c r="G231" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H231" t="s">
         <v>32</v>
@@ -7807,22 +7813,22 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C232" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D232">
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F232" t="s">
         <v>21</v>
       </c>
       <c r="G232" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H232" t="s">
         <v>32</v>
@@ -7833,22 +7839,22 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C233" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D233">
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H233" t="s">
         <v>19</v>
@@ -7859,22 +7865,22 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C234" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D234">
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H234" t="s">
         <v>32</v>
@@ -7885,22 +7891,22 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C235" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D235">
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H235" t="s">
         <v>32</v>
@@ -7911,22 +7917,22 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C236" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D236">
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H236" t="s">
         <v>32</v>
@@ -7937,22 +7943,22 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C237" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D237">
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H237" t="s">
         <v>32</v>
@@ -7963,25 +7969,25 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C238" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D238">
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H238" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -7989,25 +7995,25 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C239" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D239">
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H239" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -8015,25 +8021,25 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C240" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D240">
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H240" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -8041,22 +8047,22 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C241" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D241">
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H241" t="s">
         <v>32</v>
@@ -8067,22 +8073,22 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C242" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D242">
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H242" t="s">
         <v>32</v>
@@ -8093,22 +8099,22 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C243" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D243">
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H243" t="s">
         <v>32</v>
@@ -8119,16 +8125,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C244" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D244">
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -8145,16 +8151,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C245" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D245">
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -8171,16 +8177,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C246" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D246">
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -8197,16 +8203,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C247" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D247">
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -8223,16 +8229,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C248" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D248">
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -8249,16 +8255,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C249" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D249">
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -8275,16 +8281,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C250" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D250">
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -8301,16 +8307,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C251" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D251">
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -8327,22 +8333,22 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C252" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D252">
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F252" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G252" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H252" t="s">
         <v>32</v>
@@ -8353,22 +8359,22 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C253" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D253">
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F253" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G253" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H253" t="s">
         <v>32</v>
@@ -8379,22 +8385,22 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C254" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D254">
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F254" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G254" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H254" t="s">
         <v>32</v>
@@ -8405,22 +8411,22 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C255" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D255">
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F255" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G255" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H255" t="s">
         <v>32</v>
@@ -8431,22 +8437,22 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C256" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D256">
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G256" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H256" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -8454,22 +8460,22 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C257" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D257">
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G257" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H257" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -8477,19 +8483,19 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C258" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D258">
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G258" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H258" t="s">
         <v>32</v>
@@ -8500,19 +8506,19 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C259" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D259">
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G259" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H259" t="s">
         <v>32</v>
@@ -8523,16 +8529,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C260" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D260">
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="H260" t="s">
         <v>32</v>
@@ -8543,16 +8549,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C261" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D261">
         <v>999</v>
       </c>
       <c r="E261" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H261" t="s">
         <v>32</v>
@@ -8563,16 +8569,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C262" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D262">
         <v>999</v>
       </c>
       <c r="E262" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H262" t="s">
         <v>32</v>
@@ -8583,16 +8589,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C263" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D263">
         <v>999</v>
       </c>
       <c r="E263" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
@@ -8603,16 +8609,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D264">
         <v>999</v>
       </c>
       <c r="E264" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H264" t="s">
         <v>19</v>
@@ -8623,16 +8629,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C265" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D265">
         <v>999</v>
       </c>
       <c r="E265" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H265" t="s">
         <v>19</v>
@@ -8643,16 +8649,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D266">
         <v>999</v>
       </c>
       <c r="E266" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
@@ -8663,16 +8669,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D267">
         <v>999</v>
       </c>
       <c r="E267" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H267" t="s">
         <v>19</v>
@@ -8683,16 +8689,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C268" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D268">
         <v>999</v>
       </c>
       <c r="E268" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
@@ -8703,16 +8709,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C269" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D269">
         <v>999</v>
       </c>
       <c r="E269" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H269" t="s">
         <v>19</v>
@@ -8723,16 +8729,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C270" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D270">
         <v>999</v>
       </c>
       <c r="E270" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H270" t="s">
         <v>19</v>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/candidatos/constituyentes 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6183BFD-A0BD-1048-8A79-C0FDA6490BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A5686-C9B0-4D6D-942B-D48CC8962E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidatos_constituyentes2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">candidatos_constituyentes2021!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">candidatos_constituyentes2021!$A$1:$H$272</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="322">
   <si>
     <t>id</t>
   </si>
@@ -980,6 +980,15 @@
   </si>
   <si>
     <t>Alejandra Toledo</t>
+  </si>
+  <si>
+    <t>Emilia Schneider</t>
+  </si>
+  <si>
+    <t>Comunes</t>
+  </si>
+  <si>
+    <t>Javiera Toro</t>
   </si>
 </sst>
 </file>
@@ -1827,18 +1836,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1942,7 +1951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2306,7 +2315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2358,7 +2367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2410,7 +2419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2618,7 +2627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2748,7 +2757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2852,7 +2861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2904,7 +2913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2956,7 +2965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3008,7 +3017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3034,7 +3043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3060,7 +3069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3112,7 +3121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3138,7 +3147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3164,7 +3173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3190,7 +3199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3216,7 +3225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3242,7 +3251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3268,7 +3277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3294,7 +3303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3372,7 +3381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3398,7 +3407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3424,7 +3433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3450,7 +3459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3502,7 +3511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3528,7 +3537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3554,7 +3563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3580,7 +3589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3658,7 +3667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3684,7 +3693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3710,7 +3719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3736,7 +3745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3750,19 +3759,19 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -3788,7 +3797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3802,19 +3811,19 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -3840,7 +3849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -3863,10 +3872,10 @@
         <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3880,7 +3889,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -3889,10 +3898,10 @@
         <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3906,19 +3915,19 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3932,19 +3941,19 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3958,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -3970,7 +3979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -3996,7 +4005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4010,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>291</v>
+        <v>106</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4022,7 +4031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4036,7 +4045,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>291</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4048,7 +4057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4062,7 +4071,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4074,7 +4083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4088,7 +4097,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4100,7 +4109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4114,7 +4123,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4126,7 +4135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4140,7 +4149,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4152,7 +4161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -4178,7 +4187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4192,7 +4201,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4204,7 +4213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4218,7 +4227,7 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -4230,7 +4239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4244,7 +4253,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4256,7 +4265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4270,7 +4279,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>114</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4282,7 +4291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4296,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4308,7 +4317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4322,7 +4331,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -4334,7 +4343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -4360,7 +4369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4386,7 +4395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4400,7 +4409,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4412,7 +4421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4426,13 +4435,19 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>117</v>
+        <v>306</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4443,22 +4458,16 @@
         <v>5.5</v>
       </c>
       <c r="D101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>118</v>
-      </c>
-      <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4469,22 +4478,22 @@
         <v>5.5</v>
       </c>
       <c r="D102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="H102" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4498,19 +4507,19 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4524,19 +4533,19 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4550,7 +4559,7 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -4562,7 +4571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4576,19 +4585,19 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4602,19 +4611,19 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4628,19 +4637,19 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4654,19 +4663,19 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4692,7 +4701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4706,7 +4715,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4718,7 +4727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4744,7 +4753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -4770,7 +4779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4784,7 +4793,7 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -4796,7 +4805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4810,7 +4819,7 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -4822,7 +4831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4836,7 +4845,7 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4848,7 +4857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4862,13 +4871,19 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4882,13 +4897,19 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
       </c>
       <c r="H118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4902,13 +4923,13 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4922,13 +4943,13 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4939,22 +4960,16 @@
         <v>5.5</v>
       </c>
       <c r="D121">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>274</v>
-      </c>
-      <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4965,22 +4980,16 @@
         <v>5.5</v>
       </c>
       <c r="D122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4994,19 +5003,19 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5032,7 +5041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5058,7 +5067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5072,7 +5081,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5084,7 +5093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5110,7 +5119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5124,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5136,7 +5145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5162,7 +5171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5176,7 +5185,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5188,7 +5197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5202,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5214,7 +5223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5228,7 +5237,7 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5240,7 +5249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5251,22 +5260,22 @@
         <v>5.5</v>
       </c>
       <c r="D133">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H133" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5277,22 +5286,22 @@
         <v>5.5</v>
       </c>
       <c r="D134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H134" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5306,19 +5315,19 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="F135" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H135" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5332,19 +5341,19 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="F136" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5370,7 +5379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5396,7 +5405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5407,22 +5416,22 @@
         <v>5.5</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5433,22 +5442,22 @@
         <v>5.5</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H140" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5462,19 +5471,19 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G141" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -5500,7 +5509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5514,19 +5523,19 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H143" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5540,19 +5549,19 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G144" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5575,10 +5584,10 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5592,7 +5601,7 @@
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5604,7 +5613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5618,7 +5627,7 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -5630,7 +5639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5644,7 +5653,7 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -5656,7 +5665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -5682,85 +5691,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H150" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D151">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H151" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D152">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
       </c>
       <c r="G152" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5774,7 +5783,7 @@
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F153" t="s">
         <v>21</v>
@@ -5786,7 +5795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5800,7 +5809,7 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="F154" t="s">
         <v>21</v>
@@ -5812,7 +5821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F155" t="s">
         <v>21</v>
@@ -5838,7 +5847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5849,10 +5858,10 @@
         <v>6</v>
       </c>
       <c r="D156">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F156" t="s">
         <v>21</v>
@@ -5864,7 +5873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5875,22 +5884,22 @@
         <v>6</v>
       </c>
       <c r="D157">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G157" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5901,22 +5910,22 @@
         <v>6</v>
       </c>
       <c r="D158">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G158" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H158" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5930,91 +5939,91 @@
         <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="F159" t="s">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>25</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C160">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>160</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H160" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C162">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>164</v>
-      </c>
-      <c r="F162" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="H162" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6028,19 +6037,19 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="F163" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6051,22 +6060,22 @@
         <v>7</v>
       </c>
       <c r="D164">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6077,10 +6086,10 @@
         <v>7</v>
       </c>
       <c r="D165">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6089,24 +6098,24 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C166">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E166" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6118,21 +6127,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C167">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D167">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6144,21 +6153,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C168">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D168">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E168" t="s">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6170,7 +6179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6184,7 +6193,7 @@
         <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>169</v>
+        <v>285</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6196,85 +6205,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C170">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E170" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G170" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C171">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D171">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E171" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G171" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H171" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C172">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E172" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G172" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6288,7 +6297,7 @@
         <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
@@ -6300,7 +6309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6314,7 +6323,7 @@
         <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>93</v>
+        <v>304</v>
       </c>
       <c r="F174" t="s">
         <v>21</v>
@@ -6326,7 +6335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6340,19 +6349,19 @@
         <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6366,19 +6375,19 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G176" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H176" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6392,19 +6401,19 @@
         <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>294</v>
+        <v>93</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G177" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6418,7 +6427,7 @@
         <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6430,7 +6439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6444,7 +6453,7 @@
         <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6456,7 +6465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6470,7 +6479,7 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -6482,7 +6491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6508,7 +6517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6522,7 +6531,7 @@
         <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6534,7 +6543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6548,7 +6557,7 @@
         <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6560,7 +6569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6571,10 +6580,10 @@
         <v>8</v>
       </c>
       <c r="D184">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6583,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6597,10 +6606,10 @@
         <v>8</v>
       </c>
       <c r="D185">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6612,21 +6621,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C186">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D186">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E186" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6638,21 +6647,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C187">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D187">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6661,24 +6670,24 @@
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C188">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D188">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6690,99 +6699,99 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C189">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D189">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E189" t="s">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H189" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D190">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E190" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H190" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D191">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E191" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H191" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D192">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E192" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6794,7 +6803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6805,10 +6814,10 @@
         <v>10</v>
       </c>
       <c r="D193">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E193" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6820,7 +6829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6831,10 +6840,10 @@
         <v>10</v>
       </c>
       <c r="D194">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E194" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6846,7 +6855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6857,10 +6866,10 @@
         <v>10</v>
       </c>
       <c r="D195">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E195" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -6872,7 +6881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6886,19 +6895,19 @@
         <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="F196" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6912,19 +6921,19 @@
         <v>26</v>
       </c>
       <c r="E197" t="s">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H197" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6938,19 +6947,19 @@
         <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6964,7 +6973,7 @@
         <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6976,47 +6985,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D200">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E200" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="C201">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D201">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E201" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -7028,21 +7037,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="C202">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D202">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E202" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -7054,85 +7063,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>268</v>
-      </c>
-      <c r="C203" t="s">
-        <v>268</v>
+        <v>191</v>
+      </c>
+      <c r="C203">
+        <v>11</v>
       </c>
       <c r="D203">
-        <v>999</v>
+        <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G203" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="H203" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>268</v>
-      </c>
-      <c r="C204" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="C204">
+        <v>12</v>
       </c>
       <c r="D204">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E204" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G204" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>268</v>
-      </c>
-      <c r="C205" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
       </c>
       <c r="D205">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E205" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G205" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7146,7 +7155,7 @@
         <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F206" t="s">
         <v>17</v>
@@ -7158,7 +7167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7172,7 +7181,7 @@
         <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F207" t="s">
         <v>17</v>
@@ -7184,7 +7193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7198,7 +7207,7 @@
         <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
@@ -7210,7 +7219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7224,7 +7233,7 @@
         <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -7236,7 +7245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7250,19 +7259,19 @@
         <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F210" t="s">
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="H210" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7276,19 +7285,19 @@
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="H211" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7302,19 +7311,19 @@
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F212" t="s">
         <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="H212" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7328,19 +7337,19 @@
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="H213" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7354,7 +7363,7 @@
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F214" t="s">
         <v>17</v>
@@ -7366,7 +7375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7380,19 +7389,19 @@
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="H215" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7406,19 +7415,19 @@
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
       </c>
       <c r="G216" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="H216" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7432,19 +7441,19 @@
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F217" t="s">
         <v>17</v>
       </c>
       <c r="G217" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="H217" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7458,7 +7467,7 @@
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F218" t="s">
         <v>17</v>
@@ -7470,7 +7479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7484,7 +7493,7 @@
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F219" t="s">
         <v>17</v>
@@ -7496,7 +7505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7510,7 +7519,7 @@
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F220" t="s">
         <v>17</v>
@@ -7522,7 +7531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7536,7 +7545,7 @@
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F221" t="s">
         <v>17</v>
@@ -7548,7 +7557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7562,7 +7571,7 @@
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F222" t="s">
         <v>17</v>
@@ -7574,7 +7583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7588,7 +7597,7 @@
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
@@ -7600,7 +7609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7614,19 +7623,19 @@
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F224" t="s">
         <v>17</v>
       </c>
       <c r="G224" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="H224" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7640,19 +7649,19 @@
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F225" t="s">
         <v>17</v>
       </c>
       <c r="G225" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="H225" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7666,19 +7675,19 @@
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F226" t="s">
         <v>17</v>
       </c>
       <c r="G226" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="H226" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7692,7 +7701,7 @@
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
@@ -7704,7 +7713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7718,7 +7727,7 @@
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
@@ -7730,7 +7739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7744,7 +7753,7 @@
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F229" t="s">
         <v>17</v>
@@ -7756,7 +7765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7770,19 +7779,19 @@
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F230" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G230" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H230" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7796,19 +7805,19 @@
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F231" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G231" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H231" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7822,19 +7831,19 @@
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F232" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G232" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H232" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7848,19 +7857,19 @@
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="F233" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G233" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="H233" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7874,19 +7883,19 @@
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F234" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G234" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H234" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7900,19 +7909,19 @@
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H235" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7926,7 +7935,7 @@
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -7938,7 +7947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7952,7 +7961,7 @@
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -7964,7 +7973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7978,19 +7987,19 @@
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H238" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8004,19 +8013,19 @@
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H239" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8030,7 +8039,7 @@
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
@@ -8042,7 +8051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8056,7 +8065,7 @@
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
@@ -8065,10 +8074,10 @@
         <v>103</v>
       </c>
       <c r="H241" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8082,7 +8091,7 @@
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
@@ -8091,10 +8100,10 @@
         <v>103</v>
       </c>
       <c r="H242" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8108,7 +8117,7 @@
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
@@ -8120,7 +8129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -8134,19 +8143,19 @@
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H244" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8160,19 +8169,19 @@
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H245" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -8186,7 +8195,7 @@
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -8198,7 +8207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8212,7 +8221,7 @@
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -8224,7 +8233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -8238,7 +8247,7 @@
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -8250,7 +8259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -8264,19 +8273,19 @@
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
       </c>
       <c r="G249" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H249" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -8290,19 +8299,19 @@
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
       </c>
       <c r="G250" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H250" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -8316,7 +8325,7 @@
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -8328,7 +8337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -8342,19 +8351,19 @@
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F252" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="G252" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="H252" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -8368,19 +8377,19 @@
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F253" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="G253" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="H253" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -8394,19 +8403,19 @@
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F254" t="s">
         <v>78</v>
       </c>
       <c r="G254" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="H254" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -8420,19 +8429,19 @@
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F255" t="s">
         <v>78</v>
       </c>
       <c r="G255" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="H255" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -8446,16 +8455,19 @@
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="F256" t="s">
+        <v>78</v>
       </c>
       <c r="G256" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H256" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -8469,16 +8481,19 @@
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="F257" t="s">
+        <v>78</v>
       </c>
       <c r="G257" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H257" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -8492,16 +8507,16 @@
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G258" t="s">
         <v>57</v>
       </c>
       <c r="H258" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -8515,16 +8530,16 @@
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G259" t="s">
-        <v>253</v>
+        <v>57</v>
       </c>
       <c r="H259" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8538,13 +8553,16 @@
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="G260" t="s">
+        <v>57</v>
       </c>
       <c r="H260" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -8558,13 +8576,16 @@
         <v>999</v>
       </c>
       <c r="E261" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="G261" t="s">
+        <v>253</v>
       </c>
       <c r="H261" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8578,13 +8599,13 @@
         <v>999</v>
       </c>
       <c r="E262" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H262" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8598,13 +8619,13 @@
         <v>999</v>
       </c>
       <c r="E263" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8618,13 +8639,13 @@
         <v>999</v>
       </c>
       <c r="E264" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H264" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8638,13 +8659,13 @@
         <v>999</v>
       </c>
       <c r="E265" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H265" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -8658,13 +8679,13 @@
         <v>999</v>
       </c>
       <c r="E266" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8678,13 +8699,13 @@
         <v>999</v>
       </c>
       <c r="E267" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H267" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8698,13 +8719,13 @@
         <v>999</v>
       </c>
       <c r="E268" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8718,13 +8739,13 @@
         <v>999</v>
       </c>
       <c r="E269" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H269" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8738,22 +8759,62 @@
         <v>999</v>
       </c>
       <c r="E270" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H270" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>268</v>
+      </c>
+      <c r="C271" t="s">
+        <v>268</v>
+      </c>
+      <c r="D271">
+        <v>999</v>
+      </c>
+      <c r="E271" t="s">
+        <v>264</v>
+      </c>
+      <c r="H271" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>268</v>
+      </c>
+      <c r="C272" t="s">
+        <v>268</v>
+      </c>
+      <c r="D272">
+        <v>999</v>
+      </c>
+      <c r="E272" t="s">
+        <v>265</v>
+      </c>
+      <c r="H272" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H270">
-      <sortCondition ref="A1:A270"/>
+  <autoFilter ref="A1:H272" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H272">
+      <sortCondition ref="C1:C272"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H270">
-    <sortCondition ref="C2:C270"/>
-    <sortCondition ref="D2:D270"/>
-    <sortCondition ref="F2:F270"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H272">
+    <sortCondition ref="C2:C272"/>
+    <sortCondition ref="D2:D272"/>
+    <sortCondition ref="F2:F272"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A5686-C9B0-4D6D-942B-D48CC8962E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E45B953-7F75-42A9-B271-7393D25009CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="candidatos_constituyentes2021" sheetId="1" r:id="rId1"/>
+    <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">candidatos_constituyentes2021!$A$1:$H$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$271</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>https://twitter.com/TitoAed0/status/1313486749457408006</t>
   </si>
   <si>
-    <t>Catalina Cortes Godoy</t>
-  </si>
-  <si>
     <t>RD</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Lorena Cisternas Mondaca</t>
   </si>
   <si>
-    <t>Romina Avalos Vergara</t>
-  </si>
-  <si>
     <t>Aurora Williams</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>La Segunda 4 de septiembre</t>
   </si>
   <si>
-    <t>Cristobal Orellana Jara</t>
-  </si>
-  <si>
     <t>Atacama</t>
   </si>
   <si>
@@ -139,21 +130,9 @@
     <t>Cedric Steinlen Cuevas</t>
   </si>
   <si>
-    <t>Marisol Cespedes Aguirre</t>
-  </si>
-  <si>
-    <t>Gonzalo Cortes Moreno</t>
-  </si>
-  <si>
     <t>Jaime Castillo Aliaga</t>
   </si>
   <si>
-    <t>Francisco Jimenes Vega</t>
-  </si>
-  <si>
-    <t>Matias Orellana Cuellar</t>
-  </si>
-  <si>
     <t>Patricio Rubio Aguirre</t>
   </si>
   <si>
@@ -169,12 +148,6 @@
     <t>DC</t>
   </si>
   <si>
-    <t>Alfaro Diaz Sandoval</t>
-  </si>
-  <si>
-    <t>Jorge Morales Farias</t>
-  </si>
-  <si>
     <t>Sergio Olivares Palma</t>
   </si>
   <si>
@@ -190,9 +163,6 @@
     <t>Gloria Maira Vargas</t>
   </si>
   <si>
-    <t>Maria Oyarzun Solis</t>
-  </si>
-  <si>
     <t>Jaime Bassa</t>
   </si>
   <si>
@@ -205,15 +175,9 @@
     <t>Maga Miranda Diz</t>
   </si>
   <si>
-    <t>Matias Mena Arriola</t>
-  </si>
-  <si>
     <t>Tatiana Urrutia Herrera</t>
   </si>
   <si>
-    <t>Fabian Farias Quijada</t>
-  </si>
-  <si>
     <t>Rodrigo Rettig</t>
   </si>
   <si>
@@ -232,9 +196,6 @@
     <t>https://www.t13.cl/noticia/politica/eyzaguirre-constituyente-cartas-prepara-oposicion-batalla-constitucional</t>
   </si>
   <si>
-    <t>Victor Saavedra Cortes</t>
-  </si>
-  <si>
     <t>Pedro Blaset Castro</t>
   </si>
   <si>
@@ -247,15 +208,6 @@
     <t>RN</t>
   </si>
   <si>
-    <t>Camila Gonzalez Mora</t>
-  </si>
-  <si>
-    <t>Nicolas Godoy Fuentes</t>
-  </si>
-  <si>
-    <t>Ricardo Azocar Reyes</t>
-  </si>
-  <si>
     <t>Juan Andrés Lagos</t>
   </si>
   <si>
@@ -292,21 +244,9 @@
     <t>Giovanna Roa</t>
   </si>
   <si>
-    <t>Cynthia Barria Leon</t>
-  </si>
-  <si>
-    <t>Jose Ferrero Mariano</t>
-  </si>
-  <si>
-    <t>Matias Silva Allende</t>
-  </si>
-  <si>
     <t>Paula Poblete Maureira</t>
   </si>
   <si>
-    <t>Diego Diaz Gonzalez</t>
-  </si>
-  <si>
     <t>Rodrigo Bustos Bottai</t>
   </si>
   <si>
@@ -340,9 +280,6 @@
     <t>https://twitter.com/lucialopezchile/status/1301990633406713857</t>
   </si>
   <si>
-    <t>Georgina Cortes Araya</t>
-  </si>
-  <si>
     <t>Catalina Lagos Tschorne</t>
   </si>
   <si>
@@ -355,21 +292,9 @@
     <t>Luis Correa Bluas</t>
   </si>
   <si>
-    <t>Maria Diaz Perez</t>
-  </si>
-  <si>
-    <t>Matias Salazar Zegers</t>
-  </si>
-  <si>
-    <t>Raul Diaz Navarro</t>
-  </si>
-  <si>
     <t>Carolina Garrido Silva</t>
   </si>
   <si>
-    <t>Maria Veglia Quintana</t>
-  </si>
-  <si>
     <t>Ricardo Montero Allende</t>
   </si>
   <si>
@@ -403,12 +328,6 @@
     <t>Paulina Soriano Fuenzalida</t>
   </si>
   <si>
-    <t>Antonia Matus Ramirez</t>
-  </si>
-  <si>
-    <t>Luis Acevedo Espindola</t>
-  </si>
-  <si>
     <t>Roberto Amaro Castillo</t>
   </si>
   <si>
@@ -433,24 +352,15 @@
     <t>https://twitter.com/mmlagoscc/status/1313553356816896001</t>
   </si>
   <si>
-    <t>Camilo Riquelme Garcia</t>
-  </si>
-  <si>
     <t>Luis Bustamante Pardo</t>
   </si>
   <si>
-    <t>Victor Diaz Escobar</t>
-  </si>
-  <si>
     <t>Julio Pizarro Saavedra</t>
   </si>
   <si>
     <t>Daniel Andrade Schwarze</t>
   </si>
   <si>
-    <t>Fabian Leiva Leiva</t>
-  </si>
-  <si>
     <t>Manuel Coña Pirul</t>
   </si>
   <si>
@@ -463,18 +373,12 @@
     <t>Paz Gajardo Daneri</t>
   </si>
   <si>
-    <t>Ana Martinez Chamorro</t>
-  </si>
-  <si>
     <t>Denise Pascal</t>
   </si>
   <si>
     <t>Christian Segovia Cabello</t>
   </si>
   <si>
-    <t>Jose Vasquez Silva</t>
-  </si>
-  <si>
     <t>Fabiola Freire Aguilar</t>
   </si>
   <si>
@@ -490,27 +394,15 @@
     <t>O'Higgins</t>
   </si>
   <si>
-    <t>Matias Vergara</t>
-  </si>
-  <si>
     <t>Diego Rivera Espinoza</t>
   </si>
   <si>
-    <t>Evelyn Carcamo Escobar</t>
-  </si>
-  <si>
-    <t>Maria Pezo Elgueta</t>
-  </si>
-  <si>
     <t>Juan Arriaza Zala</t>
   </si>
   <si>
     <t>Jaime Silva Aguilera</t>
   </si>
   <si>
-    <t>Cesar Silva Caroca</t>
-  </si>
-  <si>
     <t>Jorge Errázuriz</t>
   </si>
   <si>
@@ -520,9 +412,6 @@
     <t>Sergio Aguiló</t>
   </si>
   <si>
-    <t>Sergio Aguilo</t>
-  </si>
-  <si>
     <t>Rodrigo Medina Jara</t>
   </si>
   <si>
@@ -532,39 +421,18 @@
     <t>Felipe Aylwin Lagos</t>
   </si>
   <si>
-    <t>Cesar Rodriguez Alaracon</t>
-  </si>
-  <si>
     <t>Bío-Bío</t>
   </si>
   <si>
-    <t>Amaya Alvez Marin</t>
-  </si>
-  <si>
     <t>Claudio Carter Erazo</t>
   </si>
   <si>
     <t>Emilio Leal Zapatel</t>
   </si>
   <si>
-    <t>Fah Bastias Macias</t>
-  </si>
-  <si>
-    <t>Narciso Cortes Pasten</t>
-  </si>
-  <si>
-    <t>Ivan Perez Muñoz</t>
-  </si>
-  <si>
-    <t>Jose Silva Inostroza</t>
-  </si>
-  <si>
     <t>Andres Smith Bustos</t>
   </si>
   <si>
-    <t>Maria Viveros Ovando</t>
-  </si>
-  <si>
     <t>Camilo Escalona</t>
   </si>
   <si>
@@ -586,12 +454,6 @@
     <t>Pedro Glatz Brahm</t>
   </si>
   <si>
-    <t>Rodrigo Diaz Choque</t>
-  </si>
-  <si>
-    <t>Alvaro Seguel Solis</t>
-  </si>
-  <si>
     <t>Julio Alvarez Pinto</t>
   </si>
   <si>
@@ -841,9 +703,6 @@
     <t>Roberto Santa Cruz</t>
   </si>
   <si>
-    <t>Gaston Fuentealba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rodrigo Valladares </t>
   </si>
   <si>
@@ -859,9 +718,6 @@
     <t>Jorge Millaquen</t>
   </si>
   <si>
-    <t>Andres Valenzuela</t>
-  </si>
-  <si>
     <t>Sandra Cheuquepan</t>
   </si>
   <si>
@@ -892,9 +748,6 @@
     <t xml:space="preserve">Romanina Morales </t>
   </si>
   <si>
-    <t>Matias Salazar</t>
-  </si>
-  <si>
     <t>Pascal Merino</t>
   </si>
   <si>
@@ -946,15 +799,9 @@
     <t>Santiago Mansilla</t>
   </si>
   <si>
-    <t>Hector Aranguiz</t>
-  </si>
-  <si>
     <t>Ricardo Montero</t>
   </si>
   <si>
-    <t>Nicolas Godoy</t>
-  </si>
-  <si>
     <t>Esteban Vergara</t>
   </si>
   <si>
@@ -970,12 +817,6 @@
     <t>Marcela Sandoval</t>
   </si>
   <si>
-    <t>Oscar Sandoval</t>
-  </si>
-  <si>
-    <t>Paula Gutierrez</t>
-  </si>
-  <si>
     <t>Carmen Obreque</t>
   </si>
   <si>
@@ -989,6 +830,162 @@
   </si>
   <si>
     <t>Javiera Toro</t>
+  </si>
+  <si>
+    <t>Francisco Jiménez Vega</t>
+  </si>
+  <si>
+    <t>Catalina Cortés Godoy</t>
+  </si>
+  <si>
+    <t>Romina Ávalos Vergara</t>
+  </si>
+  <si>
+    <t>Cristóbal Orellana Jara</t>
+  </si>
+  <si>
+    <t>Marisol Céspedes Aguirre</t>
+  </si>
+  <si>
+    <t>Gonzalo Cortés Moreno</t>
+  </si>
+  <si>
+    <t>Alfaro Díaz Sandoval</t>
+  </si>
+  <si>
+    <t>Jorge Morales Farías</t>
+  </si>
+  <si>
+    <t>Paula Gutiérrez</t>
+  </si>
+  <si>
+    <t>Matías Mena Arriola</t>
+  </si>
+  <si>
+    <t>Fabián Farías Quijada</t>
+  </si>
+  <si>
+    <t>Víctor Saavedra Cortes</t>
+  </si>
+  <si>
+    <t>Óscar Sandoval</t>
+  </si>
+  <si>
+    <t>Camila González Mora</t>
+  </si>
+  <si>
+    <t>Gastón Fuentealba</t>
+  </si>
+  <si>
+    <t>Nicolás Godoy Fuentes</t>
+  </si>
+  <si>
+    <t>Ricardo Azócar Reyes</t>
+  </si>
+  <si>
+    <t>Cynthia Barría Leon</t>
+  </si>
+  <si>
+    <t>José Ferrero Mariano</t>
+  </si>
+  <si>
+    <t>Matías Silva Allende</t>
+  </si>
+  <si>
+    <t>Diego Díaz Gonzalez</t>
+  </si>
+  <si>
+    <t>Georgina Cortés Araya</t>
+  </si>
+  <si>
+    <t>Matías Salazar Zegers</t>
+  </si>
+  <si>
+    <t>Raúl Díaz Navarro</t>
+  </si>
+  <si>
+    <t>María Veglia Quintana</t>
+  </si>
+  <si>
+    <t>Nicolás Godoy</t>
+  </si>
+  <si>
+    <t>Héctor Aranguiz</t>
+  </si>
+  <si>
+    <t>Antonia Matus Ramírez</t>
+  </si>
+  <si>
+    <t>Luis Acevedo Espíndola</t>
+  </si>
+  <si>
+    <t>Matías Salazar</t>
+  </si>
+  <si>
+    <t>Camilo Riquelme García</t>
+  </si>
+  <si>
+    <t>Víctor Díaz Escobar</t>
+  </si>
+  <si>
+    <t>Fabián Leiva Leiva</t>
+  </si>
+  <si>
+    <t>Ana Martínez Chamorro</t>
+  </si>
+  <si>
+    <t>José Vásquez Silva</t>
+  </si>
+  <si>
+    <t>Matías Vergara</t>
+  </si>
+  <si>
+    <t>María Pezo Elgueta</t>
+  </si>
+  <si>
+    <t>Evelyn Cárcamo Escobar</t>
+  </si>
+  <si>
+    <t>César Silva Caroca</t>
+  </si>
+  <si>
+    <t>César Rodríguez Alaracon</t>
+  </si>
+  <si>
+    <t>Amaya Alvez Marín</t>
+  </si>
+  <si>
+    <t>Fah Bastías Macias</t>
+  </si>
+  <si>
+    <t>Narciso Cortés Pastén</t>
+  </si>
+  <si>
+    <t>Iván Pérez Muñoz</t>
+  </si>
+  <si>
+    <t>José Silva Inostroza</t>
+  </si>
+  <si>
+    <t>María Viveros Ovando</t>
+  </si>
+  <si>
+    <t>Andrés Valenzuela</t>
+  </si>
+  <si>
+    <t>Rodrigo Díaz Choque</t>
+  </si>
+  <si>
+    <t>Álvaro Seguel Solis</t>
+  </si>
+  <si>
+    <t>María Díaz Perez</t>
+  </si>
+  <si>
+    <t>María Oyarzún Solis</t>
+  </si>
+  <si>
+    <t>Matías Orellana Cuellar</t>
   </si>
 </sst>
 </file>
@@ -1836,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1991,13 +1988,13 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -2017,13 +2014,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2043,13 +2040,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2069,13 +2066,13 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2095,13 +2092,13 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2121,16 +2118,16 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2173,7 +2170,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -2190,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2199,13 +2196,13 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -2216,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2225,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -2242,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2251,13 +2248,13 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -2268,7 +2265,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2277,13 +2274,13 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -2294,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2303,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -2320,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2329,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2346,7 +2343,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2355,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2372,7 +2369,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2381,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2398,7 +2395,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2407,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -2424,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2433,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -2450,7 +2447,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -2459,13 +2456,13 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -2476,7 +2473,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2485,16 +2482,16 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2502,7 +2499,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2511,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2528,7 +2525,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2537,7 +2534,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -2554,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -2563,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -2580,7 +2577,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2589,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>276</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2606,7 +2603,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2615,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -2632,7 +2629,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2641,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2658,7 +2655,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2667,13 +2664,13 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2684,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2693,13 +2690,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
         <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2710,7 +2707,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2719,13 +2716,13 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -2736,7 +2733,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -2745,13 +2742,13 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>319</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2762,7 +2759,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2771,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2788,7 +2785,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C37">
         <v>5.5</v>
@@ -2797,13 +2794,13 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -2814,7 +2811,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -2823,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -2840,7 +2837,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C39">
         <v>5.5</v>
@@ -2849,13 +2846,13 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
@@ -2866,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C40">
         <v>5.5</v>
@@ -2875,13 +2872,13 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -2892,7 +2889,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C41">
         <v>5.5</v>
@@ -2901,13 +2898,13 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="F41" t="s">
         <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -2918,7 +2915,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C42">
         <v>5.5</v>
@@ -2927,13 +2924,13 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2944,7 +2941,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C43">
         <v>5.5</v>
@@ -2953,16 +2950,16 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2970,7 +2967,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C44">
         <v>5.5</v>
@@ -2979,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2988,7 +2985,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,7 +2993,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C45">
         <v>5.5</v>
@@ -3005,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -3022,7 +3019,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C46">
         <v>5.5</v>
@@ -3031,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3048,7 +3045,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -3057,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3074,7 +3071,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C48">
         <v>5.5</v>
@@ -3083,7 +3080,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3100,7 +3097,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C49">
         <v>5.5</v>
@@ -3109,13 +3106,13 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
@@ -3126,7 +3123,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C50">
         <v>5.5</v>
@@ -3135,13 +3132,13 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
@@ -3152,7 +3149,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C51">
         <v>5.5</v>
@@ -3161,13 +3158,13 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
@@ -3178,7 +3175,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -3187,13 +3184,13 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="F52" t="s">
         <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
@@ -3204,7 +3201,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C53">
         <v>5.5</v>
@@ -3213,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3230,7 +3227,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -3239,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -3256,7 +3253,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -3265,7 +3262,7 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3282,7 +3279,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -3291,7 +3288,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3308,7 +3305,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C57">
         <v>5.5</v>
@@ -3317,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -3334,7 +3331,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C58">
         <v>5.5</v>
@@ -3343,16 +3340,16 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3360,7 +3357,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C59">
         <v>5.5</v>
@@ -3369,16 +3366,16 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3386,7 +3383,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C60">
         <v>5.5</v>
@@ -3395,16 +3392,16 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3412,7 +3409,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C61">
         <v>5.5</v>
@@ -3421,13 +3418,13 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
         <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
@@ -3438,7 +3435,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C62">
         <v>5.5</v>
@@ -3447,13 +3444,13 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F62" t="s">
         <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -3464,7 +3461,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C63">
         <v>5.5</v>
@@ -3473,16 +3470,16 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F63" t="s">
         <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3490,7 +3487,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C64">
         <v>5.5</v>
@@ -3499,16 +3496,16 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
         <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3516,7 +3513,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C65">
         <v>5.5</v>
@@ -3525,13 +3522,13 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="F65" t="s">
         <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -3542,7 +3539,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3551,13 +3548,13 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="F66" t="s">
         <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -3568,7 +3565,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C67">
         <v>5.5</v>
@@ -3577,13 +3574,13 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="F67" t="s">
         <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -3594,7 +3591,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3603,13 +3600,13 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>287</v>
       </c>
       <c r="F68" t="s">
         <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
@@ -3620,7 +3617,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C69">
         <v>5.5</v>
@@ -3629,13 +3626,13 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="F69" t="s">
         <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
@@ -3646,7 +3643,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C70">
         <v>5.5</v>
@@ -3655,13 +3652,13 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -3672,7 +3669,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C71">
         <v>5.5</v>
@@ -3681,13 +3678,13 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="F71" t="s">
         <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3698,7 +3695,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3707,13 +3704,13 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -3724,7 +3721,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C73">
         <v>5.5</v>
@@ -3733,13 +3730,13 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s">
         <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
@@ -3750,7 +3747,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C74">
         <v>5.5</v>
@@ -3759,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="F74" t="s">
         <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3776,7 +3773,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C75">
         <v>5.5</v>
@@ -3785,13 +3782,13 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3802,7 +3799,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C76">
         <v>5.5</v>
@@ -3811,13 +3808,13 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3828,7 +3825,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C77">
         <v>5.5</v>
@@ -3837,13 +3834,13 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -3854,7 +3851,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C78">
         <v>5.5</v>
@@ -3863,13 +3860,13 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
@@ -3880,7 +3877,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -3889,16 +3886,16 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3906,7 +3903,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C80">
         <v>5.5</v>
@@ -3915,13 +3912,13 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
@@ -3932,7 +3929,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -3941,16 +3938,16 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3958,7 +3955,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C82">
         <v>5.5</v>
@@ -3967,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -3984,7 +3981,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C83">
         <v>5.5</v>
@@ -3993,7 +3990,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -4010,7 +4007,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C84">
         <v>5.5</v>
@@ -4019,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4036,7 +4033,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C85">
         <v>5.5</v>
@@ -4045,7 +4042,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4062,7 +4059,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4071,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4088,7 +4085,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C87">
         <v>5.5</v>
@@ -4097,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4114,7 +4111,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C88">
         <v>5.5</v>
@@ -4123,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4140,7 +4137,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C89">
         <v>5.5</v>
@@ -4149,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4166,7 +4163,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C90">
         <v>5.5</v>
@@ -4175,7 +4172,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -4192,7 +4189,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C91">
         <v>5.5</v>
@@ -4201,7 +4198,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4218,7 +4215,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C92">
         <v>5.5</v>
@@ -4227,7 +4224,7 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -4244,7 +4241,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C93">
         <v>5.5</v>
@@ -4253,7 +4250,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4270,7 +4267,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C94">
         <v>5.5</v>
@@ -4279,7 +4276,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4296,7 +4293,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C95">
         <v>5.5</v>
@@ -4305,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4322,7 +4319,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C96">
         <v>5.5</v>
@@ -4331,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -4348,7 +4345,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C97">
         <v>5.5</v>
@@ -4357,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -4374,7 +4371,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C98">
         <v>5.5</v>
@@ -4383,7 +4380,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4400,7 +4397,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4409,7 +4406,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4426,7 +4423,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C100">
         <v>5.5</v>
@@ -4435,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -4452,7 +4449,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C101">
         <v>5.5</v>
@@ -4461,10 +4458,10 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4472,7 +4469,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C102">
         <v>5.5</v>
@@ -4481,13 +4478,13 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
@@ -4498,7 +4495,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4507,13 +4504,13 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H103" t="s">
         <v>12</v>
@@ -4524,7 +4521,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C104">
         <v>5.5</v>
@@ -4533,16 +4530,16 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4550,7 +4547,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -4559,13 +4556,13 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
@@ -4576,7 +4573,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -4585,13 +4582,13 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
@@ -4602,7 +4599,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -4611,13 +4608,13 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
@@ -4628,7 +4625,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -4637,13 +4634,13 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
@@ -4654,7 +4651,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -4663,16 +4660,16 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H109" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4680,7 +4677,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -4689,7 +4686,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4706,7 +4703,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C111">
         <v>5.5</v>
@@ -4715,7 +4712,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>296</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4732,7 +4729,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C112">
         <v>5.5</v>
@@ -4741,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4758,7 +4755,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C113">
         <v>5.5</v>
@@ -4767,7 +4764,7 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>127</v>
+        <v>297</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -4784,7 +4781,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -4793,7 +4790,7 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -4810,7 +4807,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C115">
         <v>5.5</v>
@@ -4819,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -4836,7 +4833,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C116">
         <v>5.5</v>
@@ -4845,7 +4842,7 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4862,7 +4859,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C117">
         <v>5.5</v>
@@ -4871,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -4888,7 +4885,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C118">
         <v>5.5</v>
@@ -4897,7 +4894,7 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -4914,7 +4911,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C119">
         <v>5.5</v>
@@ -4923,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="H119" t="s">
         <v>12</v>
@@ -4934,7 +4931,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C120">
         <v>5.5</v>
@@ -4943,7 +4940,7 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="H120" t="s">
         <v>12</v>
@@ -4954,7 +4951,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C121">
         <v>5.5</v>
@@ -4963,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4974,7 +4971,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C122">
         <v>5.5</v>
@@ -4983,10 +4980,10 @@
         <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="H122" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C123">
         <v>5.5</v>
@@ -5003,13 +5000,13 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
@@ -5020,7 +5017,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C124">
         <v>5.5</v>
@@ -5029,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5046,7 +5043,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C125">
         <v>5.5</v>
@@ -5055,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5072,7 +5069,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C126">
         <v>5.5</v>
@@ -5081,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>136</v>
+        <v>299</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5098,7 +5095,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C127">
         <v>5.5</v>
@@ -5107,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5124,7 +5121,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C128">
         <v>5.5</v>
@@ -5133,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5150,7 +5147,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C129">
         <v>5.5</v>
@@ -5159,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5176,7 +5173,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C130">
         <v>5.5</v>
@@ -5185,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5202,7 +5199,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C131">
         <v>5.5</v>
@@ -5211,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5228,7 +5225,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C132">
         <v>5.5</v>
@@ -5237,7 +5234,7 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5254,7 +5251,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C133">
         <v>5.5</v>
@@ -5263,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5280,7 +5277,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C134">
         <v>5.5</v>
@@ -5289,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5306,7 +5303,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C135">
         <v>5.5</v>
@@ -5315,13 +5312,13 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F135" t="s">
         <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H135" t="s">
         <v>12</v>
@@ -5332,7 +5329,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C136">
         <v>5.5</v>
@@ -5341,13 +5338,13 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
@@ -5358,7 +5355,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C137">
         <v>5.5</v>
@@ -5367,7 +5364,7 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5384,7 +5381,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C138">
         <v>5.5</v>
@@ -5393,7 +5390,7 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5410,7 +5407,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C139">
         <v>5.5</v>
@@ -5419,7 +5416,7 @@
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -5436,7 +5433,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C140">
         <v>5.5</v>
@@ -5445,7 +5442,7 @@
         <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -5462,7 +5459,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C141">
         <v>5.5</v>
@@ -5471,7 +5468,7 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
@@ -5480,7 +5477,7 @@
         <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5488,7 +5485,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C142">
         <v>5.5</v>
@@ -5497,13 +5494,13 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
       </c>
       <c r="G142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
@@ -5514,7 +5511,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C143">
         <v>5.5</v>
@@ -5523,13 +5520,13 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H143" t="s">
         <v>12</v>
@@ -5540,7 +5537,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C144">
         <v>5.5</v>
@@ -5549,13 +5546,13 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
       </c>
       <c r="G144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
@@ -5566,7 +5563,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C145">
         <v>5.5</v>
@@ -5575,7 +5572,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5584,7 +5581,7 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5592,7 +5589,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C146">
         <v>5.5</v>
@@ -5601,7 +5598,7 @@
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5618,7 +5615,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C147">
         <v>5.5</v>
@@ -5627,7 +5624,7 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>149</v>
+        <v>303</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -5644,7 +5641,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C148">
         <v>5.5</v>
@@ -5653,7 +5650,7 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -5670,7 +5667,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C149">
         <v>5.5</v>
@@ -5679,7 +5676,7 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -5696,7 +5693,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C150">
         <v>5.5</v>
@@ -5705,7 +5702,7 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -5722,7 +5719,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C151">
         <v>5.5</v>
@@ -5731,7 +5728,7 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -5748,7 +5745,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C152">
         <v>5.5</v>
@@ -5757,16 +5754,16 @@
         <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
       </c>
       <c r="G152" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="H152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5774,7 +5771,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C153">
         <v>6</v>
@@ -5783,13 +5780,13 @@
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="F153" t="s">
         <v>21</v>
       </c>
       <c r="G153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -5800,7 +5797,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C154">
         <v>6</v>
@@ -5809,13 +5806,13 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="F154" t="s">
         <v>21</v>
       </c>
       <c r="G154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -5826,7 +5823,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C155">
         <v>6</v>
@@ -5835,13 +5832,13 @@
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F155" t="s">
         <v>21</v>
       </c>
       <c r="G155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -5852,7 +5849,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C156">
         <v>6</v>
@@ -5861,13 +5858,13 @@
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
         <v>21</v>
       </c>
       <c r="G156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
@@ -5878,7 +5875,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C157">
         <v>6</v>
@@ -5887,13 +5884,13 @@
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
         <v>21</v>
       </c>
       <c r="G157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -5904,7 +5901,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C158">
         <v>6</v>
@@ -5913,13 +5910,13 @@
         <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
         <v>21</v>
       </c>
       <c r="G158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H158" t="s">
         <v>12</v>
@@ -5930,7 +5927,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C159">
         <v>6</v>
@@ -5939,13 +5936,13 @@
         <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F159" t="s">
         <v>21</v>
       </c>
       <c r="G159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
@@ -5956,7 +5953,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C160">
         <v>6</v>
@@ -5965,7 +5962,7 @@
         <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
@@ -5982,7 +5979,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C161">
         <v>6</v>
@@ -5991,7 +5988,7 @@
         <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -6008,7 +6005,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C162">
         <v>6</v>
@@ -6017,7 +6014,7 @@
         <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="H162" t="s">
         <v>19</v>
@@ -6028,7 +6025,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C163">
         <v>7</v>
@@ -6037,13 +6034,13 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="F163" t="s">
         <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
@@ -6054,7 +6051,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C164">
         <v>7</v>
@@ -6063,13 +6060,13 @@
         <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="F164" t="s">
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
@@ -6080,7 +6077,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -6089,7 +6086,7 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6098,7 +6095,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6106,16 +6103,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C166">
         <v>7</v>
       </c>
       <c r="D166">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E166" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6132,7 +6129,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C167">
         <v>7</v>
@@ -6141,7 +6138,7 @@
         <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6158,16 +6155,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C168">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D168">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6184,7 +6181,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C169">
         <v>7.5</v>
@@ -6193,7 +6190,7 @@
         <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>285</v>
+        <v>131</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6210,7 +6207,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C170">
         <v>7.5</v>
@@ -6219,7 +6216,7 @@
         <v>19</v>
       </c>
       <c r="E170" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -6236,7 +6233,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C171">
         <v>7.5</v>
@@ -6245,7 +6242,7 @@
         <v>19</v>
       </c>
       <c r="E171" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -6262,22 +6259,22 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C172">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G172" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
@@ -6288,7 +6285,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C173">
         <v>8</v>
@@ -6297,13 +6294,13 @@
         <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
       </c>
       <c r="G173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H173" t="s">
         <v>12</v>
@@ -6314,7 +6311,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C174">
         <v>8</v>
@@ -6323,13 +6320,13 @@
         <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="F174" t="s">
         <v>21</v>
       </c>
       <c r="G174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -6340,7 +6337,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C175">
         <v>8</v>
@@ -6349,13 +6346,13 @@
         <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F175" t="s">
         <v>21</v>
       </c>
       <c r="G175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
@@ -6366,7 +6363,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C176">
         <v>8</v>
@@ -6375,13 +6372,13 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="F176" t="s">
         <v>21</v>
       </c>
       <c r="G176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H176" t="s">
         <v>12</v>
@@ -6392,7 +6389,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -6401,13 +6398,13 @@
         <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
@@ -6418,7 +6415,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C178">
         <v>8</v>
@@ -6427,7 +6424,7 @@
         <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6444,7 +6441,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C179">
         <v>8</v>
@@ -6453,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6470,7 +6467,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -6479,7 +6476,7 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -6496,7 +6493,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -6505,7 +6502,7 @@
         <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6522,7 +6519,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C182">
         <v>8</v>
@@ -6531,7 +6528,7 @@
         <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6548,7 +6545,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C183">
         <v>8</v>
@@ -6557,7 +6554,7 @@
         <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6574,7 +6571,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C184">
         <v>8</v>
@@ -6583,7 +6580,7 @@
         <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6600,7 +6597,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C185">
         <v>8</v>
@@ -6609,7 +6606,7 @@
         <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6626,16 +6623,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C186">
         <v>8</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6644,7 +6641,7 @@
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6652,7 +6649,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C187">
         <v>8</v>
@@ -6661,7 +6658,7 @@
         <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6670,7 +6667,7 @@
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6678,16 +6675,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C188">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E188" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6704,16 +6701,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C189">
         <v>9</v>
       </c>
       <c r="D189">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E189" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -6730,7 +6727,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C190">
         <v>9</v>
@@ -6739,7 +6736,7 @@
         <v>23</v>
       </c>
       <c r="E190" t="s">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -6756,22 +6753,22 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="C191">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D191">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E191" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="F191" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G191" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H191" t="s">
         <v>12</v>
@@ -6782,22 +6779,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="C192">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D192">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E192" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
       </c>
       <c r="G192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H192" t="s">
         <v>12</v>
@@ -6808,7 +6805,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C193">
         <v>10</v>
@@ -6817,13 +6814,13 @@
         <v>25</v>
       </c>
       <c r="E193" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
       </c>
       <c r="G193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H193" t="s">
         <v>12</v>
@@ -6834,7 +6831,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C194">
         <v>10</v>
@@ -6843,13 +6840,13 @@
         <v>25</v>
       </c>
       <c r="E194" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
       </c>
       <c r="G194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H194" t="s">
         <v>12</v>
@@ -6860,22 +6857,22 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C195">
         <v>10</v>
       </c>
       <c r="D195">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E195" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
       </c>
       <c r="G195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H195" t="s">
         <v>12</v>
@@ -6886,7 +6883,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C196">
         <v>10</v>
@@ -6895,13 +6892,13 @@
         <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
       </c>
       <c r="G196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
@@ -6912,7 +6909,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C197">
         <v>10</v>
@@ -6921,13 +6918,13 @@
         <v>26</v>
       </c>
       <c r="E197" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
       </c>
       <c r="G197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H197" t="s">
         <v>12</v>
@@ -6938,7 +6935,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -6947,13 +6944,13 @@
         <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G198" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
@@ -6964,7 +6961,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C199">
         <v>10</v>
@@ -6973,7 +6970,7 @@
         <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6990,7 +6987,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C200">
         <v>10</v>
@@ -6999,7 +6996,7 @@
         <v>26</v>
       </c>
       <c r="E200" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -7016,7 +7013,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C201">
         <v>10</v>
@@ -7025,7 +7022,7 @@
         <v>26</v>
       </c>
       <c r="E201" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -7042,22 +7039,22 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C202">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D202">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
@@ -7068,22 +7065,22 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="C203">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D203">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E203" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
       </c>
       <c r="G203" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H203" t="s">
         <v>12</v>
@@ -7094,7 +7091,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C204">
         <v>12</v>
@@ -7103,7 +7100,7 @@
         <v>28</v>
       </c>
       <c r="E204" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -7120,25 +7117,25 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>266</v>
-      </c>
-      <c r="C205">
-        <v>12</v>
+        <v>222</v>
+      </c>
+      <c r="C205" t="s">
+        <v>222</v>
       </c>
       <c r="D205">
-        <v>28</v>
+        <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="F205" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7146,22 +7143,22 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C206" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D206">
         <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="F206" t="s">
         <v>17</v>
       </c>
       <c r="G206" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H206" t="s">
         <v>19</v>
@@ -7172,22 +7169,22 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C207" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D207">
         <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="F207" t="s">
         <v>17</v>
       </c>
       <c r="G207" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H207" t="s">
         <v>19</v>
@@ -7198,22 +7195,22 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C208" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D208">
         <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H208" t="s">
         <v>19</v>
@@ -7224,22 +7221,22 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C209" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D209">
         <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
       </c>
       <c r="G209" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H209" t="s">
         <v>19</v>
@@ -7250,22 +7247,22 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C210" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D210">
         <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="F210" t="s">
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H210" t="s">
         <v>19</v>
@@ -7276,22 +7273,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C211" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D211">
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="F211" t="s">
         <v>17</v>
       </c>
       <c r="G211" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H211" t="s">
         <v>19</v>
@@ -7302,22 +7299,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C212" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D212">
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="F212" t="s">
         <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="H212" t="s">
         <v>19</v>
@@ -7328,22 +7325,22 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C213" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D213">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="H213" t="s">
         <v>19</v>
@@ -7354,22 +7351,22 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C214" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D214">
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="F214" t="s">
         <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="H214" t="s">
         <v>19</v>
@@ -7380,22 +7377,22 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C215" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D215">
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="H215" t="s">
         <v>19</v>
@@ -7406,22 +7403,22 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C216" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D216">
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="F216" t="s">
         <v>17</v>
       </c>
       <c r="G216" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="H216" t="s">
         <v>19</v>
@@ -7432,22 +7429,22 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C217" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D217">
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="F217" t="s">
         <v>17</v>
       </c>
       <c r="G217" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="H217" t="s">
         <v>19</v>
@@ -7458,22 +7455,22 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C218" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D218">
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="F218" t="s">
         <v>17</v>
       </c>
       <c r="G218" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H218" t="s">
         <v>19</v>
@@ -7484,22 +7481,22 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D219">
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="F219" t="s">
         <v>17</v>
       </c>
       <c r="G219" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H219" t="s">
         <v>19</v>
@@ -7510,22 +7507,22 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D220">
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="F220" t="s">
         <v>17</v>
       </c>
       <c r="G220" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H220" t="s">
         <v>19</v>
@@ -7536,22 +7533,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D221">
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="F221" t="s">
         <v>17</v>
       </c>
       <c r="G221" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H221" t="s">
         <v>19</v>
@@ -7562,22 +7559,22 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D222">
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="F222" t="s">
         <v>17</v>
       </c>
       <c r="G222" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H222" t="s">
         <v>19</v>
@@ -7588,22 +7585,22 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D223">
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
       </c>
       <c r="G223" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
@@ -7614,22 +7611,22 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D224">
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="F224" t="s">
         <v>17</v>
       </c>
       <c r="G224" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H224" t="s">
         <v>19</v>
@@ -7640,22 +7637,22 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C225" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D225">
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="F225" t="s">
         <v>17</v>
       </c>
       <c r="G225" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H225" t="s">
         <v>19</v>
@@ -7666,22 +7663,22 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C226" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D226">
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="F226" t="s">
         <v>17</v>
       </c>
       <c r="G226" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H226" t="s">
         <v>19</v>
@@ -7692,16 +7689,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C227" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D227">
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="F227" t="s">
         <v>17</v>
@@ -7718,16 +7715,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C228" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D228">
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="F228" t="s">
         <v>17</v>
@@ -7744,16 +7741,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C229" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D229">
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="F229" t="s">
         <v>17</v>
@@ -7770,16 +7767,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C230" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D230">
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="F230" t="s">
         <v>17</v>
@@ -7796,16 +7793,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C231" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D231">
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="F231" t="s">
         <v>17</v>
@@ -7822,25 +7819,25 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C232" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D232">
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="F232" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G232" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H232" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7848,25 +7845,25 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C233" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D233">
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="F233" t="s">
         <v>21</v>
       </c>
       <c r="G233" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H233" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7874,25 +7871,25 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C234" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D234">
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F234" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H234" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7900,25 +7897,25 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C235" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D235">
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H235" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7926,25 +7923,25 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C236" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D236">
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H236" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7952,25 +7949,25 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C237" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D237">
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H237" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7978,25 +7975,25 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C238" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D238">
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H238" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -8004,25 +8001,25 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C239" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D239">
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H239" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8030,25 +8027,25 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C240" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D240">
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H240" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -8056,25 +8053,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C241" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D241">
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H241" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8082,25 +8079,25 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C242" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D242">
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H242" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -8108,25 +8105,25 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C243" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D243">
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H243" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -8134,25 +8131,25 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C244" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D244">
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H244" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8160,25 +8157,25 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C245" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D245">
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="H245" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8186,25 +8183,25 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C246" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D246">
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H246" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8212,25 +8209,25 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C247" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D247">
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H247" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8238,25 +8235,25 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C248" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D248">
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H248" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -8264,25 +8261,25 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C249" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D249">
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
       </c>
       <c r="G249" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H249" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -8290,25 +8287,25 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C250" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D250">
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
       </c>
       <c r="G250" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -8316,16 +8313,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C251" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D251">
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -8334,7 +8331,7 @@
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -8342,16 +8339,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C252" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D252">
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
@@ -8360,7 +8357,7 @@
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8368,25 +8365,25 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C253" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D253">
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="F253" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G253" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="H253" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8394,25 +8391,25 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C254" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D254">
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="F254" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G254" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="H254" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8420,25 +8417,25 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D255">
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="F255" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G255" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="H255" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8446,25 +8443,25 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C256" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D256">
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="F256" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G256" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H256" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8472,25 +8469,22 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C257" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D257">
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>248</v>
-      </c>
-      <c r="F257" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="G257" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H257" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8498,22 +8492,22 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C258" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D258">
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="G258" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H258" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8521,22 +8515,22 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C259" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D259">
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="G259" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H259" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8544,22 +8538,22 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C260" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D260">
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="G260" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="H260" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8567,22 +8561,19 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C261" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D261">
         <v>999</v>
       </c>
       <c r="E261" t="s">
-        <v>252</v>
-      </c>
-      <c r="G261" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="H261" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -8590,19 +8581,19 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C262" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D262">
         <v>999</v>
       </c>
       <c r="E262" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="H262" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -8610,19 +8601,19 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C263" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D263">
         <v>999</v>
       </c>
       <c r="E263" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="H263" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8630,19 +8621,19 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C264" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D264">
         <v>999</v>
       </c>
       <c r="E264" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="H264" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -8650,19 +8641,19 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C265" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D265">
         <v>999</v>
       </c>
       <c r="E265" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="H265" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -8670,16 +8661,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C266" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D266">
         <v>999</v>
       </c>
       <c r="E266" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
@@ -8690,16 +8681,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C267" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D267">
         <v>999</v>
       </c>
       <c r="E267" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="H267" t="s">
         <v>19</v>
@@ -8710,16 +8701,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C268" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D268">
         <v>999</v>
       </c>
       <c r="E268" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
@@ -8730,16 +8721,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C269" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D269">
         <v>999</v>
       </c>
       <c r="E269" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="H269" t="s">
         <v>19</v>
@@ -8750,16 +8741,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C270" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D270">
         <v>999</v>
       </c>
       <c r="E270" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="H270" t="s">
         <v>19</v>
@@ -8770,51 +8761,31 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C271" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D271">
         <v>999</v>
       </c>
       <c r="E271" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="H271" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>271</v>
-      </c>
-      <c r="B272" t="s">
-        <v>268</v>
-      </c>
-      <c r="C272" t="s">
-        <v>268</v>
-      </c>
-      <c r="D272">
-        <v>999</v>
-      </c>
-      <c r="E272" t="s">
-        <v>265</v>
-      </c>
-      <c r="H272" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H272" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H272">
-      <sortCondition ref="C1:C272"/>
+  <autoFilter ref="A1:H271" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H271">
+      <sortCondition ref="A1:A271"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H272">
-    <sortCondition ref="C2:C272"/>
-    <sortCondition ref="D2:D272"/>
-    <sortCondition ref="F2:F272"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H271">
+    <sortCondition ref="C2:C271"/>
+    <sortCondition ref="D2:D271"/>
+    <sortCondition ref="F2:F271"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E45B953-7F75-42A9-B271-7393D25009CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA24ABB-0049-48F0-8EDC-2919B4DE63A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>Tarapaca</t>
   </si>
   <si>
-    <t>Julio Ruiz Fernandez</t>
-  </si>
-  <si>
     <t>Antofagasta</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Dario Espinoza Pizarro</t>
   </si>
   <si>
-    <t>Llankiray Diaz Diaz</t>
-  </si>
-  <si>
     <t>Lorena Cisternas Mondaca</t>
   </si>
   <si>
@@ -331,9 +325,6 @@
     <t>Roberto Amaro Castillo</t>
   </si>
   <si>
-    <t>Laura Echeverria Correa</t>
-  </si>
-  <si>
     <t>Juan Enrique Pi</t>
   </si>
   <si>
@@ -376,9 +367,6 @@
     <t>Denise Pascal</t>
   </si>
   <si>
-    <t>Christian Segovia Cabello</t>
-  </si>
-  <si>
     <t>Fabiola Freire Aguilar</t>
   </si>
   <si>
@@ -430,9 +418,6 @@
     <t>Emilio Leal Zapatel</t>
   </si>
   <si>
-    <t>Andres Smith Bustos</t>
-  </si>
-  <si>
     <t>Camilo Escalona</t>
   </si>
   <si>
@@ -787,9 +772,6 @@
     <t>Esteban Vielma</t>
   </si>
   <si>
-    <t>Freddy Calderon</t>
-  </si>
-  <si>
     <t>Daniel Dresdner</t>
   </si>
   <si>
@@ -808,9 +790,6 @@
     <t>Claudio Burgos</t>
   </si>
   <si>
-    <t>Estefania Andagur</t>
-  </si>
-  <si>
     <t>Carlos Benítez</t>
   </si>
   <si>
@@ -986,6 +965,27 @@
   </si>
   <si>
     <t>Matías Orellana Cuellar</t>
+  </si>
+  <si>
+    <t>Julio Ruiz Fernández</t>
+  </si>
+  <si>
+    <t>Llankiray Díaz Díaz</t>
+  </si>
+  <si>
+    <t>Estefanía Andagur</t>
+  </si>
+  <si>
+    <t>Freddy Calderón</t>
+  </si>
+  <si>
+    <t>Laura Echeverría Correa</t>
+  </si>
+  <si>
+    <t>Christián Segovia Cabello</t>
+  </si>
+  <si>
+    <t>Andrés Smith Bustos</t>
   </si>
 </sst>
 </file>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1936,16 +1936,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1962,16 +1962,16 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1979,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1988,13 +1988,13 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -2005,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2014,13 +2014,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2031,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2040,13 +2040,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2057,7 +2057,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2066,13 +2066,13 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2083,7 +2083,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2092,13 +2092,13 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2109,7 +2109,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2118,16 +2118,16 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2144,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2161,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2170,7 +2170,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -2187,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2196,13 +2196,13 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -2213,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2222,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -2239,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2248,13 +2248,13 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -2265,7 +2265,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2274,13 +2274,13 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -2291,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2300,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -2317,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2326,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2343,7 +2343,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2369,7 +2369,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2378,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2395,7 +2395,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2404,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -2421,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -2447,7 +2447,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -2456,13 +2456,13 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -2473,7 +2473,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2482,16 +2482,16 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2508,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2525,7 +2525,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2534,7 +2534,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -2551,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -2560,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -2577,7 +2577,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2586,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2603,7 +2603,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2612,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -2629,7 +2629,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2638,16 +2638,16 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
         <v>17</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2664,13 +2664,13 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2681,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2690,13 +2690,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2707,7 +2707,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2716,13 +2716,13 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -2733,7 +2733,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -2742,13 +2742,13 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2759,7 +2759,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2768,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2785,7 +2785,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C37">
         <v>5.5</v>
@@ -2794,13 +2794,13 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -2811,7 +2811,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -2820,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -2837,7 +2837,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C39">
         <v>5.5</v>
@@ -2846,13 +2846,13 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
@@ -2863,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C40">
         <v>5.5</v>
@@ -2872,13 +2872,13 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -2889,7 +2889,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C41">
         <v>5.5</v>
@@ -2898,13 +2898,13 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -2915,7 +2915,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C42">
         <v>5.5</v>
@@ -2924,13 +2924,13 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2941,7 +2941,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C43">
         <v>5.5</v>
@@ -2950,16 +2950,16 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C44">
         <v>5.5</v>
@@ -2976,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2985,7 +2985,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C45">
         <v>5.5</v>
@@ -3002,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -3019,7 +3019,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C46">
         <v>5.5</v>
@@ -3028,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3045,7 +3045,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -3054,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3071,7 +3071,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C48">
         <v>5.5</v>
@@ -3080,7 +3080,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3097,7 +3097,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C49">
         <v>5.5</v>
@@ -3106,16 +3106,16 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3123,7 +3123,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C50">
         <v>5.5</v>
@@ -3132,13 +3132,13 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
@@ -3149,7 +3149,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C51">
         <v>5.5</v>
@@ -3158,13 +3158,13 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
@@ -3175,7 +3175,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -3184,13 +3184,13 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
@@ -3201,7 +3201,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C53">
         <v>5.5</v>
@@ -3210,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3227,7 +3227,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -3236,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -3253,7 +3253,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -3262,7 +3262,7 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3279,7 +3279,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -3288,7 +3288,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3305,7 +3305,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C57">
         <v>5.5</v>
@@ -3314,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -3331,7 +3331,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C58">
         <v>5.5</v>
@@ -3340,16 +3340,16 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" t="s">
         <v>61</v>
       </c>
-      <c r="F58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" t="s">
-        <v>63</v>
-      </c>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C59">
         <v>5.5</v>
@@ -3366,16 +3366,16 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" t="s">
         <v>64</v>
-      </c>
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>65</v>
-      </c>
-      <c r="H59" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C60">
         <v>5.5</v>
@@ -3392,16 +3392,16 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C61">
         <v>5.5</v>
@@ -3418,13 +3418,13 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
@@ -3435,7 +3435,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C62">
         <v>5.5</v>
@@ -3444,13 +3444,13 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -3461,7 +3461,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C63">
         <v>5.5</v>
@@ -3470,16 +3470,16 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C64">
         <v>5.5</v>
@@ -3496,16 +3496,16 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C65">
         <v>5.5</v>
@@ -3522,13 +3522,13 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -3539,7 +3539,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3548,13 +3548,13 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -3565,7 +3565,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C67">
         <v>5.5</v>
@@ -3574,13 +3574,13 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -3591,7 +3591,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3600,13 +3600,13 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
@@ -3617,7 +3617,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C69">
         <v>5.5</v>
@@ -3626,13 +3626,13 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
@@ -3643,7 +3643,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C70">
         <v>5.5</v>
@@ -3652,13 +3652,13 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -3669,7 +3669,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C71">
         <v>5.5</v>
@@ -3678,13 +3678,13 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3695,7 +3695,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3704,13 +3704,13 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -3721,7 +3721,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C73">
         <v>5.5</v>
@@ -3730,13 +3730,13 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
@@ -3747,7 +3747,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C74">
         <v>5.5</v>
@@ -3756,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3773,7 +3773,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C75">
         <v>5.5</v>
@@ -3782,13 +3782,13 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3799,7 +3799,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C76">
         <v>5.5</v>
@@ -3808,13 +3808,13 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3825,7 +3825,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C77">
         <v>5.5</v>
@@ -3834,13 +3834,13 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -3851,7 +3851,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C78">
         <v>5.5</v>
@@ -3860,13 +3860,13 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
@@ -3877,7 +3877,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -3886,16 +3886,16 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C80">
         <v>5.5</v>
@@ -3912,13 +3912,13 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
@@ -3929,7 +3929,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -3938,16 +3938,16 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s">
         <v>82</v>
-      </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" t="s">
-        <v>83</v>
-      </c>
-      <c r="H81" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3955,7 +3955,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C82">
         <v>5.5</v>
@@ -3964,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -3981,7 +3981,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83">
         <v>5.5</v>
@@ -3990,7 +3990,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C84">
         <v>5.5</v>
@@ -4016,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4033,7 +4033,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C85">
         <v>5.5</v>
@@ -4042,7 +4042,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4059,7 +4059,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4068,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4085,7 +4085,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C87">
         <v>5.5</v>
@@ -4094,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4111,7 +4111,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C88">
         <v>5.5</v>
@@ -4120,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4137,7 +4137,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89">
         <v>5.5</v>
@@ -4146,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4163,7 +4163,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C90">
         <v>5.5</v>
@@ -4172,7 +4172,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -4189,7 +4189,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C91">
         <v>5.5</v>
@@ -4198,7 +4198,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4215,7 +4215,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C92">
         <v>5.5</v>
@@ -4224,7 +4224,7 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -4241,7 +4241,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C93">
         <v>5.5</v>
@@ -4250,7 +4250,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4267,7 +4267,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C94">
         <v>5.5</v>
@@ -4276,7 +4276,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4293,7 +4293,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C95">
         <v>5.5</v>
@@ -4302,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4319,7 +4319,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C96">
         <v>5.5</v>
@@ -4328,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -4345,7 +4345,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C97">
         <v>5.5</v>
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -4371,7 +4371,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C98">
         <v>5.5</v>
@@ -4380,7 +4380,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4397,7 +4397,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4406,7 +4406,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4423,7 +4423,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C100">
         <v>5.5</v>
@@ -4432,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -4449,7 +4449,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C101">
         <v>5.5</v>
@@ -4458,10 +4458,10 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4469,7 +4469,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C102">
         <v>5.5</v>
@@ -4478,13 +4478,13 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
@@ -4495,7 +4495,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4504,13 +4504,13 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G103" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H103" t="s">
         <v>12</v>
@@ -4521,7 +4521,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C104">
         <v>5.5</v>
@@ -4530,16 +4530,16 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,7 +4547,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -4556,13 +4556,13 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
@@ -4573,7 +4573,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -4582,13 +4582,13 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
@@ -4599,7 +4599,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -4608,13 +4608,13 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
@@ -4625,7 +4625,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -4634,13 +4634,13 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
@@ -4651,7 +4651,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -4660,16 +4660,16 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -4686,7 +4686,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4703,7 +4703,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C111">
         <v>5.5</v>
@@ -4712,7 +4712,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4729,7 +4729,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C112">
         <v>5.5</v>
@@ -4738,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4755,7 +4755,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C113">
         <v>5.5</v>
@@ -4764,7 +4764,7 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -4781,7 +4781,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -4790,7 +4790,7 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C115">
         <v>5.5</v>
@@ -4816,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -4833,7 +4833,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C116">
         <v>5.5</v>
@@ -4842,7 +4842,7 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4859,7 +4859,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C117">
         <v>5.5</v>
@@ -4868,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -4885,7 +4885,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C118">
         <v>5.5</v>
@@ -4894,7 +4894,7 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>102</v>
+        <v>318</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -4911,7 +4911,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C119">
         <v>5.5</v>
@@ -4920,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H119" t="s">
         <v>12</v>
@@ -4931,7 +4931,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C120">
         <v>5.5</v>
@@ -4940,7 +4940,7 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H120" t="s">
         <v>12</v>
@@ -4951,7 +4951,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C121">
         <v>5.5</v>
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H121" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4971,7 +4971,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C122">
         <v>5.5</v>
@@ -4980,10 +4980,10 @@
         <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H122" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4991,7 +4991,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C123">
         <v>5.5</v>
@@ -5000,13 +5000,13 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
@@ -5017,7 +5017,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C124">
         <v>5.5</v>
@@ -5026,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5043,7 +5043,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C125">
         <v>5.5</v>
@@ -5052,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5069,7 +5069,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C126">
         <v>5.5</v>
@@ -5078,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5095,7 +5095,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C127">
         <v>5.5</v>
@@ -5104,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5121,7 +5121,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C128">
         <v>5.5</v>
@@ -5130,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5147,7 +5147,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C129">
         <v>5.5</v>
@@ -5156,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5173,7 +5173,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C130">
         <v>5.5</v>
@@ -5182,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5199,7 +5199,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C131">
         <v>5.5</v>
@@ -5208,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5225,7 +5225,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C132">
         <v>5.5</v>
@@ -5234,7 +5234,7 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5251,7 +5251,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C133">
         <v>5.5</v>
@@ -5260,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5277,7 +5277,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C134">
         <v>5.5</v>
@@ -5286,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5303,7 +5303,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C135">
         <v>5.5</v>
@@ -5312,13 +5312,13 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H135" t="s">
         <v>12</v>
@@ -5329,7 +5329,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C136">
         <v>5.5</v>
@@ -5338,13 +5338,13 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
@@ -5355,7 +5355,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C137">
         <v>5.5</v>
@@ -5364,7 +5364,7 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5381,7 +5381,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C138">
         <v>5.5</v>
@@ -5390,7 +5390,7 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5407,7 +5407,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C139">
         <v>5.5</v>
@@ -5416,7 +5416,7 @@
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -5433,7 +5433,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C140">
         <v>5.5</v>
@@ -5442,7 +5442,7 @@
         <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -5459,7 +5459,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C141">
         <v>5.5</v>
@@ -5468,16 +5468,16 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F141" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
         <v>17</v>
       </c>
-      <c r="G141" t="s">
-        <v>18</v>
-      </c>
       <c r="H141" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5485,7 +5485,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C142">
         <v>5.5</v>
@@ -5494,13 +5494,13 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
@@ -5511,7 +5511,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C143">
         <v>5.5</v>
@@ -5520,13 +5520,13 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H143" t="s">
         <v>12</v>
@@ -5537,7 +5537,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C144">
         <v>5.5</v>
@@ -5546,13 +5546,13 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
@@ -5563,7 +5563,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C145">
         <v>5.5</v>
@@ -5572,7 +5572,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5581,7 +5581,7 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5589,7 +5589,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C146">
         <v>5.5</v>
@@ -5598,7 +5598,7 @@
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5615,7 +5615,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C147">
         <v>5.5</v>
@@ -5624,7 +5624,7 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -5641,7 +5641,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C148">
         <v>5.5</v>
@@ -5650,7 +5650,7 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -5667,7 +5667,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C149">
         <v>5.5</v>
@@ -5676,7 +5676,7 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -5693,7 +5693,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C150">
         <v>5.5</v>
@@ -5702,7 +5702,7 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -5719,7 +5719,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C151">
         <v>5.5</v>
@@ -5728,7 +5728,7 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -5745,7 +5745,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C152">
         <v>5.5</v>
@@ -5754,16 +5754,16 @@
         <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G152" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H152" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5771,7 +5771,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C153">
         <v>6</v>
@@ -5780,13 +5780,13 @@
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -5797,7 +5797,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C154">
         <v>6</v>
@@ -5806,13 +5806,13 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -5823,7 +5823,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C155">
         <v>6</v>
@@ -5832,13 +5832,13 @@
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -5849,7 +5849,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C156">
         <v>6</v>
@@ -5858,13 +5858,13 @@
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
@@ -5875,7 +5875,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C157">
         <v>6</v>
@@ -5884,13 +5884,13 @@
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -5901,7 +5901,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C158">
         <v>6</v>
@@ -5910,13 +5910,13 @@
         <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H158" t="s">
         <v>12</v>
@@ -5927,7 +5927,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C159">
         <v>6</v>
@@ -5936,13 +5936,13 @@
         <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
@@ -5953,7 +5953,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C160">
         <v>6</v>
@@ -5962,7 +5962,7 @@
         <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
@@ -5979,7 +5979,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C161">
         <v>6</v>
@@ -5988,7 +5988,7 @@
         <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -6005,7 +6005,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C162">
         <v>6</v>
@@ -6014,10 +6014,10 @@
         <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6025,7 +6025,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C163">
         <v>7</v>
@@ -6034,13 +6034,13 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
@@ -6051,7 +6051,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C164">
         <v>7</v>
@@ -6060,13 +6060,13 @@
         <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
@@ -6077,7 +6077,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -6086,7 +6086,7 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6103,7 +6103,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C166">
         <v>7</v>
@@ -6112,7 +6112,7 @@
         <v>18</v>
       </c>
       <c r="E166" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6129,7 +6129,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C167">
         <v>7</v>
@@ -6138,7 +6138,7 @@
         <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6155,7 +6155,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C168">
         <v>7.5</v>
@@ -6164,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6181,7 +6181,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C169">
         <v>7.5</v>
@@ -6190,7 +6190,7 @@
         <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6207,7 +6207,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C170">
         <v>7.5</v>
@@ -6216,7 +6216,7 @@
         <v>19</v>
       </c>
       <c r="E170" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -6233,7 +6233,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C171">
         <v>7.5</v>
@@ -6242,7 +6242,7 @@
         <v>19</v>
       </c>
       <c r="E171" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -6259,7 +6259,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C172">
         <v>8</v>
@@ -6268,13 +6268,13 @@
         <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
@@ -6285,7 +6285,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C173">
         <v>8</v>
@@ -6294,13 +6294,13 @@
         <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H173" t="s">
         <v>12</v>
@@ -6311,7 +6311,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C174">
         <v>8</v>
@@ -6320,13 +6320,13 @@
         <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -6337,7 +6337,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C175">
         <v>8</v>
@@ -6346,13 +6346,13 @@
         <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
@@ -6363,7 +6363,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C176">
         <v>8</v>
@@ -6372,13 +6372,13 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H176" t="s">
         <v>12</v>
@@ -6389,7 +6389,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -6398,7 +6398,7 @@
         <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6415,7 +6415,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C178">
         <v>8</v>
@@ -6424,7 +6424,7 @@
         <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6441,7 +6441,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C179">
         <v>8</v>
@@ -6450,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6467,7 +6467,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -6476,7 +6476,7 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -6493,7 +6493,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -6502,7 +6502,7 @@
         <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6519,7 +6519,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C182">
         <v>8</v>
@@ -6528,7 +6528,7 @@
         <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6545,7 +6545,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C183">
         <v>8</v>
@@ -6554,7 +6554,7 @@
         <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6571,7 +6571,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C184">
         <v>8</v>
@@ -6580,7 +6580,7 @@
         <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6597,7 +6597,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C185">
         <v>8</v>
@@ -6606,7 +6606,7 @@
         <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6623,7 +6623,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C186">
         <v>8</v>
@@ -6632,7 +6632,7 @@
         <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6641,7 +6641,7 @@
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C187">
         <v>8</v>
@@ -6658,7 +6658,7 @@
         <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6675,7 +6675,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C188">
         <v>9</v>
@@ -6684,7 +6684,7 @@
         <v>22</v>
       </c>
       <c r="E188" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6701,7 +6701,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C189">
         <v>9</v>
@@ -6710,7 +6710,7 @@
         <v>23</v>
       </c>
       <c r="E189" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C190">
         <v>9</v>
@@ -6736,7 +6736,7 @@
         <v>23</v>
       </c>
       <c r="E190" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -6753,7 +6753,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C191">
         <v>9.5</v>
@@ -6762,13 +6762,13 @@
         <v>24</v>
       </c>
       <c r="E191" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H191" t="s">
         <v>12</v>
@@ -6779,7 +6779,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C192">
         <v>10</v>
@@ -6788,13 +6788,13 @@
         <v>25</v>
       </c>
       <c r="E192" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H192" t="s">
         <v>12</v>
@@ -6805,7 +6805,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C193">
         <v>10</v>
@@ -6814,13 +6814,13 @@
         <v>25</v>
       </c>
       <c r="E193" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H193" t="s">
         <v>12</v>
@@ -6831,7 +6831,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C194">
         <v>10</v>
@@ -6840,13 +6840,13 @@
         <v>25</v>
       </c>
       <c r="E194" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H194" t="s">
         <v>12</v>
@@ -6857,7 +6857,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C195">
         <v>10</v>
@@ -6866,13 +6866,13 @@
         <v>26</v>
       </c>
       <c r="E195" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H195" t="s">
         <v>12</v>
@@ -6883,7 +6883,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C196">
         <v>10</v>
@@ -6892,13 +6892,13 @@
         <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
@@ -6909,7 +6909,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C197">
         <v>10</v>
@@ -6918,13 +6918,13 @@
         <v>26</v>
       </c>
       <c r="E197" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H197" t="s">
         <v>12</v>
@@ -6935,7 +6935,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -6944,7 +6944,7 @@
         <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -6961,7 +6961,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C199">
         <v>10</v>
@@ -6970,7 +6970,7 @@
         <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6987,7 +6987,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C200">
         <v>10</v>
@@ -6996,7 +6996,7 @@
         <v>26</v>
       </c>
       <c r="E200" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -7013,7 +7013,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C201">
         <v>10</v>
@@ -7022,7 +7022,7 @@
         <v>26</v>
       </c>
       <c r="E201" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -7039,7 +7039,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C202">
         <v>11</v>
@@ -7048,13 +7048,13 @@
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
@@ -7065,7 +7065,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C203">
         <v>12</v>
@@ -7074,7 +7074,7 @@
         <v>28</v>
       </c>
       <c r="E203" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -7091,7 +7091,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C204">
         <v>12</v>
@@ -7100,7 +7100,7 @@
         <v>28</v>
       </c>
       <c r="E204" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -7117,25 +7117,25 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D205">
         <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G205" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7143,25 +7143,25 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C206" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D206">
         <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G206" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7169,25 +7169,25 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C207" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D207">
         <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G207" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -7195,25 +7195,25 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C208" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D208">
         <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G208" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7221,25 +7221,25 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C209" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D209">
         <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G209" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H209" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7247,25 +7247,25 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C210" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D210">
         <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G210" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7273,25 +7273,25 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C211" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D211">
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G211" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H211" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7299,25 +7299,25 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C212" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D212">
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G212" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H212" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7325,25 +7325,25 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C213" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D213">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G213" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7351,25 +7351,25 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D214">
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G214" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H214" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7377,25 +7377,25 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D215">
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H215" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7403,25 +7403,25 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D216">
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G216" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7429,25 +7429,25 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C217" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D217">
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G217" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7455,25 +7455,25 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D218">
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G218" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7481,25 +7481,25 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D219">
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G219" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7507,25 +7507,25 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D220">
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G220" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7533,25 +7533,25 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C221" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D221">
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G221" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7559,25 +7559,25 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C222" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D222">
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G222" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7585,25 +7585,25 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C223" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D223">
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G223" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H223" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7611,25 +7611,25 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C224" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D224">
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G224" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H224" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7637,25 +7637,25 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C225" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D225">
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G225" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H225" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7663,25 +7663,25 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C226" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D226">
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F226" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" t="s">
         <v>17</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>18</v>
-      </c>
-      <c r="H226" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7689,25 +7689,25 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C227" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D227">
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F227" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" t="s">
         <v>17</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="s">
         <v>18</v>
-      </c>
-      <c r="H227" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7715,25 +7715,25 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C228" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D228">
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F228" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" t="s">
         <v>17</v>
       </c>
-      <c r="G228" t="s">
+      <c r="H228" t="s">
         <v>18</v>
-      </c>
-      <c r="H228" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7741,25 +7741,25 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C229" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D229">
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F229" t="s">
+        <v>16</v>
+      </c>
+      <c r="G229" t="s">
         <v>17</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>18</v>
-      </c>
-      <c r="H229" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7767,25 +7767,25 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C230" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D230">
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F230" t="s">
+        <v>16</v>
+      </c>
+      <c r="G230" t="s">
         <v>17</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>18</v>
-      </c>
-      <c r="H230" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7793,25 +7793,25 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C231" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D231">
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F231" t="s">
+        <v>16</v>
+      </c>
+      <c r="G231" t="s">
         <v>17</v>
       </c>
-      <c r="G231" t="s">
+      <c r="H231" t="s">
         <v>18</v>
-      </c>
-      <c r="H231" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7819,22 +7819,22 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C232" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D232">
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F232" t="s">
+        <v>20</v>
+      </c>
+      <c r="G232" t="s">
         <v>21</v>
-      </c>
-      <c r="G232" t="s">
-        <v>22</v>
       </c>
       <c r="H232" t="s">
         <v>12</v>
@@ -7845,25 +7845,25 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C233" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D233">
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F233" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H233" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7871,25 +7871,25 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C234" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D234">
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H234" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7897,25 +7897,25 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C235" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D235">
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H235" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7923,25 +7923,25 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C236" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D236">
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H236" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7949,25 +7949,25 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C237" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D237">
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H237" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7975,25 +7975,25 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C238" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D238">
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H238" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -8001,25 +8001,25 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C239" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D239">
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H239" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8027,25 +8027,25 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C240" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D240">
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H240" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -8053,25 +8053,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C241" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D241">
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H241" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8079,25 +8079,25 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C242" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D242">
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H242" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -8105,25 +8105,25 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C243" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D243">
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H243" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -8131,25 +8131,25 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C244" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D244">
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H244" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8157,25 +8157,25 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C245" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D245">
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H245" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8183,25 +8183,25 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C246" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D246">
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H246" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8209,25 +8209,25 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C247" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D247">
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H247" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8235,25 +8235,25 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C248" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D248">
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H248" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -8261,25 +8261,25 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C249" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D249">
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
       </c>
       <c r="G249" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H249" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -8287,16 +8287,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C250" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D250">
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -8305,7 +8305,7 @@
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -8313,16 +8313,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C251" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D251">
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -8331,7 +8331,7 @@
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -8339,16 +8339,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C252" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D252">
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
@@ -8357,7 +8357,7 @@
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8365,25 +8365,25 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C253" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D253">
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F253" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G253" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H253" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8391,25 +8391,25 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C254" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D254">
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F254" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G254" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H254" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8417,25 +8417,25 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C255" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D255">
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F255" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G255" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H255" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8443,25 +8443,25 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C256" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D256">
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F256" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G256" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H256" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8469,22 +8469,22 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C257" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D257">
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G257" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H257" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8492,22 +8492,22 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C258" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D258">
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G258" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H258" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8515,22 +8515,22 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C259" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D259">
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H259" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8538,22 +8538,22 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C260" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D260">
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G260" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H260" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8561,19 +8561,19 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C261" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D261">
         <v>999</v>
       </c>
       <c r="E261" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H261" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -8581,19 +8581,19 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C262" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D262">
         <v>999</v>
       </c>
       <c r="E262" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H262" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -8601,19 +8601,19 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C263" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D263">
         <v>999</v>
       </c>
       <c r="E263" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H263" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8621,19 +8621,19 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C264" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D264">
         <v>999</v>
       </c>
       <c r="E264" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H264" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -8641,19 +8641,19 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C265" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D265">
         <v>999</v>
       </c>
       <c r="E265" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H265" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -8661,19 +8661,19 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C266" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D266">
         <v>999</v>
       </c>
       <c r="E266" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H266" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -8681,19 +8681,19 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C267" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D267">
         <v>999</v>
       </c>
       <c r="E267" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H267" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -8701,19 +8701,19 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C268" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D268">
         <v>999</v>
       </c>
       <c r="E268" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H268" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -8721,19 +8721,19 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C269" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D269">
         <v>999</v>
       </c>
       <c r="E269" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H269" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -8741,19 +8741,19 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C270" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D270">
         <v>999</v>
       </c>
       <c r="E270" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H270" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -8761,19 +8761,19 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C271" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D271">
         <v>999</v>
       </c>
       <c r="E271" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H271" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA24ABB-0049-48F0-8EDC-2919B4DE63A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79813DDA-8A93-4865-892C-9AA7222EF873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4941,6 +4941,12 @@
       </c>
       <c r="E120" t="s">
         <v>101</v>
+      </c>
+      <c r="F120" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>63</v>
       </c>
       <c r="H120" t="s">
         <v>12</v>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79813DDA-8A93-4865-892C-9AA7222EF873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B40BB4-AC00-44BA-A285-3E67F511219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$277</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="329">
   <si>
     <t>id</t>
   </si>
@@ -986,13 +986,37 @@
   </si>
   <si>
     <t>Andrés Smith Bustos</t>
+  </si>
+  <si>
+    <t>Pedro Cayuqueo</t>
+  </si>
+  <si>
+    <t>https://twitter.com/pcayuqueo/status/1317514380339195907</t>
+  </si>
+  <si>
+    <t>Magdalena Piñera Morel</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/politica/noticia/hijas-de-pinera-y-desbordes-y-dos-subsecretarios-las-cartas-de-rn-para-la-convencion-constitucional/5V2FTWH5L5A7JNIFJIV7QKRPMQ/</t>
+  </si>
+  <si>
+    <t>Francisca Desbordes</t>
+  </si>
+  <si>
+    <t>Marcela Díaz</t>
+  </si>
+  <si>
+    <t>Pablo González</t>
+  </si>
+  <si>
+    <t>Karin Ebensperger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1129,6 +1153,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1431,7 +1463,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1474,12 +1506,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1513,6 +1547,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1833,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H271"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+      <selection activeCell="A220" sqref="A220:A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2452,20 +2487,17 @@
       <c r="C24">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
       <c r="E24" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2482,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2508,16 +2540,16 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2534,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -2560,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -2586,7 +2618,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2612,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -2635,19 +2667,19 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2664,16 +2696,16 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,13 +2722,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2716,13 +2748,13 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -2742,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -2768,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2785,22 +2817,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -2820,7 +2852,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -2846,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
@@ -2872,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
@@ -2898,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -2924,13 +2956,13 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2950,16 +2982,16 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2976,16 +3008,16 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3002,7 +3034,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -3011,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3028,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3054,7 +3086,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3080,7 +3112,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3103,19 +3135,19 @@
         <v>5.5</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3132,16 +3164,16 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>275</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3155,19 +3187,19 @@
         <v>5.5</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3184,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -3210,13 +3242,13 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
@@ -3236,13 +3268,13 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
@@ -3262,7 +3294,7 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3288,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3314,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -3340,16 +3372,16 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3363,19 +3395,19 @@
         <v>5.5</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3389,19 +3421,19 @@
         <v>5.5</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H60" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3418,16 +3450,16 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3444,16 +3476,16 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3470,16 +3502,16 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3496,16 +3528,16 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3522,16 +3554,16 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3548,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -3557,7 +3589,7 @@
         <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3574,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -3600,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
@@ -3626,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
@@ -3652,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
@@ -3678,7 +3710,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -3704,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -3730,7 +3762,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
@@ -3756,13 +3788,13 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3782,13 +3814,13 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3808,13 +3840,13 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3834,13 +3866,13 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -3860,13 +3892,13 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
@@ -3886,7 +3918,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -3895,7 +3927,7 @@
         <v>38</v>
       </c>
       <c r="H79" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3912,7 +3944,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -3938,16 +3970,16 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H81" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3964,13 +3996,13 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
@@ -3990,16 +4022,16 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4016,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4042,7 +4074,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4068,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4094,7 +4126,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4120,7 +4152,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4146,7 +4178,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>311</v>
+        <v>85</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4172,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -4198,7 +4230,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4224,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>87</v>
+        <v>284</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -4250,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4276,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4302,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4328,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -4354,7 +4386,7 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -4380,7 +4412,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4406,7 +4438,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4432,7 +4464,7 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -4458,10 +4490,16 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>90</v>
+        <v>288</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4478,13 +4516,13 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
@@ -4501,19 +4539,13 @@
         <v>5.5</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
-      </c>
-      <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4527,19 +4559,19 @@
         <v>5.5</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="H104" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4556,16 +4588,16 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4582,16 +4614,16 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4608,16 +4640,16 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4634,13 +4666,13 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
@@ -4660,16 +4692,16 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
-      </c>
-      <c r="H109" t="s">
-        <v>97</v>
+        <v>45</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4686,16 +4718,16 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4712,13 +4744,13 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H111" t="s">
         <v>12</v>
@@ -4738,13 +4770,13 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
@@ -4764,13 +4796,13 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
@@ -4790,13 +4822,13 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
@@ -4816,16 +4848,16 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4842,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4868,7 +4900,7 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -4894,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -4920,7 +4952,13 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>100</v>
+        <v>290</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
       </c>
       <c r="H119" t="s">
         <v>12</v>
@@ -4940,13 +4978,13 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H120" t="s">
         <v>12</v>
@@ -4966,10 +5004,16 @@
         <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>102</v>
+        <v>220</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4986,10 +5030,16 @@
         <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>243</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5003,16 +5053,16 @@
         <v>5.5</v>
       </c>
       <c r="D123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
@@ -5029,10 +5079,10 @@
         <v>5.5</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5055,16 +5105,10 @@
         <v>5.5</v>
       </c>
       <c r="D125">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>291</v>
-      </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H125" t="s">
         <v>12</v>
@@ -5081,16 +5125,16 @@
         <v>5.5</v>
       </c>
       <c r="D126">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H126" t="s">
         <v>12</v>
@@ -5107,19 +5151,13 @@
         <v>5.5</v>
       </c>
       <c r="D127">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>106</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5133,19 +5171,13 @@
         <v>5.5</v>
       </c>
       <c r="D128">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>236</v>
-      </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5162,13 +5194,13 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F129" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H129" t="s">
         <v>12</v>
@@ -5188,7 +5220,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5214,7 +5246,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5240,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5266,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5292,7 +5324,7 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5315,16 +5347,16 @@
         <v>5.5</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H135" t="s">
         <v>12</v>
@@ -5341,16 +5373,16 @@
         <v>5.5</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
@@ -5367,10 +5399,10 @@
         <v>5.5</v>
       </c>
       <c r="D137">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5393,10 +5425,10 @@
         <v>5.5</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5419,10 +5451,10 @@
         <v>5.5</v>
       </c>
       <c r="D139">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -5445,10 +5477,10 @@
         <v>5.5</v>
       </c>
       <c r="D140">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -5471,19 +5503,19 @@
         <v>5.5</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G141" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H141" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5497,10 +5529,10 @@
         <v>5.5</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -5523,16 +5555,16 @@
         <v>5.5</v>
       </c>
       <c r="D143">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H143" t="s">
         <v>12</v>
@@ -5549,16 +5581,16 @@
         <v>5.5</v>
       </c>
       <c r="D144">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G144" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
@@ -5575,10 +5607,10 @@
         <v>5.5</v>
       </c>
       <c r="D145">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5587,7 +5619,7 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5601,10 +5633,10 @@
         <v>5.5</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>319</v>
+        <v>110</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5630,16 +5662,16 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,13 +5688,13 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="F148" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H148" t="s">
         <v>12</v>
@@ -5682,13 +5714,13 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
@@ -5708,13 +5740,13 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G150" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H150" t="s">
         <v>12</v>
@@ -5734,7 +5766,7 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -5743,7 +5775,7 @@
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5757,19 +5789,19 @@
         <v>5.5</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E152" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5777,22 +5809,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D153">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -5803,22 +5835,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D154">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E154" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -5829,22 +5861,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D155">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -5855,22 +5887,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D156">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G156" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
@@ -5881,22 +5913,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D157">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>298</v>
+        <v>117</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -5907,25 +5939,25 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D158">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5939,10 +5971,10 @@
         <v>6</v>
       </c>
       <c r="D159">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>120</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
         <v>20</v>
@@ -5965,16 +5997,16 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H160" t="s">
         <v>12</v>
@@ -5991,16 +6023,16 @@
         <v>6</v>
       </c>
       <c r="D161">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="F161" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G161" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
@@ -6017,13 +6049,19 @@
         <v>6</v>
       </c>
       <c r="D162">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>122</v>
+        <v>299</v>
+      </c>
+      <c r="F162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>23</v>
       </c>
       <c r="H162" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6031,16 +6069,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C163">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D163">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
@@ -6057,16 +6095,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D164">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E164" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
@@ -6083,22 +6121,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D165">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G165" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H165" t="s">
         <v>12</v>
@@ -6109,16 +6147,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C166">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6135,16 +6173,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C167">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6161,25 +6199,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C168">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E168" t="s">
-        <v>232</v>
-      </c>
-      <c r="F168" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="H168" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6187,22 +6219,22 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C169">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D169">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G169" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H169" t="s">
         <v>12</v>
@@ -6213,22 +6245,22 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C170">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D170">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E170" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="F170" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
@@ -6239,16 +6271,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C171">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D171">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E171" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -6265,22 +6297,22 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C172">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E172" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G172" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
@@ -6291,22 +6323,22 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E173" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G173" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H173" t="s">
         <v>12</v>
@@ -6317,22 +6349,22 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C174">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D174">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E174" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -6343,22 +6375,22 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C175">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
@@ -6369,22 +6401,22 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C176">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H176" t="s">
         <v>12</v>
@@ -6395,16 +6427,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C177">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E177" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6430,13 +6462,13 @@
         <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G178" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H178" t="s">
         <v>12</v>
@@ -6456,13 +6488,13 @@
         <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
@@ -6482,13 +6514,13 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G180" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H180" t="s">
         <v>12</v>
@@ -6508,13 +6540,13 @@
         <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G181" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H181" t="s">
         <v>12</v>
@@ -6534,13 +6566,13 @@
         <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G182" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H182" t="s">
         <v>12</v>
@@ -6560,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6586,7 +6618,7 @@
         <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6612,7 +6644,7 @@
         <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6635,10 +6667,10 @@
         <v>8</v>
       </c>
       <c r="D186">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E186" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6647,7 +6679,7 @@
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6661,10 +6693,10 @@
         <v>8</v>
       </c>
       <c r="D187">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E187" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6681,16 +6713,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C188">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D188">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6707,16 +6739,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C189">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D189">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E189" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -6733,16 +6765,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C190">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D190">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E190" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -6759,22 +6791,22 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C191">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="D191">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E191" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H191" t="s">
         <v>12</v>
@@ -6785,25 +6817,25 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D192">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E192" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6811,22 +6843,22 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C193">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D193">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H193" t="s">
         <v>12</v>
@@ -6837,22 +6869,22 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C194">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D194">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E194" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G194" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H194" t="s">
         <v>12</v>
@@ -6863,22 +6895,22 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D195">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E195" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G195" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H195" t="s">
         <v>12</v>
@@ -6889,22 +6921,22 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C196">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D196">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E196" t="s">
-        <v>317</v>
+        <v>134</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G196" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
@@ -6915,25 +6947,19 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C197">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D197">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E197" t="s">
-        <v>309</v>
-      </c>
-      <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" t="s">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="H197" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6941,22 +6967,22 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D198">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E198" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
@@ -6973,16 +6999,16 @@
         <v>10</v>
       </c>
       <c r="D199">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E199" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H199" t="s">
         <v>12</v>
@@ -6999,16 +7025,16 @@
         <v>10</v>
       </c>
       <c r="D200">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E200" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G200" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
@@ -7025,16 +7051,16 @@
         <v>10</v>
       </c>
       <c r="D201">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E201" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H201" t="s">
         <v>12</v>
@@ -7045,22 +7071,22 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C202">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D202">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E202" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="F202" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
@@ -7071,22 +7097,22 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="C203">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D203">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E203" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="F203" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G203" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H203" t="s">
         <v>12</v>
@@ -7097,22 +7123,22 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="C204">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D204">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E204" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G204" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H204" t="s">
         <v>12</v>
@@ -7123,25 +7149,25 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>217</v>
-      </c>
-      <c r="C205" t="s">
-        <v>217</v>
+        <v>136</v>
+      </c>
+      <c r="C205">
+        <v>10</v>
       </c>
       <c r="D205">
-        <v>999</v>
+        <v>26</v>
       </c>
       <c r="E205" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G205" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7149,25 +7175,25 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>217</v>
-      </c>
-      <c r="C206" t="s">
-        <v>217</v>
+        <v>136</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
       </c>
       <c r="D206">
-        <v>999</v>
+        <v>26</v>
       </c>
       <c r="E206" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7175,25 +7201,25 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>217</v>
-      </c>
-      <c r="C207" t="s">
-        <v>217</v>
+        <v>136</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
       </c>
       <c r="D207">
-        <v>999</v>
+        <v>26</v>
       </c>
       <c r="E207" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G207" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -7201,25 +7227,25 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>217</v>
-      </c>
-      <c r="C208" t="s">
-        <v>217</v>
+        <v>136</v>
+      </c>
+      <c r="C208">
+        <v>10</v>
       </c>
       <c r="D208">
-        <v>999</v>
+        <v>26</v>
       </c>
       <c r="E208" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G208" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7227,25 +7253,25 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
-      </c>
-      <c r="C209" t="s">
-        <v>217</v>
+        <v>140</v>
+      </c>
+      <c r="C209">
+        <v>11</v>
       </c>
       <c r="D209">
-        <v>999</v>
+        <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H209" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7253,25 +7279,25 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>217</v>
-      </c>
-      <c r="C210" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="C210">
+        <v>12</v>
       </c>
       <c r="D210">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E210" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7279,25 +7305,25 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
-      </c>
-      <c r="C211" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="C211">
+        <v>12</v>
       </c>
       <c r="D211">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E211" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7314,13 +7340,13 @@
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F212" t="s">
         <v>16</v>
       </c>
       <c r="G212" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="H212" t="s">
         <v>18</v>
@@ -7340,13 +7366,13 @@
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F213" t="s">
         <v>16</v>
       </c>
       <c r="G213" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="H213" t="s">
         <v>18</v>
@@ -7366,13 +7392,13 @@
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F214" t="s">
         <v>16</v>
       </c>
       <c r="G214" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="H214" t="s">
         <v>18</v>
@@ -7392,13 +7418,13 @@
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F215" t="s">
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="H215" t="s">
         <v>18</v>
@@ -7418,13 +7444,13 @@
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F216" t="s">
         <v>16</v>
       </c>
       <c r="G216" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="H216" t="s">
         <v>18</v>
@@ -7444,13 +7470,13 @@
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F217" t="s">
         <v>16</v>
       </c>
       <c r="G217" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H217" t="s">
         <v>18</v>
@@ -7470,13 +7496,13 @@
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F218" t="s">
         <v>16</v>
       </c>
       <c r="G218" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H218" t="s">
         <v>18</v>
@@ -7496,13 +7522,13 @@
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F219" t="s">
         <v>16</v>
       </c>
       <c r="G219" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="H219" t="s">
         <v>18</v>
@@ -7522,13 +7548,13 @@
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F220" t="s">
         <v>16</v>
       </c>
       <c r="G220" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="H220" t="s">
         <v>18</v>
@@ -7548,13 +7574,13 @@
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F221" t="s">
         <v>16</v>
       </c>
       <c r="G221" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="H221" t="s">
         <v>18</v>
@@ -7574,13 +7600,13 @@
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F222" t="s">
         <v>16</v>
       </c>
       <c r="G222" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="H222" t="s">
         <v>18</v>
@@ -7600,13 +7626,13 @@
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F223" t="s">
         <v>16</v>
       </c>
       <c r="G223" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="H223" t="s">
         <v>18</v>
@@ -7626,7 +7652,7 @@
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F224" t="s">
         <v>16</v>
@@ -7652,7 +7678,7 @@
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F225" t="s">
         <v>16</v>
@@ -7678,13 +7704,13 @@
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F226" t="s">
         <v>16</v>
       </c>
       <c r="G226" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H226" t="s">
         <v>18</v>
@@ -7704,13 +7730,13 @@
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F227" t="s">
         <v>16</v>
       </c>
       <c r="G227" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H227" t="s">
         <v>18</v>
@@ -7730,13 +7756,13 @@
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F228" t="s">
         <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H228" t="s">
         <v>18</v>
@@ -7756,13 +7782,13 @@
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F229" t="s">
         <v>16</v>
       </c>
       <c r="G229" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H229" t="s">
         <v>18</v>
@@ -7782,13 +7808,13 @@
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F230" t="s">
         <v>16</v>
       </c>
       <c r="G230" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H230" t="s">
         <v>18</v>
@@ -7808,13 +7834,13 @@
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F231" t="s">
         <v>16</v>
       </c>
       <c r="G231" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H231" t="s">
         <v>18</v>
@@ -7834,16 +7860,16 @@
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F232" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G232" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H232" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7860,16 +7886,16 @@
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F233" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G233" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H233" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7886,13 +7912,13 @@
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="F234" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G234" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H234" t="s">
         <v>18</v>
@@ -7912,16 +7938,16 @@
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F235" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H235" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7938,16 +7964,16 @@
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F236" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H236" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7964,16 +7990,16 @@
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F237" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H237" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7990,16 +8016,16 @@
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H238" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -8016,16 +8042,16 @@
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F239" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G239" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H239" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8042,16 +8068,16 @@
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="H240" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -8068,16 +8094,16 @@
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H241" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8094,13 +8120,13 @@
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H242" t="s">
         <v>28</v>
@@ -8120,13 +8146,13 @@
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H243" t="s">
         <v>28</v>
@@ -8146,13 +8172,13 @@
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H244" t="s">
         <v>28</v>
@@ -8172,16 +8198,16 @@
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H245" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8198,16 +8224,16 @@
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H246" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8224,16 +8250,16 @@
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H247" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8250,13 +8276,13 @@
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H248" t="s">
         <v>28</v>
@@ -8276,13 +8302,13 @@
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
       </c>
       <c r="G249" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H249" t="s">
         <v>28</v>
@@ -8302,13 +8328,13 @@
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
       </c>
       <c r="G250" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H250" t="s">
         <v>28</v>
@@ -8328,13 +8354,13 @@
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
       </c>
       <c r="G251" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H251" t="s">
         <v>28</v>
@@ -8354,13 +8380,13 @@
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
       </c>
       <c r="G252" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H252" t="s">
         <v>28</v>
@@ -8380,13 +8406,13 @@
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F253" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G253" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="H253" t="s">
         <v>28</v>
@@ -8406,13 +8432,13 @@
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F254" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G254" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="H254" t="s">
         <v>28</v>
@@ -8432,13 +8458,13 @@
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F255" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G255" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="H255" t="s">
         <v>28</v>
@@ -8458,13 +8484,13 @@
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F256" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G256" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H256" t="s">
         <v>28</v>
@@ -8484,13 +8510,16 @@
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8507,13 +8536,16 @@
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
       </c>
       <c r="G258" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8530,10 +8562,13 @@
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>203</v>
+        <v>193</v>
+      </c>
+      <c r="F259" t="s">
+        <v>60</v>
       </c>
       <c r="G259" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="H259" t="s">
         <v>28</v>
@@ -8553,10 +8588,13 @@
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+      <c r="F260" t="s">
+        <v>60</v>
       </c>
       <c r="G260" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H260" t="s">
         <v>28</v>
@@ -8576,7 +8614,13 @@
         <v>999</v>
       </c>
       <c r="E261" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="F261" t="s">
+        <v>60</v>
+      </c>
+      <c r="G261" t="s">
+        <v>61</v>
       </c>
       <c r="H261" t="s">
         <v>28</v>
@@ -8596,7 +8640,13 @@
         <v>999</v>
       </c>
       <c r="E262" t="s">
-        <v>205</v>
+        <v>197</v>
+      </c>
+      <c r="F262" t="s">
+        <v>60</v>
+      </c>
+      <c r="G262" t="s">
+        <v>61</v>
       </c>
       <c r="H262" t="s">
         <v>28</v>
@@ -8616,10 +8666,13 @@
         <v>999</v>
       </c>
       <c r="E263" t="s">
-        <v>206</v>
+        <v>198</v>
+      </c>
+      <c r="G263" t="s">
+        <v>45</v>
       </c>
       <c r="H263" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8636,10 +8689,13 @@
         <v>999</v>
       </c>
       <c r="E264" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="G264" t="s">
+        <v>45</v>
       </c>
       <c r="H264" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -8656,10 +8712,13 @@
         <v>999</v>
       </c>
       <c r="E265" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="G265" t="s">
+        <v>45</v>
       </c>
       <c r="H265" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -8676,10 +8735,13 @@
         <v>999</v>
       </c>
       <c r="E266" t="s">
-        <v>209</v>
+        <v>201</v>
+      </c>
+      <c r="G266" t="s">
+        <v>202</v>
       </c>
       <c r="H266" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -8696,10 +8758,10 @@
         <v>999</v>
       </c>
       <c r="E267" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H267" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -8716,10 +8778,10 @@
         <v>999</v>
       </c>
       <c r="E268" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H268" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -8736,10 +8798,10 @@
         <v>999</v>
       </c>
       <c r="E269" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H269" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -8756,10 +8818,10 @@
         <v>999</v>
       </c>
       <c r="E270" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H270" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -8776,24 +8838,148 @@
         <v>999</v>
       </c>
       <c r="E271" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H271" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>217</v>
+      </c>
+      <c r="C272" t="s">
+        <v>217</v>
+      </c>
+      <c r="D272">
+        <v>999</v>
+      </c>
+      <c r="E272" t="s">
+        <v>209</v>
+      </c>
+      <c r="H272" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>217</v>
+      </c>
+      <c r="C273" t="s">
+        <v>217</v>
+      </c>
+      <c r="D273">
+        <v>999</v>
+      </c>
+      <c r="E273" t="s">
+        <v>210</v>
+      </c>
+      <c r="H273" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>217</v>
+      </c>
+      <c r="C274" t="s">
+        <v>217</v>
+      </c>
+      <c r="D274">
+        <v>999</v>
+      </c>
+      <c r="E274" t="s">
+        <v>211</v>
+      </c>
+      <c r="H274" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>217</v>
+      </c>
+      <c r="C275" t="s">
+        <v>217</v>
+      </c>
+      <c r="D275">
+        <v>999</v>
+      </c>
+      <c r="E275" t="s">
+        <v>212</v>
+      </c>
+      <c r="H275" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>217</v>
+      </c>
+      <c r="C276" t="s">
+        <v>217</v>
+      </c>
+      <c r="D276">
+        <v>999</v>
+      </c>
+      <c r="E276" t="s">
+        <v>213</v>
+      </c>
+      <c r="H276" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>217</v>
+      </c>
+      <c r="C277" t="s">
+        <v>217</v>
+      </c>
+      <c r="D277">
+        <v>999</v>
+      </c>
+      <c r="E277" t="s">
+        <v>214</v>
+      </c>
+      <c r="H277" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H271" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H271">
-      <sortCondition ref="A1:A271"/>
+  <autoFilter ref="A1:H277" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H277">
+      <sortCondition ref="A1:A277"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H271">
-    <sortCondition ref="C2:C271"/>
-    <sortCondition ref="D2:D271"/>
-    <sortCondition ref="F2:F271"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H277">
+    <sortCondition ref="C2:C277"/>
+    <sortCondition ref="D2:D277"/>
+    <sortCondition ref="F2:F277"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H109" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
+    <hyperlink ref="H24" r:id="rId2" xr:uid="{806BB034-CC22-4DF3-8713-E1075C67FD20}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B40BB4-AC00-44BA-A285-3E67F511219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508857DF-4156-4FD8-B31A-970B84D05D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:A277"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2486,6 +2486,9 @@
       </c>
       <c r="C24">
         <v>5</v>
+      </c>
+      <c r="D24">
+        <v>999</v>
       </c>
       <c r="E24" t="s">
         <v>325</v>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508857DF-4156-4FD8-B31A-970B84D05D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E50AF17-8457-48CB-AB3B-C52DE60B7504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$H$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$K$260</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -97,12 +97,6 @@
     <t>RD</t>
   </si>
   <si>
-    <t>Dario Espinoza Pizarro</t>
-  </si>
-  <si>
-    <t>Lorena Cisternas Mondaca</t>
-  </si>
-  <si>
     <t>Aurora Williams</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>PL</t>
   </si>
   <si>
-    <t>Gloria Maira Vargas</t>
-  </si>
-  <si>
     <t>Jaime Bassa</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>Ignacio Miranda Osorio</t>
   </si>
   <si>
-    <t>Maga Miranda Diz</t>
-  </si>
-  <si>
     <t>Tatiana Urrutia Herrera</t>
   </si>
   <si>
@@ -241,12 +229,6 @@
     <t>Paula Poblete Maureira</t>
   </si>
   <si>
-    <t>Rodrigo Bustos Bottai</t>
-  </si>
-  <si>
-    <t>Ana Sugranyes Bickel</t>
-  </si>
-  <si>
     <t>Ignacia Gómez</t>
   </si>
   <si>
@@ -304,9 +286,6 @@
     <t>Carolina Perez Dattari</t>
   </si>
   <si>
-    <t>Ignacio Cruz Torres</t>
-  </si>
-  <si>
     <t>Fernando Atria</t>
   </si>
   <si>
@@ -412,12 +391,6 @@
     <t>Bío-Bío</t>
   </si>
   <si>
-    <t>Claudio Carter Erazo</t>
-  </si>
-  <si>
-    <t>Emilio Leal Zapatel</t>
-  </si>
-  <si>
     <t>Camilo Escalona</t>
   </si>
   <si>
@@ -709,12 +682,6 @@
     <t>Minerva Castañeda</t>
   </si>
   <si>
-    <t>Rodrigo Hernandez</t>
-  </si>
-  <si>
-    <t>Daniela Oberreuter</t>
-  </si>
-  <si>
     <t>Camila Bustamante</t>
   </si>
   <si>
@@ -772,9 +739,6 @@
     <t>Esteban Vielma</t>
   </si>
   <si>
-    <t>Daniel Dresdner</t>
-  </si>
-  <si>
     <t>Maite Desconvieres</t>
   </si>
   <si>
@@ -814,18 +778,12 @@
     <t>Francisco Jiménez Vega</t>
   </si>
   <si>
-    <t>Catalina Cortés Godoy</t>
-  </si>
-  <si>
     <t>Romina Ávalos Vergara</t>
   </si>
   <si>
     <t>Cristóbal Orellana Jara</t>
   </si>
   <si>
-    <t>Marisol Céspedes Aguirre</t>
-  </si>
-  <si>
     <t>Gonzalo Cortés Moreno</t>
   </si>
   <si>
@@ -838,9 +796,6 @@
     <t>Paula Gutiérrez</t>
   </si>
   <si>
-    <t>Matías Mena Arriola</t>
-  </si>
-  <si>
     <t>Fabián Farías Quijada</t>
   </si>
   <si>
@@ -850,9 +805,6 @@
     <t>Óscar Sandoval</t>
   </si>
   <si>
-    <t>Camila González Mora</t>
-  </si>
-  <si>
     <t>Gastón Fuentealba</t>
   </si>
   <si>
@@ -862,18 +814,6 @@
     <t>Ricardo Azócar Reyes</t>
   </si>
   <si>
-    <t>Cynthia Barría Leon</t>
-  </si>
-  <si>
-    <t>José Ferrero Mariano</t>
-  </si>
-  <si>
-    <t>Matías Silva Allende</t>
-  </si>
-  <si>
-    <t>Diego Díaz Gonzalez</t>
-  </si>
-  <si>
     <t>Georgina Cortés Araya</t>
   </si>
   <si>
@@ -916,15 +856,6 @@
     <t>José Vásquez Silva</t>
   </si>
   <si>
-    <t>Matías Vergara</t>
-  </si>
-  <si>
-    <t>María Pezo Elgueta</t>
-  </si>
-  <si>
-    <t>Evelyn Cárcamo Escobar</t>
-  </si>
-  <si>
     <t>César Silva Caroca</t>
   </si>
   <si>
@@ -949,12 +880,6 @@
     <t>María Viveros Ovando</t>
   </si>
   <si>
-    <t>Andrés Valenzuela</t>
-  </si>
-  <si>
-    <t>Rodrigo Díaz Choque</t>
-  </si>
-  <si>
     <t>Álvaro Seguel Solis</t>
   </si>
   <si>
@@ -970,15 +895,6 @@
     <t>Julio Ruiz Fernández</t>
   </si>
   <si>
-    <t>Llankiray Díaz Díaz</t>
-  </si>
-  <si>
-    <t>Estefanía Andagur</t>
-  </si>
-  <si>
-    <t>Freddy Calderón</t>
-  </si>
-  <si>
     <t>Laura Echeverría Correa</t>
   </si>
   <si>
@@ -1010,6 +926,138 @@
   </si>
   <si>
     <t>Karin Ebensperger</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>Giovanna Grandón</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2020</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>Ana Tijoux</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2021</t>
+  </si>
+  <si>
+    <t>link2</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/nacional/tia-pikachu-ano-del-estallido-social-me-quiero-postular-constituyente</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/tendencias/adriana-barrientos-apruebo-plebiscito-ser-constituyente-06-10-2020</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2022</t>
+  </si>
+  <si>
+    <t>Adriana Barrientos</t>
+  </si>
+  <si>
+    <t>Ricardo Greene</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2023</t>
+  </si>
+  <si>
+    <t>Ernesto Garrat</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2024</t>
+  </si>
+  <si>
+    <t>Elena Bolados</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2025</t>
+  </si>
+  <si>
+    <t>Verónica Undurraga</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2026</t>
+  </si>
+  <si>
+    <t>Bernardo de la Maza</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2027</t>
+  </si>
+  <si>
+    <t>Benito Baranda</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2028</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Jorge Schaulsohn</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2029</t>
+  </si>
+  <si>
+    <t>Henry Boys</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2030</t>
+  </si>
+  <si>
+    <t>https://twitter.com/realHenryBoys/status/1320531241452666885</t>
+  </si>
+  <si>
+    <t>Jorge Baradit</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2031</t>
+  </si>
+  <si>
+    <t>https://www.theclinic.cl/2020/09/03/jorge-baradit-lo-he-pensado-muchisimo-y-tengo-todo-el-interes-de-ser-candidato-a-la-convencion-constituyente/</t>
+  </si>
+  <si>
+    <t>Patricia Politzer</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2032</t>
+  </si>
+  <si>
+    <t>Rafael Harvey</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2033</t>
+  </si>
+  <si>
+    <t>https://twitter.com/RafaelHarvey3/status/1320849500110467078</t>
+  </si>
+  <si>
+    <t>Clemente Pérez</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/convencion-constitucional-candidatos-eleccion-plebiscito-27-10-2034</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ClementePerezE/status/1321069765029466117</t>
+  </si>
+  <si>
+    <t>https://www.cnnchile.com/pais/mariana-aylwin-postulara-constituyente-evopoli-alianza_20201027/</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/plebiscito-2020/politica/zapata-aclara-dudas-plebiscito-constitucion-29-09-2020</t>
+  </si>
+  <si>
+    <t>Maga Miranda Díaz</t>
   </si>
 </sst>
 </file>
@@ -1508,10 +1556,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1868,44 +1918,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="57.625" customWidth="1"/>
+    <col min="1" max="4" width="11" style="4"/>
+    <col min="5" max="5" width="57.625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1931,7 +1992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1945,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1957,7 +2018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1983,7 +2044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2009,33 +2070,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2052,16 +2113,19 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2075,19 +2139,22 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2101,111 +2168,117 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -2216,8 +2289,11 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2225,25 +2301,25 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2251,13 +2327,13 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -2269,12 +2345,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2283,24 +2359,24 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2309,24 +2385,24 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2335,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -2347,99 +2423,105 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -2451,21 +2533,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -2477,38 +2559,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24">
-        <v>999</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2517,24 +2599,24 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2549,131 +2631,134 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>269</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -2684,152 +2769,161 @@
       <c r="H31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B33" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="B34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -2838,15 +2932,15 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -2855,24 +2949,24 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C39">
         <v>5.5</v>
@@ -2881,24 +2975,24 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C40">
         <v>5.5</v>
@@ -2907,24 +3001,24 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C41">
         <v>5.5</v>
@@ -2933,50 +3027,50 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C42">
         <v>5.5</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C43">
         <v>5.5</v>
@@ -2985,85 +3079,94 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44">
-        <v>5.5</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D44" s="4">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C45">
-        <v>5.5</v>
-      </c>
-      <c r="D45">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>9</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C46">
         <v>5.5</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3075,21 +3178,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C47">
         <v>5.5</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3101,21 +3204,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C48">
         <v>5.5</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3127,21 +3230,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C49">
         <v>5.5</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -3153,12 +3256,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C50">
         <v>5.5</v>
@@ -3167,284 +3270,293 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C51">
         <v>5.5</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C52">
         <v>5.5</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C53">
         <v>5.5</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C54">
         <v>5.5</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C55">
         <v>5.5</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C56">
         <v>5.5</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57">
-        <v>5.5</v>
-      </c>
-      <c r="D57">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>220</v>
-      </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58">
-        <v>5.5</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D58" s="4">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59">
-        <v>5.5</v>
-      </c>
-      <c r="D59">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D59" s="4">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C60">
         <v>5.5</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C61">
         <v>5.5</v>
@@ -3453,24 +3565,24 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C62">
         <v>5.5</v>
@@ -3479,24 +3591,24 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C63">
         <v>5.5</v>
@@ -3505,24 +3617,30 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>343</v>
+      </c>
+      <c r="K63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C64">
         <v>5.5</v>
@@ -3531,24 +3649,24 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C65">
         <v>5.5</v>
@@ -3557,24 +3675,24 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3583,24 +3701,24 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C67">
         <v>5.5</v>
@@ -3609,24 +3727,33 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I67" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J67" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3635,24 +3762,24 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C69">
         <v>5.5</v>
@@ -3661,24 +3788,24 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C70">
         <v>5.5</v>
@@ -3687,24 +3814,24 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C71">
         <v>5.5</v>
@@ -3713,24 +3840,24 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3739,24 +3866,24 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C73">
         <v>5.5</v>
@@ -3765,24 +3892,24 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C74">
         <v>5.5</v>
@@ -3791,24 +3918,24 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C75">
         <v>5.5</v>
@@ -3817,24 +3944,24 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C76">
         <v>5.5</v>
@@ -3843,24 +3970,24 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C77">
         <v>5.5</v>
@@ -3869,24 +3996,24 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C78">
         <v>5.5</v>
@@ -3895,24 +4022,24 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -3921,24 +4048,24 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C80">
         <v>5.5</v>
@@ -3947,24 +4074,24 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -3973,24 +4100,24 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C82">
         <v>5.5</v>
@@ -3999,24 +4126,24 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C83">
         <v>5.5</v>
@@ -4025,24 +4152,24 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C84">
         <v>5.5</v>
@@ -4051,7 +4178,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4063,12 +4190,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C85">
         <v>5.5</v>
@@ -4077,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4089,12 +4216,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4103,7 +4230,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4115,12 +4242,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C87">
         <v>5.5</v>
@@ -4129,24 +4256,18 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C88">
         <v>5.5</v>
@@ -4155,267 +4276,273 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="H88" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C89">
         <v>5.5</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C90">
         <v>5.5</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C91">
         <v>5.5</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C92">
         <v>5.5</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C93">
         <v>5.5</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C94">
         <v>5.5</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
         <v>87</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>216</v>
-      </c>
-      <c r="C95">
-        <v>5.5</v>
-      </c>
-      <c r="D95">
-        <v>10</v>
-      </c>
-      <c r="E95" t="s">
-        <v>253</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D95" s="4">
+        <v>11</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C96">
         <v>5.5</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C97">
         <v>5.5</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>287</v>
+        <v>89</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C98">
         <v>5.5</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4427,21 +4554,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C99">
         <v>5.5</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4453,21 +4580,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C100">
         <v>5.5</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -4479,21 +4606,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C101">
         <v>5.5</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -4505,21 +4632,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C102">
         <v>5.5</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -4531,58 +4658,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C103">
         <v>5.5</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
+        <v>211</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C104">
         <v>5.5</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -4591,24 +4724,24 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>326</v>
+        <v>92</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -4617,24 +4750,24 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -4643,24 +4776,18 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>328</v>
-      </c>
-      <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="H107" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -4669,24 +4796,33 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J108" t="s">
+        <v>342</v>
+      </c>
+      <c r="K108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -4695,24 +4831,23 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>323</v>
-      </c>
-      <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>45</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109" t="s">
+        <v>96</v>
+      </c>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -4721,163 +4856,160 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>94</v>
-      </c>
-      <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="H110" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>216</v>
-      </c>
-      <c r="C111">
-        <v>5.5</v>
-      </c>
-      <c r="D111">
-        <v>11</v>
-      </c>
-      <c r="E111" t="s">
-        <v>92</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="B111" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D111" s="4">
+        <v>12</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C112">
         <v>5.5</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C113">
         <v>5.5</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C114">
         <v>5.5</v>
       </c>
       <c r="D114">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C115">
         <v>5.5</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C116">
         <v>5.5</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4889,21 +5021,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C117">
         <v>5.5</v>
       </c>
       <c r="D117">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -4915,21 +5047,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C118">
         <v>5.5</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -4941,21 +5073,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C119">
         <v>5.5</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -4967,21 +5099,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C120">
         <v>5.5</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -4993,21 +5125,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C121">
         <v>5.5</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -5018,22 +5150,25 @@
       <c r="H121" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+    </row>
+    <row r="122" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C122">
         <v>5.5</v>
       </c>
       <c r="D122">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -5045,47 +5180,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123">
-        <v>5.5</v>
-      </c>
-      <c r="D123">
-        <v>11</v>
-      </c>
-      <c r="E123" t="s">
-        <v>99</v>
-      </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D123" s="4">
+        <v>13</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C124">
         <v>5.5</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5097,159 +5235,186 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C125">
         <v>5.5</v>
       </c>
       <c r="D125">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>100</v>
+        <v>274</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
       </c>
       <c r="H125" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C126">
         <v>5.5</v>
       </c>
       <c r="D126">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C127">
         <v>5.5</v>
       </c>
       <c r="D127">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+    </row>
+    <row r="128" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C128">
         <v>5.5</v>
       </c>
       <c r="D128">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E128" t="s">
         <v>104</v>
       </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
       <c r="H128" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
-        <v>216</v>
-      </c>
-      <c r="C129">
-        <v>5.5</v>
-      </c>
-      <c r="D129">
-        <v>12</v>
-      </c>
-      <c r="E129" t="s">
-        <v>222</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="B129" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D129" s="4">
+        <v>14</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
-        <v>216</v>
-      </c>
-      <c r="C130">
-        <v>5.5</v>
-      </c>
-      <c r="D130">
-        <v>12</v>
-      </c>
-      <c r="E130" t="s">
-        <v>235</v>
-      </c>
-      <c r="F130" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C130" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D130" s="4">
+        <v>14</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C131">
         <v>5.5</v>
       </c>
       <c r="D131">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>291</v>
+        <v>106</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5258,24 +5423,24 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C132">
         <v>5.5</v>
       </c>
       <c r="D132">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E132" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5287,21 +5452,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C133">
         <v>5.5</v>
       </c>
       <c r="D133">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E133" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5313,21 +5478,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C134">
         <v>5.5</v>
       </c>
       <c r="D134">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5339,21 +5504,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C135">
         <v>5.5</v>
       </c>
       <c r="D135">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5365,21 +5530,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C136">
         <v>5.5</v>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5390,22 +5555,25 @@
       <c r="H136" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C137">
         <v>5.5</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5416,152 +5584,161 @@
       <c r="H137" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C138">
         <v>5.5</v>
       </c>
       <c r="D138">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
-        <v>216</v>
-      </c>
-      <c r="C139">
-        <v>5.5</v>
-      </c>
-      <c r="D139">
-        <v>12</v>
-      </c>
-      <c r="E139" t="s">
-        <v>107</v>
-      </c>
-      <c r="F139" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="4">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4">
+        <v>15</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
-        <v>216</v>
-      </c>
-      <c r="C140">
-        <v>5.5</v>
-      </c>
-      <c r="D140">
-        <v>12</v>
-      </c>
-      <c r="E140" t="s">
-        <v>233</v>
-      </c>
-      <c r="F140" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" s="4">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4">
+        <v>15</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
-        <v>216</v>
-      </c>
-      <c r="C141">
-        <v>5.5</v>
-      </c>
-      <c r="D141">
-        <v>13</v>
-      </c>
-      <c r="E141" t="s">
-        <v>108</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="B141" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="4">
+        <v>6</v>
+      </c>
+      <c r="D141" s="4">
+        <v>16</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H141" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C142">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C143">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D143">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -5573,73 +5750,70 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C144">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E144" t="s">
-        <v>294</v>
-      </c>
-      <c r="F144" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="H144" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
-        <v>216</v>
-      </c>
-      <c r="C145">
-        <v>5.5</v>
-      </c>
-      <c r="D145">
-        <v>13</v>
-      </c>
-      <c r="E145" t="s">
-        <v>109</v>
-      </c>
-      <c r="F145" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145" s="4">
+        <v>7</v>
+      </c>
+      <c r="D145" s="4">
+        <v>17</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="C146">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D146">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E146" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5651,125 +5825,125 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="C147">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D147">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E147" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G147" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="C148">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D148">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E148" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G148" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H148" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="C149">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D149">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E149" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="C150">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D150">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H150" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="C151">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D151">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E151" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -5778,24 +5952,27 @@
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="C152">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D152">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
@@ -5806,48 +5983,51 @@
       <c r="H152" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>216</v>
-      </c>
-      <c r="C153">
-        <v>5.5</v>
-      </c>
-      <c r="D153">
-        <v>14</v>
-      </c>
-      <c r="E153" t="s">
-        <v>296</v>
-      </c>
-      <c r="F153" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C153" s="4">
+        <v>8</v>
+      </c>
+      <c r="D153" s="4">
+        <v>20</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="C154">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D154">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E154" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -5859,21 +6039,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="C155">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E155" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -5885,21 +6065,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="C156">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D156">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E156" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -5911,21 +6091,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="C157">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D157">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E157" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -5937,229 +6117,229 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="C158">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E159" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G159" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E160" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H160" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D161">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D162">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G162" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H162" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D163">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D164">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G164" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C165">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H165" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C166">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D166">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6171,21 +6351,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D167">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E167" t="s">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6197,145 +6377,160 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C168">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D168">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>122</v>
+        <v>293</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="I168" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J168" t="s">
+        <v>304</v>
+      </c>
+      <c r="K168" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>123</v>
-      </c>
-      <c r="C169">
-        <v>7</v>
-      </c>
-      <c r="D169">
-        <v>17</v>
-      </c>
-      <c r="E169" t="s">
-        <v>228</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="B169" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C169" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D169" s="4">
+        <v>24</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F169" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>123</v>
-      </c>
-      <c r="C170">
-        <v>7</v>
-      </c>
-      <c r="D170">
-        <v>17</v>
-      </c>
-      <c r="E170" t="s">
-        <v>272</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="B170" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" s="4">
+        <v>10</v>
+      </c>
+      <c r="D170" s="4">
+        <v>25</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F170" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H170" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>123</v>
-      </c>
-      <c r="C171">
-        <v>7</v>
-      </c>
-      <c r="D171">
-        <v>17</v>
-      </c>
-      <c r="E171" t="s">
-        <v>124</v>
-      </c>
-      <c r="F171" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" t="s">
-        <v>11</v>
-      </c>
-      <c r="H171" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C171" s="4">
+        <v>10</v>
+      </c>
+      <c r="D171" s="4">
+        <v>25</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>123</v>
-      </c>
-      <c r="C172">
-        <v>7</v>
-      </c>
-      <c r="D172">
-        <v>18</v>
-      </c>
-      <c r="E172" t="s">
-        <v>125</v>
-      </c>
-      <c r="F172" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C172" s="4">
+        <v>10</v>
+      </c>
+      <c r="D172" s="4">
+        <v>26</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C173">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D173">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E173" t="s">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -6347,21 +6542,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C174">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D174">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E174" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -6373,21 +6568,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C175">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D175">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E175" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -6399,21 +6594,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C176">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D176">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E176" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6425,2563 +6620,2151 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C177">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="D177">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="C178">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E178" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H178" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="C179">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E179" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G179" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>128</v>
-      </c>
-      <c r="C180">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C180" t="s">
+        <v>208</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E180" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G180" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>128</v>
-      </c>
-      <c r="C181">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C181" t="s">
+        <v>208</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E181" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G181" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H181" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>128</v>
-      </c>
-      <c r="C182">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C182" t="s">
+        <v>208</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E182" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H182" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>128</v>
-      </c>
-      <c r="C183">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C183" t="s">
+        <v>208</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E183" t="s">
-        <v>303</v>
+        <v>138</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H183" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>128</v>
-      </c>
-      <c r="C184">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C184" t="s">
+        <v>208</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E184" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H184" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>128</v>
-      </c>
-      <c r="C185">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C185" t="s">
+        <v>208</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E185" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F185" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H185" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>128</v>
-      </c>
-      <c r="C186">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C186" t="s">
+        <v>208</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E186" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="F186" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G186" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H186" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>128</v>
-      </c>
-      <c r="C187">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C187" t="s">
+        <v>208</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E187" t="s">
-        <v>306</v>
+        <v>146</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="H187" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>128</v>
-      </c>
-      <c r="C188">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C188" t="s">
+        <v>208</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E188" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G188" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="H188" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>128</v>
-      </c>
-      <c r="C189">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C189" t="s">
+        <v>208</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E189" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G189" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="H189" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>128</v>
-      </c>
-      <c r="C190">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C190" t="s">
+        <v>208</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E190" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="H190" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>128</v>
-      </c>
-      <c r="C191">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C191" t="s">
+        <v>208</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E191" t="s">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="F191" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G191" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>128</v>
-      </c>
-      <c r="C192">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C192" t="s">
+        <v>208</v>
       </c>
       <c r="D192">
-        <v>21</v>
+        <v>999</v>
       </c>
       <c r="E192" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F192" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G192" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H192" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>128</v>
-      </c>
-      <c r="C193">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C193" t="s">
+        <v>208</v>
       </c>
       <c r="D193">
-        <v>21</v>
+        <v>999</v>
       </c>
       <c r="E193" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="F193" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G193" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H193" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>132</v>
-      </c>
-      <c r="C194">
-        <v>9</v>
+        <v>208</v>
+      </c>
+      <c r="C194" t="s">
+        <v>208</v>
       </c>
       <c r="D194">
-        <v>22</v>
+        <v>999</v>
       </c>
       <c r="E194" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F194" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G194" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>132</v>
-      </c>
-      <c r="C195">
-        <v>9</v>
+        <v>208</v>
+      </c>
+      <c r="C195" t="s">
+        <v>208</v>
       </c>
       <c r="D195">
-        <v>23</v>
+        <v>999</v>
       </c>
       <c r="E195" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="F195" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G195" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>132</v>
-      </c>
-      <c r="C196">
-        <v>9</v>
+        <v>208</v>
+      </c>
+      <c r="C196" t="s">
+        <v>208</v>
       </c>
       <c r="D196">
-        <v>23</v>
+        <v>999</v>
       </c>
       <c r="E196" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F196" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H196" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>132</v>
-      </c>
-      <c r="C197">
-        <v>9</v>
+        <v>208</v>
+      </c>
+      <c r="C197" t="s">
+        <v>208</v>
       </c>
       <c r="D197">
-        <v>23</v>
+        <v>999</v>
       </c>
       <c r="E197" t="s">
-        <v>321</v>
+        <v>154</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>54</v>
       </c>
       <c r="H197" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>135</v>
-      </c>
-      <c r="C198">
-        <v>9.5</v>
+        <v>208</v>
+      </c>
+      <c r="C198" t="s">
+        <v>208</v>
       </c>
       <c r="D198">
-        <v>24</v>
+        <v>999</v>
       </c>
       <c r="E198" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G198" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>136</v>
-      </c>
-      <c r="C199">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C199" t="s">
+        <v>208</v>
       </c>
       <c r="D199">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="E199" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H199" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>136</v>
-      </c>
-      <c r="C200">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C200" t="s">
+        <v>208</v>
       </c>
       <c r="D200">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="E200" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G200" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H200" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>136</v>
-      </c>
-      <c r="C201">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C201" t="s">
+        <v>208</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="E201" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G201" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H201" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>136</v>
-      </c>
-      <c r="C202">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C202" t="s">
+        <v>208</v>
       </c>
       <c r="D202">
-        <v>26</v>
+        <v>999</v>
       </c>
       <c r="E202" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G202" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H202" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>136</v>
-      </c>
-      <c r="C203">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C203" t="s">
+        <v>208</v>
       </c>
       <c r="D203">
-        <v>26</v>
+        <v>999</v>
       </c>
       <c r="E203" t="s">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="F203" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G203" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>136</v>
-      </c>
-      <c r="C204">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C204" t="s">
+        <v>208</v>
       </c>
       <c r="D204">
-        <v>26</v>
+        <v>999</v>
       </c>
       <c r="E204" t="s">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G204" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H204" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>136</v>
-      </c>
-      <c r="C205">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C205" t="s">
+        <v>208</v>
       </c>
       <c r="D205">
-        <v>26</v>
+        <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c r="F205" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>136</v>
-      </c>
-      <c r="C206">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C206" t="s">
+        <v>208</v>
       </c>
       <c r="D206">
-        <v>26</v>
+        <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="F206" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G206" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H206" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>136</v>
-      </c>
-      <c r="C207">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C207" t="s">
+        <v>208</v>
       </c>
       <c r="D207">
+        <v>999</v>
+      </c>
+      <c r="E207" t="s">
+        <v>164</v>
+      </c>
+      <c r="F207" t="s">
+        <v>20</v>
+      </c>
+      <c r="G207" t="s">
+        <v>42</v>
+      </c>
+      <c r="H207" t="s">
         <v>26</v>
       </c>
-      <c r="E207" t="s">
-        <v>139</v>
-      </c>
-      <c r="F207" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" t="s">
-        <v>11</v>
-      </c>
-      <c r="H207" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>136</v>
-      </c>
-      <c r="C208">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="C208" t="s">
+        <v>208</v>
       </c>
       <c r="D208">
+        <v>999</v>
+      </c>
+      <c r="E208" t="s">
+        <v>215</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>46</v>
+      </c>
+      <c r="H208" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+      <c r="D209">
+        <v>999</v>
+      </c>
+      <c r="E209" t="s">
+        <v>166</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>36</v>
+      </c>
+      <c r="H209" t="s">
         <v>26</v>
       </c>
-      <c r="E208" t="s">
-        <v>225</v>
-      </c>
-      <c r="F208" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" t="s">
-        <v>11</v>
-      </c>
-      <c r="H208" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>140</v>
-      </c>
-      <c r="C209">
-        <v>11</v>
-      </c>
-      <c r="D209">
-        <v>27</v>
-      </c>
-      <c r="E209" t="s">
-        <v>141</v>
-      </c>
-      <c r="F209" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" t="s">
-        <v>38</v>
-      </c>
-      <c r="H209" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>215</v>
-      </c>
-      <c r="C210">
-        <v>12</v>
+        <v>208</v>
+      </c>
+      <c r="C210" t="s">
+        <v>208</v>
       </c>
       <c r="D210">
-        <v>28</v>
+        <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H210" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>215</v>
-      </c>
-      <c r="C211">
-        <v>12</v>
+        <v>208</v>
+      </c>
+      <c r="C211" t="s">
+        <v>208</v>
       </c>
       <c r="D211">
-        <v>28</v>
+        <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H211" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C212" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D212">
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H212" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C213" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D213">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H213" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C214" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D214">
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H214" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D215">
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="F215" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H215" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D216">
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H216" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C217" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D217">
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="F217" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H217" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C218" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D218">
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F218" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H218" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C219" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D219">
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F219" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="H219" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C220" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D220">
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="F220" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="H220" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C221" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D221">
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="F221" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="H221" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C222" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D222">
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F222" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="H222" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C223" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D223">
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F223" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="H223" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C224" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D224">
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="F224" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C225" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D225">
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="F225" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C226" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D226">
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="F226" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C227" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D227">
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="F227" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G227" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="H227" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C228" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D228">
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="F228" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G228" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="H228" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C229" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D229">
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="F229" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G229" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H229" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C230" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D230">
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F230" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G230" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H230" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C231" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D231">
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>165</v>
-      </c>
-      <c r="F231" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="G231" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H231" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C232" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D232">
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>166</v>
-      </c>
-      <c r="F232" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="G232" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H232" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C233" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D233">
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>167</v>
-      </c>
-      <c r="F233" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="G233" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H233" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C234" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D234">
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>168</v>
-      </c>
-      <c r="F234" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="G234" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="H234" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C235" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D235">
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>169</v>
-      </c>
-      <c r="F235" t="s">
-        <v>16</v>
-      </c>
-      <c r="G235" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="H235" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C236" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D236">
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>170</v>
-      </c>
-      <c r="F236" t="s">
-        <v>16</v>
-      </c>
-      <c r="G236" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="H236" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C237" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D237">
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>171</v>
-      </c>
-      <c r="F237" t="s">
-        <v>16</v>
-      </c>
-      <c r="G237" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="H237" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C238" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D238">
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>172</v>
-      </c>
-      <c r="F238" t="s">
-        <v>20</v>
-      </c>
-      <c r="G238" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="H238" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C239" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D239">
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>173</v>
-      </c>
-      <c r="F239" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="H239" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C240" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D240">
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>224</v>
-      </c>
-      <c r="F240" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H240" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C241" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D241">
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>175</v>
-      </c>
-      <c r="F241" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="H241" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C242" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D242">
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>176</v>
-      </c>
-      <c r="F242" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="H242" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C243" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D243">
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>177</v>
-      </c>
-      <c r="F243" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="H243" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C244" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D244">
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>178</v>
-      </c>
-      <c r="F244" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="H244" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C245" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D245">
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>179</v>
-      </c>
-      <c r="F245" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="H245" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C246" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D246">
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>180</v>
-      </c>
-      <c r="F246" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" t="s">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="H246" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I246" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J246" t="s">
+        <v>304</v>
+      </c>
+      <c r="K246" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C247" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D247">
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>181</v>
-      </c>
-      <c r="F247" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" t="s">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="H247" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I247" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J247" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C248" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D248">
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>182</v>
-      </c>
-      <c r="F248" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" t="s">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="H248" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I248" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J248" t="s">
+        <v>311</v>
+      </c>
+      <c r="K248" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C249" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D249">
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c r="F249" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G249" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="H249" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I249" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J249" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C250" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D250">
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>184</v>
-      </c>
-      <c r="F250" t="s">
-        <v>10</v>
-      </c>
-      <c r="G250" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="H250" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I250" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J250" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C251" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D251">
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>185</v>
-      </c>
-      <c r="F251" t="s">
-        <v>10</v>
-      </c>
-      <c r="G251" t="s">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="H251" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I251" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J251" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C252" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D252">
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>186</v>
-      </c>
-      <c r="F252" t="s">
-        <v>10</v>
-      </c>
-      <c r="G252" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="H252" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I252" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J252" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C253" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D253">
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>187</v>
-      </c>
-      <c r="F253" t="s">
-        <v>10</v>
-      </c>
-      <c r="G253" t="s">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="H253" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I253" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J253" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C254" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D254">
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>188</v>
-      </c>
-      <c r="F254" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="H254" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I254" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J254" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C255" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D255">
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>189</v>
-      </c>
-      <c r="F255" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="H255" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I255" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J255" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C256" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D256">
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>190</v>
-      </c>
-      <c r="F256" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="H256" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I256" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J256" t="s">
+        <v>329</v>
+      </c>
+      <c r="K256" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C257" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D257">
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>191</v>
-      </c>
-      <c r="F257" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="H257" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I257" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J257" t="s">
+        <v>332</v>
+      </c>
+      <c r="K257" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C258" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D258">
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>192</v>
-      </c>
-      <c r="F258" t="s">
-        <v>10</v>
-      </c>
-      <c r="G258" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="H258" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I258" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J258" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C259" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D259">
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>193</v>
-      </c>
-      <c r="F259" t="s">
-        <v>60</v>
-      </c>
-      <c r="G259" t="s">
-        <v>194</v>
+        <v>336</v>
       </c>
       <c r="H259" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I259" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J259" t="s">
+        <v>337</v>
+      </c>
+      <c r="K259" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C260" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D260">
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>195</v>
-      </c>
-      <c r="F260" t="s">
-        <v>60</v>
-      </c>
-      <c r="G260" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="H260" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>217</v>
-      </c>
-      <c r="C261" t="s">
-        <v>217</v>
-      </c>
-      <c r="D261">
-        <v>999</v>
-      </c>
-      <c r="E261" t="s">
-        <v>196</v>
-      </c>
-      <c r="F261" t="s">
-        <v>60</v>
-      </c>
-      <c r="G261" t="s">
-        <v>61</v>
-      </c>
-      <c r="H261" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>261</v>
-      </c>
-      <c r="B262" t="s">
-        <v>217</v>
-      </c>
-      <c r="C262" t="s">
-        <v>217</v>
-      </c>
-      <c r="D262">
-        <v>999</v>
-      </c>
-      <c r="E262" t="s">
-        <v>197</v>
-      </c>
-      <c r="F262" t="s">
-        <v>60</v>
-      </c>
-      <c r="G262" t="s">
-        <v>61</v>
-      </c>
-      <c r="H262" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>262</v>
-      </c>
-      <c r="B263" t="s">
-        <v>217</v>
-      </c>
-      <c r="C263" t="s">
-        <v>217</v>
-      </c>
-      <c r="D263">
-        <v>999</v>
-      </c>
-      <c r="E263" t="s">
-        <v>198</v>
-      </c>
-      <c r="G263" t="s">
-        <v>45</v>
-      </c>
-      <c r="H263" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>263</v>
-      </c>
-      <c r="B264" t="s">
-        <v>217</v>
-      </c>
-      <c r="C264" t="s">
-        <v>217</v>
-      </c>
-      <c r="D264">
-        <v>999</v>
-      </c>
-      <c r="E264" t="s">
-        <v>200</v>
-      </c>
-      <c r="G264" t="s">
-        <v>45</v>
-      </c>
-      <c r="H264" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>264</v>
-      </c>
-      <c r="B265" t="s">
-        <v>217</v>
-      </c>
-      <c r="C265" t="s">
-        <v>217</v>
-      </c>
-      <c r="D265">
-        <v>999</v>
-      </c>
-      <c r="E265" t="s">
-        <v>203</v>
-      </c>
-      <c r="G265" t="s">
-        <v>45</v>
-      </c>
-      <c r="H265" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>265</v>
-      </c>
-      <c r="B266" t="s">
-        <v>217</v>
-      </c>
-      <c r="C266" t="s">
-        <v>217</v>
-      </c>
-      <c r="D266">
-        <v>999</v>
-      </c>
-      <c r="E266" t="s">
-        <v>201</v>
-      </c>
-      <c r="G266" t="s">
-        <v>202</v>
-      </c>
-      <c r="H266" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>217</v>
-      </c>
-      <c r="C267" t="s">
-        <v>217</v>
-      </c>
-      <c r="D267">
-        <v>999</v>
-      </c>
-      <c r="E267" t="s">
-        <v>204</v>
-      </c>
-      <c r="H267" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>267</v>
-      </c>
-      <c r="B268" t="s">
-        <v>217</v>
-      </c>
-      <c r="C268" t="s">
-        <v>217</v>
-      </c>
-      <c r="D268">
-        <v>999</v>
-      </c>
-      <c r="E268" t="s">
-        <v>205</v>
-      </c>
-      <c r="H268" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>268</v>
-      </c>
-      <c r="B269" t="s">
-        <v>217</v>
-      </c>
-      <c r="C269" t="s">
-        <v>217</v>
-      </c>
-      <c r="D269">
-        <v>999</v>
-      </c>
-      <c r="E269" t="s">
-        <v>206</v>
-      </c>
-      <c r="H269" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>269</v>
-      </c>
-      <c r="B270" t="s">
-        <v>217</v>
-      </c>
-      <c r="C270" t="s">
-        <v>217</v>
-      </c>
-      <c r="D270">
-        <v>999</v>
-      </c>
-      <c r="E270" t="s">
-        <v>207</v>
-      </c>
-      <c r="H270" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>270</v>
-      </c>
-      <c r="B271" t="s">
-        <v>217</v>
-      </c>
-      <c r="C271" t="s">
-        <v>217</v>
-      </c>
-      <c r="D271">
-        <v>999</v>
-      </c>
-      <c r="E271" t="s">
-        <v>208</v>
-      </c>
-      <c r="H271" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>271</v>
-      </c>
-      <c r="B272" t="s">
-        <v>217</v>
-      </c>
-      <c r="C272" t="s">
-        <v>217</v>
-      </c>
-      <c r="D272">
-        <v>999</v>
-      </c>
-      <c r="E272" t="s">
-        <v>209</v>
-      </c>
-      <c r="H272" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>272</v>
-      </c>
-      <c r="B273" t="s">
-        <v>217</v>
-      </c>
-      <c r="C273" t="s">
-        <v>217</v>
-      </c>
-      <c r="D273">
-        <v>999</v>
-      </c>
-      <c r="E273" t="s">
-        <v>210</v>
-      </c>
-      <c r="H273" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>273</v>
-      </c>
-      <c r="B274" t="s">
-        <v>217</v>
-      </c>
-      <c r="C274" t="s">
-        <v>217</v>
-      </c>
-      <c r="D274">
-        <v>999</v>
-      </c>
-      <c r="E274" t="s">
-        <v>211</v>
-      </c>
-      <c r="H274" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>274</v>
-      </c>
-      <c r="B275" t="s">
-        <v>217</v>
-      </c>
-      <c r="C275" t="s">
-        <v>217</v>
-      </c>
-      <c r="D275">
-        <v>999</v>
-      </c>
-      <c r="E275" t="s">
-        <v>212</v>
-      </c>
-      <c r="H275" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>275</v>
-      </c>
-      <c r="B276" t="s">
-        <v>217</v>
-      </c>
-      <c r="C276" t="s">
-        <v>217</v>
-      </c>
-      <c r="D276">
-        <v>999</v>
-      </c>
-      <c r="E276" t="s">
-        <v>213</v>
-      </c>
-      <c r="H276" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>276</v>
-      </c>
-      <c r="B277" t="s">
-        <v>217</v>
-      </c>
-      <c r="C277" t="s">
-        <v>217</v>
-      </c>
-      <c r="D277">
-        <v>999</v>
-      </c>
-      <c r="E277" t="s">
-        <v>214</v>
-      </c>
-      <c r="H277" t="s">
-        <v>18</v>
+        <v>305</v>
+      </c>
+      <c r="I260" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J260" t="s">
+        <v>340</v>
+      </c>
+      <c r="K260" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H277" xr:uid="{00E36E38-02A8-3F43-92F1-47759647821E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H277">
-      <sortCondition ref="A1:A277"/>
+  <autoFilter ref="A1:K260" xr:uid="{641E9AF6-E669-4D0B-90DF-115088AA94C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K260">
+      <sortCondition ref="A1:A260"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H277">
-    <sortCondition ref="C2:C277"/>
-    <sortCondition ref="D2:D277"/>
-    <sortCondition ref="F2:F277"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H245">
+    <sortCondition ref="C2:C245"/>
+    <sortCondition ref="D2:D245"/>
+    <sortCondition ref="F2:F245"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H109" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
-    <hyperlink ref="H24" r:id="rId2" xr:uid="{806BB034-CC22-4DF3-8713-E1075C67FD20}"/>
+    <hyperlink ref="H93" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
+    <hyperlink ref="H19" r:id="rId2" xr:uid="{806BB034-CC22-4DF3-8713-E1075C67FD20}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E50AF17-8457-48CB-AB3B-C52DE60B7504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3333D4F8-52A0-424A-A5E1-176A515F1DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -1920,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A260"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8406,6 +8406,12 @@
       </c>
       <c r="E248" t="s">
         <v>312</v>
+      </c>
+      <c r="F248" t="s">
+        <v>56</v>
+      </c>
+      <c r="G248" t="s">
+        <v>185</v>
       </c>
       <c r="H248" t="s">
         <v>305</v>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3333D4F8-52A0-424A-A5E1-176A515F1DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF649D-8DE7-4565-9CE0-B83D4C9A2EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -1920,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8577,6 +8577,9 @@
       </c>
       <c r="E254" t="s">
         <v>323</v>
+      </c>
+      <c r="G254" t="s">
+        <v>42</v>
       </c>
       <c r="H254" t="s">
         <v>305</v>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF649D-8DE7-4565-9CE0-B83D4C9A2EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3432E06-6305-4831-A2EE-49938D37675A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$K$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$K$263</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="349">
   <si>
     <t>id</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Diego Rivera Espinoza</t>
   </si>
   <si>
-    <t>Juan Arriaza Zala</t>
-  </si>
-  <si>
     <t>Jaime Silva Aguilera</t>
   </si>
   <si>
@@ -1058,6 +1055,21 @@
   </si>
   <si>
     <t>Maga Miranda Díaz</t>
+  </si>
+  <si>
+    <t>Claudio Gómez Castro</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Juan Pablo Arriaza Zalá</t>
+  </si>
+  <si>
+    <t>Bárbara Sepúlveda</t>
+  </si>
+  <si>
+    <t>Felipe Berríos</t>
   </si>
 </sst>
 </file>
@@ -1918,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K260"/>
+  <dimension ref="A1:K263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1957,13 +1969,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2006,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -2084,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
@@ -2139,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2168,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -2184,116 +2196,110 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="E10" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -2318,6 +2324,9 @@
       <c r="H14" t="s">
         <v>12</v>
       </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
     </row>
     <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2333,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -2359,7 +2368,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -2385,7 +2394,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -2411,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -2428,86 +2437,83 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>999</v>
-      </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>296</v>
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>296</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2521,17 +2527,20 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
     </row>
     <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2547,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -2573,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -2599,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -2625,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2648,19 +2657,19 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2674,13 +2683,13 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -2703,48 +2712,45 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <v>7</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2758,36 +2764,33 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
     </row>
     <row r="32" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D32" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>20</v>
@@ -2806,34 +2809,37 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>8</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
     </row>
     <row r="34" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="4">
         <v>5.5</v>
@@ -2842,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>20</v>
@@ -2857,29 +2863,29 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35">
-        <v>5.5</v>
-      </c>
-      <c r="D35">
+      <c r="B35" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D35" s="4">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="E35" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2887,34 +2893,37 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36">
-        <v>5.5</v>
-      </c>
-      <c r="D36">
+      <c r="B36" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D36" s="4">
         <v>8</v>
       </c>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" t="s">
-        <v>26</v>
-      </c>
+      <c r="E36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37">
         <v>5.5</v>
@@ -2923,16 +2932,16 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2940,7 +2949,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -2949,16 +2958,16 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2966,7 +2975,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C39">
         <v>5.5</v>
@@ -2975,7 +2984,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -2984,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2992,7 +3001,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40">
         <v>5.5</v>
@@ -3001,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -3018,7 +3027,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C41">
         <v>5.5</v>
@@ -3027,7 +3036,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -3044,33 +3053,33 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C42">
         <v>5.5</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C43">
         <v>5.5</v>
@@ -3079,137 +3088,137 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="44" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44">
+        <v>5.5</v>
+      </c>
+      <c r="D44">
         <v>9</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D45" s="4">
-        <v>9</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45">
+        <v>5.5</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
     </row>
     <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46">
-        <v>5.5</v>
-      </c>
-      <c r="D46">
+      <c r="B46" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D46" s="4">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
-        <v>260</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
+      <c r="E46" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47">
-        <v>5.5</v>
-      </c>
-      <c r="D47">
+      <c r="B47" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D47" s="4">
         <v>9</v>
       </c>
-      <c r="E47" t="s">
-        <v>261</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" t="s">
-        <v>12</v>
-      </c>
+      <c r="E47" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C48">
         <v>5.5</v>
@@ -3218,7 +3227,7 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3235,7 +3244,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C49">
         <v>5.5</v>
@@ -3244,7 +3253,7 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -3261,7 +3270,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C50">
         <v>5.5</v>
@@ -3270,7 +3279,7 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -3287,7 +3296,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C51">
         <v>5.5</v>
@@ -3296,16 +3305,16 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3313,25 +3322,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52">
         <v>5.5</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3339,25 +3348,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C53">
         <v>5.5</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H53" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3365,33 +3374,33 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C54">
         <v>5.5</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -3400,27 +3409,24 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -3429,151 +3435,151 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D57" s="4">
-        <v>10</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57">
+        <v>5.5</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>26</v>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D58" s="4">
-        <v>10</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="B58" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58">
+        <v>5.5</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D59" s="4">
-        <v>10</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="B59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59">
+        <v>5.5</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60">
-        <v>5.5</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>247</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="B60" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D60" s="4">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G60" t="s">
-        <v>248</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61">
-        <v>5.5</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="B61" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D61" s="4">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3581,34 +3587,37 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62">
-        <v>5.5</v>
-      </c>
-      <c r="D62">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
+      <c r="B62" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D62" s="4">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C63">
         <v>5.5</v>
@@ -3617,22 +3626,16 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
-      </c>
-      <c r="J63" t="s">
-        <v>343</v>
-      </c>
-      <c r="K63" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3640,7 +3643,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C64">
         <v>5.5</v>
@@ -3649,13 +3652,13 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
@@ -3666,7 +3669,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C65">
         <v>5.5</v>
@@ -3675,16 +3678,16 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3692,7 +3695,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3701,7 +3704,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -3711,6 +3714,12 @@
       </c>
       <c r="H66" t="s">
         <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>342</v>
+      </c>
+      <c r="K66" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3718,7 +3727,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C67">
         <v>5.5</v>
@@ -3727,25 +3736,16 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s">
-        <v>305</v>
-      </c>
-      <c r="I67" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J67" t="s">
-        <v>76</v>
-      </c>
-      <c r="K67" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3753,7 +3753,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3762,16 +3762,16 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C69">
         <v>5.5</v>
@@ -3788,13 +3788,13 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
@@ -3805,7 +3805,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70">
         <v>5.5</v>
@@ -3814,16 +3814,25 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>304</v>
+      </c>
+      <c r="I70" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J70" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3840,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C71">
         <v>5.5</v>
@@ -3840,7 +3849,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -3857,7 +3866,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3866,7 +3875,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -3883,7 +3892,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C73">
         <v>5.5</v>
@@ -3892,7 +3901,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -3909,7 +3918,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C74">
         <v>5.5</v>
@@ -3918,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -3935,7 +3944,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C75">
         <v>5.5</v>
@@ -3944,7 +3953,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -3961,7 +3970,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C76">
         <v>5.5</v>
@@ -3970,7 +3979,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -3987,7 +3996,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C77">
         <v>5.5</v>
@@ -3996,7 +4005,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -4013,7 +4022,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78">
         <v>5.5</v>
@@ -4022,7 +4031,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -4039,7 +4048,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -4048,7 +4057,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -4065,7 +4074,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C80">
         <v>5.5</v>
@@ -4074,7 +4083,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -4086,12 +4095,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -4100,7 +4109,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -4112,12 +4121,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82">
         <v>5.5</v>
@@ -4138,12 +4147,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83">
         <v>5.5</v>
@@ -4152,7 +4161,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -4164,12 +4173,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84">
         <v>5.5</v>
@@ -4178,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4190,12 +4199,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85">
         <v>5.5</v>
@@ -4204,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4216,12 +4225,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4230,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4242,12 +4251,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87">
         <v>5.5</v>
@@ -4256,18 +4265,24 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C88">
         <v>5.5</v>
@@ -4276,102 +4291,96 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="H88" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89">
         <v>5.5</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C90">
         <v>5.5</v>
       </c>
       <c r="D90">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>299</v>
-      </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C91">
         <v>5.5</v>
       </c>
       <c r="D91">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="H91" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C92">
         <v>5.5</v>
@@ -4380,24 +4389,24 @@
         <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>85</v>
+        <v>297</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C93">
         <v>5.5</v>
@@ -4406,24 +4415,24 @@
         <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C94">
         <v>5.5</v>
@@ -4432,53 +4441,50 @@
         <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C95" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D95" s="4">
-        <v>11</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-    </row>
-    <row r="96" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95">
+        <v>5.5</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>85</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C96">
         <v>5.5</v>
@@ -4487,19 +4493,16 @@
         <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
-      </c>
-      <c r="H96" t="s">
-        <v>12</v>
-      </c>
-      <c r="J96" t="s">
-        <v>304</v>
+        <v>42</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4507,7 +4510,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C97">
         <v>5.5</v>
@@ -4516,50 +4519,53 @@
         <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98">
-        <v>5.5</v>
-      </c>
-      <c r="D98">
-        <v>11</v>
-      </c>
-      <c r="E98" t="s">
-        <v>91</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" t="s">
-        <v>12</v>
-      </c>
+      <c r="B98" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D98" s="4">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
     </row>
     <row r="99" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4568,16 +4574,19 @@
         <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>269</v>
+        <v>88</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H99" t="s">
         <v>12</v>
+      </c>
+      <c r="J99" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4585,7 +4594,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C100">
         <v>5.5</v>
@@ -4594,16 +4603,16 @@
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4611,7 +4620,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C101">
         <v>5.5</v>
@@ -4620,7 +4629,7 @@
         <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -4637,7 +4646,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C102">
         <v>5.5</v>
@@ -4646,7 +4655,7 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -4663,7 +4672,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4672,7 +4681,7 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -4689,7 +4698,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C104">
         <v>5.5</v>
@@ -4698,7 +4707,7 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -4715,7 +4724,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -4724,7 +4733,7 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -4741,7 +4750,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -4750,7 +4759,7 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -4767,7 +4776,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -4776,7 +4785,13 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>93</v>
+        <v>231</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
@@ -4787,7 +4802,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -4796,33 +4811,24 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
-      <c r="I108" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J108" t="s">
-        <v>342</v>
-      </c>
-      <c r="K108" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -4831,23 +4837,24 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>95</v>
-      </c>
-      <c r="F109"/>
-      <c r="G109"/>
+        <v>289</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
       <c r="H109" t="s">
-        <v>96</v>
-      </c>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="110" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -4856,125 +4863,127 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C111" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D111" s="4">
-        <v>12</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-    </row>
-    <row r="112" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111">
+        <v>5.5</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>94</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>59</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J111" t="s">
+        <v>341</v>
+      </c>
+      <c r="K111" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C112">
         <v>5.5</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>224</v>
-      </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F112"/>
+      <c r="G112"/>
       <c r="H112" t="s">
-        <v>12</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
     </row>
     <row r="113" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C113">
         <v>5.5</v>
       </c>
       <c r="D113">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>271</v>
-      </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>207</v>
-      </c>
-      <c r="C114">
-        <v>5.5</v>
-      </c>
-      <c r="D114">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>272</v>
-      </c>
-      <c r="F114" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" t="s">
-        <v>12</v>
-      </c>
+      <c r="B114" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D114" s="4">
+        <v>12</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
     </row>
     <row r="115" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C115">
         <v>5.5</v>
@@ -4983,7 +4992,7 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -5000,7 +5009,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C116">
         <v>5.5</v>
@@ -5009,7 +5018,7 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -5026,7 +5035,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C117">
         <v>5.5</v>
@@ -5035,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -5052,7 +5061,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C118">
         <v>5.5</v>
@@ -5061,7 +5070,7 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -5078,7 +5087,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C119">
         <v>5.5</v>
@@ -5087,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -5104,7 +5113,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C120">
         <v>5.5</v>
@@ -5113,7 +5122,7 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -5125,12 +5134,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C121">
         <v>5.5</v>
@@ -5139,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -5150,16 +5159,13 @@
       <c r="H121" t="s">
         <v>12</v>
       </c>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
     </row>
     <row r="122" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C122">
         <v>5.5</v>
@@ -5168,7 +5174,7 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -5184,46 +5190,43 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C123" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D123" s="4">
-        <v>13</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-    </row>
-    <row r="124" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123">
+        <v>5.5</v>
+      </c>
+      <c r="D123">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>219</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C124">
         <v>5.5</v>
       </c>
       <c r="D124">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5234,22 +5237,25 @@
       <c r="H124" t="s">
         <v>12</v>
       </c>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
     </row>
     <row r="125" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C125">
         <v>5.5</v>
       </c>
       <c r="D125">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5265,34 +5271,37 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
-        <v>207</v>
-      </c>
-      <c r="C126">
-        <v>5.5</v>
-      </c>
-      <c r="D126">
+      <c r="B126" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D126" s="4">
         <v>13</v>
       </c>
-      <c r="E126" t="s">
-        <v>102</v>
-      </c>
-      <c r="F126" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E126" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C127">
         <v>5.5</v>
@@ -5301,7 +5310,7 @@
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5312,100 +5321,94 @@
       <c r="H127" t="s">
         <v>12</v>
       </c>
-      <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127"/>
     </row>
     <row r="128" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C128">
         <v>5.5</v>
       </c>
       <c r="D128">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C129" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D129" s="4">
-        <v>14</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-    </row>
-    <row r="130" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129">
+        <v>5.5</v>
+      </c>
+      <c r="D129">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>102</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C130" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D130" s="4">
-        <v>14</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
+      <c r="B130" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130">
+        <v>5.5</v>
+      </c>
+      <c r="D130">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>103</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
     </row>
     <row r="131" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C131">
         <v>5.5</v>
@@ -5414,76 +5417,82 @@
         <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F131" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H131" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
-        <v>207</v>
-      </c>
-      <c r="C132">
-        <v>5.5</v>
-      </c>
-      <c r="D132">
+      <c r="B132" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D132" s="4">
         <v>14</v>
       </c>
-      <c r="E132" t="s">
-        <v>291</v>
-      </c>
-      <c r="F132" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" t="s">
-        <v>12</v>
-      </c>
+      <c r="E132" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
     </row>
     <row r="133" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>207</v>
-      </c>
-      <c r="C133">
-        <v>5.5</v>
-      </c>
-      <c r="D133">
+      <c r="B133" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D133" s="4">
         <v>14</v>
       </c>
-      <c r="E133" t="s">
-        <v>276</v>
-      </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" t="s">
-        <v>12</v>
-      </c>
+      <c r="E133" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
     </row>
     <row r="134" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C134">
         <v>5.5</v>
@@ -5492,7 +5501,7 @@
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5501,7 +5510,7 @@
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5509,7 +5518,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C135">
         <v>5.5</v>
@@ -5518,7 +5527,7 @@
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5530,12 +5539,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C136">
         <v>5.5</v>
@@ -5544,7 +5553,7 @@
         <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5555,16 +5564,13 @@
       <c r="H136" t="s">
         <v>12</v>
       </c>
-      <c r="I136"/>
-      <c r="J136"/>
-      <c r="K136"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C137">
         <v>5.5</v>
@@ -5573,7 +5579,7 @@
         <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5584,169 +5590,169 @@
       <c r="H137" t="s">
         <v>12</v>
       </c>
-      <c r="I137"/>
-      <c r="J137"/>
-      <c r="K137"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C138">
         <v>5.5</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>26</v>
-      </c>
-      <c r="I138"/>
-      <c r="J138"/>
-      <c r="K138"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C139" s="4">
-        <v>6</v>
-      </c>
-      <c r="D139" s="4">
-        <v>15</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B139" t="s">
+        <v>206</v>
+      </c>
+      <c r="C139">
+        <v>5.5</v>
+      </c>
+      <c r="D139">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>109</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C140" s="4">
-        <v>6</v>
-      </c>
-      <c r="D140" s="4">
-        <v>15</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>206</v>
+      </c>
+      <c r="C140">
+        <v>5.5</v>
+      </c>
+      <c r="D140">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C141" s="4">
-        <v>6</v>
-      </c>
-      <c r="D141" s="4">
-        <v>16</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F141" s="4" t="s">
+      <c r="B141" t="s">
+        <v>206</v>
+      </c>
+      <c r="C141">
+        <v>5.5</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>164</v>
+      </c>
+      <c r="F141" t="s">
         <v>20</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-    </row>
-    <row r="142" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>247</v>
+      </c>
+      <c r="H141" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="4">
         <v>6</v>
       </c>
-      <c r="D142">
-        <v>16</v>
-      </c>
-      <c r="E142" t="s">
-        <v>114</v>
-      </c>
-      <c r="F142" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D142" s="4">
+        <v>15</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="4">
         <v>6</v>
       </c>
-      <c r="D143">
-        <v>16</v>
-      </c>
-      <c r="E143" t="s">
-        <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="D143" s="4">
+        <v>15</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5754,66 +5760,72 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="4">
         <v>6</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="4">
         <v>16</v>
       </c>
-      <c r="E144" t="s">
-        <v>115</v>
-      </c>
-      <c r="H144" t="s">
-        <v>18</v>
-      </c>
+      <c r="E144" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
     </row>
     <row r="145" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" s="4">
-        <v>7</v>
-      </c>
-      <c r="D145" s="4">
-        <v>17</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
+      <c r="B145" t="s">
+        <v>111</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>16</v>
+      </c>
+      <c r="E145" t="s">
+        <v>113</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="146" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D146">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5830,68 +5842,65 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D147">
+        <v>16</v>
+      </c>
+      <c r="E147" t="s">
+        <v>114</v>
+      </c>
+      <c r="H147" t="s">
         <v>18</v>
-      </c>
-      <c r="E147" t="s">
-        <v>118</v>
-      </c>
-      <c r="F147" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>116</v>
-      </c>
-      <c r="C148">
+      <c r="B148" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C148" s="4">
         <v>7</v>
       </c>
-      <c r="D148">
-        <v>18</v>
-      </c>
-      <c r="E148" t="s">
-        <v>82</v>
-      </c>
-      <c r="F148" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" t="s">
-        <v>12</v>
-      </c>
+      <c r="D148" s="4">
+        <v>17</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
     </row>
     <row r="149" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C149">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D149">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -5908,16 +5917,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C150">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D150">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E150" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -5929,21 +5938,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C151">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D151">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E151" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -5954,16 +5963,13 @@
       <c r="H151" t="s">
         <v>12</v>
       </c>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C152">
         <v>7.5</v>
@@ -5972,7 +5978,7 @@
         <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
@@ -5983,51 +5989,48 @@
       <c r="H152" t="s">
         <v>12</v>
       </c>
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C153" s="4">
-        <v>8</v>
-      </c>
-      <c r="D153" s="4">
-        <v>20</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153">
+        <v>7.5</v>
+      </c>
+      <c r="D153">
+        <v>19</v>
+      </c>
+      <c r="E153" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C154">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -6038,22 +6041,25 @@
       <c r="H154" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C155">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D155">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -6064,30 +6070,33 @@
       <c r="H155" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
-        <v>121</v>
-      </c>
-      <c r="C156">
+      <c r="B156" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C156" s="4">
         <v>8</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="4">
         <v>20</v>
       </c>
-      <c r="E156" t="s">
-        <v>229</v>
-      </c>
-      <c r="F156" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" t="s">
-        <v>11</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="E156" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H156" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6096,7 +6105,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C157">
         <v>8</v>
@@ -6105,7 +6114,7 @@
         <v>20</v>
       </c>
       <c r="E157" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -6122,7 +6131,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C158">
         <v>8</v>
@@ -6131,7 +6140,7 @@
         <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -6148,7 +6157,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C159">
         <v>8</v>
@@ -6157,7 +6166,7 @@
         <v>20</v>
       </c>
       <c r="E159" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
@@ -6174,7 +6183,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C160">
         <v>8</v>
@@ -6183,7 +6192,7 @@
         <v>20</v>
       </c>
       <c r="E160" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
@@ -6200,7 +6209,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C161">
         <v>8</v>
@@ -6209,7 +6218,7 @@
         <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -6226,7 +6235,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C162">
         <v>8</v>
@@ -6235,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -6252,16 +6261,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C163">
         <v>8</v>
       </c>
       <c r="D163">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -6270,7 +6279,7 @@
         <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6278,16 +6287,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C164">
         <v>8</v>
       </c>
       <c r="D164">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -6304,16 +6313,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C165">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6330,16 +6339,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C166">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D166">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6348,7 +6357,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6356,16 +6365,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C167">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6382,16 +6391,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C168">
         <v>9</v>
       </c>
       <c r="D168">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6400,94 +6409,94 @@
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>325</v>
-      </c>
-      <c r="I168" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J168" t="s">
-        <v>304</v>
-      </c>
-      <c r="K168" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C169" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="D169" s="4">
-        <v>24</v>
-      </c>
-      <c r="E169" s="4" t="s">
+      <c r="B169" t="s">
+        <v>122</v>
+      </c>
+      <c r="C169">
+        <v>9</v>
+      </c>
+      <c r="D169">
+        <v>23</v>
+      </c>
+      <c r="E169" t="s">
         <v>217</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C170" s="4">
-        <v>10</v>
-      </c>
-      <c r="D170" s="4">
-        <v>25</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" s="4" t="s">
+      <c r="B170" t="s">
+        <v>122</v>
+      </c>
+      <c r="C170">
+        <v>9</v>
+      </c>
+      <c r="D170">
         <v>23</v>
       </c>
-      <c r="H170" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>124</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C171" s="4">
-        <v>10</v>
-      </c>
-      <c r="D171" s="4">
-        <v>25</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" s="4" t="s">
+      <c r="B171" t="s">
+        <v>122</v>
+      </c>
+      <c r="C171">
+        <v>9</v>
+      </c>
+      <c r="D171">
         <v>23</v>
       </c>
-      <c r="H171" s="4" t="s">
-        <v>12</v>
+      <c r="E171" t="s">
+        <v>292</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" t="s">
+        <v>324</v>
+      </c>
+      <c r="I171" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J171" t="s">
+        <v>303</v>
+      </c>
+      <c r="K171" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -6495,16 +6504,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C172" s="4">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D172" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>20</v>
@@ -6516,81 +6525,81 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>127</v>
-      </c>
-      <c r="C173">
-        <v>10</v>
-      </c>
-      <c r="D173">
-        <v>26</v>
-      </c>
-      <c r="E173" t="s">
-        <v>285</v>
-      </c>
-      <c r="F173" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173" s="4">
+        <v>10</v>
+      </c>
+      <c r="D173" s="4">
+        <v>25</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C174" s="4">
+        <v>10</v>
+      </c>
+      <c r="D174" s="4">
+        <v>25</v>
+      </c>
+      <c r="E174" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C174">
-        <v>10</v>
-      </c>
-      <c r="D174">
-        <v>26</v>
-      </c>
-      <c r="E174" t="s">
-        <v>129</v>
-      </c>
-      <c r="F174" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F174" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>127</v>
-      </c>
-      <c r="C175">
-        <v>10</v>
-      </c>
-      <c r="D175">
+      <c r="B175" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C175" s="4">
+        <v>10</v>
+      </c>
+      <c r="D175" s="4">
         <v>26</v>
       </c>
-      <c r="E175" t="s">
-        <v>130</v>
-      </c>
-      <c r="F175" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" t="s">
-        <v>11</v>
-      </c>
-      <c r="H175" t="s">
+      <c r="E175" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H175" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6599,7 +6608,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C176">
         <v>10</v>
@@ -6608,7 +6617,7 @@
         <v>26</v>
       </c>
       <c r="E176" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6625,22 +6634,22 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D177">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E177" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
@@ -6651,16 +6660,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C178">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D178">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E178" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6677,16 +6686,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D179">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E179" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6703,25 +6712,25 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
-      </c>
-      <c r="C180" t="s">
-        <v>208</v>
+        <v>130</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
       </c>
       <c r="D180">
-        <v>999</v>
+        <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H180" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6729,25 +6738,25 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>208</v>
-      </c>
-      <c r="C181" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C181">
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E181" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6755,25 +6764,25 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>208</v>
-      </c>
-      <c r="C182" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C182">
+        <v>12</v>
       </c>
       <c r="D182">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E182" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6781,16 +6790,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C183" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D183">
         <v>999</v>
       </c>
       <c r="E183" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F183" t="s">
         <v>16</v>
@@ -6807,16 +6816,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C184" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D184">
         <v>999</v>
       </c>
       <c r="E184" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F184" t="s">
         <v>16</v>
@@ -6833,16 +6842,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D185">
         <v>999</v>
       </c>
       <c r="E185" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F185" t="s">
         <v>16</v>
@@ -6859,16 +6868,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C186" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D186">
         <v>999</v>
       </c>
       <c r="E186" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F186" t="s">
         <v>16</v>
@@ -6885,22 +6894,22 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C187" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D187">
         <v>999</v>
       </c>
       <c r="E187" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F187" t="s">
         <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="H187" t="s">
         <v>18</v>
@@ -6911,22 +6920,22 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C188" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D188">
         <v>999</v>
       </c>
       <c r="E188" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F188" t="s">
         <v>16</v>
       </c>
       <c r="G188" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="H188" t="s">
         <v>18</v>
@@ -6937,22 +6946,22 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C189" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D189">
         <v>999</v>
       </c>
       <c r="E189" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F189" t="s">
         <v>16</v>
       </c>
       <c r="G189" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="H189" t="s">
         <v>18</v>
@@ -6963,22 +6972,22 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C190" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D190">
         <v>999</v>
       </c>
       <c r="E190" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="H190" t="s">
         <v>18</v>
@@ -6989,22 +6998,22 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D191">
         <v>999</v>
       </c>
       <c r="E191" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F191" t="s">
         <v>16</v>
       </c>
       <c r="G191" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H191" t="s">
         <v>18</v>
@@ -7015,22 +7024,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C192" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D192">
         <v>999</v>
       </c>
       <c r="E192" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F192" t="s">
         <v>16</v>
       </c>
       <c r="G192" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H192" t="s">
         <v>18</v>
@@ -7041,22 +7050,22 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D193">
         <v>999</v>
       </c>
       <c r="E193" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F193" t="s">
         <v>16</v>
       </c>
       <c r="G193" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H193" t="s">
         <v>18</v>
@@ -7067,22 +7076,22 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C194" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D194">
         <v>999</v>
       </c>
       <c r="E194" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F194" t="s">
         <v>16</v>
       </c>
       <c r="G194" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H194" t="s">
         <v>18</v>
@@ -7093,16 +7102,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D195">
         <v>999</v>
       </c>
       <c r="E195" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F195" t="s">
         <v>16</v>
@@ -7119,16 +7128,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C196" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D196">
         <v>999</v>
       </c>
       <c r="E196" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F196" t="s">
         <v>16</v>
@@ -7145,16 +7154,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C197" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D197">
         <v>999</v>
       </c>
       <c r="E197" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F197" t="s">
         <v>16</v>
@@ -7171,16 +7180,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D198">
         <v>999</v>
       </c>
       <c r="E198" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F198" t="s">
         <v>16</v>
@@ -7197,16 +7206,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D199">
         <v>999</v>
       </c>
       <c r="E199" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F199" t="s">
         <v>16</v>
@@ -7223,22 +7232,22 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D200">
         <v>999</v>
       </c>
       <c r="E200" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F200" t="s">
         <v>16</v>
       </c>
       <c r="G200" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H200" t="s">
         <v>18</v>
@@ -7249,22 +7258,22 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C201" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D201">
         <v>999</v>
       </c>
       <c r="E201" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F201" t="s">
         <v>16</v>
       </c>
       <c r="G201" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H201" t="s">
         <v>18</v>
@@ -7275,22 +7284,22 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D202">
         <v>999</v>
       </c>
       <c r="E202" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F202" t="s">
         <v>16</v>
       </c>
       <c r="G202" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H202" t="s">
         <v>18</v>
@@ -7301,16 +7310,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D203">
         <v>999</v>
       </c>
       <c r="E203" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F203" t="s">
         <v>16</v>
@@ -7327,16 +7336,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D204">
         <v>999</v>
       </c>
       <c r="E204" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F204" t="s">
         <v>16</v>
@@ -7353,16 +7362,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D205">
         <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F205" t="s">
         <v>16</v>
@@ -7379,25 +7388,25 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D206">
         <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G206" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H206" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7405,25 +7414,25 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D207">
         <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H207" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7431,22 +7440,22 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D208">
         <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="F208" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H208" t="s">
         <v>18</v>
@@ -7457,25 +7466,25 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D209">
         <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F209" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H209" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7483,22 +7492,22 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D210">
         <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F210" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H210" t="s">
         <v>26</v>
@@ -7509,25 +7518,25 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D211">
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H211" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7535,16 +7544,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C212" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D212">
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
@@ -7561,25 +7570,25 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C213" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D213">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H213" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7587,25 +7596,25 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C214" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D214">
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H214" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7613,25 +7622,25 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D215">
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H215" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7639,16 +7648,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D216">
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
@@ -7657,7 +7666,7 @@
         <v>75</v>
       </c>
       <c r="H216" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7665,16 +7674,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C217" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D217">
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -7683,7 +7692,7 @@
         <v>75</v>
       </c>
       <c r="H217" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7691,16 +7700,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D218">
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -7709,7 +7718,7 @@
         <v>75</v>
       </c>
       <c r="H218" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7717,22 +7726,22 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C219" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D219">
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H219" t="s">
         <v>26</v>
@@ -7743,22 +7752,22 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C220" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D220">
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H220" t="s">
         <v>26</v>
@@ -7769,22 +7778,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C221" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D221">
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H221" t="s">
         <v>26</v>
@@ -7795,16 +7804,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C222" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D222">
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
@@ -7821,16 +7830,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D223">
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -7847,22 +7856,22 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C224" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D224">
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H224" t="s">
         <v>26</v>
@@ -7873,22 +7882,22 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C225" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D225">
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H225" t="s">
         <v>26</v>
@@ -7899,22 +7908,22 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D226">
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H226" t="s">
         <v>26</v>
@@ -7925,22 +7934,22 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D227">
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="H227" t="s">
         <v>26</v>
@@ -7951,22 +7960,22 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D228">
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F228" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="H228" t="s">
         <v>26</v>
@@ -7977,22 +7986,22 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C229" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D229">
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F229" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G229" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H229" t="s">
         <v>26</v>
@@ -8003,22 +8012,22 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C230" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D230">
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F230" t="s">
         <v>56</v>
       </c>
       <c r="G230" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="H230" t="s">
         <v>26</v>
@@ -8029,22 +8038,25 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C231" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D231">
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="F231" t="s">
+        <v>56</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="H231" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8052,22 +8064,25 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C232" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D232">
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="F232" t="s">
+        <v>56</v>
       </c>
       <c r="G232" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H232" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8075,19 +8090,22 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C233" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D233">
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="F233" t="s">
+        <v>56</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H233" t="s">
         <v>26</v>
@@ -8098,22 +8116,22 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C234" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D234">
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G234" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="H234" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
     </row>
     <row r="235" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8121,19 +8139,22 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C235" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D235">
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="G235" t="s">
+        <v>42</v>
       </c>
       <c r="H235" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
     </row>
     <row r="236" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8141,16 +8162,19 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C236" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D236">
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="G236" t="s">
+        <v>42</v>
       </c>
       <c r="H236" t="s">
         <v>26</v>
@@ -8161,16 +8185,19 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C237" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D237">
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="G237" t="s">
+        <v>192</v>
       </c>
       <c r="H237" t="s">
         <v>26</v>
@@ -8181,16 +8208,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C238" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D238">
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H238" t="s">
         <v>26</v>
@@ -8201,19 +8228,19 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C239" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D239">
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H239" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8221,19 +8248,19 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C240" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D240">
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H240" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8241,19 +8268,19 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C241" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D241">
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H241" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8261,16 +8288,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D242">
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H242" t="s">
         <v>18</v>
@@ -8281,16 +8308,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C243" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D243">
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H243" t="s">
         <v>18</v>
@@ -8301,16 +8328,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C244" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D244">
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H244" t="s">
         <v>18</v>
@@ -8321,16 +8348,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C245" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D245">
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H245" t="s">
         <v>18</v>
@@ -8341,28 +8368,19 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C246" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D246">
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="H246" t="s">
-        <v>305</v>
-      </c>
-      <c r="I246" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J246" t="s">
-        <v>304</v>
-      </c>
-      <c r="K246" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8370,25 +8388,19 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C247" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D247">
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="H247" t="s">
-        <v>305</v>
-      </c>
-      <c r="I247" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J247" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8396,34 +8408,19 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C248" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D248">
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>312</v>
-      </c>
-      <c r="F248" t="s">
-        <v>56</v>
-      </c>
-      <c r="G248" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H248" t="s">
-        <v>305</v>
-      </c>
-      <c r="I248" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J248" t="s">
-        <v>311</v>
-      </c>
-      <c r="K248" t="s">
-        <v>310</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8431,31 +8428,28 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C249" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D249">
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>313</v>
-      </c>
-      <c r="F249" t="s">
-        <v>20</v>
-      </c>
-      <c r="G249" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H249" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I249" s="2">
         <v>44131</v>
       </c>
       <c r="J249" t="s">
-        <v>314</v>
+        <v>303</v>
+      </c>
+      <c r="K249" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="250" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8463,25 +8457,25 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C250" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D250">
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H250" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I250" s="2">
         <v>44131</v>
       </c>
       <c r="J250" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8489,25 +8483,34 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C251" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D251">
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>317</v>
+        <v>311</v>
+      </c>
+      <c r="F251" t="s">
+        <v>56</v>
+      </c>
+      <c r="G251" t="s">
+        <v>184</v>
       </c>
       <c r="H251" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I251" s="2">
         <v>44131</v>
       </c>
       <c r="J251" t="s">
-        <v>318</v>
+        <v>310</v>
+      </c>
+      <c r="K251" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="252" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8515,25 +8518,31 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C252" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D252">
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>319</v>
+        <v>312</v>
+      </c>
+      <c r="F252" t="s">
+        <v>20</v>
+      </c>
+      <c r="G252" t="s">
+        <v>21</v>
       </c>
       <c r="H252" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I252" s="2">
         <v>44131</v>
       </c>
       <c r="J252" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8541,25 +8550,25 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C253" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D253">
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H253" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I253" s="2">
         <v>44131</v>
       </c>
       <c r="J253" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8567,28 +8576,25 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C254" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D254">
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>323</v>
-      </c>
-      <c r="G254" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="H254" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I254" s="2">
         <v>44131</v>
       </c>
       <c r="J254" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8596,25 +8602,25 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C255" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D255">
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H255" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I255" s="2">
         <v>44131</v>
       </c>
       <c r="J255" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8622,28 +8628,25 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C256" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D256">
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H256" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I256" s="2">
         <v>44131</v>
       </c>
       <c r="J256" t="s">
-        <v>329</v>
-      </c>
-      <c r="K256" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8651,28 +8654,28 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C257" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D257">
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>331</v>
+        <v>322</v>
+      </c>
+      <c r="G257" t="s">
+        <v>42</v>
       </c>
       <c r="H257" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I257" s="2">
         <v>44131</v>
       </c>
       <c r="J257" t="s">
-        <v>332</v>
-      </c>
-      <c r="K257" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="258" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8680,25 +8683,25 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C258" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D258">
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H258" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I258" s="2">
         <v>44131</v>
       </c>
       <c r="J258" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="259" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8706,28 +8709,28 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C259" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D259">
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H259" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I259" s="2">
         <v>44131</v>
       </c>
       <c r="J259" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K259" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8735,45 +8738,129 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C260" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D260">
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H260" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I260" s="2">
         <v>44131</v>
       </c>
       <c r="J260" t="s">
+        <v>331</v>
+      </c>
+      <c r="K260" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>207</v>
+      </c>
+      <c r="C261" t="s">
+        <v>207</v>
+      </c>
+      <c r="D261">
+        <v>999</v>
+      </c>
+      <c r="E261" t="s">
+        <v>333</v>
+      </c>
+      <c r="H261" t="s">
+        <v>304</v>
+      </c>
+      <c r="I261" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J261" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>207</v>
+      </c>
+      <c r="C262" t="s">
+        <v>207</v>
+      </c>
+      <c r="D262">
+        <v>999</v>
+      </c>
+      <c r="E262" t="s">
+        <v>335</v>
+      </c>
+      <c r="H262" t="s">
+        <v>304</v>
+      </c>
+      <c r="I262" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J262" t="s">
+        <v>336</v>
+      </c>
+      <c r="K262" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>207</v>
+      </c>
+      <c r="C263" t="s">
+        <v>207</v>
+      </c>
+      <c r="D263">
+        <v>999</v>
+      </c>
+      <c r="E263" t="s">
+        <v>338</v>
+      </c>
+      <c r="H263" t="s">
+        <v>304</v>
+      </c>
+      <c r="I263" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J263" t="s">
+        <v>339</v>
+      </c>
+      <c r="K263" t="s">
         <v>340</v>
       </c>
-      <c r="K260" t="s">
-        <v>341</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K260" xr:uid="{641E9AF6-E669-4D0B-90DF-115088AA94C1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K260">
-      <sortCondition ref="A1:A260"/>
+  <autoFilter ref="A1:K263" xr:uid="{641E9AF6-E669-4D0B-90DF-115088AA94C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K263">
+      <sortCondition ref="A1:A263"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H245">
-    <sortCondition ref="C2:C245"/>
-    <sortCondition ref="D2:D245"/>
-    <sortCondition ref="F2:F245"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H248">
+    <sortCondition ref="C2:C248"/>
+    <sortCondition ref="D2:D248"/>
+    <sortCondition ref="F2:F248"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H93" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
-    <hyperlink ref="H19" r:id="rId2" xr:uid="{806BB034-CC22-4DF3-8713-E1075C67FD20}"/>
+    <hyperlink ref="H96" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
+    <hyperlink ref="H20" r:id="rId2" xr:uid="{806BB034-CC22-4DF3-8713-E1075C67FD20}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3432E06-6305-4831-A2EE-49938D37675A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9988002-F404-4222-89A8-BBA4D97E2302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="349">
   <si>
     <t>id</t>
   </si>
@@ -5708,27 +5708,30 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C142" s="4">
-        <v>6</v>
-      </c>
-      <c r="D142" s="4">
-        <v>15</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B142" t="s">
+        <v>206</v>
+      </c>
+      <c r="C142">
+        <v>5.5</v>
+      </c>
+      <c r="D142">
+        <v>8.6666666666666607</v>
+      </c>
+      <c r="E142" t="s">
+        <v>325</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142" t="s">
+        <v>304</v>
+      </c>
+      <c r="I142" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J142" t="s">
+        <v>326</v>
+      </c>
+      <c r="K142"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -5744,7 +5747,7 @@
         <v>15</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>274</v>
+        <v>112</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>20</v>
@@ -5767,10 +5770,10 @@
         <v>6</v>
       </c>
       <c r="D144" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>20</v>
@@ -5789,27 +5792,30 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="4">
         <v>6</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="4">
         <v>16</v>
       </c>
-      <c r="E145" t="s">
-        <v>113</v>
-      </c>
-      <c r="F145" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" t="s">
-        <v>12</v>
-      </c>
+      <c r="E145" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
     </row>
     <row r="146" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -5825,7 +5831,7 @@
         <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>276</v>
+        <v>113</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -5851,66 +5857,66 @@
         <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>114</v>
+        <v>276</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C148" s="4">
-        <v>7</v>
-      </c>
-      <c r="D148" s="4">
-        <v>17</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
+      <c r="B148" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>16</v>
+      </c>
+      <c r="E148" t="s">
+        <v>114</v>
+      </c>
+      <c r="H148" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="149" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="4">
         <v>7</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="4">
         <v>17</v>
       </c>
-      <c r="E149" t="s">
-        <v>116</v>
-      </c>
-      <c r="F149" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" t="s">
-        <v>12</v>
-      </c>
+      <c r="E149" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
     </row>
     <row r="150" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -5923,10 +5929,10 @@
         <v>7</v>
       </c>
       <c r="D150">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E150" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -5952,7 +5958,7 @@
         <v>18</v>
       </c>
       <c r="E151" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -5969,16 +5975,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C152">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D152">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E152" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
@@ -6004,7 +6010,7 @@
         <v>19</v>
       </c>
       <c r="E153" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
@@ -6030,7 +6036,7 @@
         <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -6059,7 +6065,7 @@
         <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -6078,53 +6084,59 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C156" s="4">
-        <v>8</v>
-      </c>
-      <c r="D156" s="4">
-        <v>20</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B156" t="s">
+        <v>118</v>
+      </c>
+      <c r="C156">
+        <v>7.5</v>
+      </c>
+      <c r="D156">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>277</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
     </row>
     <row r="157" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="4">
         <v>8</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="4">
         <v>20</v>
       </c>
-      <c r="E157" t="s">
-        <v>279</v>
-      </c>
-      <c r="F157" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" t="s">
-        <v>12</v>
-      </c>
+      <c r="E157" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
     </row>
     <row r="158" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -6140,7 +6152,7 @@
         <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -6166,7 +6178,7 @@
         <v>20</v>
       </c>
       <c r="E159" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
@@ -6192,7 +6204,7 @@
         <v>20</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
@@ -6218,7 +6230,7 @@
         <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -6244,7 +6256,7 @@
         <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -6270,7 +6282,7 @@
         <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -6296,7 +6308,7 @@
         <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -6322,7 +6334,7 @@
         <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6345,10 +6357,10 @@
         <v>8</v>
       </c>
       <c r="D166">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6357,7 +6369,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6374,7 +6386,7 @@
         <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6383,7 +6395,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6391,16 +6403,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C168">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6423,10 +6435,10 @@
         <v>9</v>
       </c>
       <c r="D169">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E169" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6452,7 +6464,7 @@
         <v>23</v>
       </c>
       <c r="E170" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -6478,7 +6490,7 @@
         <v>23</v>
       </c>
       <c r="E171" t="s">
-        <v>292</v>
+        <v>124</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -6487,42 +6499,42 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>324</v>
-      </c>
-      <c r="I171" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J171" t="s">
-        <v>303</v>
-      </c>
-      <c r="K171" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C172" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="D172" s="4">
-        <v>24</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" s="4" t="s">
+      <c r="B172" t="s">
+        <v>122</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+      <c r="D172">
         <v>23</v>
       </c>
-      <c r="H172" s="4" t="s">
-        <v>12</v>
+      <c r="E172" t="s">
+        <v>292</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" t="s">
+        <v>324</v>
+      </c>
+      <c r="I172" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J172" t="s">
+        <v>303</v>
+      </c>
+      <c r="K172" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6530,16 +6542,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C173" s="4">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D173" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>20</v>
@@ -6565,7 +6577,7 @@
         <v>25</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>20</v>
@@ -6588,10 +6600,10 @@
         <v>10</v>
       </c>
       <c r="D175" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>20</v>
@@ -6607,27 +6619,30 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C176">
-        <v>10</v>
-      </c>
-      <c r="D176">
+      <c r="C176" s="4">
+        <v>10</v>
+      </c>
+      <c r="D176" s="4">
         <v>26</v>
       </c>
-      <c r="E176" t="s">
-        <v>284</v>
-      </c>
-      <c r="F176" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" t="s">
-        <v>11</v>
-      </c>
-      <c r="H176" t="s">
-        <v>12</v>
-      </c>
+      <c r="E176" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
     </row>
     <row r="177" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -6643,7 +6658,7 @@
         <v>26</v>
       </c>
       <c r="E177" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6669,7 +6684,7 @@
         <v>26</v>
       </c>
       <c r="E178" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6695,7 +6710,7 @@
         <v>26</v>
       </c>
       <c r="E179" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6712,22 +6727,22 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D180">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E180" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H180" t="s">
         <v>12</v>
@@ -6738,22 +6753,22 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D181">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H181" t="s">
         <v>12</v>
@@ -6773,7 +6788,7 @@
         <v>28</v>
       </c>
       <c r="E182" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6790,25 +6805,25 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>207</v>
-      </c>
-      <c r="C183" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="C183">
+        <v>12</v>
       </c>
       <c r="D183">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E183" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6825,7 +6840,7 @@
         <v>999</v>
       </c>
       <c r="E184" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F184" t="s">
         <v>16</v>
@@ -6851,7 +6866,7 @@
         <v>999</v>
       </c>
       <c r="E185" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F185" t="s">
         <v>16</v>
@@ -6877,7 +6892,7 @@
         <v>999</v>
       </c>
       <c r="E186" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F186" t="s">
         <v>16</v>
@@ -6903,7 +6918,7 @@
         <v>999</v>
       </c>
       <c r="E187" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F187" t="s">
         <v>16</v>
@@ -6929,7 +6944,7 @@
         <v>999</v>
       </c>
       <c r="E188" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F188" t="s">
         <v>16</v>
@@ -6955,7 +6970,7 @@
         <v>999</v>
       </c>
       <c r="E189" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F189" t="s">
         <v>16</v>
@@ -6981,13 +6996,13 @@
         <v>999</v>
       </c>
       <c r="E190" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="H190" t="s">
         <v>18</v>
@@ -7007,13 +7022,13 @@
         <v>999</v>
       </c>
       <c r="E191" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F191" t="s">
         <v>16</v>
       </c>
       <c r="G191" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="H191" t="s">
         <v>18</v>
@@ -7033,7 +7048,7 @@
         <v>999</v>
       </c>
       <c r="E192" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F192" t="s">
         <v>16</v>
@@ -7059,7 +7074,7 @@
         <v>999</v>
       </c>
       <c r="E193" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F193" t="s">
         <v>16</v>
@@ -7085,7 +7100,7 @@
         <v>999</v>
       </c>
       <c r="E194" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F194" t="s">
         <v>16</v>
@@ -7111,13 +7126,13 @@
         <v>999</v>
       </c>
       <c r="E195" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F195" t="s">
         <v>16</v>
       </c>
       <c r="G195" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H195" t="s">
         <v>18</v>
@@ -7137,7 +7152,7 @@
         <v>999</v>
       </c>
       <c r="E196" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F196" t="s">
         <v>16</v>
@@ -7163,7 +7178,7 @@
         <v>999</v>
       </c>
       <c r="E197" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F197" t="s">
         <v>16</v>
@@ -7189,7 +7204,7 @@
         <v>999</v>
       </c>
       <c r="E198" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F198" t="s">
         <v>16</v>
@@ -7215,7 +7230,7 @@
         <v>999</v>
       </c>
       <c r="E199" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F199" t="s">
         <v>16</v>
@@ -7241,7 +7256,7 @@
         <v>999</v>
       </c>
       <c r="E200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F200" t="s">
         <v>16</v>
@@ -7267,7 +7282,7 @@
         <v>999</v>
       </c>
       <c r="E201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F201" t="s">
         <v>16</v>
@@ -7293,7 +7308,7 @@
         <v>999</v>
       </c>
       <c r="E202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F202" t="s">
         <v>16</v>
@@ -7319,13 +7334,13 @@
         <v>999</v>
       </c>
       <c r="E203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F203" t="s">
         <v>16</v>
       </c>
       <c r="G203" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H203" t="s">
         <v>18</v>
@@ -7345,7 +7360,7 @@
         <v>999</v>
       </c>
       <c r="E204" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F204" t="s">
         <v>16</v>
@@ -7371,7 +7386,7 @@
         <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F205" t="s">
         <v>16</v>
@@ -7397,7 +7412,7 @@
         <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
@@ -7423,7 +7438,7 @@
         <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F207" t="s">
         <v>16</v>
@@ -7449,7 +7464,7 @@
         <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F208" t="s">
         <v>16</v>
@@ -7475,16 +7490,16 @@
         <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F209" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G209" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H209" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7501,16 +7516,16 @@
         <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F210" t="s">
         <v>20</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H210" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7527,16 +7542,16 @@
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="F211" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H211" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7553,16 +7568,16 @@
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H212" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7579,7 +7594,7 @@
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -7605,7 +7620,7 @@
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
@@ -7631,7 +7646,7 @@
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
@@ -7657,16 +7672,16 @@
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H216" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7683,7 +7698,7 @@
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -7709,7 +7724,7 @@
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -7735,7 +7750,7 @@
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
@@ -7744,7 +7759,7 @@
         <v>75</v>
       </c>
       <c r="H219" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="220" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7761,7 +7776,7 @@
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
@@ -7787,7 +7802,7 @@
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
@@ -7813,13 +7828,13 @@
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H222" t="s">
         <v>26</v>
@@ -7839,7 +7854,7 @@
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -7865,7 +7880,7 @@
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
@@ -7891,7 +7906,7 @@
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
@@ -7917,7 +7932,7 @@
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
@@ -7943,13 +7958,13 @@
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H227" t="s">
         <v>26</v>
@@ -7969,7 +7984,7 @@
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
@@ -7995,7 +8010,7 @@
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
@@ -8021,13 +8036,13 @@
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F230" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="H230" t="s">
         <v>26</v>
@@ -8047,7 +8062,7 @@
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F231" t="s">
         <v>56</v>
@@ -8073,13 +8088,13 @@
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F232" t="s">
         <v>56</v>
       </c>
       <c r="G232" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="H232" t="s">
         <v>26</v>
@@ -8099,7 +8114,7 @@
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F233" t="s">
         <v>56</v>
@@ -8125,13 +8140,16 @@
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="F234" t="s">
+        <v>56</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H234" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8148,7 +8166,7 @@
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G235" t="s">
         <v>42</v>
@@ -8171,13 +8189,13 @@
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G236" t="s">
         <v>42</v>
       </c>
       <c r="H236" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
     </row>
     <row r="237" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8194,10 +8212,10 @@
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G237" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="H237" t="s">
         <v>26</v>
@@ -8217,7 +8235,10 @@
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="G238" t="s">
+        <v>192</v>
       </c>
       <c r="H238" t="s">
         <v>26</v>
@@ -8237,7 +8258,7 @@
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H239" t="s">
         <v>26</v>
@@ -8257,7 +8278,7 @@
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H240" t="s">
         <v>26</v>
@@ -8277,7 +8298,7 @@
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H241" t="s">
         <v>26</v>
@@ -8297,10 +8318,10 @@
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H242" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="243" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8317,7 +8338,7 @@
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H243" t="s">
         <v>18</v>
@@ -8337,7 +8358,7 @@
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H244" t="s">
         <v>18</v>
@@ -8357,7 +8378,7 @@
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H245" t="s">
         <v>18</v>
@@ -8377,7 +8398,7 @@
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H246" t="s">
         <v>18</v>
@@ -8397,7 +8418,7 @@
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H247" t="s">
         <v>18</v>
@@ -8417,7 +8438,7 @@
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H248" t="s">
         <v>18</v>
@@ -8437,19 +8458,10 @@
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="H249" t="s">
-        <v>304</v>
-      </c>
-      <c r="I249" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J249" t="s">
-        <v>303</v>
-      </c>
-      <c r="K249" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8466,7 +8478,7 @@
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H250" t="s">
         <v>304</v>
@@ -8475,7 +8487,10 @@
         <v>44131</v>
       </c>
       <c r="J250" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="K250" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="251" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8492,13 +8507,7 @@
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>311</v>
-      </c>
-      <c r="F251" t="s">
-        <v>56</v>
-      </c>
-      <c r="G251" t="s">
-        <v>184</v>
+        <v>305</v>
       </c>
       <c r="H251" t="s">
         <v>304</v>
@@ -8507,10 +8516,7 @@
         <v>44131</v>
       </c>
       <c r="J251" t="s">
-        <v>310</v>
-      </c>
-      <c r="K251" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="252" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8527,13 +8533,13 @@
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F252" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G252" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="H252" t="s">
         <v>304</v>
@@ -8542,7 +8548,10 @@
         <v>44131</v>
       </c>
       <c r="J252" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="K252" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8559,7 +8568,13 @@
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="F253" t="s">
+        <v>20</v>
+      </c>
+      <c r="G253" t="s">
+        <v>21</v>
       </c>
       <c r="H253" t="s">
         <v>304</v>
@@ -8568,7 +8583,7 @@
         <v>44131</v>
       </c>
       <c r="J253" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="254" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8585,7 +8600,7 @@
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H254" t="s">
         <v>304</v>
@@ -8594,7 +8609,7 @@
         <v>44131</v>
       </c>
       <c r="J254" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="255" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8611,7 +8626,7 @@
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H255" t="s">
         <v>304</v>
@@ -8620,7 +8635,7 @@
         <v>44131</v>
       </c>
       <c r="J255" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="256" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8637,7 +8652,7 @@
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H256" t="s">
         <v>304</v>
@@ -8646,7 +8661,7 @@
         <v>44131</v>
       </c>
       <c r="J256" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8663,10 +8678,7 @@
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>322</v>
-      </c>
-      <c r="G257" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="H257" t="s">
         <v>304</v>
@@ -8675,7 +8687,7 @@
         <v>44131</v>
       </c>
       <c r="J257" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8692,7 +8704,10 @@
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="G258" t="s">
+        <v>42</v>
       </c>
       <c r="H258" t="s">
         <v>304</v>
@@ -8701,7 +8716,7 @@
         <v>44131</v>
       </c>
       <c r="J258" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8849,7 +8864,7 @@
   </sheetData>
   <autoFilter ref="A1:K263" xr:uid="{641E9AF6-E669-4D0B-90DF-115088AA94C1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K263">
-      <sortCondition ref="A1:A263"/>
+      <sortCondition ref="C1:C263"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H248">

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9988002-F404-4222-89A8-BBA4D97E2302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BE604-A9FF-4566-BD1D-755A51AB2A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$K$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$K$267</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="355">
   <si>
     <t>id</t>
   </si>
@@ -1070,6 +1070,24 @@
   </si>
   <si>
     <t>Felipe Berríos</t>
+  </si>
+  <si>
+    <t>https://www.publimetro.cl/cl/noticias/2020/10/29/daniel-stingo-constituyente.html</t>
+  </si>
+  <si>
+    <t>Nerea de Ugarte</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nereadeugarte/status/1321515513818845185</t>
+  </si>
+  <si>
+    <t>Doris González</t>
+  </si>
+  <si>
+    <t>Constanza Valdés</t>
+  </si>
+  <si>
+    <t>Haydee Oberreuter</t>
   </si>
 </sst>
 </file>
@@ -1930,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K263"/>
+  <dimension ref="A1:K267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A263"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2834,36 +2852,36 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2877,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>20</v>
@@ -2888,8 +2906,11 @@
       <c r="H35" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2903,7 +2924,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>20</v>
@@ -2914,35 +2935,35 @@
       <c r="H36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37">
-        <v>5.5</v>
-      </c>
-      <c r="D37">
+      <c r="B37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D37" s="4">
         <v>8</v>
       </c>
-      <c r="E37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
+      <c r="E37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2958,16 +2979,16 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2984,16 +3005,16 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3010,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -3019,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3036,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -3062,7 +3083,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -3088,7 +3109,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -3111,19 +3132,19 @@
         <v>5.5</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3140,78 +3161,82 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45"/>
-      <c r="J45"/>
+        <v>12</v>
+      </c>
+      <c r="I45" s="2">
+        <v>44133</v>
+      </c>
+      <c r="J45" t="s">
+        <v>349</v>
+      </c>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D46" s="4">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46">
+        <v>5.5</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D47" s="4">
-        <v>9</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="B47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47">
+        <v>5.5</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>352</v>
+      </c>
+      <c r="F47" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="G47" t="s">
+        <v>247</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
     </row>
     <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3227,69 +3252,75 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49">
-        <v>5.5</v>
-      </c>
-      <c r="D49">
+      <c r="B49" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D49" s="4">
         <v>9</v>
       </c>
-      <c r="E49" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
+      <c r="E49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50">
-        <v>5.5</v>
-      </c>
-      <c r="D50">
+      <c r="B50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D50" s="4">
         <v>9</v>
       </c>
-      <c r="E50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
-      </c>
+      <c r="E50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -3305,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -3331,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -3357,16 +3388,16 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3383,13 +3414,13 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
@@ -3406,19 +3437,19 @@
         <v>5.5</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3432,19 +3463,19 @@
         <v>5.5</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H56" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3458,22 +3489,22 @@
         <v>5.5</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3487,22 +3518,19 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3516,74 +3544,74 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>65</v>
-      </c>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C60" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D60" s="4">
-        <v>10</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60">
+        <v>5.5</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" t="s">
         <v>20</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>26</v>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C61" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D61" s="4">
-        <v>10</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="B61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61">
+        <v>5.5</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3597,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>20</v>
@@ -3606,35 +3634,32 @@
         <v>23</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C63">
-        <v>5.5</v>
-      </c>
-      <c r="D63">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>246</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="B63" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D63" s="4">
+        <v>10</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G63" t="s">
-        <v>247</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3642,27 +3667,30 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64">
-        <v>5.5</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s">
-        <v>12</v>
-      </c>
+      <c r="B64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D64" s="4">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -3678,13 +3706,13 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -3704,22 +3732,16 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
-      </c>
-      <c r="J66" t="s">
-        <v>342</v>
-      </c>
-      <c r="K66" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3736,13 +3758,13 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -3762,7 +3784,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3771,7 +3793,13 @@
         <v>36</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>342</v>
+      </c>
+      <c r="K68" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3788,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -3814,25 +3842,16 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>304</v>
-      </c>
-      <c r="I70" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J70" t="s">
-        <v>76</v>
-      </c>
-      <c r="K70" t="s">
-        <v>303</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3849,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3875,16 +3894,25 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>304</v>
+      </c>
+      <c r="I72" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J72" t="s">
+        <v>76</v>
+      </c>
+      <c r="K72" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -3927,7 +3955,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -3953,7 +3981,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -3979,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -4005,7 +4033,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -4031,7 +4059,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -4057,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -4083,7 +4111,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -4109,7 +4137,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -4135,7 +4163,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -4161,7 +4189,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -4187,7 +4215,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4213,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4239,7 +4267,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4265,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4291,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4317,7 +4345,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4343,10 +4371,16 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>84</v>
+        <v>267</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4363,13 +4397,13 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="H91" t="s">
         <v>12</v>
@@ -4386,19 +4420,13 @@
         <v>5.5</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>297</v>
-      </c>
-      <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H92" t="s">
-        <v>295</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4412,19 +4440,19 @@
         <v>5.5</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="H93" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4441,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -4467,16 +4495,16 @@
         <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4493,15 +4521,15 @@
         <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
-      </c>
-      <c r="H96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4519,46 +4547,43 @@
         <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H97" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D98" s="4">
-        <v>11</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98">
+        <v>5.5</v>
+      </c>
+      <c r="D98">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="99" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -4574,46 +4599,46 @@
         <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" t="s">
-        <v>303</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100">
-        <v>5.5</v>
-      </c>
-      <c r="D100">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
-        <v>89</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" t="s">
-        <v>36</v>
-      </c>
-      <c r="H100" t="s">
-        <v>90</v>
-      </c>
+      <c r="B100" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D100" s="4">
+        <v>11</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -4629,16 +4654,19 @@
         <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H101" t="s">
         <v>12</v>
+      </c>
+      <c r="J101" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4655,16 +4683,16 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4681,7 +4709,7 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -4707,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -4733,7 +4761,7 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -4759,7 +4787,7 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -4785,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -4811,7 +4839,7 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -4837,7 +4865,7 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4863,7 +4891,13 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
       </c>
       <c r="H110" t="s">
         <v>12</v>
@@ -4883,28 +4917,19 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H111" t="s">
         <v>12</v>
       </c>
-      <c r="I111" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J111" t="s">
-        <v>341</v>
-      </c>
-      <c r="K111" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4918,16 +4943,11 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>95</v>
-      </c>
-      <c r="F112"/>
-      <c r="G112"/>
+        <v>93</v>
+      </c>
       <c r="H112" t="s">
-        <v>96</v>
-      </c>
-      <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="113" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -4943,40 +4963,51 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>59</v>
       </c>
       <c r="H113" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I113" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J113" t="s">
+        <v>341</v>
+      </c>
+      <c r="K113" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C114" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D114" s="4">
-        <v>12</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
+      <c r="B114" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114">
+        <v>5.5</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>95</v>
+      </c>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114" t="s">
+        <v>96</v>
+      </c>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
     </row>
     <row r="115" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -4989,19 +5020,13 @@
         <v>5.5</v>
       </c>
       <c r="D115">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5015,19 +5040,22 @@
         <v>5.5</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
+        <v>345</v>
       </c>
       <c r="G116" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>351</v>
+      </c>
+      <c r="I116" s="2">
+        <v>44132</v>
       </c>
     </row>
     <row r="117" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5041,46 +5069,50 @@
         <v>5.5</v>
       </c>
       <c r="D117">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
       </c>
+      <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>206</v>
-      </c>
-      <c r="C118">
-        <v>5.5</v>
-      </c>
-      <c r="D118">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>99</v>
-      </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" t="s">
-        <v>12</v>
-      </c>
+      <c r="B118" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D118" s="4">
+        <v>12</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
     </row>
     <row r="119" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -5096,7 +5128,7 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -5122,7 +5154,7 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -5148,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -5174,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -5200,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -5212,7 +5244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5226,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5237,9 +5269,6 @@
       <c r="H124" t="s">
         <v>12</v>
       </c>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
     </row>
     <row r="125" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -5255,7 +5284,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5271,30 +5300,27 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C126" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D126" s="4">
-        <v>13</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
+      <c r="B126" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126">
+        <v>5.5</v>
+      </c>
+      <c r="D126">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>218</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="127" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -5307,10 +5333,10 @@
         <v>5.5</v>
       </c>
       <c r="D127">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5322,7 +5348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5333,10 +5359,10 @@
         <v>5.5</v>
       </c>
       <c r="D128">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5347,6 +5373,9 @@
       <c r="H128" t="s">
         <v>12</v>
       </c>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
     </row>
     <row r="129" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -5359,10 +5388,10 @@
         <v>5.5</v>
       </c>
       <c r="D129">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5374,34 +5403,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
-        <v>206</v>
-      </c>
-      <c r="C130">
-        <v>5.5</v>
-      </c>
-      <c r="D130">
+      <c r="B130" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D130" s="4">
         <v>13</v>
       </c>
-      <c r="E130" t="s">
-        <v>103</v>
-      </c>
-      <c r="F130" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130"/>
+      <c r="E130" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -5414,80 +5443,74 @@
         <v>5.5</v>
       </c>
       <c r="D131">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C132" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D132" s="4">
-        <v>14</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
+      <c r="B132" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132">
+        <v>5.5</v>
+      </c>
+      <c r="D132">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>273</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="133" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C133" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D133" s="4">
-        <v>14</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-    </row>
-    <row r="134" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133">
+        <v>5.5</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5498,10 +5521,10 @@
         <v>5.5</v>
       </c>
       <c r="D134">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5510,8 +5533,11 @@
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
     </row>
     <row r="135" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -5527,69 +5553,75 @@
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
       <c r="F135" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H135" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
-        <v>206</v>
-      </c>
-      <c r="C136">
-        <v>5.5</v>
-      </c>
-      <c r="D136">
+      <c r="B136" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D136" s="4">
         <v>14</v>
       </c>
-      <c r="E136" t="s">
-        <v>275</v>
-      </c>
-      <c r="F136" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" t="s">
-        <v>12</v>
-      </c>
+      <c r="E136" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
     </row>
     <row r="137" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
-        <v>206</v>
-      </c>
-      <c r="C137">
-        <v>5.5</v>
-      </c>
-      <c r="D137">
+      <c r="B137" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C137" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D137" s="4">
         <v>14</v>
       </c>
-      <c r="E137" t="s">
-        <v>107</v>
-      </c>
-      <c r="F137" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
-      </c>
+      <c r="E137" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
     </row>
     <row r="138" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -5605,7 +5637,7 @@
         <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5614,10 +5646,10 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5631,7 +5663,7 @@
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -5642,11 +5674,8 @@
       <c r="H139" t="s">
         <v>12</v>
       </c>
-      <c r="I139"/>
-      <c r="J139"/>
-      <c r="K139"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5660,7 +5689,7 @@
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -5671,11 +5700,8 @@
       <c r="H140" t="s">
         <v>12</v>
       </c>
-      <c r="I140"/>
-      <c r="J140"/>
-      <c r="K140"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5686,25 +5712,22 @@
         <v>5.5</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>26</v>
-      </c>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5715,157 +5738,160 @@
         <v>5.5</v>
       </c>
       <c r="D142">
-        <v>8.6666666666666607</v>
+        <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>325</v>
-      </c>
-      <c r="F142"/>
-      <c r="G142"/>
+        <v>108</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
       <c r="H142" t="s">
-        <v>304</v>
-      </c>
-      <c r="I142" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J142" t="s">
-        <v>326</v>
-      </c>
-      <c r="K142"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C143" s="4">
-        <v>6</v>
-      </c>
-      <c r="D143" s="4">
-        <v>15</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143">
+        <v>5.5</v>
+      </c>
+      <c r="D143">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>109</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C144" s="4">
-        <v>6</v>
-      </c>
-      <c r="D144" s="4">
-        <v>15</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-    </row>
-    <row r="145" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>206</v>
+      </c>
+      <c r="C144">
+        <v>5.5</v>
+      </c>
+      <c r="D144">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>110</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C145" s="4">
-        <v>6</v>
-      </c>
-      <c r="D145" s="4">
-        <v>16</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F145" s="4" t="s">
+      <c r="B145" t="s">
+        <v>206</v>
+      </c>
+      <c r="C145">
+        <v>5.5</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s">
+        <v>164</v>
+      </c>
+      <c r="F145" t="s">
         <v>20</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-    </row>
-    <row r="146" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>247</v>
+      </c>
+      <c r="H145" t="s">
+        <v>26</v>
+      </c>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D146">
-        <v>16</v>
+        <v>8.6666666666666607</v>
       </c>
       <c r="E146" t="s">
-        <v>113</v>
-      </c>
-      <c r="F146" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" t="s">
-        <v>11</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F146"/>
+      <c r="G146"/>
       <c r="H146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="I146" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J146" t="s">
+        <v>326</v>
+      </c>
+      <c r="K146"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="4">
         <v>6</v>
       </c>
-      <c r="D147">
-        <v>16</v>
-      </c>
-      <c r="E147" t="s">
-        <v>276</v>
-      </c>
-      <c r="F147" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" t="s">
+      <c r="D147" s="4">
+        <v>15</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H147" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5873,37 +5899,46 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="4">
         <v>6</v>
       </c>
-      <c r="D148">
-        <v>16</v>
-      </c>
-      <c r="E148" t="s">
-        <v>114</v>
-      </c>
-      <c r="H148" t="s">
-        <v>18</v>
-      </c>
+      <c r="D148" s="4">
+        <v>15</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
     </row>
     <row r="149" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C149" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D149" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>20</v>
@@ -5923,16 +5958,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D150">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -5949,16 +5984,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D151">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -5975,68 +6010,65 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D152">
+        <v>16</v>
+      </c>
+      <c r="E152" t="s">
+        <v>114</v>
+      </c>
+      <c r="H152" t="s">
         <v>18</v>
-      </c>
-      <c r="E152" t="s">
-        <v>82</v>
-      </c>
-      <c r="F152" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>118</v>
-      </c>
-      <c r="C153">
-        <v>7.5</v>
-      </c>
-      <c r="D153">
-        <v>19</v>
-      </c>
-      <c r="E153" t="s">
-        <v>220</v>
-      </c>
-      <c r="F153" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" s="4">
+        <v>7</v>
+      </c>
+      <c r="D153" s="4">
+        <v>17</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C154">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E154" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -6047,25 +6079,22 @@
       <c r="H154" t="s">
         <v>12</v>
       </c>
-      <c r="I154"/>
-      <c r="J154"/>
-      <c r="K154"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C155">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D155">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E155" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -6076,25 +6105,22 @@
       <c r="H155" t="s">
         <v>12</v>
       </c>
-      <c r="I155"/>
-      <c r="J155"/>
-      <c r="K155"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C156">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -6105,54 +6131,48 @@
       <c r="H156" t="s">
         <v>12</v>
       </c>
-      <c r="I156"/>
-      <c r="J156"/>
-      <c r="K156"/>
     </row>
     <row r="157" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C157" s="4">
-        <v>8</v>
-      </c>
-      <c r="D157" s="4">
-        <v>20</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-    </row>
-    <row r="158" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157">
+        <v>7.5</v>
+      </c>
+      <c r="D157">
+        <v>19</v>
+      </c>
+      <c r="E157" t="s">
+        <v>220</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C158">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -6163,22 +6183,25 @@
       <c r="H158" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C159">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
@@ -6189,22 +6212,25 @@
       <c r="H159" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C160">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
@@ -6215,32 +6241,38 @@
       <c r="H160" t="s">
         <v>12</v>
       </c>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
     </row>
     <row r="161" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="4">
         <v>8</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="4">
         <v>20</v>
       </c>
-      <c r="E161" t="s">
-        <v>281</v>
-      </c>
-      <c r="F161" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" t="s">
-        <v>11</v>
-      </c>
-      <c r="H161" t="s">
-        <v>12</v>
-      </c>
+      <c r="E161" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
     </row>
     <row r="162" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -6256,7 +6288,7 @@
         <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -6282,7 +6314,7 @@
         <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -6308,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -6334,7 +6366,7 @@
         <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6360,7 +6392,7 @@
         <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6383,10 +6415,10 @@
         <v>8</v>
       </c>
       <c r="D167">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6395,7 +6427,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6409,10 +6441,10 @@
         <v>8</v>
       </c>
       <c r="D168">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6429,16 +6461,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C169">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D169">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E169" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6455,16 +6487,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C170">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D170">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -6481,16 +6513,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -6499,24 +6531,24 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C172">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E172" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -6525,270 +6557,270 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>324</v>
-      </c>
-      <c r="I172" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J172" t="s">
-        <v>303</v>
-      </c>
-      <c r="K172" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C173" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="D173" s="4">
-        <v>24</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>122</v>
+      </c>
+      <c r="C173">
+        <v>9</v>
+      </c>
+      <c r="D173">
+        <v>22</v>
+      </c>
+      <c r="E173" t="s">
+        <v>123</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C174" s="4">
-        <v>10</v>
-      </c>
-      <c r="D174" s="4">
-        <v>25</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" s="4" t="s">
+      <c r="B174" t="s">
+        <v>122</v>
+      </c>
+      <c r="C174">
+        <v>9</v>
+      </c>
+      <c r="D174">
         <v>23</v>
       </c>
-      <c r="H174" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>217</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C175" s="4">
-        <v>10</v>
-      </c>
-      <c r="D175" s="4">
-        <v>25</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" s="4" t="s">
+      <c r="B175" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175">
+        <v>9</v>
+      </c>
+      <c r="D175">
         <v>23</v>
       </c>
-      <c r="H175" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>124</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C176" s="4">
-        <v>10</v>
-      </c>
-      <c r="D176" s="4">
-        <v>26</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" s="4" t="s">
+      <c r="B176" t="s">
+        <v>122</v>
+      </c>
+      <c r="C176">
+        <v>9</v>
+      </c>
+      <c r="D176">
         <v>23</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-    </row>
-    <row r="177" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>292</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" t="s">
+        <v>324</v>
+      </c>
+      <c r="I176" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J176" t="s">
+        <v>303</v>
+      </c>
+      <c r="K176" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>126</v>
-      </c>
-      <c r="C177">
-        <v>10</v>
-      </c>
-      <c r="D177">
-        <v>26</v>
-      </c>
-      <c r="E177" t="s">
-        <v>284</v>
-      </c>
-      <c r="F177" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" t="s">
-        <v>11</v>
-      </c>
-      <c r="H177" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C177" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D177" s="4">
+        <v>24</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C178">
-        <v>10</v>
-      </c>
-      <c r="D178">
-        <v>26</v>
-      </c>
-      <c r="E178" t="s">
-        <v>128</v>
-      </c>
-      <c r="F178" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="4">
+        <v>10</v>
+      </c>
+      <c r="D178" s="4">
+        <v>25</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C179">
-        <v>10</v>
-      </c>
-      <c r="D179">
-        <v>26</v>
-      </c>
-      <c r="E179" t="s">
-        <v>129</v>
-      </c>
-      <c r="F179" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="4">
+        <v>10</v>
+      </c>
+      <c r="D179" s="4">
+        <v>25</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C180">
-        <v>10</v>
-      </c>
-      <c r="D180">
+      <c r="C180" s="4">
+        <v>10</v>
+      </c>
+      <c r="D180" s="4">
         <v>26</v>
       </c>
-      <c r="E180" t="s">
-        <v>215</v>
-      </c>
-      <c r="F180" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" t="s">
-        <v>11</v>
-      </c>
-      <c r="H180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+    </row>
+    <row r="181" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C181">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D181">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E181" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H181" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D182">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E182" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6800,21 +6832,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D183">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E183" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6826,111 +6858,111 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>207</v>
-      </c>
-      <c r="C184" t="s">
-        <v>207</v>
+        <v>126</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
       </c>
       <c r="D184">
-        <v>999</v>
+        <v>26</v>
       </c>
       <c r="E184" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>207</v>
-      </c>
-      <c r="C185" t="s">
-        <v>207</v>
+        <v>130</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>999</v>
+        <v>27</v>
       </c>
       <c r="E185" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H185" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>207</v>
-      </c>
-      <c r="C186" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
       </c>
       <c r="D186">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E186" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G186" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>207</v>
-      </c>
-      <c r="C187" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="C187">
+        <v>12</v>
       </c>
       <c r="D187">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E187" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6944,7 +6976,7 @@
         <v>999</v>
       </c>
       <c r="E188" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F188" t="s">
         <v>16</v>
@@ -6956,7 +6988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6970,7 +7002,7 @@
         <v>999</v>
       </c>
       <c r="E189" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F189" t="s">
         <v>16</v>
@@ -6982,7 +7014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6996,7 +7028,7 @@
         <v>999</v>
       </c>
       <c r="E190" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
@@ -7008,7 +7040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7022,19 +7054,19 @@
         <v>999</v>
       </c>
       <c r="E191" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F191" t="s">
         <v>16</v>
       </c>
       <c r="G191" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="H191" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7048,13 +7080,13 @@
         <v>999</v>
       </c>
       <c r="E192" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F192" t="s">
         <v>16</v>
       </c>
       <c r="G192" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H192" t="s">
         <v>18</v>
@@ -7074,13 +7106,13 @@
         <v>999</v>
       </c>
       <c r="E193" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F193" t="s">
         <v>16</v>
       </c>
       <c r="G193" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H193" t="s">
         <v>18</v>
@@ -7100,13 +7132,13 @@
         <v>999</v>
       </c>
       <c r="E194" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F194" t="s">
         <v>16</v>
       </c>
       <c r="G194" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H194" t="s">
         <v>18</v>
@@ -7126,13 +7158,13 @@
         <v>999</v>
       </c>
       <c r="E195" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F195" t="s">
         <v>16</v>
       </c>
       <c r="G195" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="H195" t="s">
         <v>18</v>
@@ -7152,13 +7184,13 @@
         <v>999</v>
       </c>
       <c r="E196" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F196" t="s">
         <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H196" t="s">
         <v>18</v>
@@ -7178,13 +7210,13 @@
         <v>999</v>
       </c>
       <c r="E197" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F197" t="s">
         <v>16</v>
       </c>
       <c r="G197" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H197" t="s">
         <v>18</v>
@@ -7204,13 +7236,13 @@
         <v>999</v>
       </c>
       <c r="E198" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F198" t="s">
         <v>16</v>
       </c>
       <c r="G198" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H198" t="s">
         <v>18</v>
@@ -7230,13 +7262,13 @@
         <v>999</v>
       </c>
       <c r="E199" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F199" t="s">
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="H199" t="s">
         <v>18</v>
@@ -7256,7 +7288,7 @@
         <v>999</v>
       </c>
       <c r="E200" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F200" t="s">
         <v>16</v>
@@ -7282,7 +7314,7 @@
         <v>999</v>
       </c>
       <c r="E201" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F201" t="s">
         <v>16</v>
@@ -7308,7 +7340,7 @@
         <v>999</v>
       </c>
       <c r="E202" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F202" t="s">
         <v>16</v>
@@ -7334,7 +7366,7 @@
         <v>999</v>
       </c>
       <c r="E203" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F203" t="s">
         <v>16</v>
@@ -7360,13 +7392,13 @@
         <v>999</v>
       </c>
       <c r="E204" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F204" t="s">
         <v>16</v>
       </c>
       <c r="G204" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H204" t="s">
         <v>18</v>
@@ -7386,13 +7418,13 @@
         <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F205" t="s">
         <v>16</v>
       </c>
       <c r="G205" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H205" t="s">
         <v>18</v>
@@ -7412,13 +7444,13 @@
         <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
       </c>
       <c r="G206" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H206" t="s">
         <v>18</v>
@@ -7438,13 +7470,13 @@
         <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F207" t="s">
         <v>16</v>
       </c>
       <c r="G207" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H207" t="s">
         <v>18</v>
@@ -7464,7 +7496,7 @@
         <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F208" t="s">
         <v>16</v>
@@ -7490,7 +7522,7 @@
         <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F209" t="s">
         <v>16</v>
@@ -7516,16 +7548,16 @@
         <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F210" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G210" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H210" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7542,16 +7574,16 @@
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H211" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7568,13 +7600,13 @@
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="F212" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G212" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H212" t="s">
         <v>18</v>
@@ -7594,16 +7626,16 @@
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H213" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7620,16 +7652,16 @@
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F214" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H214" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7646,13 +7678,13 @@
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F215" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H215" t="s">
         <v>26</v>
@@ -7672,16 +7704,16 @@
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H216" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7698,16 +7730,16 @@
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H217" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7724,16 +7756,16 @@
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H218" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7750,16 +7782,16 @@
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H219" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7776,13 +7808,13 @@
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H220" t="s">
         <v>26</v>
@@ -7802,7 +7834,7 @@
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
@@ -7811,7 +7843,7 @@
         <v>75</v>
       </c>
       <c r="H221" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="222" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7828,7 +7860,7 @@
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
@@ -7837,7 +7869,7 @@
         <v>75</v>
       </c>
       <c r="H222" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="223" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7854,16 +7886,16 @@
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H223" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="224" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7880,13 +7912,13 @@
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H224" t="s">
         <v>26</v>
@@ -7906,13 +7938,13 @@
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H225" t="s">
         <v>26</v>
@@ -7932,13 +7964,13 @@
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H226" t="s">
         <v>26</v>
@@ -7958,7 +7990,7 @@
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -7984,13 +8016,13 @@
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H228" t="s">
         <v>26</v>
@@ -8010,13 +8042,13 @@
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
       </c>
       <c r="G229" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H229" t="s">
         <v>26</v>
@@ -8036,13 +8068,13 @@
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H230" t="s">
         <v>26</v>
@@ -8062,13 +8094,13 @@
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F231" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G231" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="H231" t="s">
         <v>26</v>
@@ -8088,13 +8120,13 @@
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F232" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="H232" t="s">
         <v>26</v>
@@ -8114,13 +8146,13 @@
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F233" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H233" t="s">
         <v>26</v>
@@ -8140,13 +8172,13 @@
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F234" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H234" t="s">
         <v>26</v>
@@ -8166,13 +8198,16 @@
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="F235" t="s">
+        <v>56</v>
       </c>
       <c r="G235" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="H235" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8189,13 +8224,16 @@
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="F236" t="s">
+        <v>56</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="H236" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8212,10 +8250,13 @@
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>193</v>
+        <v>186</v>
+      </c>
+      <c r="F237" t="s">
+        <v>56</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H237" t="s">
         <v>26</v>
@@ -8235,10 +8276,13 @@
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="F238" t="s">
+        <v>56</v>
       </c>
       <c r="G238" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="H238" t="s">
         <v>26</v>
@@ -8258,10 +8302,13 @@
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="G239" t="s">
+        <v>42</v>
       </c>
       <c r="H239" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8278,10 +8325,13 @@
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="G240" t="s">
+        <v>42</v>
       </c>
       <c r="H240" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8298,7 +8348,10 @@
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="G241" t="s">
+        <v>42</v>
       </c>
       <c r="H241" t="s">
         <v>26</v>
@@ -8318,7 +8371,10 @@
         <v>999</v>
       </c>
       <c r="E242" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="G242" t="s">
+        <v>192</v>
       </c>
       <c r="H242" t="s">
         <v>26</v>
@@ -8338,10 +8394,10 @@
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H243" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8358,10 +8414,10 @@
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H244" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8378,10 +8434,10 @@
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H245" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="246" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8398,10 +8454,10 @@
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H246" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8418,7 +8474,7 @@
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H247" t="s">
         <v>18</v>
@@ -8438,7 +8494,7 @@
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H248" t="s">
         <v>18</v>
@@ -8458,7 +8514,7 @@
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H249" t="s">
         <v>18</v>
@@ -8478,19 +8534,10 @@
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="H250" t="s">
-        <v>304</v>
-      </c>
-      <c r="I250" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J250" t="s">
-        <v>303</v>
-      </c>
-      <c r="K250" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8507,16 +8554,10 @@
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="H251" t="s">
-        <v>304</v>
-      </c>
-      <c r="I251" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J251" t="s">
-        <v>306</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8533,25 +8574,10 @@
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>311</v>
-      </c>
-      <c r="F252" t="s">
-        <v>56</v>
-      </c>
-      <c r="G252" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H252" t="s">
-        <v>304</v>
-      </c>
-      <c r="I252" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J252" t="s">
-        <v>310</v>
-      </c>
-      <c r="K252" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8568,22 +8594,10 @@
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>312</v>
-      </c>
-      <c r="F253" t="s">
-        <v>20</v>
-      </c>
-      <c r="G253" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="H253" t="s">
-        <v>304</v>
-      </c>
-      <c r="I253" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J253" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8600,7 +8614,7 @@
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H254" t="s">
         <v>304</v>
@@ -8609,7 +8623,10 @@
         <v>44131</v>
       </c>
       <c r="J254" t="s">
-        <v>315</v>
+        <v>303</v>
+      </c>
+      <c r="K254" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="255" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8626,7 +8643,7 @@
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H255" t="s">
         <v>304</v>
@@ -8635,7 +8652,7 @@
         <v>44131</v>
       </c>
       <c r="J255" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="256" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8652,7 +8669,13 @@
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>318</v>
+        <v>311</v>
+      </c>
+      <c r="F256" t="s">
+        <v>56</v>
+      </c>
+      <c r="G256" t="s">
+        <v>184</v>
       </c>
       <c r="H256" t="s">
         <v>304</v>
@@ -8661,7 +8684,10 @@
         <v>44131</v>
       </c>
       <c r="J256" t="s">
-        <v>319</v>
+        <v>310</v>
+      </c>
+      <c r="K256" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="257" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8678,7 +8704,13 @@
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>320</v>
+        <v>312</v>
+      </c>
+      <c r="F257" t="s">
+        <v>20</v>
+      </c>
+      <c r="G257" t="s">
+        <v>21</v>
       </c>
       <c r="H257" t="s">
         <v>304</v>
@@ -8687,7 +8719,7 @@
         <v>44131</v>
       </c>
       <c r="J257" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8704,10 +8736,7 @@
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>322</v>
-      </c>
-      <c r="G258" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="H258" t="s">
         <v>304</v>
@@ -8716,7 +8745,7 @@
         <v>44131</v>
       </c>
       <c r="J258" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="259" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8733,7 +8762,7 @@
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H259" t="s">
         <v>304</v>
@@ -8742,10 +8771,7 @@
         <v>44131</v>
       </c>
       <c r="J259" t="s">
-        <v>328</v>
-      </c>
-      <c r="K259" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="260" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8762,7 +8788,7 @@
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H260" t="s">
         <v>304</v>
@@ -8771,10 +8797,7 @@
         <v>44131</v>
       </c>
       <c r="J260" t="s">
-        <v>331</v>
-      </c>
-      <c r="K260" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="261" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8791,7 +8814,7 @@
         <v>999</v>
       </c>
       <c r="E261" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="H261" t="s">
         <v>304</v>
@@ -8800,7 +8823,7 @@
         <v>44131</v>
       </c>
       <c r="J261" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="262" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8817,7 +8840,10 @@
         <v>999</v>
       </c>
       <c r="E262" t="s">
-        <v>335</v>
+        <v>322</v>
+      </c>
+      <c r="G262" t="s">
+        <v>42</v>
       </c>
       <c r="H262" t="s">
         <v>304</v>
@@ -8826,10 +8852,7 @@
         <v>44131</v>
       </c>
       <c r="J262" t="s">
-        <v>336</v>
-      </c>
-      <c r="K262" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="263" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8846,7 +8869,7 @@
         <v>999</v>
       </c>
       <c r="E263" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H263" t="s">
         <v>304</v>
@@ -8855,26 +8878,139 @@
         <v>44131</v>
       </c>
       <c r="J263" t="s">
+        <v>328</v>
+      </c>
+      <c r="K263" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>207</v>
+      </c>
+      <c r="C264" t="s">
+        <v>207</v>
+      </c>
+      <c r="D264">
+        <v>999</v>
+      </c>
+      <c r="E264" t="s">
+        <v>330</v>
+      </c>
+      <c r="H264" t="s">
+        <v>304</v>
+      </c>
+      <c r="I264" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J264" t="s">
+        <v>331</v>
+      </c>
+      <c r="K264" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>207</v>
+      </c>
+      <c r="C265" t="s">
+        <v>207</v>
+      </c>
+      <c r="D265">
+        <v>999</v>
+      </c>
+      <c r="E265" t="s">
+        <v>333</v>
+      </c>
+      <c r="H265" t="s">
+        <v>304</v>
+      </c>
+      <c r="I265" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J265" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>207</v>
+      </c>
+      <c r="C266" t="s">
+        <v>207</v>
+      </c>
+      <c r="D266">
+        <v>999</v>
+      </c>
+      <c r="E266" t="s">
+        <v>335</v>
+      </c>
+      <c r="H266" t="s">
+        <v>304</v>
+      </c>
+      <c r="I266" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J266" t="s">
+        <v>336</v>
+      </c>
+      <c r="K266" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>207</v>
+      </c>
+      <c r="C267" t="s">
+        <v>207</v>
+      </c>
+      <c r="D267">
+        <v>999</v>
+      </c>
+      <c r="E267" t="s">
+        <v>338</v>
+      </c>
+      <c r="H267" t="s">
+        <v>304</v>
+      </c>
+      <c r="I267" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J267" t="s">
         <v>339</v>
       </c>
-      <c r="K263" t="s">
+      <c r="K267" t="s">
         <v>340</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K263" xr:uid="{641E9AF6-E669-4D0B-90DF-115088AA94C1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K263">
-      <sortCondition ref="C1:C263"/>
+  <autoFilter ref="A1:K267" xr:uid="{641E9AF6-E669-4D0B-90DF-115088AA94C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K267">
+      <sortCondition ref="C1:C267"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H248">
-    <sortCondition ref="C2:C248"/>
-    <sortCondition ref="D2:D248"/>
-    <sortCondition ref="F2:F248"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H252">
+    <sortCondition ref="C2:C252"/>
+    <sortCondition ref="D2:D252"/>
+    <sortCondition ref="F2:F252"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H96" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
+    <hyperlink ref="H98" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
     <hyperlink ref="H20" r:id="rId2" xr:uid="{806BB034-CC22-4DF3-8713-E1075C67FD20}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BE604-A9FF-4566-BD1D-755A51AB2A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30426493-CA44-46E8-8BF9-FA19E0FF9AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="357">
   <si>
     <t>id</t>
   </si>
@@ -1088,6 +1088,12 @@
   </si>
   <si>
     <t>Haydee Oberreuter</t>
+  </si>
+  <si>
+    <t>https://twitter.com/barbaritalaram/status/1321898244096565248</t>
+  </si>
+  <si>
+    <t>Bárbara Lara</t>
   </si>
 </sst>
 </file>
@@ -1586,12 +1592,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1948,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K267"/>
+  <dimension ref="A1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A267"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5851,7 +5858,7 @@
         <v>5.5</v>
       </c>
       <c r="D146">
-        <v>8.6666666666666607</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
         <v>325</v>
@@ -8995,6 +9002,38 @@
       </c>
       <c r="K267" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>207</v>
+      </c>
+      <c r="C268" t="s">
+        <v>207</v>
+      </c>
+      <c r="D268">
+        <v>999</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H268" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I268" s="5">
+        <v>44133</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30426493-CA44-46E8-8BF9-FA19E0FF9AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DF25CD-A282-4EB7-BDF4-6AC1B3731822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$K$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$K$268</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="358">
   <si>
     <t>id</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Laura Albornoz</t>
   </si>
   <si>
-    <t>Jorge Canales</t>
-  </si>
-  <si>
     <t>Lucía López</t>
   </si>
   <si>
@@ -1094,6 +1091,12 @@
   </si>
   <si>
     <t>Bárbara Lara</t>
+  </si>
+  <si>
+    <t>Fuerza Común</t>
+  </si>
+  <si>
+    <t>Jorge Canals</t>
   </si>
 </sst>
 </file>
@@ -1957,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E269" sqref="E269"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1994,13 +1997,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2043,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -2121,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
@@ -2176,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2205,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -2231,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -2283,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2338,7 +2341,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -2393,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -2419,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -2485,62 +2488,62 @@
     </row>
     <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>999</v>
-      </c>
-      <c r="E20" t="s">
-        <v>296</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="D20" s="4">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -2552,16 +2555,16 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -2581,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -2595,7 +2598,7 @@
     </row>
     <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -2607,7 +2610,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -2647,7 +2650,7 @@
     </row>
     <row r="26" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -2659,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2673,7 +2676,7 @@
     </row>
     <row r="27" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -2685,13 +2688,13 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -2699,7 +2702,7 @@
     </row>
     <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -2708,24 +2711,24 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>344</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -2737,21 +2740,21 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -2763,13 +2766,13 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -2777,62 +2780,62 @@
     </row>
     <row r="31" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32">
         <v>7</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="E32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -2844,13 +2847,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2861,39 +2864,36 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>353</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="B34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G34" t="s">
-        <v>247</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
+      <c r="G34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="4">
         <v>5.5</v>
@@ -2902,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>20</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" s="4">
         <v>5.5</v>
@@ -2931,7 +2931,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>20</v>
@@ -2945,39 +2945,36 @@
     </row>
     <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D37" s="4">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37">
+        <v>5.5</v>
+      </c>
+      <c r="D37">
         <v>8</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38">
         <v>5.5</v>
@@ -2986,24 +2983,24 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39">
         <v>5.5</v>
@@ -3012,24 +3009,24 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C40">
         <v>5.5</v>
@@ -3038,7 +3035,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -3047,15 +3044,15 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41">
         <v>5.5</v>
@@ -3078,10 +3075,10 @@
     </row>
     <row r="42" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42">
         <v>5.5</v>
@@ -3090,7 +3087,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -3104,10 +3101,10 @@
     </row>
     <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C43">
         <v>5.5</v>
@@ -3116,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -3130,10 +3127,10 @@
     </row>
     <row r="44" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C44">
         <v>5.5</v>
@@ -3142,24 +3139,30 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
+      </c>
+      <c r="I44" s="2">
+        <v>44133</v>
+      </c>
+      <c r="J44" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C45">
         <v>5.5</v>
@@ -3168,31 +3171,27 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="2">
-        <v>44133</v>
-      </c>
-      <c r="J45" t="s">
-        <v>349</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
       <c r="K45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C46">
         <v>5.5</v>
@@ -3201,16 +3200,16 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -3218,28 +3217,28 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C47">
         <v>5.5</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -3247,36 +3246,39 @@
     </row>
     <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48">
-        <v>5.5</v>
-      </c>
-      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D48" s="4">
         <v>9</v>
       </c>
-      <c r="E48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" t="s">
-        <v>18</v>
-      </c>
+      <c r="E48" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" s="4">
         <v>5.5</v>
@@ -3285,7 +3287,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>20</v>
@@ -3302,39 +3304,36 @@
     </row>
     <row r="50" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D50" s="4">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50">
+        <v>5.5</v>
+      </c>
+      <c r="D50">
         <v>9</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="E50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51">
         <v>5.5</v>
@@ -3357,10 +3356,10 @@
     </row>
     <row r="52" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -3369,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -3383,10 +3382,10 @@
     </row>
     <row r="53" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C53">
         <v>5.5</v>
@@ -3409,10 +3408,10 @@
     </row>
     <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -3421,7 +3420,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -3435,10 +3434,10 @@
     </row>
     <row r="55" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -3447,24 +3446,24 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -3473,7 +3472,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="F56" t="s">
         <v>56</v>
@@ -3482,41 +3481,41 @@
         <v>57</v>
       </c>
       <c r="H56" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C57">
         <v>5.5</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C58">
         <v>5.5</v>
@@ -3525,7 +3524,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -3539,10 +3538,10 @@
     </row>
     <row r="59" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C59">
         <v>5.5</v>
@@ -3551,24 +3550,24 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60">
         <v>5.5</v>
@@ -3577,53 +3576,50 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>206</v>
-      </c>
-      <c r="C61">
-        <v>5.5</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D61" s="4">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
+      <c r="G61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C62" s="4">
         <v>5.5</v>
@@ -3632,7 +3628,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>20</v>
@@ -3641,15 +3637,15 @@
         <v>23</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C63" s="4">
         <v>5.5</v>
@@ -3658,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>20</v>
@@ -3672,39 +3668,36 @@
     </row>
     <row r="64" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D64" s="4">
-        <v>10</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64">
+        <v>5.5</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>245</v>
+      </c>
+      <c r="F64" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="G64" t="s">
+        <v>246</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C65">
         <v>5.5</v>
@@ -3713,13 +3706,13 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -3727,10 +3720,10 @@
     </row>
     <row r="66" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -3739,7 +3732,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -3753,10 +3746,10 @@
     </row>
     <row r="67" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C67">
         <v>5.5</v>
@@ -3765,24 +3758,30 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>341</v>
+      </c>
+      <c r="K67" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68">
         <v>5.5</v>
@@ -3791,7 +3790,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3802,19 +3801,13 @@
       <c r="H68" t="s">
         <v>12</v>
       </c>
-      <c r="J68" t="s">
-        <v>342</v>
-      </c>
-      <c r="K68" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="69" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69">
         <v>5.5</v>
@@ -3823,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -3832,15 +3825,15 @@
         <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70">
         <v>5.5</v>
@@ -3849,7 +3842,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3858,15 +3851,15 @@
         <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71">
         <v>5.5</v>
@@ -3881,18 +3874,27 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>303</v>
+      </c>
+      <c r="I71" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J71" t="s">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C72">
         <v>5.5</v>
@@ -3901,33 +3903,24 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>304</v>
-      </c>
-      <c r="I72" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J72" t="s">
-        <v>76</v>
-      </c>
-      <c r="K72" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C73">
         <v>5.5</v>
@@ -3936,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -3950,10 +3943,10 @@
     </row>
     <row r="74" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C74">
         <v>5.5</v>
@@ -3962,7 +3955,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -3976,10 +3969,10 @@
     </row>
     <row r="75" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C75">
         <v>5.5</v>
@@ -3988,7 +3981,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -4002,10 +3995,10 @@
     </row>
     <row r="76" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C76">
         <v>5.5</v>
@@ -4014,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -4028,10 +4021,10 @@
     </row>
     <row r="77" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C77">
         <v>5.5</v>
@@ -4054,10 +4047,10 @@
     </row>
     <row r="78" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78">
         <v>5.5</v>
@@ -4080,10 +4073,10 @@
     </row>
     <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C79">
         <v>5.5</v>
@@ -4092,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -4106,10 +4099,10 @@
     </row>
     <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C80">
         <v>5.5</v>
@@ -4118,7 +4111,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -4130,12 +4123,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81">
         <v>5.5</v>
@@ -4156,12 +4149,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C82">
         <v>5.5</v>
@@ -4170,60 +4163,60 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83">
+        <v>5.5</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84">
+        <v>5.5</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
         <v>264</v>
       </c>
-      <c r="F82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83">
-        <v>5.5</v>
-      </c>
-      <c r="D83">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84">
-        <v>5.5</v>
-      </c>
-      <c r="D84">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
-        <v>240</v>
-      </c>
       <c r="F84" t="s">
         <v>10</v>
       </c>
@@ -4234,12 +4227,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C85">
         <v>5.5</v>
@@ -4260,12 +4253,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4274,252 +4267,255 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87">
+        <v>5.5</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88">
+        <v>5.5</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89">
+        <v>5.5</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
         <v>266</v>
       </c>
-      <c r="F86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90">
+        <v>5.5</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91">
+        <v>5.5</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92">
+        <v>5.5</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" t="s">
+        <v>246</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93">
+        <v>5.5</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
         <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87">
-        <v>5.5</v>
-      </c>
-      <c r="D87">
-        <v>10</v>
-      </c>
-      <c r="E87" t="s">
-        <v>239</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88">
-        <v>5.5</v>
-      </c>
-      <c r="D88">
-        <v>10</v>
-      </c>
-      <c r="E88" t="s">
-        <v>210</v>
-      </c>
-      <c r="F88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89">
-        <v>5.5</v>
-      </c>
-      <c r="D89">
-        <v>10</v>
-      </c>
-      <c r="E89" t="s">
-        <v>83</v>
-      </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90">
-        <v>5.5</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
-      </c>
-      <c r="E90" t="s">
-        <v>267</v>
-      </c>
-      <c r="F90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91">
-        <v>5.5</v>
-      </c>
-      <c r="D91">
-        <v>10</v>
-      </c>
-      <c r="E91" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92">
-        <v>5.5</v>
-      </c>
-      <c r="D92">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s">
-        <v>84</v>
-      </c>
-      <c r="H92" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C93">
-        <v>5.5</v>
-      </c>
-      <c r="D93">
-        <v>10</v>
-      </c>
-      <c r="E93" t="s">
-        <v>248</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>144</v>
+      </c>
+      <c r="B94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94">
+        <v>5.5</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>246</v>
+      </c>
+      <c r="H94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95">
+        <v>5.5</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>324</v>
+      </c>
+      <c r="H95" t="s">
+        <v>303</v>
+      </c>
+      <c r="I95" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J95" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>206</v>
-      </c>
-      <c r="C94">
-        <v>5.5</v>
-      </c>
-      <c r="D94">
-        <v>11</v>
-      </c>
-      <c r="E94" t="s">
-        <v>297</v>
-      </c>
-      <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>54</v>
-      </c>
-      <c r="H94" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95">
-        <v>5.5</v>
-      </c>
-      <c r="D95">
-        <v>11</v>
-      </c>
-      <c r="E95" t="s">
-        <v>298</v>
-      </c>
-      <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>54</v>
-      </c>
-      <c r="H95" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C96">
         <v>5.5</v>
@@ -4528,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -4537,15 +4533,15 @@
         <v>54</v>
       </c>
       <c r="H96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C97">
         <v>5.5</v>
@@ -4554,24 +4550,24 @@
         <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>85</v>
+        <v>297</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C98">
         <v>5.5</v>
@@ -4580,24 +4576,24 @@
         <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
+      </c>
+      <c r="H98" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C99">
         <v>5.5</v>
@@ -4606,82 +4602,79 @@
         <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D100" s="4">
-        <v>11</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100">
+        <v>5.5</v>
+      </c>
+      <c r="D100">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>293</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="101" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101">
-        <v>5.5</v>
-      </c>
-      <c r="D101">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" t="s">
-        <v>303</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D101" s="4">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C102">
         <v>5.5</v>
@@ -4690,7 +4683,7 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -4699,15 +4692,18 @@
         <v>36</v>
       </c>
       <c r="H102" t="s">
-        <v>90</v>
+        <v>12</v>
+      </c>
+      <c r="J102" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C103">
         <v>5.5</v>
@@ -4716,24 +4712,24 @@
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C104">
         <v>5.5</v>
@@ -4742,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -4756,10 +4752,10 @@
     </row>
     <row r="105" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -4768,7 +4764,7 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -4782,10 +4778,10 @@
     </row>
     <row r="106" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -4794,7 +4790,7 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -4808,10 +4804,10 @@
     </row>
     <row r="107" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -4820,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -4834,10 +4830,10 @@
     </row>
     <row r="108" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -4846,7 +4842,7 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -4860,10 +4856,10 @@
     </row>
     <row r="109" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -4872,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4886,10 +4882,10 @@
     </row>
     <row r="110" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -4898,7 +4894,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4912,10 +4908,10 @@
     </row>
     <row r="111" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C111">
         <v>5.5</v>
@@ -4924,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4938,10 +4934,10 @@
     </row>
     <row r="112" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C112">
         <v>5.5</v>
@@ -4950,7 +4946,13 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>93</v>
+        <v>288</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
@@ -4958,10 +4960,10 @@
     </row>
     <row r="113" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C113">
         <v>5.5</v>
@@ -4970,33 +4972,18 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>94</v>
-      </c>
-      <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
-      </c>
-      <c r="I113" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J113" t="s">
-        <v>341</v>
-      </c>
-      <c r="K113" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -5005,23 +4992,33 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>95</v>
-      </c>
-      <c r="F114"/>
-      <c r="G114"/>
+        <v>93</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>59</v>
+      </c>
       <c r="H114" t="s">
-        <v>96</v>
-      </c>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
+        <v>12</v>
+      </c>
+      <c r="I114" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J114" t="s">
+        <v>340</v>
+      </c>
+      <c r="K114" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="115" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C115">
         <v>5.5</v>
@@ -5030,18 +5027,18 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H115" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C116">
         <v>5.5</v>
@@ -5050,27 +5047,18 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>350</v>
-      </c>
-      <c r="F116" t="s">
-        <v>345</v>
-      </c>
-      <c r="G116" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="H116" t="s">
-        <v>351</v>
-      </c>
-      <c r="I116" s="2">
-        <v>44132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C117">
         <v>5.5</v>
@@ -5079,80 +5067,83 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="G117" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="I117" s="2">
+        <v>44132</v>
+      </c>
     </row>
     <row r="118" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C118" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D118" s="4">
-        <v>12</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F118" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118">
+        <v>5.5</v>
+      </c>
+      <c r="D118">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>353</v>
+      </c>
+      <c r="F118" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
+      <c r="G118" t="s">
+        <v>246</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119">
-        <v>5.5</v>
-      </c>
-      <c r="D119">
-        <v>12</v>
-      </c>
-      <c r="E119" t="s">
-        <v>223</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" t="s">
-        <v>12</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D119" s="4">
+        <v>12</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C120">
         <v>5.5</v>
@@ -5161,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -5175,10 +5166,10 @@
     </row>
     <row r="121" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C121">
         <v>5.5</v>
@@ -5187,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -5201,10 +5192,10 @@
     </row>
     <row r="122" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C122">
         <v>5.5</v>
@@ -5213,7 +5204,7 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -5227,10 +5218,10 @@
     </row>
     <row r="123" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C123">
         <v>5.5</v>
@@ -5239,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -5253,10 +5244,10 @@
     </row>
     <row r="124" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C124">
         <v>5.5</v>
@@ -5265,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5279,10 +5270,10 @@
     </row>
     <row r="125" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C125">
         <v>5.5</v>
@@ -5291,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5305,10 +5296,10 @@
     </row>
     <row r="126" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C126">
         <v>5.5</v>
@@ -5317,7 +5308,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5331,10 +5322,10 @@
     </row>
     <row r="127" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127">
         <v>5.5</v>
@@ -5343,7 +5334,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5357,10 +5348,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C128">
         <v>5.5</v>
@@ -5369,7 +5360,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5386,10 +5377,10 @@
     </row>
     <row r="129" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C129">
         <v>5.5</v>
@@ -5398,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5412,65 +5403,65 @@
     </row>
     <row r="130" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C130" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D130" s="4">
-        <v>13</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130">
+        <v>5.5</v>
+      </c>
+      <c r="D130">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>220</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="131" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>206</v>
-      </c>
-      <c r="C131">
-        <v>5.5</v>
-      </c>
-      <c r="D131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D131" s="4">
         <v>13</v>
       </c>
-      <c r="E131" t="s">
-        <v>226</v>
-      </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
-      </c>
+      <c r="E131" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
     </row>
     <row r="132" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C132">
         <v>5.5</v>
@@ -5479,7 +5470,7 @@
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5493,10 +5484,10 @@
     </row>
     <row r="133" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C133">
         <v>5.5</v>
@@ -5505,7 +5496,7 @@
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5519,10 +5510,10 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C134">
         <v>5.5</v>
@@ -5531,7 +5522,7 @@
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5548,65 +5539,62 @@
     </row>
     <row r="135" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C135">
         <v>5.5</v>
       </c>
       <c r="D135">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C136" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D136" s="4">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>205</v>
+      </c>
+      <c r="C136">
+        <v>5.5</v>
+      </c>
+      <c r="D136">
         <v>14</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
+      <c r="E136" t="s">
+        <v>103</v>
+      </c>
+      <c r="F136" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="137" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C137" s="4">
         <v>5.5</v>
@@ -5615,7 +5603,7 @@
         <v>14</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>20</v>
@@ -5632,36 +5620,39 @@
     </row>
     <row r="138" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>206</v>
-      </c>
-      <c r="C138">
-        <v>5.5</v>
-      </c>
-      <c r="D138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D138" s="4">
         <v>14</v>
       </c>
-      <c r="E138" t="s">
-        <v>106</v>
-      </c>
-      <c r="F138" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
-        <v>26</v>
-      </c>
+      <c r="E138" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
     </row>
     <row r="139" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C139">
         <v>5.5</v>
@@ -5670,7 +5661,7 @@
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -5679,15 +5670,15 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C140">
         <v>5.5</v>
@@ -5696,7 +5687,7 @@
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -5710,10 +5701,10 @@
     </row>
     <row r="141" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C141">
         <v>5.5</v>
@@ -5722,7 +5713,7 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -5736,10 +5727,10 @@
     </row>
     <row r="142" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C142">
         <v>5.5</v>
@@ -5748,7 +5739,7 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -5762,10 +5753,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C143">
         <v>5.5</v>
@@ -5774,7 +5765,7 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -5791,10 +5782,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C144">
         <v>5.5</v>
@@ -5803,7 +5794,7 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -5820,28 +5811,28 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C145">
         <v>5.5</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G145" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I145"/>
       <c r="J145"/>
@@ -5849,39 +5840,36 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>206</v>
-      </c>
-      <c r="C146">
-        <v>5.5</v>
-      </c>
-      <c r="D146">
-        <v>10</v>
-      </c>
-      <c r="E146" t="s">
-        <v>325</v>
-      </c>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146" t="s">
-        <v>304</v>
-      </c>
-      <c r="I146" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J146" t="s">
-        <v>326</v>
-      </c>
-      <c r="K146"/>
+        <v>146</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="4">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4">
+        <v>15</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C147" s="4">
         <v>6</v>
@@ -5890,7 +5878,7 @@
         <v>15</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>20</v>
@@ -5904,19 +5892,19 @@
     </row>
     <row r="148" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C148" s="4">
         <v>6</v>
       </c>
       <c r="D148" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>20</v>
@@ -5933,39 +5921,36 @@
     </row>
     <row r="149" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C149" s="4">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149">
         <v>6</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149">
         <v>16</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
+      <c r="E149" t="s">
+        <v>112</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="150" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C150">
         <v>6</v>
@@ -5974,7 +5959,7 @@
         <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -5988,10 +5973,10 @@
     </row>
     <row r="151" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C151">
         <v>6</v>
@@ -6000,79 +5985,79 @@
         <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>276</v>
-      </c>
-      <c r="F151" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>111</v>
-      </c>
-      <c r="C152">
-        <v>6</v>
-      </c>
-      <c r="D152">
-        <v>16</v>
-      </c>
-      <c r="E152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H152" t="s">
-        <v>18</v>
-      </c>
+      <c r="C152" s="4">
+        <v>7</v>
+      </c>
+      <c r="D152" s="4">
+        <v>17</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
     </row>
     <row r="153" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
+      <c r="D153">
+        <v>17</v>
+      </c>
+      <c r="E153" t="s">
         <v>115</v>
       </c>
-      <c r="C153" s="4">
-        <v>7</v>
-      </c>
-      <c r="D153" s="4">
-        <v>17</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="154" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C154">
         <v>7</v>
       </c>
       <c r="D154">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E154" t="s">
         <v>116</v>
@@ -6089,10 +6074,10 @@
     </row>
     <row r="155" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C155">
         <v>7</v>
@@ -6101,7 +6086,7 @@
         <v>18</v>
       </c>
       <c r="E155" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -6115,19 +6100,19 @@
     </row>
     <row r="156" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C156">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D156">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -6141,10 +6126,10 @@
     </row>
     <row r="157" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C157">
         <v>7.5</v>
@@ -6153,7 +6138,7 @@
         <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -6167,10 +6152,10 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C158">
         <v>7.5</v>
@@ -6179,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -6196,10 +6181,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C159">
         <v>7.5</v>
@@ -6208,7 +6193,7 @@
         <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
@@ -6225,68 +6210,62 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>118</v>
-      </c>
-      <c r="C160">
-        <v>7.5</v>
-      </c>
-      <c r="D160">
-        <v>19</v>
-      </c>
-      <c r="E160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C160" s="4">
+        <v>8</v>
+      </c>
+      <c r="D160" s="4">
+        <v>20</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F160" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" t="s">
-        <v>12</v>
-      </c>
-      <c r="I160"/>
-      <c r="J160"/>
-      <c r="K160"/>
+      <c r="F160" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="161" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C161" s="4">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161">
         <v>8</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161">
         <v>20</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" t="s">
         <v>278</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="162" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C162">
         <v>8</v>
@@ -6309,10 +6288,10 @@
     </row>
     <row r="163" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C163">
         <v>8</v>
@@ -6321,7 +6300,7 @@
         <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -6335,10 +6314,10 @@
     </row>
     <row r="164" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C164">
         <v>8</v>
@@ -6347,7 +6326,7 @@
         <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -6361,10 +6340,10 @@
     </row>
     <row r="165" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C165">
         <v>8</v>
@@ -6387,10 +6366,10 @@
     </row>
     <row r="166" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C166">
         <v>8</v>
@@ -6399,7 +6378,7 @@
         <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6413,10 +6392,10 @@
     </row>
     <row r="167" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C167">
         <v>8</v>
@@ -6425,7 +6404,7 @@
         <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6439,10 +6418,10 @@
     </row>
     <row r="168" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C168">
         <v>8</v>
@@ -6451,7 +6430,7 @@
         <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6465,10 +6444,10 @@
     </row>
     <row r="169" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C169">
         <v>8</v>
@@ -6477,7 +6456,7 @@
         <v>20</v>
       </c>
       <c r="E169" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6491,19 +6470,19 @@
     </row>
     <row r="170" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C170">
         <v>8</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -6512,15 +6491,15 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C171">
         <v>8</v>
@@ -6529,7 +6508,7 @@
         <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -6538,24 +6517,24 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E172" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -6569,19 +6548,19 @@
     </row>
     <row r="173" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C173">
         <v>9</v>
       </c>
       <c r="D173">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -6595,10 +6574,10 @@
     </row>
     <row r="174" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C174">
         <v>9</v>
@@ -6607,7 +6586,7 @@
         <v>23</v>
       </c>
       <c r="E174" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -6621,10 +6600,10 @@
     </row>
     <row r="175" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C175">
         <v>9</v>
@@ -6633,7 +6612,7 @@
         <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -6642,59 +6621,59 @@
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>12</v>
+        <v>323</v>
+      </c>
+      <c r="I175" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J175" t="s">
+        <v>302</v>
+      </c>
+      <c r="K175" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>122</v>
-      </c>
-      <c r="C176">
-        <v>9</v>
-      </c>
-      <c r="D176">
+        <v>176</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C176" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D176" s="4">
+        <v>24</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G176" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E176" t="s">
-        <v>292</v>
-      </c>
-      <c r="F176" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" t="s">
-        <v>11</v>
-      </c>
-      <c r="H176" t="s">
-        <v>324</v>
-      </c>
-      <c r="I176" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J176" t="s">
-        <v>303</v>
-      </c>
-      <c r="K176" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H176" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C177" s="4">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D177" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>20</v>
@@ -6706,12 +6685,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C178" s="4">
         <v>10</v>
@@ -6720,7 +6699,7 @@
         <v>25</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>20</v>
@@ -6732,21 +6711,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C179" s="4">
         <v>10</v>
       </c>
       <c r="D179" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>20</v>
@@ -6758,41 +6737,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C180" s="4">
-        <v>10</v>
-      </c>
-      <c r="D180" s="4">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>125</v>
+      </c>
+      <c r="C180">
+        <v>10</v>
+      </c>
+      <c r="D180">
         <v>26</v>
       </c>
-      <c r="E180" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-    </row>
-    <row r="181" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>283</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C181">
         <v>10</v>
@@ -6801,7 +6777,7 @@
         <v>26</v>
       </c>
       <c r="E181" t="s">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6813,12 +6789,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C182">
         <v>10</v>
@@ -6839,12 +6815,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C183">
         <v>10</v>
@@ -6853,56 +6829,56 @@
         <v>26</v>
       </c>
       <c r="E183" t="s">
+        <v>214</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
         <v>129</v>
       </c>
-      <c r="F183" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" t="s">
-        <v>11</v>
-      </c>
-      <c r="H183" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>126</v>
-      </c>
       <c r="C184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E184" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H184" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D185">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E185" t="s">
         <v>131</v>
@@ -6911,18 +6887,18 @@
         <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H185" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C186">
         <v>12</v>
@@ -6943,47 +6919,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C187">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D187">
-        <v>28</v>
+        <v>999</v>
       </c>
       <c r="E187" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D188">
         <v>999</v>
       </c>
       <c r="E188" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F188" t="s">
         <v>16</v>
@@ -6995,21 +6971,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C189" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D189">
         <v>999</v>
       </c>
       <c r="E189" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F189" t="s">
         <v>16</v>
@@ -7021,21 +6997,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D190">
         <v>999</v>
       </c>
       <c r="E190" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
@@ -7047,21 +7023,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C191" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D191">
         <v>999</v>
       </c>
       <c r="E191" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F191" t="s">
         <v>16</v>
@@ -7073,21 +7049,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C192" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D192">
         <v>999</v>
       </c>
       <c r="E192" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F192" t="s">
         <v>16</v>
@@ -7104,16 +7080,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C193" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D193">
         <v>999</v>
       </c>
       <c r="E193" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F193" t="s">
         <v>16</v>
@@ -7130,16 +7106,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D194">
         <v>999</v>
       </c>
       <c r="E194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F194" t="s">
         <v>16</v>
@@ -7156,22 +7132,22 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C195" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D195">
         <v>999</v>
       </c>
       <c r="E195" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F195" t="s">
         <v>16</v>
       </c>
       <c r="G195" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H195" t="s">
         <v>18</v>
@@ -7182,22 +7158,22 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C196" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D196">
         <v>999</v>
       </c>
       <c r="E196" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F196" t="s">
         <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H196" t="s">
         <v>18</v>
@@ -7208,22 +7184,22 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C197" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D197">
         <v>999</v>
       </c>
       <c r="E197" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F197" t="s">
         <v>16</v>
       </c>
       <c r="G197" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H197" t="s">
         <v>18</v>
@@ -7234,22 +7210,22 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D198">
         <v>999</v>
       </c>
       <c r="E198" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F198" t="s">
         <v>16</v>
       </c>
       <c r="G198" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H198" t="s">
         <v>18</v>
@@ -7260,22 +7236,22 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D199">
         <v>999</v>
       </c>
       <c r="E199" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F199" t="s">
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H199" t="s">
         <v>18</v>
@@ -7286,16 +7262,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D200">
         <v>999</v>
       </c>
       <c r="E200" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F200" t="s">
         <v>16</v>
@@ -7312,16 +7288,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D201">
         <v>999</v>
       </c>
       <c r="E201" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F201" t="s">
         <v>16</v>
@@ -7338,16 +7314,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D202">
         <v>999</v>
       </c>
       <c r="E202" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F202" t="s">
         <v>16</v>
@@ -7364,16 +7340,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D203">
         <v>999</v>
       </c>
       <c r="E203" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F203" t="s">
         <v>16</v>
@@ -7390,16 +7366,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D204">
         <v>999</v>
       </c>
       <c r="E204" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F204" t="s">
         <v>16</v>
@@ -7416,16 +7392,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D205">
         <v>999</v>
       </c>
       <c r="E205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F205" t="s">
         <v>16</v>
@@ -7442,16 +7418,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D206">
         <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
@@ -7468,16 +7444,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D207">
         <v>999</v>
       </c>
       <c r="E207" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F207" t="s">
         <v>16</v>
@@ -7494,16 +7470,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D208">
         <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F208" t="s">
         <v>16</v>
@@ -7520,16 +7496,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D209">
         <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F209" t="s">
         <v>16</v>
@@ -7546,16 +7522,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D210">
         <v>999</v>
       </c>
       <c r="E210" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F210" t="s">
         <v>16</v>
@@ -7572,16 +7548,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D211">
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F211" t="s">
         <v>16</v>
@@ -7598,16 +7574,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C212" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D212">
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F212" t="s">
         <v>16</v>
@@ -7624,16 +7600,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D213">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F213" t="s">
         <v>16</v>
@@ -7650,16 +7626,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D214">
         <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F214" t="s">
         <v>20</v>
@@ -7676,16 +7652,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C215" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D215">
         <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F215" t="s">
         <v>20</v>
@@ -7702,16 +7678,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C216" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D216">
         <v>999</v>
       </c>
       <c r="E216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
@@ -7728,16 +7704,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D217">
         <v>999</v>
       </c>
       <c r="E217" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -7754,16 +7730,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D218">
         <v>999</v>
       </c>
       <c r="E218" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -7780,16 +7756,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D219">
         <v>999</v>
       </c>
       <c r="E219" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
@@ -7806,16 +7782,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C220" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D220">
         <v>999</v>
       </c>
       <c r="E220" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
@@ -7832,22 +7808,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C221" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D221">
         <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H221" t="s">
         <v>50</v>
@@ -7858,22 +7834,22 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D222">
         <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H222" t="s">
         <v>50</v>
@@ -7884,22 +7860,22 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D223">
         <v>999</v>
       </c>
       <c r="E223" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H223" t="s">
         <v>50</v>
@@ -7910,22 +7886,22 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D224">
         <v>999</v>
       </c>
       <c r="E224" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H224" t="s">
         <v>26</v>
@@ -7936,22 +7912,22 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D225">
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H225" t="s">
         <v>26</v>
@@ -7962,22 +7938,22 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C226" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D226">
         <v>999</v>
       </c>
       <c r="E226" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H226" t="s">
         <v>26</v>
@@ -7988,16 +7964,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C227" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D227">
         <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -8014,16 +7990,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C228" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D228">
         <v>999</v>
       </c>
       <c r="E228" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
@@ -8040,16 +8016,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C229" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D229">
         <v>999</v>
       </c>
       <c r="E229" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
@@ -8066,16 +8042,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C230" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D230">
         <v>999</v>
       </c>
       <c r="E230" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
@@ -8092,16 +8068,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C231" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D231">
         <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F231" t="s">
         <v>10</v>
@@ -8118,16 +8094,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C232" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D232">
         <v>999</v>
       </c>
       <c r="E232" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F232" t="s">
         <v>10</v>
@@ -8144,16 +8120,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C233" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D233">
         <v>999</v>
       </c>
       <c r="E233" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -8170,16 +8146,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D234">
         <v>999</v>
       </c>
       <c r="E234" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -8196,22 +8172,22 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C235" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D235">
         <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F235" t="s">
         <v>56</v>
       </c>
       <c r="G235" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H235" t="s">
         <v>26</v>
@@ -8222,22 +8198,22 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C236" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D236">
         <v>999</v>
       </c>
       <c r="E236" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F236" t="s">
         <v>56</v>
       </c>
       <c r="G236" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H236" t="s">
         <v>26</v>
@@ -8248,16 +8224,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C237" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D237">
         <v>999</v>
       </c>
       <c r="E237" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F237" t="s">
         <v>56</v>
@@ -8274,16 +8250,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C238" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D238">
         <v>999</v>
       </c>
       <c r="E238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F238" t="s">
         <v>56</v>
@@ -8300,22 +8276,22 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C239" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D239">
         <v>999</v>
       </c>
       <c r="E239" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G239" t="s">
         <v>42</v>
       </c>
       <c r="H239" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8323,22 +8299,22 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C240" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D240">
         <v>999</v>
       </c>
       <c r="E240" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G240" t="s">
         <v>42</v>
       </c>
       <c r="H240" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="241" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8346,16 +8322,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C241" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D241">
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G241" t="s">
         <v>42</v>
@@ -8369,19 +8345,19 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C242" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D242">
         <v>999</v>
       </c>
       <c r="E242" t="s">
+        <v>190</v>
+      </c>
+      <c r="G242" t="s">
         <v>191</v>
-      </c>
-      <c r="G242" t="s">
-        <v>192</v>
       </c>
       <c r="H242" t="s">
         <v>26</v>
@@ -8392,16 +8368,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C243" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D243">
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H243" t="s">
         <v>26</v>
@@ -8412,16 +8388,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C244" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D244">
         <v>999</v>
       </c>
       <c r="E244" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H244" t="s">
         <v>26</v>
@@ -8432,16 +8408,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C245" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D245">
         <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H245" t="s">
         <v>26</v>
@@ -8452,16 +8428,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C246" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D246">
         <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H246" t="s">
         <v>26</v>
@@ -8472,16 +8448,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C247" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D247">
         <v>999</v>
       </c>
       <c r="E247" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H247" t="s">
         <v>18</v>
@@ -8492,16 +8468,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C248" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D248">
         <v>999</v>
       </c>
       <c r="E248" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H248" t="s">
         <v>18</v>
@@ -8512,16 +8488,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C249" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D249">
         <v>999</v>
       </c>
       <c r="E249" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H249" t="s">
         <v>18</v>
@@ -8532,16 +8508,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C250" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D250">
         <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H250" t="s">
         <v>18</v>
@@ -8552,16 +8528,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C251" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D251">
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H251" t="s">
         <v>18</v>
@@ -8572,16 +8548,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C252" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D252">
         <v>999</v>
       </c>
       <c r="E252" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H252" t="s">
         <v>18</v>
@@ -8592,16 +8568,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C253" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D253">
         <v>999</v>
       </c>
       <c r="E253" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H253" t="s">
         <v>18</v>
@@ -8612,28 +8588,28 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C254" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D254">
         <v>999</v>
       </c>
       <c r="E254" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H254" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I254" s="2">
         <v>44131</v>
       </c>
       <c r="J254" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K254" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="255" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8641,25 +8617,25 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C255" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D255">
         <v>999</v>
       </c>
       <c r="E255" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H255" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I255" s="2">
         <v>44131</v>
       </c>
       <c r="J255" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="256" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8667,34 +8643,34 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C256" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D256">
         <v>999</v>
       </c>
       <c r="E256" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F256" t="s">
         <v>56</v>
       </c>
       <c r="G256" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H256" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I256" s="2">
         <v>44131</v>
       </c>
       <c r="J256" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K256" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="257" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8702,16 +8678,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C257" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D257">
         <v>999</v>
       </c>
       <c r="E257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F257" t="s">
         <v>20</v>
@@ -8720,13 +8696,13 @@
         <v>21</v>
       </c>
       <c r="H257" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I257" s="2">
         <v>44131</v>
       </c>
       <c r="J257" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="258" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8734,25 +8710,25 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C258" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D258">
         <v>999</v>
       </c>
       <c r="E258" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H258" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I258" s="2">
         <v>44131</v>
       </c>
       <c r="J258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8760,25 +8736,25 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C259" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D259">
         <v>999</v>
       </c>
       <c r="E259" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H259" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I259" s="2">
         <v>44131</v>
       </c>
       <c r="J259" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8786,25 +8762,25 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C260" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D260">
         <v>999</v>
       </c>
       <c r="E260" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H260" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I260" s="2">
         <v>44131</v>
       </c>
       <c r="J260" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="261" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8812,25 +8788,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C261" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D261">
         <v>999</v>
       </c>
       <c r="E261" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H261" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I261" s="2">
         <v>44131</v>
       </c>
       <c r="J261" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="262" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8838,28 +8814,28 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C262" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D262">
         <v>999</v>
       </c>
       <c r="E262" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G262" t="s">
         <v>42</v>
       </c>
       <c r="H262" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I262" s="2">
         <v>44131</v>
       </c>
       <c r="J262" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8867,28 +8843,28 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C263" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D263">
         <v>999</v>
       </c>
       <c r="E263" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H263" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I263" s="2">
         <v>44131</v>
       </c>
       <c r="J263" t="s">
+        <v>327</v>
+      </c>
+      <c r="K263" t="s">
         <v>328</v>
-      </c>
-      <c r="K263" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="264" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8896,28 +8872,28 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C264" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D264">
         <v>999</v>
       </c>
       <c r="E264" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H264" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I264" s="2">
         <v>44131</v>
       </c>
       <c r="J264" t="s">
+        <v>330</v>
+      </c>
+      <c r="K264" t="s">
         <v>331</v>
-      </c>
-      <c r="K264" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="265" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8925,25 +8901,25 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C265" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D265">
         <v>999</v>
       </c>
       <c r="E265" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H265" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I265" s="2">
         <v>44131</v>
       </c>
       <c r="J265" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="266" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8951,28 +8927,28 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C266" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D266">
         <v>999</v>
       </c>
       <c r="E266" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H266" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I266" s="2">
         <v>44131</v>
       </c>
       <c r="J266" t="s">
+        <v>335</v>
+      </c>
+      <c r="K266" t="s">
         <v>336</v>
-      </c>
-      <c r="K266" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="267" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8980,28 +8956,28 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C267" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D267">
         <v>999</v>
       </c>
       <c r="E267" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H267" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I267" s="2">
         <v>44131</v>
       </c>
       <c r="J267" t="s">
+        <v>338</v>
+      </c>
+      <c r="K267" t="s">
         <v>339</v>
-      </c>
-      <c r="K267" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -9009,37 +8985,37 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C268" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D268">
         <v>999</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G268" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I268" s="5">
         <v>44133</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K267" xr:uid="{641E9AF6-E669-4D0B-90DF-115088AA94C1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K267">
-      <sortCondition ref="C1:C267"/>
+  <autoFilter ref="A1:K268" xr:uid="{641E9AF6-E669-4D0B-90DF-115088AA94C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K268">
+      <sortCondition ref="D1:D268"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H252">
@@ -9049,8 +9025,8 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H98" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
-    <hyperlink ref="H20" r:id="rId2" xr:uid="{806BB034-CC22-4DF3-8713-E1075C67FD20}"/>
+    <hyperlink ref="H100" r:id="rId1" xr:uid="{D85305B4-BE32-4ED2-9E4A-BDB76EE6FBB7}"/>
+    <hyperlink ref="H187" r:id="rId2" xr:uid="{806BB034-CC22-4DF3-8713-E1075C67FD20}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/constituyentes 2021/candidatos_constituyentes2021.xlsx
+++ b/constituyentes 2021/candidatos_constituyentes2021.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DF25CD-A282-4EB7-BDF4-6AC1B3731822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C812C75A-2ED6-41A4-AD98-D012EED8CDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
+    <sheet name="candidatos_constituyentes2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$K$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">candidatos_constituyentes2021!$A$1:$K$270</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="360">
   <si>
     <t>id</t>
   </si>
@@ -1097,6 +1097,12 @@
   </si>
   <si>
     <t>Jorge Canals</t>
+  </si>
+  <si>
+    <t>Pablo Arellano</t>
+  </si>
+  <si>
+    <t>Juan Pablo Sanhueza</t>
   </si>
 </sst>
 </file>
@@ -1958,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K268"/>
+  <dimension ref="A1:K270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>34</v>
@@ -2517,7 +2523,7 @@
     </row>
     <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -2543,7 +2549,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -2598,7 +2604,7 @@
     </row>
     <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -2624,7 +2630,7 @@
     </row>
     <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -2650,7 +2656,7 @@
     </row>
     <row r="26" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="27" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -2728,7 +2734,7 @@
     </row>
     <row r="29" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -2754,7 +2760,7 @@
     </row>
     <row r="30" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -2780,7 +2786,7 @@
     </row>
     <row r="31" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>34</v>
@@ -2809,7 +2815,7 @@
     </row>
     <row r="32" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -2835,7 +2841,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -2864,7 +2870,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>205</v>
@@ -2890,7 +2896,7 @@
     </row>
     <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>205</v>
@@ -2919,7 +2925,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>205</v>
@@ -2945,7 +2951,7 @@
     </row>
     <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>205</v>
@@ -2971,7 +2977,7 @@
     </row>
     <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>205</v>
@@ -2997,7 +3003,7 @@
     </row>
     <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>205</v>
@@ -3023,7 +3029,7 @@
     </row>
     <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>205</v>
@@ -3049,7 +3055,7 @@
     </row>
     <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>205</v>
@@ -3075,7 +3081,7 @@
     </row>
     <row r="42" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>205</v>
@@ -3101,7 +3107,7 @@
     </row>
     <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>205</v>
@@ -3127,7 +3133,7 @@
     </row>
     <row r="44" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>205</v>
@@ -3159,7 +3165,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>205</v>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>205</v>
@@ -3217,7 +3223,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>205</v>
@@ -3246,7 +3252,7 @@
     </row>
     <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>205</v>
@@ -3275,7 +3281,7 @@
     </row>
     <row r="49" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>205</v>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="50" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>205</v>
@@ -3330,7 +3336,7 @@
     </row>
     <row r="51" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>205</v>
@@ -3356,7 +3362,7 @@
     </row>
     <row r="52" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>205</v>
@@ -3382,7 +3388,7 @@
     </row>
     <row r="53" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>205</v>
@@ -3408,7 +3414,7 @@
     </row>
     <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>205</v>
@@ -3434,7 +3440,7 @@
     </row>
     <row r="55" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>205</v>
@@ -3460,7 +3466,7 @@
     </row>
     <row r="56" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>205</v>
@@ -3486,45 +3492,42 @@
     </row>
     <row r="57" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="C57">
         <v>5.5</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="H57" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58">
+        <v>5.5</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
         <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58">
-        <v>5.5</v>
-      </c>
-      <c r="D58">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>61</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -3538,33 +3541,33 @@
     </row>
     <row r="59" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59">
+        <v>5.5</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59">
-        <v>5.5</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
-      </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>205</v>
@@ -3576,47 +3579,47 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61">
+        <v>5.5</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
         <v>40</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D61" s="4">
-        <v>10</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>205</v>
@@ -3628,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>20</v>
@@ -3637,12 +3640,12 @@
         <v>23</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>205</v>
@@ -3654,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>20</v>
@@ -3666,35 +3669,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64">
-        <v>5.5</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>245</v>
-      </c>
-      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D64" s="4">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G64" t="s">
-        <v>246</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>205</v>
@@ -3706,13 +3709,13 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -3720,7 +3723,7 @@
     </row>
     <row r="66" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>205</v>
@@ -3732,7 +3735,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="67" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>205</v>
@@ -3758,27 +3761,21 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
-      </c>
-      <c r="J67" t="s">
-        <v>341</v>
-      </c>
-      <c r="K67" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>205</v>
@@ -3790,7 +3787,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3801,10 +3798,16 @@
       <c r="H68" t="s">
         <v>12</v>
       </c>
+      <c r="J68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K68" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="69" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>205</v>
@@ -3816,7 +3819,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -3825,12 +3828,12 @@
         <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>205</v>
@@ -3842,7 +3845,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3851,12 +3854,12 @@
         <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>205</v>
@@ -3868,30 +3871,21 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>303</v>
-      </c>
-      <c r="I71" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J71" t="s">
-        <v>75</v>
-      </c>
-      <c r="K71" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>205</v>
@@ -3903,21 +3897,30 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>303</v>
+      </c>
+      <c r="I72" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J72" t="s">
+        <v>75</v>
+      </c>
+      <c r="K72" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>205</v>
@@ -3929,7 +3932,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="74" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>205</v>
@@ -3955,7 +3958,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="75" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>205</v>
@@ -3981,7 +3984,7 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -3995,7 +3998,7 @@
     </row>
     <row r="76" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>205</v>
@@ -4007,7 +4010,7 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -4021,19 +4024,19 @@
     </row>
     <row r="77" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77">
+        <v>5.5</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
         <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77">
-        <v>5.5</v>
-      </c>
-      <c r="D77">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
-        <v>78</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -4047,19 +4050,19 @@
     </row>
     <row r="78" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78">
+        <v>5.5</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
         <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78">
-        <v>5.5</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
-        <v>79</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -4073,19 +4076,19 @@
     </row>
     <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79">
+        <v>5.5</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
         <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C79">
-        <v>5.5</v>
-      </c>
-      <c r="D79">
-        <v>10</v>
-      </c>
-      <c r="E79" t="s">
-        <v>284</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -4099,7 +4102,7 @@
     </row>
     <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>205</v>
@@ -4111,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -4125,7 +4128,7 @@
     </row>
     <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>205</v>
@@ -4137,7 +4140,7 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -4151,7 +4154,7 @@
     </row>
     <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>205</v>
@@ -4163,7 +4166,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -4177,7 +4180,7 @@
     </row>
     <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>205</v>
@@ -4189,7 +4192,7 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -4203,7 +4206,7 @@
     </row>
     <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>205</v>
@@ -4215,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>205</v>
@@ -4241,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -4255,7 +4258,7 @@
     </row>
     <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>205</v>
@@ -4267,7 +4270,7 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -4281,7 +4284,7 @@
     </row>
     <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>205</v>
@@ -4293,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -4307,7 +4310,7 @@
     </row>
     <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>205</v>
@@ -4319,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -4333,7 +4336,7 @@
     </row>
     <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>205</v>
@@ -4345,7 +4348,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -4359,7 +4362,7 @@
     </row>
     <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>205</v>
@@ -4371,7 +4374,7 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -4385,7 +4388,7 @@
     </row>
     <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>205</v>
@@ -4397,15 +4400,21 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>83</v>
+        <v>237</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>205</v>
@@ -4417,21 +4426,15 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>247</v>
-      </c>
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>205</v>
@@ -4443,24 +4446,21 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="H93" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>205</v>
@@ -4472,21 +4472,24 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="H94" t="s">
         <v>26</v>
       </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>205</v>
@@ -4498,21 +4501,21 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>324</v>
+        <v>163</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>303</v>
-      </c>
-      <c r="I95" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J95" t="s">
-        <v>325</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>205</v>
@@ -4521,50 +4524,48 @@
         <v>5.5</v>
       </c>
       <c r="D96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>296</v>
-      </c>
-      <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="H96" t="s">
-        <v>294</v>
+        <v>303</v>
+      </c>
+      <c r="I96" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J96" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>94</v>
-      </c>
-      <c r="B97" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="C97">
         <v>5.5</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>294</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>205</v>
@@ -4576,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -4590,7 +4591,7 @@
     </row>
     <row r="99" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>205</v>
@@ -4602,21 +4603,21 @@
         <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
+        <v>297</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>205</v>
@@ -4628,50 +4629,47 @@
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
-      </c>
-      <c r="H100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H100" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D101" s="4">
-        <v>11</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101">
+        <v>5.5</v>
+      </c>
+      <c r="D101">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>59</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>205</v>
@@ -4683,50 +4681,50 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
-      </c>
-      <c r="H102" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" t="s">
-        <v>302</v>
+        <v>42</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>205</v>
-      </c>
-      <c r="C103">
-        <v>5.5</v>
-      </c>
-      <c r="D103">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
-        <v>88</v>
-      </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" t="s">
-        <v>36</v>
-      </c>
-      <c r="H103" t="s">
-        <v>89</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D103" s="4">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>205</v>
@@ -4738,21 +4736,24 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
+      </c>
+      <c r="J104" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>205</v>
@@ -4764,21 +4765,21 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>205</v>
@@ -4790,7 +4791,7 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -4804,7 +4805,7 @@
     </row>
     <row r="107" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>205</v>
@@ -4816,7 +4817,7 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -4830,7 +4831,7 @@
     </row>
     <row r="108" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>205</v>
@@ -4842,7 +4843,7 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -4856,7 +4857,7 @@
     </row>
     <row r="109" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>205</v>
@@ -4868,7 +4869,7 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4882,7 +4883,7 @@
     </row>
     <row r="110" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>205</v>
@@ -4894,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4908,7 +4909,7 @@
     </row>
     <row r="111" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>205</v>
@@ -4920,7 +4921,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4934,7 +4935,7 @@
     </row>
     <row r="112" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>205</v>
@@ -4946,7 +4947,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4960,7 +4961,7 @@
     </row>
     <row r="113" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>205</v>
@@ -4972,15 +4973,21 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>205</v>
@@ -4992,30 +4999,21 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
-      </c>
-      <c r="I114" s="2">
-        <v>44131</v>
-      </c>
-      <c r="J114" t="s">
-        <v>340</v>
-      </c>
-      <c r="K114" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>205</v>
@@ -5027,15 +5025,15 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>205</v>
@@ -5047,15 +5045,30 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>59</v>
       </c>
       <c r="H116" t="s">
-        <v>97</v>
+        <v>12</v>
+      </c>
+      <c r="I116" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J116" t="s">
+        <v>340</v>
+      </c>
+      <c r="K116" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>205</v>
@@ -5067,24 +5080,15 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>349</v>
-      </c>
-      <c r="F117" t="s">
-        <v>344</v>
-      </c>
-      <c r="G117" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="H117" t="s">
-        <v>350</v>
-      </c>
-      <c r="I117" s="2">
-        <v>44132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>205</v>
@@ -5096,51 +5100,44 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>353</v>
-      </c>
-      <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="2"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="119" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>117</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C119" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D119" s="4">
-        <v>12</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119">
+        <v>5.5</v>
+      </c>
+      <c r="D119">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>349</v>
+      </c>
+      <c r="F119" t="s">
+        <v>344</v>
+      </c>
+      <c r="G119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" t="s">
+        <v>350</v>
+      </c>
+      <c r="I119" s="2">
+        <v>44132</v>
+      </c>
     </row>
     <row r="120" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>205</v>
@@ -5149,24 +5146,25 @@
         <v>5.5</v>
       </c>
       <c r="D120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="H120" t="s">
         <v>12</v>
       </c>
+      <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>205</v>
@@ -5175,50 +5173,56 @@
         <v>5.5</v>
       </c>
       <c r="D121">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
-      </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>303</v>
+      </c>
+      <c r="I121" s="2">
+        <v>44131</v>
+      </c>
+      <c r="J121" t="s">
+        <v>327</v>
+      </c>
+      <c r="K121" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>205</v>
-      </c>
-      <c r="C122">
-        <v>5.5</v>
-      </c>
-      <c r="D122">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>270</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" t="s">
-        <v>12</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C122" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D122" s="4">
+        <v>12</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>205</v>
@@ -5230,7 +5234,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -5244,7 +5248,7 @@
     </row>
     <row r="124" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>205</v>
@@ -5256,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5270,7 +5274,7 @@
     </row>
     <row r="125" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>205</v>
@@ -5282,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5296,7 +5300,7 @@
     </row>
     <row r="126" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>205</v>
@@ -5308,7 +5312,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5322,7 +5326,7 @@
     </row>
     <row r="127" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>205</v>
@@ -5334,7 +5338,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5346,9 +5350,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>205</v>
@@ -5360,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5371,13 +5375,10 @@
       <c r="H128" t="s">
         <v>12</v>
       </c>
-      <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128"/>
     </row>
     <row r="129" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>205</v>
@@ -5389,7 +5390,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5401,9 +5402,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>205</v>
@@ -5415,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5426,39 +5427,39 @@
       <c r="H130" t="s">
         <v>12</v>
       </c>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
     </row>
     <row r="131" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D131" s="4">
-        <v>13</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131">
+        <v>5.5</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>218</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="132" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>205</v>
@@ -5467,10 +5468,10 @@
         <v>5.5</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5484,7 +5485,7 @@
     </row>
     <row r="133" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>205</v>
@@ -5493,53 +5494,53 @@
         <v>5.5</v>
       </c>
       <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>220</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D134" s="4">
         <v>13</v>
       </c>
-      <c r="E133" t="s">
-        <v>272</v>
-      </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>205</v>
-      </c>
-      <c r="C134">
-        <v>5.5</v>
-      </c>
-      <c r="D134">
-        <v>13</v>
-      </c>
-      <c r="E134" t="s">
-        <v>101</v>
-      </c>
-      <c r="F134" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134"/>
-      <c r="J134"/>
-      <c r="K134"/>
+      <c r="E134" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
     </row>
     <row r="135" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>205</v>
@@ -5551,7 +5552,7 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5563,9 +5564,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>205</v>
@@ -5574,82 +5575,79 @@
         <v>5.5</v>
       </c>
       <c r="D136">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>89</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
     </row>
     <row r="137" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>135</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C137" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D137" s="4">
-        <v>14</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137">
+        <v>5.5</v>
+      </c>
+      <c r="D137">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>101</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="138" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C138" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D138" s="4">
-        <v>14</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138">
+        <v>5.5</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>102</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="139" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>205</v>
@@ -5661,73 +5659,79 @@
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F139" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G139" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H139" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>205</v>
-      </c>
-      <c r="C140">
-        <v>5.5</v>
-      </c>
-      <c r="D140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C140" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D140" s="4">
         <v>14</v>
       </c>
-      <c r="E140" t="s">
-        <v>289</v>
-      </c>
-      <c r="F140" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" t="s">
-        <v>12</v>
-      </c>
+      <c r="E140" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
     </row>
     <row r="141" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>205</v>
-      </c>
-      <c r="C141">
-        <v>5.5</v>
-      </c>
-      <c r="D141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D141" s="4">
         <v>14</v>
       </c>
-      <c r="E141" t="s">
-        <v>274</v>
-      </c>
-      <c r="F141" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" t="s">
-        <v>12</v>
-      </c>
+      <c r="E141" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
     </row>
     <row r="142" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>205</v>
@@ -5739,7 +5743,7 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -5748,12 +5752,12 @@
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>205</v>
@@ -5765,7 +5769,7 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -5776,13 +5780,10 @@
       <c r="H143" t="s">
         <v>12</v>
       </c>
-      <c r="I143"/>
-      <c r="J143"/>
-      <c r="K143"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>205</v>
@@ -5794,7 +5795,7 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -5805,13 +5806,10 @@
       <c r="H144" t="s">
         <v>12</v>
       </c>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>205</v>
@@ -5823,7 +5821,7 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -5840,201 +5838,216 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>146</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C146" s="4">
-        <v>6</v>
-      </c>
-      <c r="D146" s="4">
-        <v>15</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>205</v>
+      </c>
+      <c r="C146">
+        <v>5.5</v>
+      </c>
+      <c r="D146">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>107</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147">
+        <v>5.5</v>
+      </c>
+      <c r="D147">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>108</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148">
+        <v>5.5</v>
+      </c>
+      <c r="D148">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>109</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r=